--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\PICもぐら叩きゲーム\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80B6A79-2E81-4D47-8838-D7BB8221F8F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183BB0F4-A26E-47AA-B212-01B4865C3E5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5450" yWindow="1320" windowWidth="19200" windowHeight="8800" activeTab="3" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="0" yWindow="1400" windowWidth="19200" windowHeight="8800" activeTab="2" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="97">
   <si>
     <t>LCD画面遷移</t>
     <rPh sb="3" eb="5">
@@ -94,16 +94,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ゲーム開始と終了</t>
-    <rPh sb="3" eb="5">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ゲーム開始</t>
     <rPh sb="3" eb="5">
       <t>カイシ</t>
@@ -261,16 +251,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>計測終了</t>
-    <rPh sb="0" eb="2">
-      <t>ケイソク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>一定時間経過か任意のSW押下でタイトル画面へ</t>
   </si>
   <si>
@@ -775,6 +755,38 @@
     </rPh>
     <rPh sb="9" eb="12">
       <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム開始のカウントダウン</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カウントダウン0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>残り時間0</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カウントダウン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム終了</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -871,7 +883,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1047,13 +1059,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,6 +1173,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1226,13 +1252,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>202293</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1279,13 +1305,13 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1332,13 +1358,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1385,13 +1411,13 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>210206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>165099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1440,13 +1466,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1493,13 +1519,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1544,68 +1570,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線矢印コネクタ 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98565E5-CDB1-4673-B051-D54B74CBE0FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="1873250" y="2120900"/>
-          <a:ext cx="2108200" cy="2279650"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1623,6 +1596,114 @@
         <a:xfrm flipH="1">
           <a:off x="2514600" y="5448300"/>
           <a:ext cx="1466850" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="コネクタ: カギ線 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8C2665-F049-489E-AD6B-CB6F52274F35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="417286" y="2086429"/>
+          <a:ext cx="3546928" cy="2503714"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99872"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C42D323-7020-4892-A0C6-CA8B4C1237ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="1941286"/>
+          <a:ext cx="0" cy="898071"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3603,7 +3684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A1384-AF86-4BA2-B6E2-C742B67793C6}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
@@ -3614,27 +3695,27 @@
   <sheetData>
     <row r="1" spans="1:17" ht="26.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -3704,275 +3785,275 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D59" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="16"/>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C67" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D68" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -4138,21 +4219,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62B5CF3-2000-4976-8647-80E79170E8EC}">
   <dimension ref="A1:BE33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="12"/>
@@ -4184,7 +4265,7 @@
       <c r="AO3" s="12"/>
       <c r="AP3" s="11"/>
     </row>
-    <row r="4" spans="1:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -4203,35 +4284,48 @@
       <c r="I4" s="1"/>
       <c r="N4" s="11"/>
       <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="AG4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>0</v>
+      </c>
       <c r="AO4" s="12"/>
       <c r="AP4" s="11"/>
     </row>
-    <row r="5" spans="1:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -4250,13 +4344,47 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>3</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="U7" s="32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -4276,55 +4404,16 @@
       <c r="M8" t="s">
         <v>9</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
-      <c r="Z8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>6</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -4343,76 +4432,27 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" t="s">
-        <v>12</v>
-      </c>
       <c r="U9" s="1"/>
-      <c r="V9" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="V9" s="1"/>
       <c r="W9" s="1"/>
-      <c r="X9" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
-      <c r="AB9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="12" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="V12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="N15" s="15"/>
-      <c r="U15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="1">
-        <v>0</v>
-      </c>
-      <c r="X15" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>9</v>
+      <c r="V15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>14</v>
       </c>
       <c r="AN15" s="1" t="s">
         <v>1</v>
@@ -4424,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="1"/>
       <c r="AS15" s="2" t="s">
@@ -4436,52 +4476,36 @@
       <c r="AU15" s="1">
         <v>0</v>
       </c>
-      <c r="AX15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AY15" s="1">
+      <c r="V16" s="1">
         <v>0</v>
       </c>
-      <c r="AZ15" s="1">
+      <c r="W16" s="1">
         <v>0</v>
       </c>
-      <c r="BA15" s="1">
+      <c r="X16" s="1">
         <v>0</v>
       </c>
-      <c r="BB15" s="1"/>
-      <c r="BC15" s="2" t="s">
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BD15" s="1">
-        <v>5</v>
-      </c>
-      <c r="BE15" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1" t="s">
-        <v>10</v>
+      <c r="AA16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
       </c>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1" t="s">
@@ -4495,24 +4519,26 @@
       <c r="AU16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AX16" s="1"/>
-      <c r="AY16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1" t="s">
+    </row>
+    <row r="17" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="U17" s="1"/>
+      <c r="V17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="BB16" s="1"/>
-      <c r="BC16" s="1" t="s">
+      <c r="W17" s="1"/>
+      <c r="X17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="BD16" s="1"/>
-      <c r="BE16" s="1" t="s">
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="2:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -4522,11 +4548,14 @@
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
-      <c r="V19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AO19" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -4536,8 +4565,11 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="2:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -4548,7 +4580,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="2:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -4558,28 +4590,6 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="U22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="1">
-        <v>0</v>
-      </c>
-      <c r="X22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="1">
-        <v>0</v>
-      </c>
       <c r="AN22" s="1" t="s">
         <v>1</v>
       </c>
@@ -4602,8 +4612,30 @@
       <c r="AU22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AX22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD22" s="1">
+        <v>5</v>
+      </c>
+      <c r="BE22" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -4613,25 +4645,12 @@
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1" t="s">
-        <v>10</v>
+      <c r="V23" t="s">
+        <v>95</v>
       </c>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP23" s="1"/>
       <c r="AQ23" s="1" t="s">
@@ -4645,8 +4664,24 @@
       <c r="AU23" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="2:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -4656,8 +4691,30 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="11"/>
-    </row>
-    <row r="25" spans="2:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="U24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -4667,84 +4724,24 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
       <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="2:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="U26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="W26" s="1">
-        <v>3</v>
-      </c>
-      <c r="X26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <v>3</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0</v>
-      </c>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1" t="s">
+      <c r="U25" s="1"/>
+      <c r="V25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1" t="s">
+      <c r="W25" s="1"/>
+      <c r="X25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1" t="s">
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1" t="s">
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -4764,17 +4761,11 @@
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="11"/>
-    </row>
-    <row r="29" spans="2:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="V28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -4794,17 +4785,30 @@
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="11"/>
-    </row>
-    <row r="30" spans="2:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AN29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>6</v>
+      </c>
+      <c r="AU29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -4824,17 +4828,24 @@
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-    </row>
-    <row r="31" spans="2:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -4854,17 +4865,12 @@
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
+      <c r="V31" t="s">
+        <v>96</v>
+      </c>
       <c r="AC31" s="11"/>
     </row>
-    <row r="32" spans="2:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -4884,14 +4890,28 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="12"/>
+      <c r="U32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>0</v>
+      </c>
       <c r="AC32" s="11"/>
     </row>
     <row r="33" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4914,14 +4934,22 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="12"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="AC33" s="11"/>
     </row>
   </sheetData>
@@ -4936,8 +4964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5442AB4-9300-4013-915B-92FAAE81FE8A}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -4945,27 +4973,27 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -4976,14 +5004,14 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H29" s="3"/>
       <c r="J29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -5004,16 +5032,16 @@
     </row>
     <row r="33" spans="5:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183BB0F4-A26E-47AA-B212-01B4865C3E5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA6057A-9BCF-4021-AF41-5A3E8C8335C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1400" windowWidth="19200" windowHeight="8800" activeTab="2" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="13800" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="99">
   <si>
     <t>LCD画面遷移</t>
     <rPh sb="3" eb="5">
@@ -513,10 +513,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プッシュスイッチ 4つ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>操作用スイッチ：</t>
     <rPh sb="0" eb="2">
       <t>ソウサ</t>
@@ -788,6 +784,21 @@
     <rPh sb="3" eb="5">
       <t>シュウリョウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームスタート・ストップ用スイッチ：</t>
+    <rPh sb="12" eb="13">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プッシュスイッチ（SW1～4） 4つ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プッシュスイッチ（SW5） 1つ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2760,8 +2771,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1252025" y="1252025"/>
-          <a:ext cx="2503546" cy="3130907"/>
+          <a:off x="1224811" y="1224811"/>
+          <a:ext cx="2449118" cy="3062871"/>
           <a:chOff x="419652" y="1258957"/>
           <a:chExt cx="2517913" cy="3148823"/>
         </a:xfrm>
@@ -3682,43 +3693,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A1384-AF86-4BA2-B6E2-C742B67793C6}">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="28" width="3.58203125" customWidth="1"/>
+    <col min="1" max="28" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A1" s="31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B7" s="30"/>
       <c r="C7" s="29"/>
       <c r="D7" s="28"/>
@@ -3736,7 +3747,7 @@
       <c r="P7" s="28"/>
       <c r="Q7" s="27"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B8" s="26"/>
       <c r="C8" s="25"/>
       <c r="D8" s="14"/>
@@ -3754,7 +3765,7 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="24"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B9" s="23"/>
       <c r="C9" s="22"/>
       <c r="E9" s="22"/>
@@ -3765,7 +3776,7 @@
       <c r="O9" s="22"/>
       <c r="Q9" s="21"/>
     </row>
-    <row r="10" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="20"/>
       <c r="C10" s="19"/>
       <c r="D10" s="18"/>
@@ -3783,276 +3794,286 @@
       <c r="P10" s="18"/>
       <c r="Q10" s="17"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B38" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B43" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B46" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B49" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C47" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="16" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="16" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B53" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C51" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C52" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="16" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B56" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C54" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C55" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C58" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D56" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="16" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B60" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C58" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C61" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D59" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D62" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="16" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="16"/>
-      <c r="B62" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="16"/>
+      <c r="B65" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C63" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C66" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B67" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C65" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C68" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D66" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D69" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C67" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C70" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D68" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D71" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="16" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4071,9 +4092,9 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -4090,7 +4111,7 @@
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
     </row>
-    <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -4107,7 +4128,7 @@
       <c r="Q3" s="8"/>
       <c r="R3" s="9"/>
     </row>
-    <row r="4" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -4124,7 +4145,7 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="8"/>
     </row>
-    <row r="5" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -4141,7 +4162,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="9"/>
     </row>
-    <row r="6" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -4158,7 +4179,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -4175,7 +4196,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -4192,7 +4213,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -4219,19 +4240,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62B5CF3-2000-4976-8647-80E79170E8EC}">
   <dimension ref="A1:BE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V32" sqref="V32"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -4265,7 +4286,7 @@
       <c r="AO3" s="12"/>
       <c r="AP3" s="11"/>
     </row>
-    <row r="4" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -4325,7 +4346,7 @@
       <c r="AO4" s="12"/>
       <c r="AP4" s="11"/>
     </row>
-    <row r="5" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -4379,12 +4400,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U7" s="32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
@@ -4413,7 +4434,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -4441,12 +4462,12 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="12" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="V12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N15" s="15"/>
       <c r="V15" t="s">
         <v>11</v>
@@ -4477,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
         <v>30</v>
       </c>
@@ -4520,7 +4541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U17" s="1"/>
       <c r="V17" s="1" t="s">
         <v>10</v>
@@ -4538,7 +4559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -4555,7 +4576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -4569,7 +4590,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -4580,7 +4601,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -4635,7 +4656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -4646,7 +4667,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="V23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1" t="s">
@@ -4681,7 +4702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -4714,7 +4735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -4741,7 +4762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -4762,10 +4783,10 @@
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
       <c r="V28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -4808,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -4845,7 +4866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -4866,11 +4887,11 @@
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
       <c r="V31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC31" s="11"/>
     </row>
-    <row r="32" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -4914,7 +4935,7 @@
       </c>
       <c r="AC32" s="11"/>
     </row>
-    <row r="33" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -4969,37 +4990,37 @@
       <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -5014,7 +5035,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -5022,7 +5043,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -5030,7 +5051,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="33" spans="5:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="5:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E33" t="s">
         <v>20</v>
       </c>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA6057A-9BCF-4021-AF41-5A3E8C8335C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F502B5CF-43CF-4038-A78B-36256F13B33A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="13800" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="-13455" yWindow="4290" windowWidth="28800" windowHeight="13800" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一定時間経過、もしくは、いずれかのスイッチが押されると、タイトル画面へ戻る。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・制限時間が経過すると、画面が点滅し、</t>
     <rPh sb="1" eb="3">
       <t>セイゲン</t>
@@ -447,22 +443,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・いずれかのスイッチを押すと、3秒のカウントダウンを表示させ、ゲームが開始される。</t>
-    <rPh sb="11" eb="12">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・電源投入時、ゲームタイトルと今までプレイした中で出たハイスコアを表示する。</t>
     <rPh sb="1" eb="3">
       <t>デンゲン</t>
@@ -799,6 +779,26 @@
   </si>
   <si>
     <t>プッシュスイッチ（SW5） 1つ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・スタート・ストップスイッチを押すと、3秒のカウントダウンを表示させ、ゲームが開始される。</t>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一定時間経過、もしくは、スタート・ストップのスイッチが押されると、タイトル画面へ戻る。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3693,10 +3693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A1384-AF86-4BA2-B6E2-C742B67793C6}">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q68" sqref="Q68"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3706,27 +3706,27 @@
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A1" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -3796,284 +3796,284 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B38" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B42" s="16" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B43" s="16" t="s">
-        <v>53</v>
+      <c r="C43" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C44" t="s">
-        <v>97</v>
+      <c r="B44" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C45" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B46" s="16" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C47" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B49" s="16" t="s">
-        <v>52</v>
+      <c r="A49" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C50" t="s">
-        <v>51</v>
+      <c r="B50" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C51" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" s="16" t="s">
-        <v>50</v>
+      <c r="C52" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B53" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C55" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B56" s="16" t="s">
-        <v>46</v>
+      <c r="D56" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C57" t="s">
-        <v>45</v>
+      <c r="B57" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C58" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D59" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B60" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C61" t="s">
-        <v>41</v>
+      <c r="A61" s="16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D62" t="s">
-        <v>40</v>
+      <c r="A62" s="16"/>
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C63" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" s="16" t="s">
-        <v>39</v>
+      <c r="B64" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" s="16"/>
-      <c r="B65" t="s">
-        <v>38</v>
+      <c r="C65" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C66" t="s">
-        <v>37</v>
+      <c r="D66" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B67" t="s">
-        <v>36</v>
+      <c r="C67" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C68" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D69" t="s">
-        <v>34</v>
+      <c r="D68" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C70" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D71" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A73" s="16" t="s">
+      <c r="A70" s="16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="7" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U7" s="32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4464,7 +4464,7 @@
     </row>
     <row r="12" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="V12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4667,7 +4667,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="V23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1" t="s">
@@ -4783,7 +4783,7 @@
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
       <c r="V28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4887,7 +4887,7 @@
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
       <c r="V31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AC31" s="11"/>
     </row>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F502B5CF-43CF-4038-A78B-36256F13B33A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC74D47D-8EBB-492B-8744-BC6CBEB210F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13455" yWindow="4290" windowWidth="28800" windowHeight="13800" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="0" yWindow="380" windowWidth="19200" windowHeight="8800" firstSheet="1" activeTab="2" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
     <sheet name="イラスト案" sheetId="2" r:id="rId2"/>
-    <sheet name="画面遷移" sheetId="1" r:id="rId3"/>
+    <sheet name="画面遷移" sheetId="5" r:id="rId3"/>
     <sheet name="基板・ブロック図" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="106">
   <si>
     <t>LCD画面遷移</t>
     <rPh sb="3" eb="5">
@@ -799,6 +799,67 @@
   </si>
   <si>
     <t>一定時間経過、もしくは、スタート・ストップのスイッチが押されると、タイトル画面へ戻る。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電源再投入</t>
+    <rPh sb="0" eb="2">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サイトウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一定時間経過か任意のSW押下でタイトル画面へ(ハイスコア更新)</t>
+    <rPh sb="28" eb="30">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム終了(スコア30)</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>穴のイラストに戻る</t>
+    <rPh sb="0" eb="1">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>残り時間が3減少する</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スコアに1加算される</t>
+    <rPh sb="5" eb="7">
+      <t>カサン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -880,7 +941,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -893,8 +954,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1070,24 +1149,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1120,15 +1188,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1184,7 +1243,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1208,23 +1285,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>7257</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10917F63-B2FC-4302-9AF2-6812ED4995EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03505C33-CACE-4434-8D59-730C2F355D75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,7 +1309,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2102757" y="1676400"/>
+          <a:off x="2521857" y="2514600"/>
           <a:ext cx="1878693" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1261,23 +1338,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>202293</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83ACA51-DF7C-44F9-A654-A42EEDE961A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33648A71-45F8-416D-8DF1-606A54EDA588}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1285,7 +1362,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095500" y="3352800"/>
+          <a:off x="6496050" y="4343400"/>
           <a:ext cx="1878693" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1314,23 +1391,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B21CC0-4EA7-4029-9F57-9ED8D0622927}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E084925-A02A-4803-8BFA-290DA3EF0D63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,8 +1415,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8382001" y="1974850"/>
-          <a:ext cx="0" cy="901700"/>
+          <a:off x="8801101" y="4660900"/>
+          <a:ext cx="0" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1367,23 +1444,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A028970-8E4D-477C-BEF5-9BCA0826E712}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E03577D0-A2D2-4527-BF61-15F2F045CE1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1391,8 +1468,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8375650" y="3479800"/>
-          <a:ext cx="6350" cy="844550"/>
+          <a:off x="8794750" y="6527800"/>
+          <a:ext cx="6350" cy="920750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1420,23 +1497,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>210206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>165099</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="コネクタ: カギ線 18">
+        <xdr:cNvPr id="6" name="コネクタ: カギ線 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBB28B8-A58D-48F2-B2D2-5F883AD2605A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE23DA66-258A-442B-85AA-0CC5076DFD91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1444,8 +1521,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="9692071" y="2079515"/>
-          <a:ext cx="1216135" cy="420414"/>
+          <a:off x="10023804" y="4778703"/>
+          <a:ext cx="1326493" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1475,23 +1552,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{719F2DD2-1933-4831-9E3D-17F84AC1DB1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B6A114-AFDA-47EA-8365-3F7B750939E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,8 +1576,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8382001" y="1974850"/>
-          <a:ext cx="0" cy="901700"/>
+          <a:off x="4819651" y="4660900"/>
+          <a:ext cx="0" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1528,23 +1605,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06876FA3-704B-4E2B-94F9-FA6C16A3A45A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{122459DD-EDA8-4D74-B715-F4EA612AD28D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1552,8 +1629,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4400551" y="1974850"/>
-          <a:ext cx="0" cy="901700"/>
+          <a:off x="4819651" y="6489700"/>
+          <a:ext cx="0" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1581,32 +1658,87 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+        <xdr:cNvPr id="9" name="コネクタ: カギ線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F24B2100-477A-4C16-AEB4-791F8C2BF62B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D14B7610-A7D5-41C7-AF2B-4BC03A4C5EFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2514600" y="5448300"/>
-          <a:ext cx="1466850" cy="0"/>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="104775" y="3705225"/>
+          <a:ext cx="5029200" cy="3562350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFDCDA11-3BA0-4685-971C-9E5B053F9B69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4819650" y="2806700"/>
+          <a:ext cx="0" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1634,37 +1766,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>4618</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>121803</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="コネクタ: カギ線 3">
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8C2665-F049-489E-AD6B-CB6F52274F35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E85D8F1-8247-4F58-B238-09F4647F6B5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="417286" y="2086429"/>
-          <a:ext cx="3546928" cy="2503714"/>
+        <a:xfrm>
+          <a:off x="8801100" y="8345054"/>
+          <a:ext cx="4618" cy="920749"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 99872"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -1689,23 +1819,76 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>2309</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C42D323-7020-4892-A0C6-CA8B4C1237ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{920D8296-DB88-4B4F-83D9-D95313240D4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2514600" y="9829800"/>
+          <a:ext cx="5867400" cy="2309"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4619</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>121805</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C1C221-F639-42F6-BC05-A0174C8EB75A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1713,8 +1896,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4381500" y="1941286"/>
-          <a:ext cx="0" cy="898071"/>
+          <a:off x="838200" y="10173855"/>
+          <a:ext cx="4619" cy="920750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2771,8 +2954,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1224811" y="1224811"/>
-          <a:ext cx="2449118" cy="3062871"/>
+          <a:off x="1252025" y="1252025"/>
+          <a:ext cx="2503546" cy="3130907"/>
           <a:chOff x="419652" y="1258957"/>
           <a:chExt cx="2517913" cy="3148823"/>
         </a:xfrm>
@@ -3695,116 +3878,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A1384-AF86-4BA2-B6E2-C742B67793C6}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="28" width="3.625" customWidth="1"/>
+    <col min="1" max="28" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:17" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="28" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B7" s="30"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="27"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B8" s="26"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="24"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B9" s="23"/>
-      <c r="C9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="Q9" s="21"/>
-    </row>
-    <row r="10" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="20"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="17"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="27"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="24"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="23"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="21"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="20"/>
+      <c r="C9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="Q9" s="18"/>
+    </row>
+    <row r="10" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>81</v>
       </c>
@@ -3812,7 +3995,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>79</v>
       </c>
@@ -3820,7 +4003,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>77</v>
       </c>
@@ -3828,7 +4011,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>75</v>
       </c>
@@ -3836,244 +4019,244 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="16" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B38" s="16" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B42" s="16" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B44" s="16" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B46" s="16" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" s="16" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B50" s="16" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B53" s="16" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D56" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B57" s="16" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D59" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" s="16" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" s="16"/>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="13"/>
       <c r="B62" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C65" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D66" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C67" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D68" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A70" s="16" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4092,9 +4275,9 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -4111,7 +4294,7 @@
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
     </row>
-    <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -4128,7 +4311,7 @@
       <c r="Q3" s="8"/>
       <c r="R3" s="9"/>
     </row>
-    <row r="4" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -4145,7 +4328,7 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="8"/>
     </row>
-    <row r="5" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -4162,7 +4345,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="9"/>
     </row>
-    <row r="6" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -4179,7 +4362,7 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -4196,7 +4379,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -4213,7 +4396,7 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -4237,741 +4420,700 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62B5CF3-2000-4976-8647-80E79170E8EC}">
-  <dimension ref="A1:BE33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30BE690-FABD-44C0-A416-1C3E58BE525B}">
+  <dimension ref="A1:BG52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC25" sqref="AC25"/>
+      <selection pane="bottomLeft" activeCell="AW15" sqref="AW15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="11"/>
-    </row>
-    <row r="4" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="1"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+    </row>
+    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="AG4" s="1" t="s">
+      <c r="J4" s="1"/>
+      <c r="O4" s="29"/>
+      <c r="AO4" s="29"/>
+    </row>
+    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AH4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="11"/>
-    </row>
-    <row r="5" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="W10" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="O11" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+    </row>
+    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="V5" s="1">
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+    </row>
+    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="X15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P18" s="12"/>
+      <c r="W18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="31">
+        <v>6</v>
+      </c>
+      <c r="AD19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>6</v>
+      </c>
+      <c r="AW19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W20" s="1"/>
+      <c r="X20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="X23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+    </row>
+    <row r="26" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="W27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="31">
+        <v>5</v>
+      </c>
+      <c r="AD27" s="31">
+        <v>9</v>
+      </c>
+      <c r="AP27" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="34">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="34">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="34">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV27" s="1">
+        <v>6</v>
+      </c>
+      <c r="AW27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF27" s="31">
+        <v>5</v>
+      </c>
+      <c r="BG27" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="X31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+    </row>
+    <row r="34" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W34" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="W35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC35" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="31">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV35" s="1">
+        <v>6</v>
+      </c>
+      <c r="AW35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AQ39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D42" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="N43" t="s">
+        <v>101</v>
+      </c>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="30"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AP43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR43" s="1">
         <v>3</v>
       </c>
-      <c r="W5" s="1">
+      <c r="AS43" s="1">
         <v>0</v>
       </c>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1" t="s">
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>3</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1" t="s">
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1" t="s">
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1" t="s">
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="U7" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
+    <row r="47" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="M8" t="s">
-        <v>9</v>
-      </c>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-    </row>
-    <row r="9" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1">
+      <c r="H52" s="1"/>
+      <c r="I52" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J52" s="1">
+        <v>3</v>
+      </c>
+      <c r="K52" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-    </row>
-    <row r="12" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="V12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="N15" s="15"/>
-      <c r="V15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT15" s="1">
-        <v>6</v>
-      </c>
-      <c r="AU15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="1">
-        <v>0</v>
-      </c>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR16" s="1"/>
-      <c r="AS16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT16" s="1"/>
-      <c r="AU16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="U17" s="1"/>
-      <c r="V17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="AO19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AY19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="11"/>
-      <c r="V20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="AN22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR22" s="1"/>
-      <c r="AS22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT22" s="1">
-        <v>6</v>
-      </c>
-      <c r="AU22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA22" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="1"/>
-      <c r="BC22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD22" s="1">
-        <v>5</v>
-      </c>
-      <c r="BE22" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="V23" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR23" s="1"/>
-      <c r="AS23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT23" s="1"/>
-      <c r="AU23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AX23" s="1"/>
-      <c r="AY23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ23" s="1"/>
-      <c r="BA23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="BB23" s="1"/>
-      <c r="BC23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="BD23" s="1"/>
-      <c r="BE23" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="11"/>
-      <c r="U24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="1">
-        <v>0</v>
-      </c>
-      <c r="X24" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="11"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="V28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="AN29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ29" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR29" s="1"/>
-      <c r="AS29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT29" s="1">
-        <v>6</v>
-      </c>
-      <c r="AU29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP30" s="1"/>
-      <c r="AQ30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR30" s="1"/>
-      <c r="AS30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT30" s="1"/>
-      <c r="AU30" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="V31" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC31" s="11"/>
-    </row>
-    <row r="32" spans="2:57" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V32" s="1">
-        <v>0</v>
-      </c>
-      <c r="W32" s="1">
-        <v>0</v>
-      </c>
-      <c r="X32" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="11"/>
-    </row>
-    <row r="33" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC33" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -4986,41 +5128,41 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -5035,7 +5177,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -5043,7 +5185,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -5051,7 +5193,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="33" spans="5:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" t="s">
         <v>20</v>
       </c>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC74D47D-8EBB-492B-8744-BC6CBEB210F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4E141B-C5B0-4E61-83BB-060372477110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="380" windowWidth="19200" windowHeight="8800" firstSheet="1" activeTab="2" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
-    <sheet name="イラスト案" sheetId="2" r:id="rId2"/>
-    <sheet name="画面遷移" sheetId="5" r:id="rId3"/>
-    <sheet name="基板・ブロック図" sheetId="3" r:id="rId4"/>
+    <sheet name="画面遷移" sheetId="5" r:id="rId2"/>
+    <sheet name="基板・ブロック図" sheetId="3" r:id="rId3"/>
+    <sheet name="グラフィック" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
   <si>
     <t>LCD画面遷移</t>
     <rPh sb="3" eb="5">
@@ -860,6 +860,34 @@
     <rPh sb="5" eb="7">
       <t>カサン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>叩かれたモグラ</t>
+    <rPh sb="0" eb="1">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出現したモグラ</t>
+    <rPh sb="0" eb="2">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（モグラ非表示）</t>
+    <rPh sb="4" eb="7">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モグラの穴</t>
+  </si>
+  <si>
+    <t>グラフィック</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -933,7 +961,7 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -941,7 +969,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -969,6 +997,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,7 +1189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1240,9 +1274,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1263,6 +1294,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2954,8 +2991,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1252025" y="1252025"/>
-          <a:ext cx="2503546" cy="3130907"/>
+          <a:off x="1250324" y="1250324"/>
+          <a:ext cx="2500145" cy="3126655"/>
           <a:chOff x="419652" y="1258957"/>
           <a:chExt cx="2517913" cy="3148823"/>
         </a:xfrm>
@@ -3876,43 +3913,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A1384-AF86-4BA2-B6E2-C742B67793C6}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="28" width="3.58203125" customWidth="1"/>
+    <col min="1" max="28" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="26.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.4">
+      <c r="A1" s="36" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B7" s="27"/>
       <c r="C7" s="26"/>
       <c r="D7" s="25"/>
@@ -3930,7 +3966,7 @@
       <c r="P7" s="25"/>
       <c r="Q7" s="24"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B8" s="23"/>
       <c r="C8" s="22"/>
       <c r="D8" s="11"/>
@@ -3948,7 +3984,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="21"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B9" s="20"/>
       <c r="C9" s="19"/>
       <c r="E9" s="19"/>
@@ -3959,7 +3995,7 @@
       <c r="O9" s="19"/>
       <c r="Q9" s="18"/>
     </row>
-    <row r="10" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="17"/>
       <c r="C10" s="16"/>
       <c r="D10" s="15"/>
@@ -3977,17 +4013,17 @@
       <c r="P10" s="15"/>
       <c r="Q10" s="14"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>81</v>
       </c>
@@ -3995,7 +4031,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>79</v>
       </c>
@@ -4003,7 +4039,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>77</v>
       </c>
@@ -4011,7 +4047,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>75</v>
       </c>
@@ -4019,243 +4055,243 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B38" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B42" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B44" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C45" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B46" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B50" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C52" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B53" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B57" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C58" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D59" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="13"/>
       <c r="B62" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C63" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C65" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D66" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C67" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="D68" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="13" t="s">
         <v>31</v>
       </c>
@@ -4268,195 +4304,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BAFA0E-60A3-435D-9916-121D99EB8EB4}">
-  <dimension ref="B2:R9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30BE690-FABD-44C0-A416-1C3E58BE525B}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:BG52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK17" sqref="AK17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="9"/>
-    </row>
-    <row r="4" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="8"/>
-    </row>
-    <row r="5" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="9"/>
-    </row>
-    <row r="6" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="8"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="9"/>
-    </row>
-    <row r="8" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="8"/>
-    </row>
-    <row r="9" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30BE690-FABD-44C0-A416-1C3E58BE525B}">
-  <dimension ref="A1:BG52"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AW15" sqref="AW15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-    </row>
-    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+    </row>
+    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -4473,10 +4358,10 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="O4" s="29"/>
-      <c r="AO4" s="29"/>
-    </row>
-    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O4" s="28"/>
+      <c r="AO4" s="28"/>
+    </row>
+    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -4496,15 +4381,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>99</v>
       </c>
-      <c r="W10" s="35" t="s">
+      <c r="W10" s="34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
@@ -4533,7 +4418,7 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
     </row>
-    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
@@ -4561,18 +4446,18 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
     </row>
-    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="P18" s="12"/>
       <c r="W18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E19" t="s">
         <v>30</v>
       </c>
@@ -4589,13 +4474,13 @@
         <v>0</v>
       </c>
       <c r="AA19" s="1"/>
-      <c r="AB19" s="32" t="s">
+      <c r="AB19" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AC19" s="31">
+      <c r="AC19" s="30">
         <v>6</v>
       </c>
-      <c r="AD19" s="31">
+      <c r="AD19" s="30">
         <v>0</v>
       </c>
       <c r="AG19" t="s">
@@ -4624,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W20" s="1"/>
       <c r="X20" s="1" t="s">
         <v>10</v>
@@ -4642,7 +4527,7 @@
         <v>10</v>
       </c>
       <c r="AP20" s="1"/>
-      <c r="AQ20" s="33" t="s">
+      <c r="AQ20" s="32" t="s">
         <v>4</v>
       </c>
       <c r="AR20" s="1"/>
@@ -4658,15 +4543,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
+    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
       <c r="X23" t="s">
         <v>29</v>
       </c>
@@ -4677,17 +4562,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-    </row>
-    <row r="26" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+    </row>
+    <row r="26" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W26" t="s">
         <v>92</v>
       </c>
@@ -4698,15 +4583,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
+    <row r="27" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
       <c r="W27" s="1" t="s">
         <v>1</v>
       </c>
@@ -4720,25 +4605,25 @@
         <v>0</v>
       </c>
       <c r="AA27" s="1"/>
-      <c r="AB27" s="32" t="s">
+      <c r="AB27" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AC27" s="31">
+      <c r="AC27" s="30">
         <v>5</v>
       </c>
-      <c r="AD27" s="31">
+      <c r="AD27" s="30">
         <v>9</v>
       </c>
-      <c r="AP27" s="34" t="s">
+      <c r="AP27" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="AQ27" s="34">
+      <c r="AQ27" s="33">
         <v>0</v>
       </c>
-      <c r="AR27" s="34">
+      <c r="AR27" s="33">
         <v>0</v>
       </c>
-      <c r="AS27" s="34">
+      <c r="AS27" s="33">
         <v>1</v>
       </c>
       <c r="AT27" s="1"/>
@@ -4764,25 +4649,25 @@
         <v>0</v>
       </c>
       <c r="BD27" s="1"/>
-      <c r="BE27" s="32" t="s">
+      <c r="BE27" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="BF27" s="31">
+      <c r="BF27" s="30">
         <v>5</v>
       </c>
-      <c r="BG27" s="31">
+      <c r="BG27" s="30">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
+    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1" t="s">
         <v>10</v>
@@ -4800,7 +4685,7 @@
         <v>10</v>
       </c>
       <c r="AP28" s="1"/>
-      <c r="AQ28" s="33" t="s">
+      <c r="AQ28" s="32" t="s">
         <v>13</v>
       </c>
       <c r="AR28" s="1"/>
@@ -4832,30 +4717,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
+    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
       <c r="X31" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-    </row>
-    <row r="34" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+    </row>
+    <row r="34" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W34" t="s">
         <v>93</v>
       </c>
@@ -4863,15 +4748,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
+    <row r="35" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
       <c r="W35" s="1" t="s">
         <v>1</v>
       </c>
@@ -4885,13 +4770,13 @@
         <v>0</v>
       </c>
       <c r="AA35" s="1"/>
-      <c r="AB35" s="32" t="s">
+      <c r="AB35" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AC35" s="31">
+      <c r="AC35" s="30">
         <v>0</v>
       </c>
-      <c r="AD35" s="31">
+      <c r="AD35" s="30">
         <v>0</v>
       </c>
       <c r="AP35" s="1" t="s">
@@ -4917,15 +4802,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
+    <row r="36" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1" t="s">
         <v>10</v>
@@ -4959,12 +4844,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AQ39" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D42" t="s">
         <v>99</v>
       </c>
@@ -4972,7 +4857,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
@@ -4992,14 +4877,14 @@
       <c r="N43" t="s">
         <v>101</v>
       </c>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="30"/>
-      <c r="AD43" s="29"/>
-      <c r="AE43" s="29"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="28"/>
+      <c r="AE43" s="28"/>
       <c r="AP43" s="1" t="s">
         <v>1</v>
       </c>
@@ -5023,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
@@ -5042,14 +4927,14 @@
       <c r="K44" s="1">
         <v>0</v>
       </c>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="29"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="28"/>
+      <c r="AE44" s="28"/>
       <c r="AP44" s="1"/>
       <c r="AQ44" s="1" t="s">
         <v>10</v>
@@ -5067,17 +4952,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E47" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D50" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
@@ -5095,7 +4980,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
@@ -5113,6 +4998,99 @@
       </c>
       <c r="K52" s="1">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5442AB4-9300-4013-915B-92FAAE81FE8A}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V29" sqref="V29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="J29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="33" spans="5:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -5124,93 +5102,176 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5442AB4-9300-4013-915B-92FAAE81FE8A}">
-  <dimension ref="A1:N33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BAFA0E-60A3-435D-9916-121D99EB8EB4}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="J29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="33" spans="5:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" t="s">
-        <v>18</v>
-      </c>
-      <c r="N33" t="s">
-        <v>17</v>
-      </c>
+    <row r="1" spans="1:23" ht="30" x14ac:dyDescent="0.4">
+      <c r="A1" s="36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" t="s">
+        <v>107</v>
+      </c>
+      <c r="S4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+    </row>
+    <row r="6" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="7"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="9"/>
+    </row>
+    <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="8"/>
+    </row>
+    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="9"/>
+    </row>
+    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="10"/>
+    </row>
+    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="8"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="9"/>
+    </row>
+    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="8"/>
+    </row>
+    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4E141B-C5B0-4E61-83BB-060372477110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544D5CBC-2031-41F1-8347-EFD2EAA6FEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="8800" activeTab="1" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
-    <sheet name="画面遷移" sheetId="5" r:id="rId2"/>
+    <sheet name="画面遷移" sheetId="6" r:id="rId2"/>
     <sheet name="基板・ブロック図" sheetId="3" r:id="rId3"/>
     <sheet name="グラフィック" sheetId="2" r:id="rId4"/>
   </sheets>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="121">
   <si>
     <t>LCD画面遷移</t>
     <rPh sb="3" eb="5">
@@ -80,16 +80,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>任意のSW押下</t>
-    <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>●</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -121,42 +111,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1番左にもぐら出現</t>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1番左のもぐらを叩いたとき</t>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>穴を叩いたとき</t>
-    <rPh sb="0" eb="1">
-      <t>アナ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>タタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>RA3</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -251,9 +205,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一定時間経過か任意のSW押下でタイトル画面へ</t>
-  </si>
-  <si>
     <t>〇グラフィック</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -735,13 +686,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ゲーム開始のカウントダウン</t>
-    <rPh sb="3" eb="5">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>カウントダウン0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -756,10 +700,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カウントダウン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ゲーム終了</t>
     <rPh sb="3" eb="5">
       <t>シュウリョウ</t>
@@ -819,13 +759,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一定時間経過か任意のSW押下でタイトル画面へ(ハイスコア更新)</t>
-    <rPh sb="28" eb="30">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ゲーム終了(スコア30)</t>
     <rPh sb="3" eb="5">
       <t>シュウリョウ</t>
@@ -888,6 +821,188 @@
   </si>
   <si>
     <t>グラフィック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル画面(ハイスコア維持)</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一定時間経過かスタート・ストップスイッチ押下</t>
+    <rPh sb="20" eb="22">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル画面(ハイスコア更新)</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一定時間(○ms経過)</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一定時間経過(不定)</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>残り時間が1減少</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW2を押下(穴を叩いたとき)</t>
+    <rPh sb="4" eb="6">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW1を押下(モグラを叩いたとき)</t>
+    <rPh sb="4" eb="6">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1番左の穴にもぐら出現</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モグラのイラストに変化</t>
+    <rPh sb="9" eb="11">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スタート・ストップスイッチ押下</t>
+  </si>
+  <si>
+    <t>一定時間の経過または</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム開始のカウントダウン(2秒)</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スタート・ストップスイッチ押下</t>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム開始のカウントダウン(3秒)</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モグラを叩いたとき(撃退時)のイラスト</t>
+    <rPh sb="4" eb="5">
+      <t>タタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゲキタイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モグラのイラスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>穴のイラスト</t>
+    <rPh sb="0" eb="1">
+      <t>アナ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1189,7 +1304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1301,6 +1416,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1328,7 +1446,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1338,7 +1456,7 @@
         <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03505C33-CACE-4434-8D59-730C2F355D75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5107C2D1-0A68-4C97-A2E0-20C802905D9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,6 +1465,59 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2521857" y="2514600"/>
+          <a:ext cx="2088243" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>202293</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D2CAEED-5141-4B91-A9BC-A10664B2ADF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="6172200"/>
           <a:ext cx="1878693" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1375,23 +1546,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>202293</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33648A71-45F8-416D-8DF1-606A54EDA588}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94CF830B-B60F-4F1E-976F-5DF9D0066EA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,8 +1570,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6496050" y="4343400"/>
-          <a:ext cx="1878693" cy="0"/>
+          <a:off x="9010651" y="6489700"/>
+          <a:ext cx="0" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1429,22 +1600,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E084925-A02A-4803-8BFA-290DA3EF0D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00F8725-0F45-47E5-8516-E0ADB7FE605E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1452,7 +1623,115 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8801101" y="4660900"/>
+          <a:off x="9004300" y="8356600"/>
+          <a:ext cx="6350" cy="920750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>11545</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>196275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="コネクタ: カギ線 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6FDD2B-75BC-49FF-BDB5-8B854E8B9A2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10443479" y="6418159"/>
+          <a:ext cx="1336888" cy="849744"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 371"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8723B81C-AC6E-4CEF-9A0D-CE3262709428}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029201" y="6489700"/>
           <a:ext cx="0" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1481,23 +1760,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E03577D0-A2D2-4527-BF61-15F2F045CE1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01950E16-E8A7-49D7-A012-0DE1AEF0E297}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1505,115 +1784,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8794750" y="6527800"/>
-          <a:ext cx="6350" cy="920750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>210206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>165099</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="コネクタ: カギ線 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE23DA66-258A-442B-85AA-0CC5076DFD91}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10023804" y="4778703"/>
-          <a:ext cx="1326493" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 306"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B6A114-AFDA-47EA-8365-3F7B750939E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4819651" y="4660900"/>
+          <a:off x="5029201" y="8318500"/>
           <a:ext cx="0" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1642,23 +1813,78 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+        <xdr:cNvPr id="9" name="コネクタ: カギ線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{122459DD-EDA8-4D74-B715-F4EA612AD28D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF17B67D-0786-4278-A45B-99FE436099A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="-704849" y="4514850"/>
+          <a:ext cx="6858000" cy="3771899"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F51425-9522-418D-B959-29E199FE3725}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1666,8 +1892,114 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4819651" y="6489700"/>
+          <a:off x="5029200" y="2806700"/>
           <a:ext cx="0" cy="977900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>4618</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>121803</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21250FCD-D794-4A50-82D3-7B5B24EB753D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9010650" y="10173854"/>
+          <a:ext cx="4618" cy="920749"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>2309</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BD405C-AADA-40D8-8573-71A481EA1BBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2514601" y="11658600"/>
+          <a:ext cx="6076949" cy="2309"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1697,35 +2029,33 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4619</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>121805</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="コネクタ: カギ線 8">
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D14B7610-A7D5-41C7-AF2B-4BC03A4C5EFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF691F6B-1508-4BF8-9681-F004EC6F0F1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="104775" y="3705225"/>
-          <a:ext cx="5029200" cy="3562350"/>
+        <a:xfrm>
+          <a:off x="838200" y="12002655"/>
+          <a:ext cx="4619" cy="920750"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 0"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -1750,23 +2080,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>92364</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>92364</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFDCDA11-3BA0-4685-971C-9E5B053F9B69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A6B87C-7604-4F3E-9DB2-4F480C541C96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,8 +2104,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4819650" y="2806700"/>
-          <a:ext cx="0" cy="977900"/>
+          <a:off x="13084464" y="8001000"/>
+          <a:ext cx="1257300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1803,23 +2133,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>115454</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>13930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>4618</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>121803</xdr:rowOff>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+        <xdr:cNvPr id="15" name="コネクタ: カギ線 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E85D8F1-8247-4F58-B238-09F4647F6B5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981CDCDA-4DED-45B6-9532-D1674AC185D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,11 +2157,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8801100" y="8345054"/>
-          <a:ext cx="4618" cy="920749"/>
+          <a:off x="10687050" y="5957530"/>
+          <a:ext cx="3981450" cy="1586270"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -1856,76 +2188,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>2309</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>170873</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{920D8296-DB88-4B4F-83D9-D95313240D4C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2514600" y="9829800"/>
-          <a:ext cx="5867400" cy="2309"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4619</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>121805</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C1C221-F639-42F6-BC05-A0174C8EB75A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947F5884-A639-4CF7-B1E3-17562AE40F70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1933,8 +2212,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="10173855"/>
-          <a:ext cx="4619" cy="920750"/>
+          <a:off x="5029200" y="4679372"/>
+          <a:ext cx="0" cy="977901"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2991,8 +3270,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1250324" y="1250324"/>
-          <a:ext cx="2500145" cy="3126655"/>
+          <a:off x="1255227" y="1255227"/>
+          <a:ext cx="2509949" cy="3138911"/>
           <a:chOff x="419652" y="1258957"/>
           <a:chExt cx="2517913" cy="3148823"/>
         </a:xfrm>
@@ -3918,37 +4197,37 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="28" width="3.625" customWidth="1"/>
+    <col min="1" max="28" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="27"/>
       <c r="C7" s="26"/>
       <c r="D7" s="25"/>
@@ -3966,7 +4245,7 @@
       <c r="P7" s="25"/>
       <c r="Q7" s="24"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="23"/>
       <c r="C8" s="22"/>
       <c r="D8" s="11"/>
@@ -3984,7 +4263,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="21"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="20"/>
       <c r="C9" s="19"/>
       <c r="E9" s="19"/>
@@ -3995,7 +4274,7 @@
       <c r="O9" s="19"/>
       <c r="Q9" s="18"/>
     </row>
-    <row r="10" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="17"/>
       <c r="C10" s="16"/>
       <c r="D10" s="15"/>
@@ -4013,287 +4292,287 @@
       <c r="P10" s="15"/>
       <c r="Q10" s="14"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D59" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="13"/>
       <c r="B62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C65" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D66" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C67" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D68" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4304,29 +4583,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30BE690-FABD-44C0-A416-1C3E58BE525B}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:BG52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D58FDA2-436A-4874-8DD4-98665789B4E2}">
+  <dimension ref="A1:BY60"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK17" sqref="AK17"/>
+      <selection pane="bottomLeft" activeCell="BG27" sqref="BG27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
+      <c r="P3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>120</v>
+      </c>
       <c r="R3" s="28"/>
       <c r="S3" s="28"/>
       <c r="T3" s="29"/>
@@ -4341,7 +4623,7 @@
       <c r="AN3" s="28"/>
       <c r="AO3" s="28"/>
     </row>
-    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -4359,9 +4641,15 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="O4" s="28"/>
+      <c r="P4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>119</v>
+      </c>
       <c r="AO4" s="28"/>
     </row>
-    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -4380,16 +4668,22 @@
       <c r="J5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" t="s">
-        <v>99</v>
-      </c>
-      <c r="W10" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+      <c r="X10" s="34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
@@ -4406,19 +4700,19 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="O11" t="s">
-        <v>9</v>
-      </c>
-      <c r="W11" s="1"/>
+      <c r="M11" t="s">
+        <v>116</v>
+      </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="2"/>
       <c r="AD11" s="1"/>
-    </row>
-    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
@@ -4437,113 +4731,57 @@
       <c r="K12" s="1">
         <v>0</v>
       </c>
-      <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
+      <c r="AA12" s="1">
+        <v>3</v>
+      </c>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
-    </row>
-    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P18" s="12"/>
-      <c r="W18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E19" t="s">
-        <v>30</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>0</v>
-      </c>
+      <c r="X18" s="34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" t="s">
+        <v>114</v>
+      </c>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
-      <c r="AB19" s="31" t="s">
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1">
         <v>2</v>
       </c>
-      <c r="AC19" s="30">
-        <v>6</v>
-      </c>
-      <c r="AD19" s="30">
-        <v>0</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="1"/>
-      <c r="AU19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV19" s="1">
-        <v>6</v>
-      </c>
-      <c r="AW19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W20" s="1"/>
-      <c r="X20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR20" s="1"/>
-      <c r="AS20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT20" s="1"/>
-      <c r="AU20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV20" s="1"/>
-      <c r="AW20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -4552,17 +4790,11 @@
       <c r="I23" s="29"/>
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
-      <c r="X23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>15</v>
-      </c>
-      <c r="BA23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Y23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -4572,18 +4804,18 @@
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
     </row>
-    <row r="26" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W26" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="X26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>112</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
@@ -4592,11 +4824,8 @@
       <c r="I27" s="29"/>
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
-      <c r="W27" s="1" t="s">
+      <c r="X27" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="X27" s="1">
-        <v>0</v>
       </c>
       <c r="Y27" s="1">
         <v>0</v>
@@ -4604,62 +4833,46 @@
       <c r="Z27" s="1">
         <v>0</v>
       </c>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="31" t="s">
+      <c r="AA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AC27" s="30">
-        <v>5</v>
-      </c>
       <c r="AD27" s="30">
-        <v>9</v>
-      </c>
-      <c r="AP27" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE27" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AQ27" s="33">
+      <c r="AR27" s="1">
         <v>0</v>
       </c>
-      <c r="AR27" s="33">
+      <c r="AS27" s="1">
         <v>0</v>
       </c>
-      <c r="AS27" s="33">
-        <v>1</v>
-      </c>
-      <c r="AT27" s="1"/>
-      <c r="AU27" s="2" t="s">
+      <c r="AT27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AV27" s="1">
+      <c r="AW27" s="1">
         <v>6</v>
       </c>
-      <c r="AW27" s="1">
+      <c r="AX27" s="1">
         <v>0</v>
       </c>
-      <c r="AZ27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA27" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB27" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC27" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD27" s="1"/>
-      <c r="BE27" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF27" s="30">
-        <v>5</v>
-      </c>
-      <c r="BG27" s="30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -4668,56 +4881,40 @@
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP28" s="1"/>
-      <c r="AQ28" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR28" s="1"/>
-      <c r="AS28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT28" s="1"/>
-      <c r="AU28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV28" s="1"/>
-      <c r="AW28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AZ28" s="1"/>
-      <c r="BA28" s="1" t="s">
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="BB28" s="1"/>
-      <c r="BC28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="BD28" s="1"/>
-      <c r="BE28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="BF28" s="1"/>
-      <c r="BG28" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
@@ -4726,11 +4923,17 @@
       <c r="I31" s="29"/>
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
-      <c r="X31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Y31" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>110</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
@@ -4740,15 +4943,21 @@
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
     </row>
-    <row r="34" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W34" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="X34" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>96</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -4757,11 +4966,8 @@
       <c r="I35" s="29"/>
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
-      <c r="W35" s="1" t="s">
+      <c r="X35" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="X35" s="1">
-        <v>0</v>
       </c>
       <c r="Y35" s="1">
         <v>0</v>
@@ -4769,40 +4975,90 @@
       <c r="Z35" s="1">
         <v>0</v>
       </c>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="31" t="s">
+      <c r="AA35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AC35" s="30">
+      <c r="AD35" s="30">
+        <v>5</v>
+      </c>
+      <c r="AE35" s="30">
+        <v>9</v>
+      </c>
+      <c r="AQ35" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="33">
         <v>0</v>
       </c>
-      <c r="AD35" s="30">
+      <c r="AS35" s="33">
         <v>0</v>
       </c>
-      <c r="AP35" s="1" t="s">
+      <c r="AT35" s="33">
         <v>1</v>
       </c>
-      <c r="AQ35" s="1">
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW35" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX35" s="1">
         <v>0</v>
       </c>
-      <c r="AR35" s="1">
+      <c r="BC35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD35" s="1">
         <v>0</v>
       </c>
-      <c r="AS35" s="1">
+      <c r="BE35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG35" s="1"/>
+      <c r="BH35" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI35" s="30">
+        <v>5</v>
+      </c>
+      <c r="BJ35" s="30">
+        <v>7</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>107</v>
+      </c>
+      <c r="BR35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AT35" s="1"/>
-      <c r="AU35" s="2" t="s">
+      <c r="BS35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU35" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV35" s="1"/>
+      <c r="BW35" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AV35" s="1">
-        <v>6</v>
-      </c>
-      <c r="AW35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="BX35" s="30">
+        <v>5</v>
+      </c>
+      <c r="BY35" s="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -4811,158 +5067,181 @@
       <c r="I36" s="28"/>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP36" s="1"/>
-      <c r="AQ36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR36" s="1"/>
-      <c r="AS36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT36" s="1"/>
-      <c r="AU36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV36" s="1"/>
-      <c r="AW36" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AQ39" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D42" t="s">
-        <v>99</v>
-      </c>
-      <c r="AP42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="N43" t="s">
-        <v>101</v>
-      </c>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="28"/>
-      <c r="AE43" s="28"/>
-      <c r="AP43" s="1" t="s">
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI36" s="1"/>
+      <c r="BJ36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR36" s="1"/>
+      <c r="BS36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT36" s="1"/>
+      <c r="BU36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV36" s="1"/>
+      <c r="BW36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX36" s="1"/>
+      <c r="BY36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="X42" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="X43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AQ43" s="1">
+      <c r="Y43" s="1">
         <v>0</v>
       </c>
+      <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD43" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="AR43" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="1">
         <v>0</v>
       </c>
-      <c r="AT43" s="1"/>
-      <c r="AU43" s="2" t="s">
+      <c r="AT43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AV43" s="1">
+      <c r="AW43" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX43" s="1">
         <v>0</v>
       </c>
-      <c r="AW43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1">
-        <v>3</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28"/>
-      <c r="AE44" s="28"/>
-      <c r="AP44" s="1"/>
-      <c r="AQ44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR44" s="1"/>
-      <c r="AS44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AT44" s="1"/>
-      <c r="AU44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV44" s="1"/>
-      <c r="AW44" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="4:49" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AR47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
@@ -4979,8 +5258,41 @@
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="T51" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="28"/>
+      <c r="AA51" s="28"/>
+      <c r="AB51" s="28"/>
+      <c r="AC51" s="28"/>
+      <c r="AD51" s="29"/>
+      <c r="AE51" s="28"/>
+      <c r="AF51" s="28"/>
+      <c r="AQ51" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR51" s="33">
+        <v>0</v>
+      </c>
+      <c r="AS51" s="33">
+        <v>3</v>
+      </c>
+      <c r="AT51" s="33">
+        <v>0</v>
+      </c>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW51" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX51" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
@@ -4990,13 +5302,85 @@
         <v>1</v>
       </c>
       <c r="H52" s="1"/>
-      <c r="I52" s="1">
+      <c r="I52" s="33">
         <v>0</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="33">
         <v>3</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28"/>
+      <c r="AA52" s="28"/>
+      <c r="AB52" s="28"/>
+      <c r="AC52" s="28"/>
+      <c r="AD52" s="28"/>
+      <c r="AE52" s="28"/>
+      <c r="AF52" s="28"/>
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU52" s="1"/>
+      <c r="AV52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW52" s="1"/>
+      <c r="AX52" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="33">
+        <v>0</v>
+      </c>
+      <c r="J60" s="33">
+        <v>3</v>
+      </c>
+      <c r="K60" s="33">
         <v>0</v>
       </c>
     </row>
@@ -5013,57 +5397,57 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H29" s="3"/>
       <c r="J29" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -5071,7 +5455,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -5079,18 +5463,18 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="33" spans="5:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N33" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -5106,34 +5490,34 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="AK9" sqref="AK9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="S4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -5150,7 +5534,7 @@
       <c r="V5" s="9"/>
       <c r="W5" s="9"/>
     </row>
-    <row r="6" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -5167,7 +5551,7 @@
       <c r="V6" s="8"/>
       <c r="W6" s="9"/>
     </row>
-    <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -5184,7 +5568,7 @@
       <c r="V7" s="9"/>
       <c r="W7" s="8"/>
     </row>
-    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -5201,7 +5585,7 @@
       <c r="V8" s="8"/>
       <c r="W8" s="9"/>
     </row>
-    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -5218,7 +5602,7 @@
       <c r="V9" s="9"/>
       <c r="W9" s="10"/>
     </row>
-    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -5235,7 +5619,7 @@
       <c r="V10" s="8"/>
       <c r="W10" s="9"/>
     </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -5252,7 +5636,7 @@
       <c r="V11" s="9"/>
       <c r="W11" s="8"/>
     </row>
-    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544D5CBC-2031-41F1-8347-EFD2EAA6FEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706A2B91-112C-4EC8-AC14-13AE0DE540E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="8800" activeTab="1" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="0" yWindow="2000" windowWidth="19200" windowHeight="8800" firstSheet="2" activeTab="2" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
     <sheet name="画面遷移" sheetId="6" r:id="rId2"/>
-    <sheet name="基板・ブロック図" sheetId="3" r:id="rId3"/>
+    <sheet name="基板・ブロック図" sheetId="7" r:id="rId3"/>
     <sheet name="グラフィック" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="124">
   <si>
     <t>LCD画面遷移</t>
     <rPh sb="3" eb="5">
@@ -1002,6 +1002,21 @@
     <t>穴のイラスト</t>
     <rPh sb="0" eb="1">
       <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VCC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10kΩ抵抗</t>
+    <rPh sb="4" eb="6">
+      <t>テイコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2262,7 +2277,7 @@
         <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{285BCF39-6ED8-41CB-B448-FEC5F35D4C1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664A8C51-1E24-4B87-BCC3-05C7B88DDAA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2347,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE04CEC9-CD50-4619-9908-B3C3015BCFDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD372EE-8EDF-4C31-873C-5D1F50765DC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,7 +2410,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4628262-D9EC-4BAB-949F-7BD5357D967C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C36C843C-7975-4C16-8A57-B61D1E2A02FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2458,7 +2473,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29C503D-4A02-4205-9C01-B3965F404D31}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C167AA-D764-4397-9C7F-BEA879DBB935}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2522,7 +2537,7 @@
         <xdr:cNvPr id="6" name="正方形/長方形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D92A353-10D1-4BC7-8FEA-A5EE1A48A3FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41B216B-2A06-4ED0-BEEE-D3DC5235D15A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2586,7 +2601,7 @@
         <xdr:cNvPr id="7" name="正方形/長方形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A65A5A6-3D29-4710-901A-FF2901EDF65E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6770385D-8A27-4D61-BC9D-A30C795529EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2655,7 +2670,7 @@
         <xdr:cNvPr id="8" name="正方形/長方形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1EC292F-E0D8-40BB-B1E8-4407078BCA57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28BE12AC-0957-4A8C-BA71-78D74F64B135}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2719,7 +2734,7 @@
         <xdr:cNvPr id="9" name="直線コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8BADE6F-91B9-4278-B0F6-962A1FD767D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510A7A5A-29E6-4C2F-A6BF-B81416C3A8E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2786,7 @@
         <xdr:cNvPr id="10" name="直線コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F51208-8AE6-4F01-8FD0-674C6426658A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD0E7AA-548E-4A77-8224-C63F19DEB910}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2823,7 +2838,7 @@
         <xdr:cNvPr id="11" name="直線コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{449E52C4-2113-49BA-82B0-9B8541420177}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC0E7A88-3CD9-488A-B210-81FC82DBC5F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2873,7 +2888,7 @@
         <xdr:cNvPr id="12" name="直線コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D22E8289-16B7-4C72-91C6-A75B7369694A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A3D725-79A8-4909-80B4-B272539A450F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2923,7 +2938,7 @@
         <xdr:cNvPr id="13" name="正方形/長方形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884F6987-31CF-4995-B6B3-AE77AA8D5027}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CA362B-E30E-4297-AF99-08AD12782D00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2996,7 +3011,7 @@
         <xdr:cNvPr id="14" name="正方形/長方形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC60D036-ED88-4F4E-B884-E274A48F76A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA928E97-BEED-4B3C-8CA5-FB1E56F02353}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3069,7 +3084,7 @@
         <xdr:cNvPr id="15" name="直線コネクタ 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF6FB42-E817-47FC-B993-F5CEF7C13861}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01681815-ACBD-440E-B436-D395FF355D9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3121,7 +3136,7 @@
         <xdr:cNvPr id="16" name="直線コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0514048-A948-4733-AC1B-0ECE7FC86C05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D541C62E-19B3-416D-A61C-D2E011D98647}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3173,7 +3188,7 @@
         <xdr:cNvPr id="17" name="直線コネクタ 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB6888D-E0FB-4E32-9CB4-015DC2DC3DC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6F103A-7DAE-42FE-8471-7271A680E442}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3218,7 +3233,7 @@
         <xdr:cNvPr id="18" name="図 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F558F23F-03B2-48D0-803A-9E0C5585F668}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB69AC4-61D6-4BF9-AEA3-D21F831B5422}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3262,7 +3277,7 @@
         <xdr:cNvPr id="19" name="グループ化 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B91A194-E338-455C-8316-1C45B9037FED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362732C7-1FE4-489A-9CF1-BCDB054E0170}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3270,8 +3285,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1255227" y="1255227"/>
-          <a:ext cx="2509949" cy="3138911"/>
+          <a:off x="1259125" y="1259125"/>
+          <a:ext cx="2517745" cy="3148655"/>
           <a:chOff x="419652" y="1258957"/>
           <a:chExt cx="2517913" cy="3148823"/>
         </a:xfrm>
@@ -3281,7 +3296,7 @@
           <xdr:cNvPr id="20" name="グループ化 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D32AA5-C5A3-4DD3-8582-A31DE8D25742}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87802E31-CA4E-45C1-97B8-0C3033F36299}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3300,7 +3315,7 @@
             <xdr:cNvPr id="24" name="図 23">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6B001A-2C83-46D0-9FD0-F77E9422FA84}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA72DC1-79C4-4734-8CAD-36988BE0EEFA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3329,7 +3344,7 @@
             <xdr:cNvPr id="25" name="テキスト ボックス 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED7BB200-F90A-4FAF-BD57-AAE81BA431A2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB61C10-F251-4B70-9B74-4DAB698AF130}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3391,7 +3406,7 @@
           <xdr:cNvPr id="21" name="直線コネクタ 20">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8774E58A-175F-4C1A-B487-91C8DB3D557D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF270C1-7342-4106-9F7C-9B5F93FA6B8E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3431,7 +3446,7 @@
           <xdr:cNvPr id="22" name="直線コネクタ 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C538D0A4-16DD-4EA2-927A-BDBB641E4CDE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5CFF368-D185-4090-B064-B6CC5815209D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3471,7 +3486,7 @@
           <xdr:cNvPr id="23" name="直線コネクタ 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E30CF7F8-B97B-4238-9F8E-F6C3C43EE641}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0222E2A7-AD68-431E-BB0F-3C5EC452139C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3527,7 +3542,7 @@
         <xdr:cNvPr id="26" name="直線コネクタ 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BFED22-40E2-430F-90F4-55B461E5BE58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C8B1B84-8F6A-4D26-A8F8-780CE120A91F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3582,7 +3597,7 @@
         <xdr:cNvPr id="27" name="直線コネクタ 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1353AB5E-48E5-4117-BE11-3B1CA205B545}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76527E97-A81C-4BC0-A8EF-2D072C1217D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3637,7 +3652,7 @@
         <xdr:cNvPr id="28" name="コネクタ: カギ線 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB0A68D-22CC-4A88-93FB-5273E4718479}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FD1FC0-7C55-410F-B7FB-E6F1A9A58E03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3691,7 +3706,7 @@
         <xdr:cNvPr id="29" name="図 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1B39E4-9C60-40D4-B5F4-4D4DDA94976E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF66EF5-020C-421B-8212-A45EE6BD40E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3741,7 +3756,7 @@
         <xdr:cNvPr id="30" name="コネクタ: カギ線 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4809C389-09B7-443B-B8E2-2A0A5BFC69B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C869E1E5-AD15-4D4B-8B95-AC3BAFE53BE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3798,7 +3813,7 @@
         <xdr:cNvPr id="31" name="直線コネクタ 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{060251C5-625D-4BBB-90C5-207193C2AB19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{914A0FDC-35F7-42C0-9706-40C81F811D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3853,7 +3868,7 @@
         <xdr:cNvPr id="32" name="直線コネクタ 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44C5ED0-8BA4-48B1-AA22-86197E680F4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D85BC0F-5F7E-4490-AB59-0CBC7885FF2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3884,6 +3899,249 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>8770</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83476</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="323867" cy="260363"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAEE09D3-9962-4430-A62E-43E9CE500EB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5698372" y="3937924"/>
+          <a:ext cx="260363" cy="323867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>5522</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>64637</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="575214" cy="120861"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1CADEF2-FA0D-42F2-AFDE-07E975FD1881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4615622" y="3950837"/>
+          <a:ext cx="575214" cy="120861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>204304</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>110435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>149087</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>110435</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0A354F-7359-409E-A7CA-F5C29F3F3291}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4604854" y="4225235"/>
+          <a:ext cx="992533" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>136026</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>134692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>135759</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>134692</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD9A3594-4679-42B1-87F4-32B84957C057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5165226" y="4020892"/>
+          <a:ext cx="418833" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>175172</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>162035</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>135759</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847A5EB8-6F66-4896-91B0-A7CC7BDF478B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2689772" y="3520966"/>
+          <a:ext cx="2920563" cy="500993"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100523"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -4586,8 +4844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D58FDA2-436A-4874-8DD4-98665789B4E2}">
   <dimension ref="A1:BY60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="BG27" sqref="BG27"/>
     </sheetView>
   </sheetViews>
@@ -5393,13 +5651,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5442AB4-9300-4013-915B-92FAAE81FE8A}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:N33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F030F6-1A94-423F-B10C-4ADF616793BD}">
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V29" sqref="V29"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -5424,15 +5681,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="U18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="U19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -5447,7 +5719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -5455,7 +5727,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706A2B91-112C-4EC8-AC14-13AE0DE540E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331AB609-7205-418A-86F8-FE88BB40D310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2000" windowWidth="19200" windowHeight="8800" firstSheet="2" activeTab="2" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="0" yWindow="1605" windowWidth="28800" windowHeight="13800" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
     <sheet name="画面遷移" sheetId="6" r:id="rId2"/>
     <sheet name="基板・ブロック図" sheetId="7" r:id="rId3"/>
-    <sheet name="グラフィック" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +34,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={35D6F261-20FF-42C8-91A1-E74B6511CE3A}</author>
+  </authors>
+  <commentList>
+    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{35D6F261-20FF-42C8-91A1-E74B6511CE3A}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    実際のモグラ叩きゲームと、作成するものと、実際のどういう動作が何に置き換わるのかなどがわかると良い</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="127">
   <si>
     <t>LCD画面遷移</t>
     <rPh sb="3" eb="5">
@@ -329,25 +346,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>制限時間が経過しゲームが終了した時、</t>
-    <rPh sb="0" eb="2">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケイカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>3. ハイスコア記録</t>
     <rPh sb="8" eb="10">
       <t>キロク</t>
@@ -820,10 +818,6 @@
     <t>モグラの穴</t>
   </si>
   <si>
-    <t>グラフィック</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>タイトル画面(ハイスコア維持)</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -1017,6 +1011,80 @@
     <t>10kΩ抵抗</t>
     <rPh sb="4" eb="6">
       <t>テイコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・制限時間が経過しゲームが終了した時、</t>
+    <rPh sb="1" eb="3">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ハイスコアは、電源を切っても保持される。（EPPROMに記録する）</t>
+    <rPh sb="8" eb="10">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇一般的なモグラ叩きゲーム</t>
+    <rPh sb="1" eb="3">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>絵や図を用いて軽く説明</t>
+    <rPh sb="0" eb="1">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カル</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇ブロック図</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1025,7 +1093,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1097,6 +1165,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3285,8 +3360,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1259125" y="1259125"/>
-          <a:ext cx="2517745" cy="3148655"/>
+          <a:off x="1242559" y="1242559"/>
+          <a:ext cx="2484615" cy="3107243"/>
           <a:chOff x="419652" y="1258957"/>
           <a:chExt cx="2517913" cy="3148823"/>
         </a:xfrm>
@@ -4153,6 +4228,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="箱石 文紀" id="{FE99E97D-1FE6-4156-B53F-E134D08D23B3}" userId="S::fuminori.hakoishi@erii.onmicrosoft.com::80806857-8b75-401c-95be-7b9e9f657cb5" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4448,395 +4529,582 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K10" dT="2020-08-19T02:04:01.42" personId="{FE99E97D-1FE6-4156-B53F-E134D08D23B3}" id="{35D6F261-20FF-42C8-91A1-E74B6511CE3A}">
+    <text>実際のモグラ叩きゲームと、作成するものと、実際のどういう動作が何に置き換わるのかなどがわかると良い</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A1384-AF86-4BA2-B6E2-C742B67793C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A1384-AF86-4BA2-B6E2-C742B67793C6}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:W98"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="28" width="3.58203125" customWidth="1"/>
+    <col min="1" max="28" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="30">
       <c r="A1" s="36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="B3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="B4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="27"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="24"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="23"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="21"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="20"/>
-      <c r="C9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="Q9" s="18"/>
-    </row>
-    <row r="10" spans="1:17" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="17"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11"/>
+    <row r="11" spans="1:11">
+      <c r="A11" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="13"/>
+    </row>
+    <row r="16" spans="1:11" ht="19.5" thickBot="1">
+      <c r="A16" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="13" t="s">
+    <row r="17" spans="1:17">
+      <c r="B17" s="27"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="24"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="B18" s="23"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="21"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="B19" s="20"/>
+      <c r="C19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="Q19" s="18"/>
+    </row>
+    <row r="20" spans="1:17" ht="19.5" thickBot="1">
+      <c r="B20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="B21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" t="s">
+    <row r="30" spans="1:17">
+      <c r="A30" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F14" t="s">
+    </row>
+    <row r="31" spans="1:17">
+      <c r="B31" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" t="s">
+      <c r="F31" t="s">
         <v>74</v>
       </c>
-      <c r="F15" t="s">
+    </row>
+    <row r="32" spans="1:17">
+      <c r="B32" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" t="s">
+      <c r="F32" t="s">
         <v>72</v>
       </c>
-      <c r="F16" t="s">
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" t="s">
+      <c r="F33" t="s">
         <v>70</v>
       </c>
-      <c r="F17" t="s">
+    </row>
+    <row r="34" spans="1:6">
+      <c r="B34" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="13" t="s">
+      <c r="F34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" t="s">
+    <row r="37" spans="1:6">
+      <c r="B37" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" t="s">
+    <row r="38" spans="1:6">
+      <c r="B38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" t="s">
+    <row r="39" spans="1:6">
+      <c r="B39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" t="s">
+    <row r="40" spans="1:6">
+      <c r="B40" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" t="s">
+    <row r="41" spans="1:6">
+      <c r="B41" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" t="s">
+    <row r="42" spans="1:6">
+      <c r="B42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" t="s">
+    <row r="43" spans="1:6">
+      <c r="B43" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" t="s">
+    <row r="44" spans="1:6">
+      <c r="B44" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D29" t="s">
+    <row r="45" spans="1:6">
+      <c r="C45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C30" t="s">
+    <row r="46" spans="1:6">
+      <c r="D46" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D31" t="s">
+    <row r="47" spans="1:6">
+      <c r="C47" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" t="s">
+    <row r="48" spans="1:6">
+      <c r="D48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C33" t="s">
+    <row r="49" spans="1:4">
+      <c r="B49" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D34" t="s">
+    <row r="50" spans="1:4">
+      <c r="C50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D35" t="s">
+    <row r="51" spans="1:4">
+      <c r="D51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="13" t="s">
+    <row r="52" spans="1:4">
+      <c r="D52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="13" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C39" t="s">
+    <row r="55" spans="1:4">
+      <c r="B55" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C40" t="s">
+    <row r="56" spans="1:4">
+      <c r="C56" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C41" t="s">
+    <row r="57" spans="1:4">
+      <c r="C57" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="13" t="s">
+    <row r="58" spans="1:4">
+      <c r="C58" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C43" t="s">
+    <row r="59" spans="1:4">
+      <c r="B59" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="C60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="B61" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="C62" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C45" t="s">
+    <row r="63" spans="1:4">
+      <c r="B63" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="C64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="B67" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="C68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="C69" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C52" t="s">
+    <row r="70" spans="1:4">
+      <c r="B70" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="C71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="C72" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="D73" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C54" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D56" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C58" t="s">
+    <row r="74" spans="1:4">
+      <c r="B74" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D59" t="s">
+    <row r="75" spans="1:4">
+      <c r="C75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="D76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="13" t="s">
+    <row r="77" spans="1:4">
+      <c r="C77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="13"/>
-      <c r="B62" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" s="13"/>
+      <c r="B80" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C63" t="s">
+    <row r="81" spans="1:23">
+      <c r="C81" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" t="s">
+    <row r="82" spans="1:23">
+      <c r="B82" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C65" t="s">
+    <row r="83" spans="1:23">
+      <c r="C83" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D66" t="s">
+    <row r="84" spans="1:23">
+      <c r="D84" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C67" t="s">
+    <row r="85" spans="1:23">
+      <c r="C85" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D68" t="s">
+    <row r="86" spans="1:23">
+      <c r="D86" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="13" t="s">
+    <row r="88" spans="1:23">
+      <c r="A88" s="13" t="s">
         <v>26</v>
       </c>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="B89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
+      <c r="B90" t="s">
+        <v>99</v>
+      </c>
+      <c r="K90" t="s">
+        <v>98</v>
+      </c>
+      <c r="S90" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="8"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
+    </row>
+    <row r="92" spans="1:23">
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="7"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="9"/>
+      <c r="V92" s="8"/>
+      <c r="W92" s="9"/>
+    </row>
+    <row r="93" spans="1:23">
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="9"/>
+      <c r="U93" s="8"/>
+      <c r="V93" s="9"/>
+      <c r="W93" s="8"/>
+    </row>
+    <row r="94" spans="1:23">
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="8"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="8"/>
+      <c r="U94" s="9"/>
+      <c r="V94" s="8"/>
+      <c r="W94" s="9"/>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="8"/>
+      <c r="S95" s="8"/>
+      <c r="T95" s="9"/>
+      <c r="U95" s="8"/>
+      <c r="V95" s="9"/>
+      <c r="W95" s="10"/>
+    </row>
+    <row r="96" spans="1:23">
+      <c r="B96" s="9"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="9"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="8"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="8"/>
+      <c r="U96" s="9"/>
+      <c r="V96" s="8"/>
+      <c r="W96" s="9"/>
+    </row>
+    <row r="97" spans="2:23">
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="9"/>
+      <c r="U97" s="8"/>
+      <c r="V97" s="9"/>
+      <c r="W97" s="8"/>
+    </row>
+    <row r="98" spans="2:23">
+      <c r="B98" s="7"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="7"/>
+      <c r="S98" s="7"/>
+      <c r="T98" s="8"/>
+      <c r="U98" s="35"/>
+      <c r="V98" s="8"/>
+      <c r="W98" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4849,14 +5117,14 @@
       <selection pane="bottomLeft" activeCell="BG27" sqref="BG27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:41" ht="16.5" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:41" ht="16.5" customHeight="1">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -4865,7 +5133,7 @@
         <v>9</v>
       </c>
       <c r="Q3" s="37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R3" s="28"/>
       <c r="S3" s="28"/>
@@ -4881,7 +5149,7 @@
       <c r="AN3" s="28"/>
       <c r="AO3" s="28"/>
     </row>
-    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:41" ht="16.5" customHeight="1">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -4903,11 +5171,11 @@
         <v>4</v>
       </c>
       <c r="Q4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AO4" s="28"/>
     </row>
-    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:41" ht="16.5" customHeight="1">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -4930,18 +5198,18 @@
         <v>12</v>
       </c>
       <c r="Q5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="16.5" customHeight="1">
       <c r="D10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="16.5" customHeight="1">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
@@ -4959,7 +5227,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="M11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -4970,7 +5238,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:41" ht="16.5" customHeight="1">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
@@ -5000,20 +5268,20 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:41" ht="16.5" customHeight="1">
       <c r="Y15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="4:59" ht="16.5" customHeight="1">
       <c r="P18" s="12"/>
       <c r="X18" s="34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="4:59" ht="16.5" customHeight="1">
       <c r="F19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -5024,9 +5292,9 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:59" ht="16.5" customHeight="1">
       <c r="F20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -5039,7 +5307,7 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:59" ht="16.5" customHeight="1">
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -5049,10 +5317,10 @@
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
       <c r="Y23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="4:59" ht="16.5" customHeight="1">
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -5062,18 +5330,18 @@
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
     </row>
-    <row r="26" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="4:59" ht="16.5" customHeight="1">
       <c r="X26" t="s">
         <v>10</v>
       </c>
       <c r="AQ26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BG26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="4:59" ht="16.5" customHeight="1">
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
@@ -5105,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="AH27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AQ27" s="1" t="s">
         <v>1</v>
@@ -5130,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="4:59" ht="16.5" customHeight="1">
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -5172,7 +5440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="4:59" ht="16.5" customHeight="1">
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
@@ -5185,13 +5453,13 @@
         <v>25</v>
       </c>
       <c r="AR31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BD31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="4:59" ht="16.5" customHeight="1">
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
@@ -5201,21 +5469,21 @@
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
     </row>
-    <row r="34" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="4:77" ht="16.5" customHeight="1">
       <c r="X34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AQ34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BC34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BR34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="4:77" ht="16.5" customHeight="1">
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -5291,7 +5559,7 @@
         <v>7</v>
       </c>
       <c r="BK35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BR35" s="1" t="s">
         <v>1</v>
@@ -5316,7 +5584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="4:77" ht="16.5" customHeight="1">
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -5390,23 +5658,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="4:77" ht="16.5" customHeight="1">
       <c r="Y39" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="4:77" ht="16.5" customHeight="1">
+      <c r="X42" t="s">
         <v>85</v>
       </c>
-      <c r="AR39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="X42" t="s">
-        <v>86</v>
-      </c>
       <c r="AQ42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="4:77" ht="16.5" customHeight="1">
       <c r="X43" s="1" t="s">
         <v>1</v>
       </c>
@@ -5452,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="4:77" ht="16.5" customHeight="1">
       <c r="X44" s="1"/>
       <c r="Y44" s="1" t="s">
         <v>9</v>
@@ -5486,20 +5754,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="4:77" ht="16.5" customHeight="1">
       <c r="AR47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="4:50" ht="16.5" customHeight="1">
       <c r="D50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AQ50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="4:50" ht="16.5" customHeight="1">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
@@ -5517,7 +5785,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="T51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Y51" s="28"/>
       <c r="Z51" s="28"/>
@@ -5550,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="4:50" ht="16.5" customHeight="1">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
@@ -5594,17 +5862,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="4:50" ht="16.5" customHeight="1">
       <c r="E55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="4:50" ht="16.5" customHeight="1">
       <c r="D58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="4:50" ht="16.5" customHeight="1">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
@@ -5622,7 +5890,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="4:50" ht="16.5" customHeight="1">
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
@@ -5654,57 +5922,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F030F6-1A94-423F-B10C-4ADF616793BD}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL28" sqref="AL28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="16.5" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="16.5" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="16.5" customHeight="1">
       <c r="C4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="16.5" customHeight="1">
       <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:23" ht="16.5" customHeight="1">
       <c r="W17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="16.5" customHeight="1">
       <c r="U18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" ht="16.5" customHeight="1">
       <c r="U19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" ht="16.5" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:23" ht="16.5" customHeight="1">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:23" ht="16.5" customHeight="1">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -5719,7 +5987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:23" ht="16.5" customHeight="1">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -5727,7 +5995,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:23" ht="16.5" customHeight="1">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -5735,7 +6003,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="33" spans="5:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="5:14" ht="16.5" customHeight="1">
       <c r="E33" t="s">
         <v>16</v>
       </c>
@@ -5755,179 +6023,4 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BAFA0E-60A3-435D-9916-121D99EB8EB4}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:W12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AK9" sqref="AK9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:23" ht="29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-    </row>
-    <row r="6" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="7"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="9"/>
-    </row>
-    <row r="7" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="8"/>
-    </row>
-    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="9"/>
-    </row>
-    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="10"/>
-    </row>
-    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="8"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="9"/>
-    </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="8"/>
-    </row>
-    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331AB609-7205-418A-86F8-FE88BB40D310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5BEDD1-AC7C-4977-86B9-9CF1EB6DFE2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1605" windowWidth="28800" windowHeight="13800" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="8250" yWindow="8685" windowWidth="28800" windowHeight="13800" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author>tc={35D6F261-20FF-42C8-91A1-E74B6511CE3A}</author>
   </authors>
   <commentList>
-    <comment ref="K10" authorId="0" shapeId="0" xr:uid="{35D6F261-20FF-42C8-91A1-E74B6511CE3A}">
+    <comment ref="AD49" authorId="0" shapeId="0" xr:uid="{35D6F261-20FF-42C8-91A1-E74B6511CE3A}">
       <text>
         <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="140">
   <si>
     <t>LCD画面遷移</t>
     <rPh sb="3" eb="5">
@@ -660,20 +660,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>どれだけスコア（モグラを撃退した数）を稼げるか競うゲーム」</t>
-  </si>
-  <si>
-    <t>「一定時間内に、4つある穴からランダムに出てくるモグラを消える前に叩き、</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>〇概要</t>
-    <rPh sb="1" eb="3">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>モグラ叩きゲーム 仕様書</t>
     <rPh sb="3" eb="4">
       <t>タタ</t>
@@ -1050,7 +1036,37 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>〇一般的なモグラ叩きゲーム</t>
+    <t>穴に入る前にハンマーで叩き、何匹モグラを撃退したかを競うゲーム」</t>
+    <rPh sb="14" eb="16">
+      <t>ナンヒキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇作成するモグラ叩きゲームの概要</t>
+    <rPh sb="1" eb="3">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「制限時間内に、複数ある穴からランダムに出てくるモグラを、</t>
+    <rPh sb="1" eb="3">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フクスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇一般的なモグラ叩きゲームの概要</t>
     <rPh sb="1" eb="3">
       <t>イッパン</t>
     </rPh>
@@ -1060,32 +1076,130 @@
     <rPh sb="8" eb="9">
       <t>タタ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>絵や図を用いて軽く説明</t>
-    <rPh sb="0" eb="1">
-      <t>エ</t>
+    <rPh sb="14" eb="16">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「元祖モグラたたきゲーム」, バンダイ</t>
+    <rPh sb="1" eb="3">
+      <t>ガンソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・子供用のおもちゃとして販売されていたり、ゲームコーナーなどに設置されている。</t>
+    <rPh sb="1" eb="4">
+      <t>コドモヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンバイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・家庭用のおもちゃは、モグラを叩いて飛び出させ撃退する。</t>
+    <rPh sb="1" eb="3">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タタ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゲキタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームコーナーにあるゲームは、モグラを叩くと穴へ潜り再度穴から出てくるため、何度も撃退することができる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>撃退数をカウントし、ゲームの最後に表示させることで、プレイヤー同士で撃退数を競わせる。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲキタイ</t>
     </rPh>
     <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ゲキタイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>キソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・表示用LCD</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プッシュスイッチ 5つ</t>
+  </si>
+  <si>
+    <t>イメージ図</t>
+    <rPh sb="4" eb="5">
       <t>ズ</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カル</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>〇ブロック図</t>
-    <rPh sb="5" eb="6">
-      <t>ズ</t>
-    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・効果音再生用</t>
+  </si>
+  <si>
+    <t>圧電スピーカー</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1093,7 +1207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1165,13 +1279,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1530,6 +1637,631 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>137432</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>126023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>137432</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142142</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{217882E6-AEA0-4294-BFF5-B6A09A3E665C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1794782" y="7650773"/>
+          <a:ext cx="0" cy="492369"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>273843</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238762</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>29766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0A2A340-0FF0-4B62-8814-1CF2BB2FB247}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="273843" y="619124"/>
+          <a:ext cx="2703357" cy="2887267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>227238</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>98259</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="953569" cy="1030293"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04DA170E-9D16-446A-8D74-C23AC54C3BFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4056026" y="5041996"/>
+          <a:ext cx="1030293" cy="953569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>60933</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>68532</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2695203" cy="1700836"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE56E8DA-E511-4572-AAA0-0B71CB34F517}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="613383" y="4973907"/>
+          <a:ext cx="2695203" cy="1700836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>194164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>239367</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100984</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2A09A9D-A8DA-4DE3-AA42-0118BEA70033}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="6766414"/>
+          <a:ext cx="2277717" cy="621195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PIC16F1827</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>172182</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="323867" cy="260363"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5B5C6B-40F8-401D-A350-B8C10CC5CD62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="841377" y="8379555"/>
+          <a:ext cx="260363" cy="323867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>172182</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="323867" cy="260363"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F5F9D6D-5021-47E4-8027-EAC38F153C8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1441452" y="8617680"/>
+          <a:ext cx="260363" cy="323867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>172182</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="323867" cy="260363"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3C680D-1099-4DA6-9EA4-C962A66D34A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1993902" y="8617680"/>
+          <a:ext cx="260363" cy="323867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>172182</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="323867" cy="260363"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93AADFF4-18AC-47E7-8E5D-772ED612FD75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2555877" y="8617680"/>
+          <a:ext cx="260363" cy="323867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>263768</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E02A7F-CBA1-46A6-A735-A7EFDC12742D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="539993" y="8124092"/>
+          <a:ext cx="3012832" cy="1391383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>39566</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>172182</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="323867" cy="260363"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{920D93C0-6657-4915-A850-A83548DD6EE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3109793" y="8617680"/>
+          <a:ext cx="260363" cy="323867"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>110159</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165589</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8932F41F-1542-432C-961A-05BB2A9370A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="6686550"/>
+          <a:ext cx="5384" cy="289414"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>239368</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114303</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28511</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="コネクタ: カギ線 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88F0F29-A07F-4F96-972A-17866403B4DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="19" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3001618" y="5991225"/>
+          <a:ext cx="1532285" cy="1323911"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -973"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7257</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -2332,7 +3064,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4531,7 +5263,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K10" dT="2020-08-19T02:04:01.42" personId="{FE99E97D-1FE6-4156-B53F-E134D08D23B3}" id="{35D6F261-20FF-42C8-91A1-E74B6511CE3A}">
+  <threadedComment ref="AD49" dT="2020-08-19T02:04:01.42" personId="{FE99E97D-1FE6-4156-B53F-E134D08D23B3}" id="{35D6F261-20FF-42C8-91A1-E74B6511CE3A}">
     <text>実際のモグラ叩きゲームと、作成するものと、実際のどういう動作が何に置き換わるのかなどがわかると良い</text>
   </threadedComment>
 </ThreadedComments>
@@ -4540,571 +5272,677 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A1384-AF86-4BA2-B6E2-C742B67793C6}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W98"/>
+  <dimension ref="A1:AD130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U63" sqref="U63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="28" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="B7" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:11"/>
-    <row r="11" spans="1:11">
-      <c r="A11" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="13"/>
-    </row>
-    <row r="16" spans="1:11" ht="19.5" thickBot="1">
-      <c r="A16" s="13" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A17" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B18" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B19" s="13"/>
+      <c r="P19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" s="13"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" s="13"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" s="13"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" s="13"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" s="13"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A34" s="13"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A35" s="13"/>
+      <c r="D35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A36" s="13"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A37" s="13"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A38" s="13"/>
+      <c r="D38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" t="s">
+        <v>134</v>
+      </c>
+      <c r="H38" t="s">
+        <v>135</v>
+      </c>
+      <c r="J38" t="s">
+        <v>136</v>
+      </c>
+      <c r="L38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A39" s="13"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A40" s="13"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A42" s="13"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A43" s="13"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A44" s="13"/>
+    </row>
+    <row r="48" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="B17" s="27"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="24"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="B18" s="23"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="21"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="B19" s="20"/>
-      <c r="C19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="Q19" s="18"/>
-    </row>
-    <row r="20" spans="1:17" ht="19.5" thickBot="1">
-      <c r="B20" s="17"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="14"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="B21" t="s">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="B49" s="27"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="24"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="B50" s="23"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="21"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="B51" s="20"/>
+      <c r="C51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="Q51" s="18"/>
+    </row>
+    <row r="52" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="17"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="14"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="13" t="s">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A62" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
-      <c r="B31" t="s">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
         <v>75</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
-      <c r="B32" t="s">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="B64" t="s">
         <v>73</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F64" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="B33" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B65" t="s">
         <v>71</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F65" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="B34" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B66" t="s">
         <v>69</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F66" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="13" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="B37" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B69" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="B38" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B70" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="B39" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B71" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="B40" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B72" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="B41" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B73" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="B42" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B74" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="B43" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="B44" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B76" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="C45" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C77" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="D46" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D78" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="C47" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C79" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="D48" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D80" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="B49" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B81" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="C50" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C82" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="D51" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D83" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="D52" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D84" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="13" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="B55" s="13" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B87" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="C56" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C88" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="C57" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C89" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="C58" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C90" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="B59" s="13" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B91" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="C60" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C92" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B93" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C94" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B95" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C96" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B99" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C100" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C101" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B102" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C103" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C104" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D105" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="B61" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="C62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="B63" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="C64" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="B67" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="C68" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="C69" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="B70" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="C71" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="C72" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="D73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="B74" s="13" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B106" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="C75" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="D76" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C107" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D108" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="C77" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="13" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C109" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="13"/>
-      <c r="B80" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" s="13"/>
+      <c r="B112" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
-      <c r="C81" t="s">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C113" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
-      <c r="B82" t="s">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B114" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
-      <c r="C83" t="s">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C115" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
-      <c r="D84" t="s">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="D116" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
-      <c r="C85" t="s">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C117" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
-      <c r="D86" t="s">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="D118" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
-      <c r="A88" s="13" t="s">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A120" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
-      <c r="B89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23">
-      <c r="B90" t="s">
-        <v>99</v>
-      </c>
-      <c r="K90" t="s">
-        <v>98</v>
-      </c>
-      <c r="S90" t="s">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B121" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="S91" s="9"/>
-      <c r="T91" s="9"/>
-      <c r="U91" s="8"/>
-      <c r="V91" s="9"/>
-      <c r="W91" s="9"/>
-    </row>
-    <row r="92" spans="1:23">
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="7"/>
-      <c r="S92" s="9"/>
-      <c r="T92" s="8"/>
-      <c r="U92" s="9"/>
-      <c r="V92" s="8"/>
-      <c r="W92" s="9"/>
-    </row>
-    <row r="93" spans="1:23">
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="8"/>
-      <c r="S93" s="8"/>
-      <c r="T93" s="9"/>
-      <c r="U93" s="8"/>
-      <c r="V93" s="9"/>
-      <c r="W93" s="8"/>
-    </row>
-    <row r="94" spans="1:23">
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="8"/>
-      <c r="S94" s="9"/>
-      <c r="T94" s="8"/>
-      <c r="U94" s="9"/>
-      <c r="V94" s="8"/>
-      <c r="W94" s="9"/>
-    </row>
-    <row r="95" spans="1:23">
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="8"/>
-      <c r="S95" s="8"/>
-      <c r="T95" s="9"/>
-      <c r="U95" s="8"/>
-      <c r="V95" s="9"/>
-      <c r="W95" s="10"/>
-    </row>
-    <row r="96" spans="1:23">
-      <c r="B96" s="9"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="9"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="9"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="9"/>
-      <c r="O96" s="8"/>
-      <c r="S96" s="9"/>
-      <c r="T96" s="8"/>
-      <c r="U96" s="9"/>
-      <c r="V96" s="8"/>
-      <c r="W96" s="9"/>
-    </row>
-    <row r="97" spans="2:23">
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="9"/>
-      <c r="M97" s="9"/>
-      <c r="N97" s="9"/>
-      <c r="O97" s="8"/>
-      <c r="S97" s="8"/>
-      <c r="T97" s="9"/>
-      <c r="U97" s="8"/>
-      <c r="V97" s="9"/>
-      <c r="W97" s="8"/>
-    </row>
-    <row r="98" spans="2:23">
-      <c r="B98" s="7"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="7"/>
-      <c r="S98" s="7"/>
-      <c r="T98" s="8"/>
-      <c r="U98" s="35"/>
-      <c r="V98" s="8"/>
-      <c r="W98" s="7"/>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B122" t="s">
+        <v>96</v>
+      </c>
+      <c r="K122" t="s">
+        <v>95</v>
+      </c>
+      <c r="S122" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="K123" s="7"/>
+      <c r="L123" s="7"/>
+      <c r="M123" s="8"/>
+      <c r="N123" s="7"/>
+      <c r="O123" s="7"/>
+      <c r="S123" s="9"/>
+      <c r="T123" s="9"/>
+      <c r="U123" s="8"/>
+      <c r="V123" s="9"/>
+      <c r="W123" s="9"/>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="K124" s="7"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="8"/>
+      <c r="O124" s="7"/>
+      <c r="S124" s="9"/>
+      <c r="T124" s="8"/>
+      <c r="U124" s="9"/>
+      <c r="V124" s="8"/>
+      <c r="W124" s="9"/>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="7"/>
+      <c r="M125" s="7"/>
+      <c r="N125" s="7"/>
+      <c r="O125" s="8"/>
+      <c r="S125" s="8"/>
+      <c r="T125" s="9"/>
+      <c r="U125" s="8"/>
+      <c r="V125" s="9"/>
+      <c r="W125" s="8"/>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="8"/>
+      <c r="O126" s="8"/>
+      <c r="S126" s="9"/>
+      <c r="T126" s="8"/>
+      <c r="U126" s="9"/>
+      <c r="V126" s="8"/>
+      <c r="W126" s="9"/>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="7"/>
+      <c r="O127" s="8"/>
+      <c r="S127" s="8"/>
+      <c r="T127" s="9"/>
+      <c r="U127" s="8"/>
+      <c r="V127" s="9"/>
+      <c r="W127" s="10"/>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B128" s="9"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="9"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="9"/>
+      <c r="O128" s="8"/>
+      <c r="S128" s="9"/>
+      <c r="T128" s="8"/>
+      <c r="U128" s="9"/>
+      <c r="V128" s="8"/>
+      <c r="W128" s="9"/>
+    </row>
+    <row r="129" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="8"/>
+      <c r="S129" s="8"/>
+      <c r="T129" s="9"/>
+      <c r="U129" s="8"/>
+      <c r="V129" s="9"/>
+      <c r="W129" s="8"/>
+    </row>
+    <row r="130" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B130" s="7"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="7"/>
+      <c r="K130" s="7"/>
+      <c r="L130" s="8"/>
+      <c r="M130" s="8"/>
+      <c r="N130" s="8"/>
+      <c r="O130" s="7"/>
+      <c r="S130" s="7"/>
+      <c r="T130" s="8"/>
+      <c r="U130" s="35"/>
+      <c r="V130" s="8"/>
+      <c r="W130" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5113,18 +5951,18 @@
   <dimension ref="A1:BY60"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="BG27" sqref="BG27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:41" ht="16.5" customHeight="1">
+    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="16.5" customHeight="1">
+    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -5133,7 +5971,7 @@
         <v>9</v>
       </c>
       <c r="Q3" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="R3" s="28"/>
       <c r="S3" s="28"/>
@@ -5149,7 +5987,7 @@
       <c r="AN3" s="28"/>
       <c r="AO3" s="28"/>
     </row>
-    <row r="4" spans="1:41" ht="16.5" customHeight="1">
+    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -5171,11 +6009,11 @@
         <v>4</v>
       </c>
       <c r="Q4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AO4" s="28"/>
     </row>
-    <row r="5" spans="1:41" ht="16.5" customHeight="1">
+    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -5198,18 +6036,18 @@
         <v>12</v>
       </c>
       <c r="Q5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" ht="16.5" customHeight="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="X10" s="34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" ht="16.5" customHeight="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
@@ -5227,7 +6065,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="M11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -5238,7 +6076,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:41" ht="16.5" customHeight="1">
+    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
@@ -5268,20 +6106,20 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="15" spans="1:41" ht="16.5" customHeight="1">
+    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Y15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="4:59" ht="16.5" customHeight="1">
+    <row r="18" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="P18" s="12"/>
       <c r="X18" s="34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="4:59" ht="16.5" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F19" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -5292,9 +6130,9 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="4:59" ht="16.5" customHeight="1">
+    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -5307,7 +6145,7 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="23" spans="4:59" ht="16.5" customHeight="1">
+    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
@@ -5317,10 +6155,10 @@
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
       <c r="Y23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="4:59" ht="16.5" customHeight="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
@@ -5330,18 +6168,18 @@
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
     </row>
-    <row r="26" spans="4:59" ht="16.5" customHeight="1">
+    <row r="26" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X26" t="s">
         <v>10</v>
       </c>
       <c r="AQ26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="BG26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="4:59" ht="16.5" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
@@ -5373,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="AH27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AQ27" s="1" t="s">
         <v>1</v>
@@ -5398,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:59" ht="16.5" customHeight="1">
+    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -5440,7 +6278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="4:59" ht="16.5" customHeight="1">
+    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
       <c r="F31" s="28"/>
@@ -5453,13 +6291,13 @@
         <v>25</v>
       </c>
       <c r="AR31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="BD31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="4:59" ht="16.5" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
@@ -5469,21 +6307,21 @@
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
     </row>
-    <row r="34" spans="4:77" ht="16.5" customHeight="1">
+    <row r="34" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AQ34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BC34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BR34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="4:77" ht="16.5" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
@@ -5559,7 +6397,7 @@
         <v>7</v>
       </c>
       <c r="BK35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="BR35" s="1" t="s">
         <v>1</v>
@@ -5584,7 +6422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="4:77" ht="16.5" customHeight="1">
+    <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
@@ -5658,23 +6496,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="4:77" ht="16.5" customHeight="1">
+    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Y39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AR39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="4:77" ht="16.5" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AQ42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="4:77" ht="16.5" customHeight="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X43" s="1" t="s">
         <v>1</v>
       </c>
@@ -5720,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:77" ht="16.5" customHeight="1">
+    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X44" s="1"/>
       <c r="Y44" s="1" t="s">
         <v>9</v>
@@ -5754,20 +6592,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="4:77" ht="16.5" customHeight="1">
+    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AR47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="4:50" ht="16.5" customHeight="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D50" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AQ50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="4:50" ht="16.5" customHeight="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
@@ -5785,7 +6623,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="T51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Y51" s="28"/>
       <c r="Z51" s="28"/>
@@ -5818,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:50" ht="16.5" customHeight="1">
+    <row r="52" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
@@ -5862,17 +6700,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="4:50" ht="16.5" customHeight="1">
+    <row r="55" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="4:50" ht="16.5" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="4:50" ht="16.5" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
@@ -5890,7 +6728,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="4:50" ht="16.5" customHeight="1">
+    <row r="60" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
@@ -5927,52 +6765,52 @@
       <selection pane="bottomLeft" activeCell="AL28" sqref="AL28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1">
+    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1">
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1">
+    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1">
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="16.5" customHeight="1">
+    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" ht="16.5" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" ht="16.5" customHeight="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" ht="16.5" customHeight="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="16.5" customHeight="1">
+    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="16.5" customHeight="1">
+    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -5987,7 +6825,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="16.5" customHeight="1">
+    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -5995,7 +6833,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:23" ht="16.5" customHeight="1">
+    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -6003,7 +6841,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="33" spans="5:14" ht="16.5" customHeight="1">
+    <row r="33" spans="5:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E33" t="s">
         <v>16</v>
       </c>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5BEDD1-AC7C-4977-86B9-9CF1EB6DFE2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF9092E-DBEF-4DE9-BE20-E899198AE05D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="8685" windowWidth="28800" windowHeight="13800" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="140">
   <si>
     <t>LCD画面遷移</t>
     <rPh sb="3" eb="5">
@@ -649,17 +649,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>※</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>〇イメージ画面</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>モグラ叩きゲーム 仕様書</t>
     <rPh sb="3" eb="4">
       <t>タタ</t>
@@ -1156,16 +1145,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・表示用LCD</t>
-    <rPh sb="1" eb="3">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プッシュスイッチ 5つ</t>
   </si>
   <si>
@@ -1200,6 +1179,39 @@
   </si>
   <si>
     <t>圧電スピーカー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・表示用LCD(実機はモノクロ)</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スコア(撃退数)</t>
+    <rPh sb="4" eb="6">
+      <t>ゲキタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>残り時間(s)</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1207,7 +1219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1280,6 +1292,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1319,7 +1339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1364,15 +1384,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1391,33 +1402,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1466,15 +1450,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1495,13 +1470,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1535,55 +1600,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1615,6 +1635,84 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1738,8 +1836,8 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>227238</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>218167</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>98259</xdr:rowOff>
     </xdr:from>
@@ -1765,53 +1863,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4056026" y="5041996"/>
+          <a:off x="5078376" y="4817478"/>
           <a:ext cx="1030293" cy="953569"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>60933</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>68532</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2695203" cy="1700836"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE56E8DA-E511-4572-AAA0-0B71CB34F517}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="613383" y="4973907"/>
-          <a:ext cx="2695203" cy="1700836"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1912,7 +1965,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1951,7 +2004,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1990,7 +2043,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2029,7 +2082,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2128,7 +2181,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2199,15 +2252,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>239368</xdr:colOff>
+      <xdr:colOff>239367</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>212338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114303</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>150665</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>28511</xdr:rowOff>
+      <xdr:rowOff>34182</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2219,18 +2272,17 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
           <a:endCxn id="19" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3001618" y="5991225"/>
-          <a:ext cx="1532285" cy="1323911"/>
+        <a:xfrm rot="5400000">
+          <a:off x="3681344" y="5088861"/>
+          <a:ext cx="1191630" cy="2632726"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -973"/>
-          </a:avLst>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
@@ -2253,6 +2305,182 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5521</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>18144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161A8557-D9B9-4C3C-AD52-1D4B4DA21489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="817217" y="5832535"/>
+          <a:ext cx="535609" cy="445683"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5522</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>265043</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D988E543-33FA-417E-8357-FD273ED3F732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981739" y="5825435"/>
+          <a:ext cx="530087" cy="452782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11043</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>270565</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD049E36-FAA3-4447-8F53-434B108D77E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4069521" y="5825435"/>
+          <a:ext cx="530087" cy="452782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BBB42E4-CB9A-4EAD-BD09-7E60811DB79A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1910522" y="5830957"/>
+          <a:ext cx="524565" cy="447261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4092,8 +4320,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1242559" y="1242559"/>
-          <a:ext cx="2484615" cy="3107243"/>
+          <a:off x="1259125" y="1259125"/>
+          <a:ext cx="2517745" cy="3148655"/>
           <a:chOff x="419652" y="1258957"/>
           <a:chExt cx="2517913" cy="3148823"/>
         </a:xfrm>
@@ -5272,672 +5500,701 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A1384-AF86-4BA2-B6E2-C742B67793C6}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD130"/>
+  <dimension ref="A1:AD110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U63" sqref="U63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="28" width="3.625" customWidth="1"/>
+    <col min="1" max="28" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
+    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="L3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="L4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="L6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="L3" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="L7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="L4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="L6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="L7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M8" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="12"/>
+      <c r="S19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+      <c r="T20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="48"/>
+      <c r="D21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="47"/>
+      <c r="D22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="37">
+        <v>0</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37">
+        <v>0</v>
+      </c>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37">
+        <v>0</v>
+      </c>
+      <c r="I24" s="36"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="42"/>
+      <c r="N24" s="41">
+        <v>5</v>
+      </c>
+      <c r="O24" s="42"/>
+      <c r="P24" s="41">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="43"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="46"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="12"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="29"/>
+    </row>
+    <row r="27" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="12"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="30"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="12"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="12"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="12"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="12"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="12"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="12"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="12"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="12"/>
+      <c r="D35" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A17" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B18" s="13" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="12"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="12"/>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" t="s">
+        <v>131</v>
+      </c>
+      <c r="H38" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B19" s="13"/>
-      <c r="P19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="C20" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26" s="13"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A27" s="13"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A28" s="13"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A29" s="13"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A30" s="13"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A31" s="13"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A32" s="13"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="13"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="13"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="13"/>
-      <c r="D35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" s="13"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="13"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="13"/>
-      <c r="D38" t="s">
+      <c r="J38" t="s">
         <v>133</v>
       </c>
-      <c r="F38" t="s">
+      <c r="L38" t="s">
         <v>134</v>
       </c>
-      <c r="H38" t="s">
-        <v>135</v>
-      </c>
-      <c r="J38" t="s">
-        <v>136</v>
-      </c>
-      <c r="L38" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="13"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="13"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="13"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="13"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="13"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="13"/>
-    </row>
-    <row r="48" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B49" s="27"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="24"/>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B50" s="23"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="21"/>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B51" s="20"/>
-      <c r="C51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="Q51" s="18"/>
-    </row>
-    <row r="52" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="17"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="14"/>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="12"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="12"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="12"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="2:30" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="A62" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B63" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.4">
-      <c r="B64" t="s">
-        <v>73</v>
-      </c>
-      <c r="F64" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B65" t="s">
-        <v>71</v>
-      </c>
-      <c r="F65" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B66" t="s">
-        <v>69</v>
-      </c>
-      <c r="F66" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B69" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B70" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B71" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B72" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B73" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B74" t="s">
+    <row r="54" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B75" t="s">
+    <row r="55" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B76" t="s">
+    <row r="56" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C77" t="s">
+    <row r="57" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="C57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D78" t="s">
+    <row r="58" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="D58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C79" t="s">
+    <row r="59" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="C59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D80" t="s">
+    <row r="60" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="D60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B81" t="s">
+    <row r="61" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C82" t="s">
+    <row r="62" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="C62" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D83" t="s">
+    <row r="63" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="D63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D84" t="s">
+    <row r="64" spans="2:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="D64" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" s="13" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B87" s="13" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C88" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C68" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C76" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C83" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C84" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C89" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C90" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B91" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C92" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B93" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C94" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B95" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C96" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A98" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B99" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C100" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C101" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B102" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C103" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C104" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D105" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B106" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="D108" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C109" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A112" s="13"/>
-      <c r="B112" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="12"/>
+      <c r="B92" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C113" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C93" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B114" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C115" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C95" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="D116" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D96" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C117" t="s">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="C97" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="D118" t="s">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="D98" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A120" s="13" t="s">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B121" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B122" t="s">
-        <v>96</v>
-      </c>
-      <c r="K122" t="s">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101" t="s">
         <v>95</v>
       </c>
-      <c r="S122" t="s">
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="K123" s="7"/>
-      <c r="L123" s="7"/>
-      <c r="M123" s="8"/>
-      <c r="N123" s="7"/>
-      <c r="O123" s="7"/>
-      <c r="S123" s="9"/>
-      <c r="T123" s="9"/>
-      <c r="U123" s="8"/>
-      <c r="V123" s="9"/>
-      <c r="W123" s="9"/>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="K124" s="7"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="7"/>
-      <c r="N124" s="8"/>
-      <c r="O124" s="7"/>
-      <c r="S124" s="9"/>
-      <c r="T124" s="8"/>
-      <c r="U124" s="9"/>
-      <c r="V124" s="8"/>
-      <c r="W124" s="9"/>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="7"/>
-      <c r="M125" s="7"/>
-      <c r="N125" s="7"/>
-      <c r="O125" s="8"/>
-      <c r="S125" s="8"/>
-      <c r="T125" s="9"/>
-      <c r="U125" s="8"/>
-      <c r="V125" s="9"/>
-      <c r="W125" s="8"/>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="K126" s="8"/>
-      <c r="L126" s="8"/>
-      <c r="M126" s="7"/>
-      <c r="N126" s="8"/>
-      <c r="O126" s="8"/>
-      <c r="S126" s="9"/>
-      <c r="T126" s="8"/>
-      <c r="U126" s="9"/>
-      <c r="V126" s="8"/>
-      <c r="W126" s="9"/>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="K127" s="8"/>
-      <c r="L127" s="7"/>
-      <c r="M127" s="7"/>
-      <c r="N127" s="7"/>
-      <c r="O127" s="8"/>
-      <c r="S127" s="8"/>
-      <c r="T127" s="9"/>
-      <c r="U127" s="8"/>
-      <c r="V127" s="9"/>
-      <c r="W127" s="10"/>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B128" s="9"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="9"/>
-      <c r="K128" s="8"/>
-      <c r="L128" s="9"/>
-      <c r="M128" s="8"/>
-      <c r="N128" s="9"/>
-      <c r="O128" s="8"/>
-      <c r="S128" s="9"/>
-      <c r="T128" s="8"/>
-      <c r="U128" s="9"/>
-      <c r="V128" s="8"/>
-      <c r="W128" s="9"/>
-    </row>
-    <row r="129" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="K129" s="8"/>
-      <c r="L129" s="9"/>
-      <c r="M129" s="9"/>
-      <c r="N129" s="9"/>
-      <c r="O129" s="8"/>
-      <c r="S129" s="8"/>
-      <c r="T129" s="9"/>
-      <c r="U129" s="8"/>
-      <c r="V129" s="9"/>
-      <c r="W129" s="8"/>
-    </row>
-    <row r="130" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B130" s="7"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="7"/>
-      <c r="K130" s="7"/>
-      <c r="L130" s="8"/>
-      <c r="M130" s="8"/>
-      <c r="N130" s="8"/>
-      <c r="O130" s="7"/>
-      <c r="S130" s="7"/>
-      <c r="T130" s="8"/>
-      <c r="U130" s="35"/>
-      <c r="V130" s="8"/>
-      <c r="W130" s="7"/>
+      <c r="K102" t="s">
+        <v>93</v>
+      </c>
+      <c r="S102" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="8"/>
+      <c r="V103" s="9"/>
+      <c r="W103" s="9"/>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="7"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="8"/>
+      <c r="U104" s="9"/>
+      <c r="V104" s="8"/>
+      <c r="W104" s="9"/>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="8"/>
+      <c r="S105" s="8"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="8"/>
+      <c r="V105" s="9"/>
+      <c r="W105" s="8"/>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="8"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="8"/>
+      <c r="U106" s="9"/>
+      <c r="V106" s="8"/>
+      <c r="W106" s="9"/>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="8"/>
+      <c r="S107" s="8"/>
+      <c r="T107" s="9"/>
+      <c r="U107" s="8"/>
+      <c r="V107" s="9"/>
+      <c r="W107" s="10"/>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B108" s="9"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="9"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="8"/>
+      <c r="S108" s="9"/>
+      <c r="T108" s="8"/>
+      <c r="U108" s="9"/>
+      <c r="V108" s="8"/>
+      <c r="W108" s="9"/>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="8"/>
+      <c r="S109" s="8"/>
+      <c r="T109" s="9"/>
+      <c r="U109" s="8"/>
+      <c r="V109" s="9"/>
+      <c r="W109" s="8"/>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B110" s="7"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="7"/>
+      <c r="K110" s="7"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="7"/>
+      <c r="S110" s="7"/>
+      <c r="T110" s="8"/>
+      <c r="U110" s="20"/>
+      <c r="V110" s="8"/>
+      <c r="W110" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="N24:O25"/>
+    <mergeCell ref="P24:Q25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="N26:O27"/>
+    <mergeCell ref="P26:Q27"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="L24:M25"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5955,39 +6212,39 @@
       <selection pane="bottomLeft" activeCell="BG27" sqref="BG27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28" t="s">
+      <c r="O3" s="13"/>
+      <c r="P3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-    </row>
-    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q3" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+    </row>
+    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -6004,16 +6261,16 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="O4" s="28"/>
+      <c r="O4" s="13"/>
       <c r="P4" t="s">
         <v>4</v>
       </c>
       <c r="Q4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO4" s="28"/>
-    </row>
-    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+      <c r="AO4" s="13"/>
+    </row>
+    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -6036,18 +6293,18 @@
         <v>12</v>
       </c>
       <c r="Q5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" t="s">
-        <v>88</v>
-      </c>
-      <c r="X10" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+      <c r="X10" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
@@ -6065,7 +6322,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="M11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -6076,7 +6333,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
@@ -6106,20 +6363,20 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Y15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="P18" s="12"/>
-      <c r="X18" s="34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P18" s="11"/>
+      <c r="X18" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -6130,9 +6387,9 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -6145,49 +6402,49 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
+    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
       <c r="Y23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-    </row>
-    <row r="26" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="26" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X26" t="s">
         <v>10</v>
       </c>
       <c r="AQ26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BG26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
       <c r="X27" s="1" t="s">
         <v>1</v>
       </c>
@@ -6201,17 +6458,17 @@
         <v>0</v>
       </c>
       <c r="AB27" s="1"/>
-      <c r="AC27" s="31" t="s">
+      <c r="AC27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AD27" s="30">
+      <c r="AD27" s="15">
         <v>6</v>
       </c>
-      <c r="AE27" s="30">
+      <c r="AE27" s="15">
         <v>0</v>
       </c>
       <c r="AH27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AQ27" s="1" t="s">
         <v>1</v>
@@ -6236,15 +6493,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
+    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1" t="s">
         <v>9</v>
@@ -6262,7 +6519,7 @@
         <v>9</v>
       </c>
       <c r="AQ28" s="1"/>
-      <c r="AR28" s="32" t="s">
+      <c r="AR28" s="17" t="s">
         <v>4</v>
       </c>
       <c r="AS28" s="1"/>
@@ -6278,58 +6535,58 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
+    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
       <c r="Y31" t="s">
         <v>25</v>
       </c>
       <c r="AR31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BD31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-    </row>
-    <row r="34" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="34" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AQ34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BC34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BR34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
       <c r="X35" s="1" t="s">
         <v>1</v>
       </c>
@@ -6343,25 +6600,25 @@
         <v>0</v>
       </c>
       <c r="AB35" s="1"/>
-      <c r="AC35" s="31" t="s">
+      <c r="AC35" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AD35" s="30">
+      <c r="AD35" s="15">
         <v>5</v>
       </c>
-      <c r="AE35" s="30">
+      <c r="AE35" s="15">
         <v>9</v>
       </c>
-      <c r="AQ35" s="33" t="s">
+      <c r="AQ35" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AR35" s="33">
+      <c r="AR35" s="18">
         <v>0</v>
       </c>
-      <c r="AS35" s="33">
+      <c r="AS35" s="18">
         <v>0</v>
       </c>
-      <c r="AT35" s="33">
+      <c r="AT35" s="18">
         <v>1</v>
       </c>
       <c r="AU35" s="1"/>
@@ -6387,17 +6644,17 @@
         <v>0</v>
       </c>
       <c r="BG35" s="1"/>
-      <c r="BH35" s="31" t="s">
+      <c r="BH35" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="BI35" s="30">
+      <c r="BI35" s="15">
         <v>5</v>
       </c>
-      <c r="BJ35" s="30">
+      <c r="BJ35" s="15">
         <v>7</v>
       </c>
       <c r="BK35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BR35" s="1" t="s">
         <v>1</v>
@@ -6412,25 +6669,25 @@
         <v>0</v>
       </c>
       <c r="BV35" s="1"/>
-      <c r="BW35" s="31" t="s">
+      <c r="BW35" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="BX35" s="30">
+      <c r="BX35" s="15">
         <v>5</v>
       </c>
-      <c r="BY35" s="30">
+      <c r="BY35" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
+    <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1" t="s">
         <v>9</v>
@@ -6448,7 +6705,7 @@
         <v>9</v>
       </c>
       <c r="AQ36" s="1"/>
-      <c r="AR36" s="32" t="s">
+      <c r="AR36" s="17" t="s">
         <v>12</v>
       </c>
       <c r="AS36" s="1"/>
@@ -6496,23 +6753,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Y39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AR39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AQ42" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X43" s="1" t="s">
         <v>1</v>
       </c>
@@ -6526,13 +6783,13 @@
         <v>0</v>
       </c>
       <c r="AB43" s="1"/>
-      <c r="AC43" s="31" t="s">
+      <c r="AC43" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AD43" s="30">
+      <c r="AD43" s="15">
         <v>0</v>
       </c>
-      <c r="AE43" s="30">
+      <c r="AE43" s="15">
         <v>0</v>
       </c>
       <c r="AQ43" s="1" t="s">
@@ -6558,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X44" s="1"/>
       <c r="Y44" s="1" t="s">
         <v>9</v>
@@ -6576,7 +6833,7 @@
         <v>9</v>
       </c>
       <c r="AQ44" s="1"/>
-      <c r="AR44" s="32" t="s">
+      <c r="AR44" s="17" t="s">
         <v>9</v>
       </c>
       <c r="AS44" s="1"/>
@@ -6592,20 +6849,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AR47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AQ50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
@@ -6623,40 +6880,40 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="T51" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="28"/>
-      <c r="AB51" s="28"/>
-      <c r="AC51" s="28"/>
-      <c r="AD51" s="29"/>
-      <c r="AE51" s="28"/>
-      <c r="AF51" s="28"/>
-      <c r="AQ51" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y51" s="13"/>
+      <c r="Z51" s="13"/>
+      <c r="AA51" s="13"/>
+      <c r="AB51" s="13"/>
+      <c r="AC51" s="13"/>
+      <c r="AD51" s="14"/>
+      <c r="AE51" s="13"/>
+      <c r="AF51" s="13"/>
+      <c r="AQ51" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AR51" s="33">
+      <c r="AR51" s="18">
         <v>0</v>
       </c>
-      <c r="AS51" s="33">
+      <c r="AS51" s="18">
         <v>3</v>
       </c>
-      <c r="AT51" s="33">
+      <c r="AT51" s="18">
         <v>0</v>
       </c>
       <c r="AU51" s="1"/>
-      <c r="AV51" s="31" t="s">
+      <c r="AV51" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AW51" s="30">
+      <c r="AW51" s="15">
         <v>0</v>
       </c>
-      <c r="AX51" s="30">
+      <c r="AX51" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
@@ -6666,23 +6923,23 @@
         <v>1</v>
       </c>
       <c r="H52" s="1"/>
-      <c r="I52" s="33">
+      <c r="I52" s="18">
         <v>0</v>
       </c>
-      <c r="J52" s="33">
+      <c r="J52" s="18">
         <v>3</v>
       </c>
-      <c r="K52" s="33">
+      <c r="K52" s="18">
         <v>0</v>
       </c>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28"/>
-      <c r="AA52" s="28"/>
-      <c r="AB52" s="28"/>
-      <c r="AC52" s="28"/>
-      <c r="AD52" s="28"/>
-      <c r="AE52" s="28"/>
-      <c r="AF52" s="28"/>
+      <c r="Y52" s="13"/>
+      <c r="Z52" s="13"/>
+      <c r="AA52" s="13"/>
+      <c r="AB52" s="13"/>
+      <c r="AC52" s="13"/>
+      <c r="AD52" s="13"/>
+      <c r="AE52" s="13"/>
+      <c r="AF52" s="13"/>
       <c r="AQ52" s="1"/>
       <c r="AR52" s="1" t="s">
         <v>9</v>
@@ -6700,17 +6957,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
@@ -6728,7 +6985,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
@@ -6738,13 +6995,13 @@
         <v>1</v>
       </c>
       <c r="H60" s="1"/>
-      <c r="I60" s="33">
+      <c r="I60" s="18">
         <v>0</v>
       </c>
-      <c r="J60" s="33">
+      <c r="J60" s="18">
         <v>3</v>
       </c>
-      <c r="K60" s="33">
+      <c r="K60" s="18">
         <v>0</v>
       </c>
     </row>
@@ -6765,52 +7022,52 @@
       <selection pane="bottomLeft" activeCell="AL28" sqref="AL28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="U18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="U19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -6825,7 +7082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -6833,7 +7090,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -6841,7 +7098,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="33" spans="5:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" t="s">
         <v>16</v>
       </c>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF9092E-DBEF-4DE9-BE20-E899198AE05D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60285EF-2A21-42ED-83BC-F8F04A2B5B8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -34,26 +34,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={35D6F261-20FF-42C8-91A1-E74B6511CE3A}</author>
-  </authors>
-  <commentList>
-    <comment ref="AD49" authorId="0" shapeId="0" xr:uid="{35D6F261-20FF-42C8-91A1-E74B6511CE3A}">
-      <text>
-        <t>[スレッド化されたコメント]
-使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
-コメント:
-    実際のモグラ叩きゲームと、作成するものと、実際のどういう動作が何に置き換わるのかなどがわかると良い</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="155">
   <si>
     <t>LCD画面遷移</t>
     <rPh sb="3" eb="5">
@@ -273,28 +255,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>短く2回鳴動する（音程は要調整）</t>
-    <rPh sb="0" eb="1">
-      <t>ミジカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>メイドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>オンテイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・モグラを叩いた時</t>
     <rPh sb="5" eb="6">
       <t>タタ</t>
@@ -353,25 +313,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・制限時間が経過すると、画面が点滅し、</t>
-    <rPh sb="1" eb="3">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケイカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テンメツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・制限時間が経過するまで、上記のゲームルールを元にゲームを行う。</t>
     <rPh sb="13" eb="15">
       <t>ジョウキ</t>
@@ -507,138 +448,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・タイトル画面に、今までのプレイででたスコアの中のハイスコアが表示される</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・ハイスコアの記録</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・モグラの表示時間（ボタン押下許容時間）が短くなっていく</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・段々難しくなる</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・やりこみ要素</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・制限時間は60秒</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・モグラがいない時に叩く（スイッチを押す）と、お手付きとなり、音が鳴りペナルティを受けてしまう</t>
-    <rPh sb="10" eb="11">
-      <t>タタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・モグラを叩くと、音が鳴り、スコアが1もらえる</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・モグラは叩くか一定時間で消えてしまう</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・モグラが出現している間に、穴に対応したスイッチを押すと、モグラを叩くことができる</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・モグラの最大出現数は4匹</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・1マスずつ空けて、穴が4つあり、それぞれの穴からモグラがランダムで出現する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>〇ゲームルール</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>左から4番目の穴のモグラを叩く</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンメ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アナ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・スイッチ4</t>
-  </si>
-  <si>
-    <t>左から3番目の穴のモグラを叩く</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンメ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アナ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・スイッチ3</t>
-  </si>
-  <si>
-    <t>左から2番目の穴のモグラを叩く</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンメ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アナ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・スイッチ2</t>
-  </si>
-  <si>
-    <t>左から1番目の穴のモグラを叩く</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンメ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アナ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・スイッチ1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>〇操作方法</t>
     <rPh sb="1" eb="3">
       <t>ソウサ</t>
@@ -711,10 +520,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一定時間経過、もしくは、スタート・ストップのスイッチが押されると、タイトル画面へ戻る。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>タイトル画面</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -769,20 +574,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>叩かれたモグラ</t>
-    <rPh sb="0" eb="1">
-      <t>タタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>出現したモグラ</t>
-    <rPh sb="0" eb="2">
-      <t>シュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>（モグラ非表示）</t>
     <rPh sb="4" eb="7">
       <t>ヒヒョウジ</t>
@@ -790,9 +581,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>モグラの穴</t>
-  </si>
-  <si>
     <t>タイトル画面(ハイスコア維持)</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -1182,19 +970,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・表示用LCD(実機はモノクロ)</t>
-    <rPh sb="1" eb="3">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジッキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>スコア(撃退数)</t>
     <rPh sb="4" eb="6">
       <t>ゲキタイ</t>
@@ -1211,6 +986,442 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※背景色は説明のために付けている。</t>
+    <rPh sb="1" eb="4">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実機では色はつかない。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・表示用LCD</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>穴①</t>
+    <rPh sb="0" eb="1">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>穴②</t>
+    <rPh sb="0" eb="1">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>穴③</t>
+    <rPh sb="0" eb="1">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>穴④</t>
+    <rPh sb="0" eb="1">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・SW1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・SW2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・SW3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・SW4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>穴①のモグラを叩く</t>
+    <rPh sb="0" eb="1">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>穴②のモグラを叩く</t>
+    <rPh sb="0" eb="1">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>穴③のモグラを叩く</t>
+    <rPh sb="0" eb="1">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>穴④のモグラを叩く</t>
+    <rPh sb="0" eb="1">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・SW5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームをスタートさせる。タイトル画面へ戻る。</t>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モグラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>穴</t>
+    <rPh sb="0" eb="1">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ゲームルール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スタート・ストップのスイッチが押されると、タイトル画面へ戻る。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・制限時間が経過すると、画面の点滅、ブザー音の鳴動により、ゲーム終了を知らせる。</t>
+    <rPh sb="1" eb="3">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テンメツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>メイドウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ゲーム終了</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハイスコアを更新した場合としていない場合で音色を分ける（詳細は今後決定の予定）</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ネイロ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・モグラの出現時間は、最大2秒、最小0.2秒の間で、時間経過と共に短くなっていく。</t>
+    <rPh sb="5" eb="7">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ミジカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・モグラの出現間隔は、</t>
+    <rPh sb="5" eb="7">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・60秒間に150匹程度</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・時間経過でランダムに減少</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>短く2回鳴動する（詳細な音程は要調整）</t>
+    <rPh sb="0" eb="1">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メイドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オンテイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>を満たすものとする。(詳細は今後決定の予定）</t>
+    <rPh sb="1" eb="2">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・モグラを叩くと、音が鳴り、スコアが1増加する</t>
+    <rPh sb="19" eb="21">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>絵.1 モグラの穴</t>
+    <rPh sb="0" eb="1">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>絵.2 出現したモグラ</t>
+    <rPh sb="0" eb="1">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>絵.3 叩かれたモグラ</t>
+    <rPh sb="0" eb="1">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・モグラを叩くと、「叩かれたモグラ」の絵が一定時間表示され、その間、次のモグラは出現しない。</t>
+    <rPh sb="5" eb="6">
+      <t>タタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タタ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・表示時間は今後決定の予定</t>
+    <rPh sb="1" eb="3">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・タイトル画面に、今までのプレイででたスコアの中のハイスコアを表示する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・モグラがいない時に叩く（スイッチを押す）と、お手付きとなり、音が鳴りペナルティを受けてしまう。</t>
+    <rPh sb="10" eb="11">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・制限時間は60秒。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・1マスずつ空けて、穴が4つあり、それぞれの穴からモグラがランダムで出現する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・モグラの最大出現数は4匹。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・モグラが出現している間に、穴に対応したスイッチを押すと、モグラを叩くことができる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・モグラは叩くか一定時間で消える。</t>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1219,7 +1430,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1300,6 +1511,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1339,7 +1567,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1560,13 +1788,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1636,6 +1873,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1660,25 +1921,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1687,31 +1933,31 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1899,8 +2145,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="723900" y="6766414"/>
-          <a:ext cx="2277717" cy="621195"/>
+          <a:off x="715736" y="7188235"/>
+          <a:ext cx="2245060" cy="641606"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2341,8 +2587,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="817217" y="5832535"/>
-          <a:ext cx="535609" cy="445683"/>
+          <a:off x="834196" y="6123669"/>
+          <a:ext cx="546929" cy="467632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2481,6 +2727,118 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D40F91EA-4F80-4397-ADFD-687E7B1C8530}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2524125" y="5543550"/>
+          <a:ext cx="971551" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12439B0-3D53-4E4A-9BAF-77F624E8F423}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1438275" y="5572125"/>
+          <a:ext cx="971551" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4320,8 +4678,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1259125" y="1259125"/>
-          <a:ext cx="2517745" cy="3148655"/>
+          <a:off x="1242559" y="1242559"/>
+          <a:ext cx="2484615" cy="3107243"/>
           <a:chOff x="419652" y="1258957"/>
           <a:chExt cx="2517913" cy="3148823"/>
         </a:xfrm>
@@ -5189,9 +5547,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="箱石 文紀" id="{FE99E97D-1FE6-4156-B53F-E134D08D23B3}" userId="S::fuminori.hakoishi@erii.onmicrosoft.com::80806857-8b75-401c-95be-7b9e9f657cb5" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5489,695 +5845,761 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AD49" dT="2020-08-19T02:04:01.42" personId="{FE99E97D-1FE6-4156-B53F-E134D08D23B3}" id="{35D6F261-20FF-42C8-91A1-E74B6511CE3A}">
-    <text>実際のモグラ叩きゲームと、作成するものと、実際のどういう動作が何に置き換わるのかなどがわかると良い</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A1384-AF86-4BA2-B6E2-C742B67793C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A1384-AF86-4BA2-B6E2-C742B67793C6}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD110"/>
+  <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="28" width="3.58203125" customWidth="1"/>
+    <col min="1" max="28" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B18" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B19" s="12"/>
       <c r="S19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>137</v>
+        <v>114</v>
+      </c>
+      <c r="I20" t="s">
+        <v>112</v>
       </c>
       <c r="T20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="48"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C21" s="24"/>
       <c r="D21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="47"/>
+        <v>110</v>
+      </c>
+      <c r="J21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="C22" s="23"/>
       <c r="D22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J23" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B24" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37">
+      <c r="C24" s="40"/>
+      <c r="D24" s="43">
         <v>0</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37">
+      <c r="E24" s="40"/>
+      <c r="F24" s="43">
         <v>0</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37">
+      <c r="G24" s="40"/>
+      <c r="H24" s="43">
         <v>0</v>
       </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="41" t="s">
+      <c r="I24" s="40"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="42"/>
-      <c r="N24" s="41">
+      <c r="M24" s="26"/>
+      <c r="N24" s="25">
         <v>5</v>
       </c>
-      <c r="O24" s="42"/>
-      <c r="P24" s="41">
+      <c r="O24" s="26"/>
+      <c r="P24" s="25">
         <v>8</v>
       </c>
-      <c r="Q24" s="43"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="46"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q24" s="29"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B25" s="41"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="30"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26" s="12"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="29"/>
-    </row>
-    <row r="27" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="37"/>
+    </row>
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="30"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="38"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28" s="12"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="49"/>
+      <c r="H28" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="49"/>
+      <c r="L28" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="M28" s="49"/>
+      <c r="P28" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q28" s="49"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29" s="12"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30" s="12"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31" s="12"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32" s="12"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="12"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="12"/>
       <c r="D35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="12"/>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="F38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" t="s">
+        <v>105</v>
+      </c>
+      <c r="J38" t="s">
+        <v>106</v>
+      </c>
+      <c r="L38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A39" s="12"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A40" s="12"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A41" s="12"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A42" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B51" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B55" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B57" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B59" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B63" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B66" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C67" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="H38" t="s">
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D69" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D70" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E74" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E76" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D78" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D80" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D81" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D82" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D83" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F85" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C87" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D89" t="s">
         <v>132</v>
       </c>
-      <c r="J38" t="s">
-        <v>133</v>
-      </c>
-      <c r="L38" t="s">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B90" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D92" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A95" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A96" s="12"/>
+      <c r="B96" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B98" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C99" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="D100" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C101" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="D102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B103" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="12"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="12"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="12"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" t="s">
-        <v>69</v>
-      </c>
-      <c r="F46" t="s">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A106" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="K108" s="7"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="S108" s="9"/>
+      <c r="T108" s="9"/>
+      <c r="U108" s="8"/>
+      <c r="V108" s="9"/>
+      <c r="W108" s="9"/>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="7"/>
+      <c r="S109" s="9"/>
+      <c r="T109" s="8"/>
+      <c r="U109" s="9"/>
+      <c r="V109" s="8"/>
+      <c r="W109" s="9"/>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="8"/>
+      <c r="S110" s="8"/>
+      <c r="T110" s="9"/>
+      <c r="U110" s="8"/>
+      <c r="V110" s="9"/>
+      <c r="W110" s="8"/>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
+      <c r="S111" s="9"/>
+      <c r="T111" s="8"/>
+      <c r="U111" s="9"/>
+      <c r="V111" s="8"/>
+      <c r="W111" s="9"/>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="8"/>
+      <c r="S112" s="8"/>
+      <c r="T112" s="9"/>
+      <c r="U112" s="8"/>
+      <c r="V112" s="9"/>
+      <c r="W112" s="10"/>
+    </row>
+    <row r="113" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B113" s="9"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="9"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="8"/>
+      <c r="S113" s="9"/>
+      <c r="T113" s="8"/>
+      <c r="U113" s="9"/>
+      <c r="V113" s="8"/>
+      <c r="W113" s="9"/>
+    </row>
+    <row r="114" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="8"/>
+      <c r="S114" s="8"/>
+      <c r="T114" s="9"/>
+      <c r="U114" s="8"/>
+      <c r="V114" s="9"/>
+      <c r="W114" s="8"/>
+    </row>
+    <row r="115" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B115" s="7"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="8"/>
+      <c r="O115" s="7"/>
+      <c r="S115" s="7"/>
+      <c r="T115" s="8"/>
+      <c r="U115" s="20"/>
+      <c r="V115" s="8"/>
+      <c r="W115" s="7"/>
+    </row>
+    <row r="116" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B116" t="s">
+        <v>143</v>
+      </c>
+      <c r="K116" t="s">
+        <v>144</v>
+      </c>
+      <c r="S116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B117" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="C57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="D58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="C59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="D60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="C62" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="D63" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="D64" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C68" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C69" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C70" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C74" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C76" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C80" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C81" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C83" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C84" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D85" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B86" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C87" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D88" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C89" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="12"/>
-      <c r="B92" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C93" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B94" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="C95" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="D96" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C97" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="D98" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="B101" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="B102" t="s">
-        <v>94</v>
-      </c>
-      <c r="K102" t="s">
-        <v>93</v>
-      </c>
-      <c r="S102" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-      <c r="S103" s="9"/>
-      <c r="T103" s="9"/>
-      <c r="U103" s="8"/>
-      <c r="V103" s="9"/>
-      <c r="W103" s="9"/>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="7"/>
-      <c r="N104" s="8"/>
-      <c r="O104" s="7"/>
-      <c r="S104" s="9"/>
-      <c r="T104" s="8"/>
-      <c r="U104" s="9"/>
-      <c r="V104" s="8"/>
-      <c r="W104" s="9"/>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="K105" s="8"/>
-      <c r="L105" s="7"/>
-      <c r="M105" s="7"/>
-      <c r="N105" s="7"/>
-      <c r="O105" s="8"/>
-      <c r="S105" s="8"/>
-      <c r="T105" s="9"/>
-      <c r="U105" s="8"/>
-      <c r="V105" s="9"/>
-      <c r="W105" s="8"/>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="7"/>
-      <c r="N106" s="8"/>
-      <c r="O106" s="8"/>
-      <c r="S106" s="9"/>
-      <c r="T106" s="8"/>
-      <c r="U106" s="9"/>
-      <c r="V106" s="8"/>
-      <c r="W106" s="9"/>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="K107" s="8"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="7"/>
-      <c r="N107" s="7"/>
-      <c r="O107" s="8"/>
-      <c r="S107" s="8"/>
-      <c r="T107" s="9"/>
-      <c r="U107" s="8"/>
-      <c r="V107" s="9"/>
-      <c r="W107" s="10"/>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="B108" s="9"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="9"/>
-      <c r="K108" s="8"/>
-      <c r="L108" s="9"/>
-      <c r="M108" s="8"/>
-      <c r="N108" s="9"/>
-      <c r="O108" s="8"/>
-      <c r="S108" s="9"/>
-      <c r="T108" s="8"/>
-      <c r="U108" s="9"/>
-      <c r="V108" s="8"/>
-      <c r="W108" s="9"/>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="9"/>
-      <c r="M109" s="9"/>
-      <c r="N109" s="9"/>
-      <c r="O109" s="8"/>
-      <c r="S109" s="8"/>
-      <c r="T109" s="9"/>
-      <c r="U109" s="8"/>
-      <c r="V109" s="9"/>
-      <c r="W109" s="8"/>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="B110" s="7"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="7"/>
-      <c r="K110" s="7"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
-      <c r="O110" s="7"/>
-      <c r="S110" s="7"/>
-      <c r="T110" s="8"/>
-      <c r="U110" s="20"/>
-      <c r="V110" s="8"/>
-      <c r="W110" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="20">
+    <mergeCell ref="P28:Q29"/>
+    <mergeCell ref="L28:M29"/>
+    <mergeCell ref="H28:I29"/>
+    <mergeCell ref="D28:E29"/>
     <mergeCell ref="N24:O25"/>
     <mergeCell ref="P24:Q25"/>
     <mergeCell ref="B26:C27"/>
@@ -6199,7 +6621,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6207,19 +6628,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D58FDA2-436A-4874-8DD4-98665789B4E2}">
   <dimension ref="A1:BY60"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BG27" sqref="BG27"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM25" sqref="AM25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -6228,7 +6649,7 @@
         <v>9</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
@@ -6244,7 +6665,7 @@
       <c r="AN3" s="13"/>
       <c r="AO3" s="13"/>
     </row>
-    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -6266,11 +6687,11 @@
         <v>4</v>
       </c>
       <c r="Q4" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="AO4" s="13"/>
     </row>
-    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -6293,18 +6714,18 @@
         <v>12</v>
       </c>
       <c r="Q5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
@@ -6322,7 +6743,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="M11" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -6333,7 +6754,7 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
@@ -6363,20 +6784,20 @@
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
     </row>
-    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Y15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="P18" s="11"/>
       <c r="X18" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F19" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -6387,9 +6808,9 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F20" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -6402,7 +6823,7 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
     </row>
-    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -6412,10 +6833,10 @@
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="Y23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -6425,18 +6846,18 @@
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
     </row>
-    <row r="26" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X26" t="s">
         <v>10</v>
       </c>
       <c r="AQ26" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="BG26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -6468,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="AH27" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AQ27" s="1" t="s">
         <v>1</v>
@@ -6493,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -6535,7 +6956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -6548,13 +6969,13 @@
         <v>25</v>
       </c>
       <c r="AR31" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="BD31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -6564,21 +6985,21 @@
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
     </row>
-    <row r="34" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X34" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="AQ34" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="BC34" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="BR34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -6654,7 +7075,7 @@
         <v>7</v>
       </c>
       <c r="BK35" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="BR35" s="1" t="s">
         <v>1</v>
@@ -6679,7 +7100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -6753,23 +7174,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Y39" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="AR39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X42" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AQ42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X43" s="1" t="s">
         <v>1</v>
       </c>
@@ -6815,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X44" s="1"/>
       <c r="Y44" s="1" t="s">
         <v>9</v>
@@ -6849,20 +7270,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AR47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D50" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="AQ50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
@@ -6880,7 +7301,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="T51" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="Y51" s="13"/>
       <c r="Z51" s="13"/>
@@ -6913,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
@@ -6957,17 +7378,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
@@ -6985,7 +7406,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
@@ -7022,52 +7443,52 @@
       <selection pane="bottomLeft" activeCell="AL28" sqref="AL28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -7082,7 +7503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -7090,7 +7511,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -7098,7 +7519,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="33" spans="5:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="5:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E33" t="s">
         <v>16</v>
       </c>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60285EF-2A21-42ED-83BC-F8F04A2B5B8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDD279E-8EA5-4060-B8AA-13CEFF2E91B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="0" yWindow="1520" windowWidth="19200" windowHeight="8800" firstSheet="1" activeTab="1" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
-    <sheet name="画面遷移" sheetId="6" r:id="rId2"/>
-    <sheet name="基板・ブロック図" sheetId="7" r:id="rId3"/>
+    <sheet name="画面遷移図" sheetId="8" r:id="rId2"/>
+    <sheet name="基板・ブロック図" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="159">
   <si>
     <t>LCD画面遷移</t>
     <rPh sb="3" eb="5">
@@ -67,18 +67,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>イ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>●</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -482,13 +470,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ゲーム終了</t>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ゲームスタート・ストップ用スイッチ：</t>
     <rPh sb="12" eb="13">
       <t>ヨウ</t>
@@ -554,19 +535,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>残り時間が3減少する</t>
-    <rPh sb="0" eb="1">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゲンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>スコアに1加算される</t>
     <rPh sb="5" eb="7">
       <t>カサン</t>
@@ -608,48 +576,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一定時間(○ms経過)</t>
-    <rPh sb="0" eb="2">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一定時間経過(不定)</t>
-    <rPh sb="0" eb="2">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケイカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>フテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>残り時間が1減少</t>
-    <rPh sb="0" eb="1">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゲンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SW2を押下(穴を叩いたとき)</t>
     <rPh sb="4" eb="6">
       <t>オウカ</t>
@@ -673,22 +599,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1番左の穴にもぐら出現</t>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アナ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>モグラのイラストに変化</t>
     <rPh sb="9" eb="11">
       <t>ヘンカ</t>
@@ -739,30 +649,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>モグラを叩いたとき(撃退時)のイラスト</t>
-    <rPh sb="4" eb="5">
-      <t>タタ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ゲキタイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モグラのイラスト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>穴のイラスト</t>
-    <rPh sb="0" eb="1">
-      <t>アナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>GND</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1423,6 +1309,151 @@
     <rPh sb="13" eb="14">
       <t>キ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>゛</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム終了(画面点滅)</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一定時間経過</t>
+    <rPh sb="0" eb="2">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>残り時間が3秒減少する</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>残り時間が1秒減少</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モグラが撃退され、</t>
+    <rPh sb="4" eb="6">
+      <t>ゲキタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例)1番左の穴にもぐら出現</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>叩かれたモグラ</t>
+    <rPh sb="0" eb="1">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>出現したモグラ</t>
+    <rPh sb="0" eb="2">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モグラの穴</t>
+    <rPh sb="4" eb="5">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ドット絵は以下の記号で示す</t>
+    <rPh sb="3" eb="4">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RA6</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1879,6 +1910,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1950,15 +1990,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2850,13 +2881,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7257</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2864,7 +2895,7 @@
         <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5107C2D1-0A68-4C97-A2E0-20C802905D9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05B1810-8D96-4A7D-BB53-5B7F86D685B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2872,7 +2903,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2521857" y="2514600"/>
+          <a:off x="2521857" y="3657600"/>
           <a:ext cx="2088243" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2903,13 +2934,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>202293</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2917,7 +2948,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D2CAEED-5141-4B91-A9BC-A10664B2ADF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39D415D-8BB9-41B3-A2E7-3744710C9281}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2925,7 +2956,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6705600" y="6172200"/>
+          <a:off x="6705600" y="7315200"/>
           <a:ext cx="1878693" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2956,13 +2987,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2970,7 +3001,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94CF830B-B60F-4F1E-976F-5DF9D0066EA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32FA2D2E-9D6A-4907-BEEA-E1D864654C13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2978,7 +3009,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9010651" y="6489700"/>
+          <a:off x="9010651" y="7632700"/>
           <a:ext cx="0" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3009,13 +3040,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3023,7 +3054,7 @@
         <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B00F8725-0F45-47E5-8516-E0ADB7FE605E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3916C4-7F64-4C87-AE17-C0FF2F36237A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3031,7 +3062,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9004300" y="8356600"/>
+          <a:off x="9004300" y="9499600"/>
           <a:ext cx="6350" cy="920750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3062,13 +3093,13 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>2387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>11545</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>196275</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3076,7 +3107,7 @@
         <xdr:cNvPr id="6" name="コネクタ: カギ線 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC6FDD2B-75BC-49FF-BDB5-8B854E8B9A2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF2858F2-4FCA-4A9C-A573-338BAC1B81FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3084,7 +3115,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10443479" y="6418159"/>
+          <a:off x="10443479" y="7561159"/>
           <a:ext cx="1336888" cy="849744"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -3117,13 +3148,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3131,7 +3162,7 @@
         <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8723B81C-AC6E-4CEF-9A0D-CE3262709428}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D648DD28-A061-44F4-974E-1F904C981F16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3139,7 +3170,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029201" y="6489700"/>
+          <a:off x="5029201" y="7632700"/>
           <a:ext cx="0" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3170,13 +3201,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3184,7 +3215,7 @@
         <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01950E16-E8A7-49D7-A012-0DE1AEF0E297}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A454F0BA-D187-4184-8746-2A65AFE03D3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3192,7 +3223,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029201" y="8318500"/>
+          <a:off x="5029201" y="9461500"/>
           <a:ext cx="0" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3223,13 +3254,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3237,7 +3268,7 @@
         <xdr:cNvPr id="9" name="コネクタ: カギ線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF17B67D-0786-4278-A45B-99FE436099A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6B326C-C90B-4F1D-B8C3-7A7FE1CEDC91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3245,7 +3276,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="-704849" y="4514850"/>
+          <a:off x="-704849" y="5657850"/>
           <a:ext cx="6858000" cy="3771899"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -3278,13 +3309,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3292,7 +3323,7 @@
         <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F51425-9522-418D-B959-29E199FE3725}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93155B88-51B5-44F3-9951-73E24B5CD7EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3300,7 +3331,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="2806700"/>
+          <a:off x="5029200" y="3949700"/>
           <a:ext cx="0" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3331,13 +3362,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>4618</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>121803</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3345,7 +3376,7 @@
         <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21250FCD-D794-4A50-82D3-7B5B24EB753D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D51996-C4A0-490B-99E4-24D55C23A7C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3353,7 +3384,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9010650" y="10173854"/>
+          <a:off x="9010650" y="11316854"/>
           <a:ext cx="4618" cy="920749"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3384,13 +3415,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>2309</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3398,7 +3429,7 @@
         <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BD405C-AADA-40D8-8573-71A481EA1BBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85CDA9A4-6493-4215-9EB9-AAED7C1CC114}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3406,7 +3437,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2514601" y="11658600"/>
+          <a:off x="2514601" y="12801600"/>
           <a:ext cx="6076949" cy="2309"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3437,13 +3468,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>115455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>4619</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>121805</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3451,7 +3482,7 @@
         <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF691F6B-1508-4BF8-9681-F004EC6F0F1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E0CF3F-62C6-4EE1-B4F6-9BDAC4F74C4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3459,61 +3490,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="12002655"/>
+          <a:off x="838200" y="13145655"/>
           <a:ext cx="4619" cy="920750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>92364</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>92364</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A6B87C-7604-4F3E-9DB2-4F480C541C96}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13084464" y="8001000"/>
-          <a:ext cx="1257300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3543,21 +3521,21 @@
     <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>13930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="コネクタ: カギ線 14">
+        <xdr:cNvPr id="14" name="コネクタ: カギ線 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981CDCDA-4DED-45B6-9532-D1674AC185D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FBF7EE-4F12-4D1C-B805-5A2974BFFF4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3565,7 +3543,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10687050" y="5957530"/>
+          <a:off x="10687050" y="7100530"/>
           <a:ext cx="3981450" cy="1586270"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -3598,21 +3576,21 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>107372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>170873</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947F5884-A639-4CF7-B1E3-17562AE40F70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A6E198F-8084-4154-BA96-249F3E41A294}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3620,13 +3598,14 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="4679372"/>
+          <a:off x="5029200" y="5822372"/>
           <a:ext cx="0" cy="977901"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3654,6 +3633,384 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>168</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1432</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3134DDFC-00EC-4411-814D-BD527409E528}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1255227" y="1255227"/>
+          <a:ext cx="2509949" cy="3138911"/>
+          <a:chOff x="1262231" y="1262231"/>
+          <a:chExt cx="2523957" cy="3156420"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="3" name="グループ化 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7154683-15B0-4AA3-AC5E-8526E171A3A3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1262231" y="1262231"/>
+            <a:ext cx="2523957" cy="3156420"/>
+            <a:chOff x="419652" y="1258957"/>
+            <a:chExt cx="2517913" cy="3148823"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="6" name="グループ化 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00A01B7A-0BF6-40F5-B6CD-9CFFCF3D9383}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm rot="5400000">
+              <a:off x="104197" y="1574412"/>
+              <a:ext cx="3148823" cy="2517913"/>
+              <a:chOff x="630621" y="19028104"/>
+              <a:chExt cx="3154535" cy="2522483"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="10" name="図 9">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D68F503-DDC1-4080-B706-A4BE67FDEAE4}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="630621" y="19028104"/>
+                <a:ext cx="3154535" cy="2522483"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="11" name="テキスト ボックス 10">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63015BFB-B302-4741-95F7-CFC799538C37}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="16200000">
+                <a:off x="1898025" y="20218842"/>
+                <a:ext cx="636969" cy="153058"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0" algn="ctr"/>
+                <a:r>
+                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>PIC16F1827</a:t>
+                </a:r>
+                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="7" name="直線コネクタ 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA26983A-43E9-45CF-8462-056C56F32624}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1465333" y="3246610"/>
+              <a:ext cx="146325" cy="554072"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="8" name="直線コネクタ 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9757EA4D-2011-4108-AB70-E0A16864CAC9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1535913" y="3252506"/>
+              <a:ext cx="146324" cy="554072"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="9" name="直線コネクタ 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4B497E-9383-4FF0-8651-08A74DF574E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1688285" y="3235164"/>
+              <a:ext cx="155975" cy="585878"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="図 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E69950-241E-438D-A2D2-375A9A84D8A7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1380899" y="2547248"/>
+            <a:ext cx="82560" cy="182335"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="テキスト ボックス 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C146092-8DE4-4FA6-A22D-79F31615ABA8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="1151641" y="2587116"/>
+            <a:ext cx="384778" cy="125595"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>VCC GND</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
@@ -3667,10 +4024,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664A8C51-1E24-4B87-BCC3-05C7B88DDAA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4534A7F8-92AF-47F5-861D-462537E91FE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3737,10 +4094,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD372EE-8EDF-4C31-873C-5D1F50765DC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E29845F6-9C0E-4829-9747-8ED3BF0920BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3800,10 +4157,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C36C843C-7975-4C16-8A57-B61D1E2A02FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5026556F-12A9-41F2-98E4-20003717CD82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3863,10 +4220,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C167AA-D764-4397-9C7F-BEA879DBB935}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F75451-47C4-4BE7-AA80-6878B5E0DC86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3927,10 +4284,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41B216B-2A06-4ED0-BEEE-D3DC5235D15A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A1CC780-79C3-4671-80EB-DCEA411CA2C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3991,10 +4348,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6770385D-8A27-4D61-BC9D-A30C795529EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E879C4ED-0098-4D4B-B916-55FACDBF6C9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4060,10 +4417,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28BE12AC-0957-4A8C-BA71-78D74F64B135}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3592298C-9991-4107-BF29-738033685753}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4124,15 +4481,15 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線コネクタ 8">
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510A7A5A-29E6-4C2F-A6BF-B81416C3A8E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97D8183C-F7F0-47C3-A553-262FC19C62AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="0"/>
+          <a:stCxn id="14" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4176,15 +4533,15 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線コネクタ 9">
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD0E7AA-548E-4A77-8224-C63F19DEB910}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDCEE4D0-108D-4CD6-AB48-92728BCF1148}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="0"/>
+          <a:stCxn id="15" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4228,10 +4585,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線コネクタ 10">
+        <xdr:cNvPr id="21" name="直線コネクタ 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC0E7A88-3CD9-488A-B210-81FC82DBC5F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3D5EFE5-7568-41B9-B6A0-7DCA11A8453B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4278,10 +4635,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線コネクタ 11">
+        <xdr:cNvPr id="22" name="直線コネクタ 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A3D725-79A8-4909-80B4-B272539A450F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20129C33-C98F-4263-ADF1-855DEBE858C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4328,10 +4685,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CA362B-E30E-4297-AF99-08AD12782D00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA46934E-A882-4B45-A9A5-7B4B1BA63A2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4394,17 +4751,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA928E97-BEED-4B3C-8CA5-FB1E56F02353}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683DD944-F21D-4CF0-A191-728E6F183ED3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4413,7 +4770,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="419100" y="7543800"/>
-          <a:ext cx="2724150" cy="1143000"/>
+          <a:ext cx="3352800" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4474,15 +4831,15 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線コネクタ 14">
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01681815-ACBD-440E-B436-D395FF355D9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A716B48-920F-4B94-B542-34DF02C566BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="0"/>
+          <a:stCxn id="13" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4526,15 +4883,15 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線コネクタ 15">
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D541C62E-19B3-416D-A61C-D2E011D98647}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D4E15C2-E3E0-4E54-915D-351961D3AE74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="0"/>
+          <a:stCxn id="16" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4578,10 +4935,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線コネクタ 16">
+        <xdr:cNvPr id="27" name="直線コネクタ 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6F103A-7DAE-42FE-8471-7271A680E442}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7B4A5C-73E9-4D61-987E-D3D465AC1F8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4623,10 +4980,10 @@
     <xdr:ext cx="953569" cy="1030293"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17">
+        <xdr:cNvPr id="28" name="図 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB69AC4-61D6-4BF9-AEA3-D21F831B5422}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B435B8-61DF-42CB-B2D5-8B283312C155}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4635,7 +4992,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4654,271 +5011,6 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>168</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>168</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1432</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="19" name="グループ化 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362732C7-1FE4-489A-9CF1-BCDB054E0170}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1242559" y="1242559"/>
-          <a:ext cx="2484615" cy="3107243"/>
-          <a:chOff x="419652" y="1258957"/>
-          <a:chExt cx="2517913" cy="3148823"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="20" name="グループ化 19">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87802E31-CA4E-45C1-97B8-0C3033F36299}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm rot="5400000">
-            <a:off x="104197" y="1574412"/>
-            <a:ext cx="3148823" cy="2517913"/>
-            <a:chOff x="630621" y="19028104"/>
-            <a:chExt cx="3154535" cy="2522483"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="24" name="図 23">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA72DC1-79C4-4734-8CAD-36988BE0EEFA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="630621" y="19028104"/>
-              <a:ext cx="3154535" cy="2522483"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="25" name="テキスト ボックス 24">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB61C10-F251-4B70-9B74-4DAB698AF130}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm rot="16200000">
-              <a:off x="1898025" y="20218842"/>
-              <a:ext cx="636969" cy="153058"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr lvl="0" algn="ctr"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700">
-                  <a:solidFill>
-                    <a:schemeClr val="bg1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>PIC16F1827</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="21" name="直線コネクタ 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF270C1-7342-4106-9F7C-9B5F93FA6B8E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1465333" y="3246610"/>
-            <a:ext cx="146325" cy="554072"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="22" name="直線コネクタ 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5CFF368-D185-4090-B064-B6CC5815209D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1535913" y="3252506"/>
-            <a:ext cx="146324" cy="554072"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="23" name="直線コネクタ 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0222E2A7-AD68-431E-BB0F-3C5EC452139C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1688285" y="3235164"/>
-            <a:ext cx="155975" cy="585878"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -4932,10 +5024,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線コネクタ 25">
+        <xdr:cNvPr id="29" name="直線コネクタ 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C8B1B84-8F6A-4D26-A8F8-780CE120A91F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5708A55C-64E3-479D-BCA9-2B74F8DAA636}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4987,10 +5079,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直線コネクタ 26">
+        <xdr:cNvPr id="30" name="直線コネクタ 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76527E97-A81C-4BC0-A8EF-2D072C1217D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F880C1-798F-49EA-A0AA-A73E2D54B71C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5027,79 +5119,20 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19052</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>46943</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>36993</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107047</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>32478</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="コネクタ: カギ線 27">
+    <xdr:ext cx="2695203" cy="1700836"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FD1FC0-7C55-410F-B7FB-E6F1A9A58E03}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2324102" y="2104343"/>
-          <a:ext cx="2318476" cy="569007"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 100237"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>32477</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>208627</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2134770" cy="1347169"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF66EF5-020C-421B-8212-A45EE6BD40E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F74FFB-B7B2-48E0-A40F-24D440307DAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5108,7 +5141,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5121,8 +5154,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4642577" y="1351627"/>
-          <a:ext cx="2134770" cy="1347169"/>
+          <a:off x="5066193" y="1250047"/>
+          <a:ext cx="2695203" cy="1700836"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5131,63 +5164,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>43962</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>184149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>156307</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="コネクタ: カギ線 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C869E1E5-AD15-4D4B-8B95-AC3BAFE53BE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="2558562" y="2241549"/>
-          <a:ext cx="2089639" cy="429358"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 99907"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -5203,10 +5179,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線コネクタ 47">
+        <xdr:cNvPr id="32" name="直線コネクタ 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{914A0FDC-35F7-42C0-9706-40C81F811D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{768D579B-89B3-43EA-A40F-1831F3C1475A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5258,10 +5234,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直線コネクタ 52">
+        <xdr:cNvPr id="33" name="直線コネクタ 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D85BC0F-5F7E-4490-AB59-0CBC7885FF2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D63C9CE-F445-45D9-91A3-909422696C84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5310,10 +5286,10 @@
     <xdr:ext cx="323867" cy="260363"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32">
+        <xdr:cNvPr id="34" name="図 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAEE09D3-9962-4430-A62E-43E9CE500EB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959217D3-4302-4324-87B9-8C031F2EE795}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5322,7 +5298,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5346,13 +5322,13 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>64637</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="575214" cy="120861"/>
+    <xdr:ext cx="573153" cy="120861"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 33">
+        <xdr:cNvPr id="35" name="図 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1CADEF2-FA0D-42F2-AFDE-07E975FD1881}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB7B1D70-709B-4AC7-B3C8-46E13C4F52A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5361,7 +5337,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -5375,7 +5351,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4615622" y="3950837"/>
-          <a:ext cx="575214" cy="120861"/>
+          <a:ext cx="573153" cy="120861"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5384,108 +5360,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>204304</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>110435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>149087</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>110435</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="直線コネクタ 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0A354F-7359-409E-A7CA-F5C29F3F3291}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4604854" y="4225235"/>
-          <a:ext cx="992533" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>136026</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>134692</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>135759</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>134692</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD9A3594-4679-42B1-87F4-32B84957C057}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5165226" y="4020892"/>
-          <a:ext cx="418833" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -5501,10 +5375,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線コネクタ 39">
+        <xdr:cNvPr id="36" name="直線コネクタ 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847A5EB8-6F66-4896-91B0-A7CC7BDF478B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{456A8979-40A7-451B-90E8-40C8F55244B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5543,11 +5417,595 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>43962</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>135757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>192691</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>141653</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="コネクタ: カギ線 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354727A4-4FBA-4144-A8FF-D232F9C4C63D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2558562" y="2193157"/>
+          <a:ext cx="2034679" cy="463096"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99587"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>103846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200194</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="コネクタ: カギ線 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D817CB9B-241A-4A37-9BCE-398181B730E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2330450" y="2389846"/>
+          <a:ext cx="2270294" cy="277153"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100411"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>118759</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>92807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>205155</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="コネクタ: カギ線 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0607F5D3-A599-490F-8F1F-7421DEEF11D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1376059" y="1693007"/>
+          <a:ext cx="3229646" cy="1164409"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98540"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>159512</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>208514</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>204685</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="コネクタ: カギ線 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ADC19B0-2AC0-4602-9151-83BDC29B3ACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1416812" y="2628837"/>
+          <a:ext cx="3192252" cy="319048"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 51959"/>
+            <a:gd name="adj2" fmla="val 82142"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>5522</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>125068</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="コネクタ: カギ線 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B23E5C3E-483B-4B97-B11F-89FD1C42998E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3133903" y="2529550"/>
+          <a:ext cx="2321421" cy="642016"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>201707</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>112060</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>97117</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="コネクタ: カギ線 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374702CD-B986-4D2F-8A8D-F47D0EC5EB79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4075394" y="2726950"/>
+          <a:ext cx="1592730" cy="1377203"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99744"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>160322</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>125068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>154609</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="コネクタ: カギ線 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21171D26-2AE6-498F-B78A-925EAFE77963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5189522" y="4011268"/>
+          <a:ext cx="413387" cy="1932"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>16484</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171824</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="748923" cy="500650"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ACD4F42-D0AB-4220-BA7F-A5D154D41FE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5464784" y="4286624"/>
+          <a:ext cx="748923" cy="500650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SW5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スタート</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>196848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F14B0DF-62A2-4B02-874A-75D8ED369DF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3143250" y="8001000"/>
+          <a:ext cx="419101" cy="425448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800"/>
+            <a:t>SW5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="コネクタ: カギ線 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5C0C5D-B651-4374-A577-1C0F4AF3220C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="6962589"/>
+          <a:ext cx="419100" cy="1038411"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5850,599 +6308,599 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="28" width="3.625" customWidth="1"/>
+    <col min="1" max="28" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="12"/>
       <c r="S19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="I20" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="T20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="24"/>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="J21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="23"/>
       <c r="D22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J23" s="51" t="s">
-        <v>130</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="J23" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B24" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="43">
+      <c r="C24" s="43"/>
+      <c r="D24" s="46">
         <v>0</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="43">
+      <c r="E24" s="43"/>
+      <c r="F24" s="46">
         <v>0</v>
       </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="43">
+      <c r="G24" s="43"/>
+      <c r="H24" s="46">
         <v>0</v>
       </c>
-      <c r="I24" s="40"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="25" t="s">
+      <c r="I24" s="43"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="26"/>
-      <c r="N24" s="25">
+      <c r="M24" s="29"/>
+      <c r="N24" s="28">
         <v>5</v>
       </c>
-      <c r="O24" s="26"/>
-      <c r="P24" s="25">
+      <c r="O24" s="29"/>
+      <c r="P24" s="28">
         <v>8</v>
       </c>
-      <c r="Q24" s="29"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="30"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="Q24" s="32"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="33"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="12"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="37"/>
-    </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="40"/>
+    </row>
+    <row r="27" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="12"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="38"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="41"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="12"/>
-      <c r="D28" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="49"/>
-      <c r="H28" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" s="49"/>
-      <c r="L28" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="M28" s="49"/>
-      <c r="P28" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q28" s="49"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="D28" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="H28" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="L28" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="M28" s="26"/>
+      <c r="P28" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q28" s="26"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="12"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="12"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="12"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="12"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="12"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="12"/>
       <c r="D35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="12"/>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F38" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="J38" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="L38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="12"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="12"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="12"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="12"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="12"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="12"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B43" t="s">
+      <c r="E43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C67" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E43" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B44" t="s">
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D72" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E76" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D77" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E79" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D80" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D81" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D82" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F85" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F86" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D89" t="s">
         <v>120</v>
       </c>
-      <c r="E44" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B45" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B47" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B51" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B55" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B57" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B59" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C60" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A62" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B63" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C64" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B66" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C67" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D68" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D69" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D70" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D71" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D72" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D73" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E74" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E75" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E76" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D77" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D78" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E79" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D80" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D81" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D82" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D83" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E84" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F85" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F86" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C87" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C88" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D89" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D92" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C93" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="12"/>
       <c r="B96" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C99" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D100" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C101" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D102" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C104" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -6459,7 +6917,7 @@
       <c r="V108" s="9"/>
       <c r="W108" s="9"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -6476,7 +6934,7 @@
       <c r="V109" s="8"/>
       <c r="W109" s="9"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -6493,7 +6951,7 @@
       <c r="V110" s="9"/>
       <c r="W110" s="8"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -6510,7 +6968,7 @@
       <c r="V111" s="8"/>
       <c r="W111" s="9"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -6527,7 +6985,7 @@
       <c r="V112" s="9"/>
       <c r="W112" s="10"/>
     </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="9"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -6544,7 +7002,7 @@
       <c r="V113" s="8"/>
       <c r="W113" s="9"/>
     </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -6561,7 +7019,7 @@
       <c r="V114" s="9"/>
       <c r="W114" s="8"/>
     </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -6578,43 +7036,43 @@
       <c r="V115" s="8"/>
       <c r="W115" s="7"/>
     </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="K116" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="S116" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="J26:K27"/>
     <mergeCell ref="P28:Q29"/>
     <mergeCell ref="L28:M29"/>
     <mergeCell ref="H28:I29"/>
     <mergeCell ref="D28:E29"/>
     <mergeCell ref="N24:O25"/>
     <mergeCell ref="P24:Q25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="J26:K27"/>
     <mergeCell ref="L26:M27"/>
     <mergeCell ref="N26:O27"/>
     <mergeCell ref="P26:Q27"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
     <mergeCell ref="L24:M25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
@@ -6625,33 +7083,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D58FDA2-436A-4874-8DD4-98665789B4E2}">
-  <dimension ref="A1:BY60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928ACB59-DB4E-4084-86B9-85978878B755}">
+  <dimension ref="A1:BY65"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM25" sqref="AM25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AZ34" sqref="AZ34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
+    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="O3" s="13"/>
-      <c r="P3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="R3" s="13"/>
+      <c r="P3" t="s">
+        <v>157</v>
+      </c>
       <c r="S3" s="13"/>
       <c r="T3" s="14"/>
       <c r="U3" s="13"/>
@@ -6665,764 +7116,934 @@
       <c r="AN3" s="13"/>
       <c r="AO3" s="13"/>
     </row>
-    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="R4" s="13"/>
+      <c r="X4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO4" s="13"/>
+    </row>
+    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="O4" s="13"/>
-      <c r="P4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO4" s="13"/>
-    </row>
-    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+    </row>
+    <row r="6" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="P5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="X10" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="7"/>
+    </row>
+    <row r="7" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="8"/>
+    </row>
+    <row r="8" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="7"/>
+    </row>
+    <row r="9" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="10"/>
+    </row>
+    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="7"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="8"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="7"/>
+    </row>
+    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="8"/>
+    </row>
+    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P12" s="7"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="7"/>
+    </row>
+    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="X15" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="M11" t="s">
-        <v>82</v>
-      </c>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-    </row>
-    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
+      <c r="I16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="M16" t="s">
+        <v>73</v>
+      </c>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
         <v>0</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J17" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K17" s="1">
         <v>0</v>
       </c>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1">
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="15">
         <v>3</v>
       </c>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-    </row>
-    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Y15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="P18" s="11"/>
-      <c r="X18" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F19" t="s">
-        <v>80</v>
-      </c>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-    </row>
-    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F20" t="s">
-        <v>79</v>
-      </c>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1">
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P23" s="11"/>
+      <c r="X23" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+    </row>
+    <row r="25" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="15">
         <v>2</v>
       </c>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-    </row>
-    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="Y23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-    </row>
-    <row r="26" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="X27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD27" s="15">
-        <v>6</v>
-      </c>
-      <c r="AE27" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU27" s="1"/>
-      <c r="AV27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW27" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="I28" s="14"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ28" s="1"/>
-      <c r="AR28" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS28" s="1"/>
-      <c r="AT28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU28" s="1"/>
-      <c r="AV28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW28" s="1"/>
-      <c r="AX28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="Y31" t="s">
-        <v>25</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>76</v>
-      </c>
-      <c r="BD31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Y28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="X31" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="I32" s="14"/>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
-    </row>
-    <row r="34" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X34" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC34" t="s">
-        <v>66</v>
-      </c>
-      <c r="BR34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="X35" s="1" t="s">
+      <c r="X32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Y35" s="1">
+      <c r="Y32" s="1">
         <v>0</v>
       </c>
-      <c r="Z35" s="1">
+      <c r="Z32" s="1">
         <v>0</v>
       </c>
-      <c r="AA35" s="1">
+      <c r="AA32" s="1">
         <v>0</v>
       </c>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="16" t="s">
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AD35" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE35" s="15">
-        <v>9</v>
-      </c>
-      <c r="AQ35" s="18" t="s">
+      <c r="AD32" s="15">
+        <v>6</v>
+      </c>
+      <c r="AE32" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AR35" s="18">
+      <c r="AR32" s="1">
         <v>0</v>
       </c>
-      <c r="AS35" s="18">
+      <c r="AS32" s="1">
         <v>0</v>
       </c>
-      <c r="AT35" s="18">
-        <v>1</v>
-      </c>
-      <c r="AU35" s="1"/>
-      <c r="AV35" s="2" t="s">
+      <c r="AT32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AW35" s="1">
+      <c r="AW32" s="1">
         <v>6</v>
       </c>
-      <c r="AX35" s="1">
+      <c r="AX32" s="1">
         <v>0</v>
       </c>
-      <c r="BC35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG35" s="1"/>
-      <c r="BH35" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI35" s="15">
-        <v>5</v>
-      </c>
-      <c r="BJ35" s="15">
-        <v>7</v>
-      </c>
-      <c r="BK35" t="s">
-        <v>73</v>
-      </c>
-      <c r="BR35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BS35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU35" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV35" s="1"/>
-      <c r="BW35" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="BX35" s="15">
-        <v>5</v>
-      </c>
-      <c r="BY35" s="15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="I36" s="14"/>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1" t="s">
+      <c r="Y36" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AQ38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="X39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>150</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="X40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD40" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE40" s="15">
         <v>9</v>
       </c>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1" t="s">
+      <c r="AQ40" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="18">
+        <v>1</v>
+      </c>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW40" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI40" s="15">
+        <v>5</v>
+      </c>
+      <c r="BJ40" s="15">
+        <v>7</v>
+      </c>
+      <c r="BR40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU40" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV40" s="1"/>
+      <c r="BW40" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX40" s="15">
+        <v>5</v>
+      </c>
+      <c r="BY40" s="15">
         <v>9</v>
       </c>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1" t="s">
+    </row>
+    <row r="41" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ36" s="1"/>
-      <c r="AR36" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS36" s="1"/>
-      <c r="AT36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU36" s="1"/>
-      <c r="AV36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW36" s="1"/>
-      <c r="AX36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC36" s="1"/>
-      <c r="BD36" s="1" t="s">
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BE36" s="1"/>
-      <c r="BF36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG36" s="1"/>
-      <c r="BH36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI36" s="1"/>
-      <c r="BJ36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR36" s="1"/>
-      <c r="BS36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BT36" s="1"/>
-      <c r="BU36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV36" s="1"/>
-      <c r="BW36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BX36" s="1"/>
-      <c r="BY36" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Y39" t="s">
-        <v>56</v>
-      </c>
-      <c r="AR39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X42" t="s">
-        <v>57</v>
-      </c>
-      <c r="AQ42" t="s">
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="BT41" s="1"/>
+      <c r="BU41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BV41" s="1"/>
+      <c r="BW41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BX41" s="1"/>
+      <c r="BY41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="Y44" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="X47" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="X48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD48" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW48" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB49" s="1"/>
+      <c r="AC49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD49" s="1"/>
+      <c r="AE49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AR52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D55" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="T56" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X43" s="1" t="s">
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="13"/>
+      <c r="AA56" s="13"/>
+      <c r="AB56" s="13"/>
+      <c r="AC56" s="13"/>
+      <c r="AD56" s="14"/>
+      <c r="AE56" s="13"/>
+      <c r="AF56" s="13"/>
+      <c r="AQ56" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="Y43" s="1">
+      <c r="AR56" s="18">
         <v>0</v>
       </c>
-      <c r="Z43" s="1">
+      <c r="AS56" s="18">
+        <v>3</v>
+      </c>
+      <c r="AT56" s="18">
         <v>0</v>
       </c>
-      <c r="AA43" s="1">
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW56" s="15">
         <v>0</v>
       </c>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD43" s="15">
+      <c r="AX56" s="15">
         <v>0</v>
       </c>
-      <c r="AE43" s="15">
+    </row>
+    <row r="57" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="18">
         <v>0</v>
       </c>
-      <c r="AQ43" s="1" t="s">
+      <c r="J57" s="18">
+        <v>3</v>
+      </c>
+      <c r="K57" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="13"/>
+      <c r="Z57" s="13"/>
+      <c r="AA57" s="13"/>
+      <c r="AB57" s="13"/>
+      <c r="AC57" s="13"/>
+      <c r="AD57" s="13"/>
+      <c r="AE57" s="13"/>
+      <c r="AF57" s="13"/>
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS57" s="1"/>
+      <c r="AT57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW57" s="1"/>
+      <c r="AX57" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AR43" s="1">
+      <c r="H65" s="1"/>
+      <c r="I65" s="18">
         <v>0</v>
       </c>
-      <c r="AS43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU43" s="1"/>
-      <c r="AV43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW43" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB44" s="1"/>
-      <c r="AC44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD44" s="1"/>
-      <c r="AE44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ44" s="1"/>
-      <c r="AR44" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS44" s="1"/>
-      <c r="AT44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU44" s="1"/>
-      <c r="AV44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW44" s="1"/>
-      <c r="AX44" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AR47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D50" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="T51" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y51" s="13"/>
-      <c r="Z51" s="13"/>
-      <c r="AA51" s="13"/>
-      <c r="AB51" s="13"/>
-      <c r="AC51" s="13"/>
-      <c r="AD51" s="14"/>
-      <c r="AE51" s="13"/>
-      <c r="AF51" s="13"/>
-      <c r="AQ51" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR51" s="18">
-        <v>0</v>
-      </c>
-      <c r="AS51" s="18">
+      <c r="J65" s="18">
         <v>3</v>
       </c>
-      <c r="AT51" s="18">
-        <v>0</v>
-      </c>
-      <c r="AU51" s="1"/>
-      <c r="AV51" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW51" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX51" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="18">
-        <v>0</v>
-      </c>
-      <c r="J52" s="18">
-        <v>3</v>
-      </c>
-      <c r="K52" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="13"/>
-      <c r="Z52" s="13"/>
-      <c r="AA52" s="13"/>
-      <c r="AB52" s="13"/>
-      <c r="AC52" s="13"/>
-      <c r="AD52" s="13"/>
-      <c r="AE52" s="13"/>
-      <c r="AF52" s="13"/>
-      <c r="AQ52" s="1"/>
-      <c r="AR52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS52" s="1"/>
-      <c r="AT52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU52" s="1"/>
-      <c r="AV52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW52" s="1"/>
-      <c r="AX52" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-    </row>
-    <row r="60" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="18">
-        <v>0</v>
-      </c>
-      <c r="J60" s="18">
-        <v>3</v>
-      </c>
-      <c r="K60" s="18">
+      <c r="K65" s="18">
         <v>0</v>
       </c>
     </row>
@@ -7435,75 +8056,88 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F030F6-1A94-423F-B10C-4ADF616793BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B40E9C8-489C-4E06-A660-B3194CE09B52}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL28" sqref="AL28"/>
+      <selection pane="bottomLeft" activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W8" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W9" s="12"/>
+    </row>
+    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W10" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W11" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W12" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="U18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="U19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H29" s="3"/>
       <c r="J29" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -7511,7 +8145,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -7519,18 +8153,21 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="33" spans="5:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N33" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDD279E-8EA5-4060-B8AA-13CEFF2E91B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD5A18C-CC6A-4E31-96E5-040A9FEE3711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1520" windowWidth="19200" windowHeight="8800" firstSheet="1" activeTab="1" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="0" yWindow="1520" windowWidth="19200" windowHeight="8800" activeTab="2" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -470,34 +470,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ゲームスタート・ストップ用スイッチ：</t>
-    <rPh sb="12" eb="13">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プッシュスイッチ（SW1～4） 4つ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>プッシュスイッチ（SW5） 1つ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・スタート・ストップスイッチを押すと、3秒のカウントダウンを表示させ、ゲームが開始される。</t>
-    <rPh sb="15" eb="16">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カイシ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -559,13 +536,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一定時間経過かスタート・ストップスイッチ押下</t>
-    <rPh sb="20" eb="22">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>タイトル画面(ハイスコア更新)</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -606,9 +576,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>スタート・ストップスイッチ押下</t>
-  </si>
-  <si>
     <t>一定時間の経過または</t>
     <rPh sb="0" eb="2">
       <t>イッテイ</t>
@@ -632,13 +599,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>スタート・ストップスイッチ押下</t>
-    <rPh sb="13" eb="15">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ゲーム開始のカウントダウン(3秒)</t>
     <rPh sb="3" eb="5">
       <t>カイシ</t>
@@ -1022,10 +982,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>スタート・ストップのスイッチが押されると、タイトル画面へ戻る。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・制限時間が経過すると、画面の点滅、ブザー音の鳴動により、ゲーム終了を知らせる。</t>
     <rPh sb="1" eb="3">
       <t>セイゲン</t>
@@ -1454,6 +1410,50 @@
   </si>
   <si>
     <t>RA6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームスタート用スイッチ：</t>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・スタートスイッチを押すと、3秒のカウントダウンを表示させ、ゲームが開始される。</t>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スタートスイッチが押されると、タイトル画面へ戻る。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スタートスイッチ押下</t>
+  </si>
+  <si>
+    <t>スタートスイッチ押下</t>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一定時間経過かスタートスイッチ押下</t>
+    <rPh sb="15" eb="17">
+      <t>オウカ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1913,54 +1913,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1989,6 +1941,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6308,8 +6308,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC32" sqref="AC32"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N91" sqref="N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6324,211 +6324,211 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="12"/>
       <c r="S19" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="T20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="24"/>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="23"/>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J23" s="25" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="46">
+      <c r="C24" s="27"/>
+      <c r="D24" s="30">
         <v>0</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="46">
+      <c r="E24" s="27"/>
+      <c r="F24" s="30">
         <v>0</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="46">
+      <c r="G24" s="27"/>
+      <c r="H24" s="30">
         <v>0</v>
       </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="28" t="s">
+      <c r="I24" s="27"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="29"/>
-      <c r="N24" s="28">
+      <c r="M24" s="45"/>
+      <c r="N24" s="44">
         <v>5</v>
       </c>
-      <c r="O24" s="29"/>
-      <c r="P24" s="28">
+      <c r="O24" s="45"/>
+      <c r="P24" s="44">
         <v>8</v>
       </c>
-      <c r="Q24" s="32"/>
+      <c r="Q24" s="48"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="33"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="49"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="12"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="40"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="50"/>
     </row>
     <row r="27" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="12"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="41"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="51"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="12"/>
-      <c r="D28" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="H28" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="I28" s="26"/>
-      <c r="L28" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="M28" s="26"/>
-      <c r="P28" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q28" s="26"/>
+      <c r="D28" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="H28" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="42"/>
+      <c r="L28" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="M28" s="42"/>
+      <c r="P28" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q28" s="42"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="12"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="12"/>
@@ -6548,7 +6548,7 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="12"/>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6560,19 +6560,19 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="12"/>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F38" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J38" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L38" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6591,42 +6591,42 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E44" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6661,17 +6661,17 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="12" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6701,7 +6701,7 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C65" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6711,82 +6711,82 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C67" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D68" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D69" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D70" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D71" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D72" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D73" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E74" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E75" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E76" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D77" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D78" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E79" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D80" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D81" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D82" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6816,12 +6816,12 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C88" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D89" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6831,7 +6831,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C91" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6841,7 +6841,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C93" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6872,7 +6872,7 @@
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D100" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
@@ -6887,12 +6887,12 @@
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C104" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
@@ -7038,32 +7038,22 @@
     </row>
     <row r="116" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K116" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="S116" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="J26:K27"/>
     <mergeCell ref="P28:Q29"/>
     <mergeCell ref="L28:M29"/>
     <mergeCell ref="H28:I29"/>
@@ -7074,6 +7064,16 @@
     <mergeCell ref="N26:O27"/>
     <mergeCell ref="P26:Q27"/>
     <mergeCell ref="L24:M25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7086,9 +7086,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928ACB59-DB4E-4084-86B9-85978878B755}">
   <dimension ref="A1:BY65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ34" sqref="AZ34"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -7101,7 +7101,7 @@
     <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="O3" s="13"/>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="S3" s="13"/>
       <c r="T3" s="14"/>
@@ -7125,35 +7125,35 @@
         <v>6</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="R4" s="13"/>
       <c r="X4" t="s">
         <v>4</v>
       </c>
       <c r="Y4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AF4" t="s">
         <v>9</v>
       </c>
       <c r="AG4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AO4" s="13"/>
     </row>
     <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>5</v>
@@ -7162,7 +7162,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J5" s="1"/>
       <c r="P5" s="7"/>
@@ -7320,24 +7320,24 @@
     </row>
     <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X15" s="19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>5</v>
@@ -7346,11 +7346,11 @@
         <v>5</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K16" s="1"/>
-      <c r="M16" t="s">
-        <v>73</v>
+      <c r="N16" t="s">
+        <v>157</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -7399,12 +7399,12 @@
     <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P23" s="11"/>
       <c r="X23" s="19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
@@ -7417,7 +7417,7 @@
     </row>
     <row r="25" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F25" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -7458,10 +7458,10 @@
         <v>7</v>
       </c>
       <c r="AQ31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="BG31" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="AG32" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AQ32" s="1" t="s">
         <v>1</v>
@@ -7576,10 +7576,10 @@
         <v>22</v>
       </c>
       <c r="AR36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="BD36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7594,21 +7594,21 @@
     </row>
     <row r="38" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AQ38" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AQ39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BC39" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="BR39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7788,15 +7788,15 @@
         <v>53</v>
       </c>
       <c r="AR44" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X47" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="AQ47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7886,24 +7886,24 @@
     </row>
     <row r="55" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D55" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AQ55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D56" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>5</v>
@@ -7912,11 +7912,11 @@
         <v>5</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K56" s="1"/>
       <c r="T56" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
@@ -7995,26 +7995,26 @@
     </row>
     <row r="60" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E60" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D64" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>5</v>
@@ -8023,7 +8023,7 @@
         <v>5</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K64" s="1"/>
     </row>
@@ -8059,7 +8059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B40E9C8-489C-4E06-A660-B3194CE09B52}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z29" sqref="Z29"/>
     </sheetView>
@@ -8088,7 +8088,7 @@
     </row>
     <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W8" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8106,12 +8106,12 @@
     </row>
     <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W12" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8167,7 +8167,7 @@
         <v>10</v>
       </c>
       <c r="Q33" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD5A18C-CC6A-4E31-96E5-040A9FEE3711}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002B982C-7EF6-4EC3-BF41-8764227F0E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1520" windowWidth="19200" windowHeight="8800" activeTab="2" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
@@ -1913,6 +1913,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1941,54 +1989,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2909,7 +2909,7 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="12700">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -2962,7 +2962,7 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="12700">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3015,7 +3015,7 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="12700">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3040,13 +3040,13 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3068,7 +3068,7 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="12700">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3123,7 +3123,7 @@
             <a:gd name="adj1" fmla="val 371"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="12700">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3176,7 +3176,7 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="12700">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3229,7 +3229,8 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="12700">
+          <a:prstDash val="dash"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3284,7 +3285,7 @@
             <a:gd name="adj1" fmla="val 0"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="12700">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3337,7 +3338,7 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="12700">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3362,13 +3363,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>4618</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>121803</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3390,7 +3391,8 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="12700">
+          <a:prstDash val="dash"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3415,13 +3417,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>2309</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3443,7 +3445,7 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="12700">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3468,13 +3470,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>115455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>4619</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>121805</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3496,7 +3498,7 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="12700">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3551,7 +3553,7 @@
             <a:gd name="adj1" fmla="val 100000"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="12700">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3604,8 +3606,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="sysDash"/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -6413,122 +6418,122 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="30">
+      <c r="C24" s="43"/>
+      <c r="D24" s="46">
         <v>0</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="30">
+      <c r="E24" s="43"/>
+      <c r="F24" s="46">
         <v>0</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="30">
+      <c r="G24" s="43"/>
+      <c r="H24" s="46">
         <v>0</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="44" t="s">
+      <c r="I24" s="43"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="45"/>
-      <c r="N24" s="44">
+      <c r="M24" s="29"/>
+      <c r="N24" s="28">
         <v>5</v>
       </c>
-      <c r="O24" s="45"/>
-      <c r="P24" s="44">
+      <c r="O24" s="29"/>
+      <c r="P24" s="28">
         <v>8</v>
       </c>
-      <c r="Q24" s="48"/>
+      <c r="Q24" s="32"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="49"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="12"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="50"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="38"/>
     </row>
     <row r="27" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="12"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="51"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="39"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="12"/>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="H28" s="42" t="s">
+      <c r="E28" s="26"/>
+      <c r="H28" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="I28" s="42"/>
-      <c r="L28" s="42" t="s">
+      <c r="I28" s="26"/>
+      <c r="L28" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="M28" s="42"/>
-      <c r="P28" s="42" t="s">
+      <c r="M28" s="26"/>
+      <c r="P28" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="Q28" s="42"/>
+      <c r="Q28" s="26"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="12"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="12"/>
@@ -7054,6 +7059,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="J26:K27"/>
     <mergeCell ref="P28:Q29"/>
     <mergeCell ref="L28:M29"/>
     <mergeCell ref="H28:I29"/>
@@ -7064,16 +7079,6 @@
     <mergeCell ref="N26:O27"/>
     <mergeCell ref="P26:Q27"/>
     <mergeCell ref="L24:M25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7084,11 +7089,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928ACB59-DB4E-4084-86B9-85978878B755}">
-  <dimension ref="A1:BY65"/>
+  <dimension ref="A1:BY66"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P21" sqref="P21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AR45" sqref="AR45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -7592,23 +7597,12 @@
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
     </row>
-    <row r="38" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="AQ38" t="s">
-        <v>146</v>
-      </c>
-    </row>
     <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X39" t="s">
         <v>145</v>
       </c>
       <c r="AQ39" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC39" t="s">
-        <v>144</v>
-      </c>
-      <c r="BR39" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7642,71 +7636,14 @@
       <c r="AE40" s="15">
         <v>9</v>
       </c>
-      <c r="AQ40" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR40" s="18">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="18">
-        <v>0</v>
-      </c>
-      <c r="AT40" s="18">
-        <v>1</v>
-      </c>
-      <c r="AU40" s="1"/>
-      <c r="AV40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW40" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX40" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD40" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE40" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF40" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG40" s="1"/>
-      <c r="BH40" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI40" s="15">
-        <v>5</v>
-      </c>
-      <c r="BJ40" s="15">
-        <v>7</v>
-      </c>
-      <c r="BR40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BS40" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT40" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU40" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV40" s="1"/>
-      <c r="BW40" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="BX40" s="15">
-        <v>5</v>
-      </c>
-      <c r="BY40" s="15">
-        <v>9</v>
+      <c r="AQ40" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR40" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7734,52 +7671,120 @@
       <c r="AE41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AQ41" s="1"/>
-      <c r="AR41" s="17" t="s">
+      <c r="AQ41" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR41" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="18">
+        <v>1</v>
+      </c>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW41" s="1">
+        <v>6</v>
+      </c>
+      <c r="AX41" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD41" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE41" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF41" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI41" s="15">
+        <v>5</v>
+      </c>
+      <c r="BJ41" s="15">
+        <v>7</v>
+      </c>
+      <c r="BR41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS41" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT41" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU41" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV41" s="1"/>
+      <c r="BW41" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX41" s="15">
+        <v>5</v>
+      </c>
+      <c r="BY41" s="15">
         <v>9</v>
       </c>
-      <c r="AS41" s="1"/>
-      <c r="AT41" s="1" t="s">
+    </row>
+    <row r="42" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AU41" s="1"/>
-      <c r="AV41" s="1" t="s">
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AW41" s="1"/>
-      <c r="AX41" s="1" t="s">
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BC41" s="1"/>
-      <c r="BD41" s="1" t="s">
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="BE41" s="1"/>
-      <c r="BF41" s="1" t="s">
+      <c r="BE42" s="1"/>
+      <c r="BF42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BG41" s="1"/>
-      <c r="BH41" s="1" t="s">
+      <c r="BG42" s="1"/>
+      <c r="BH42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BI41" s="1"/>
-      <c r="BJ41" s="1" t="s">
+      <c r="BI42" s="1"/>
+      <c r="BJ42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BR41" s="1"/>
-      <c r="BS41" s="17" t="s">
+      <c r="BR42" s="1"/>
+      <c r="BS42" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="BT41" s="1"/>
-      <c r="BU41" s="1" t="s">
+      <c r="BT42" s="1"/>
+      <c r="BU42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BV41" s="1"/>
-      <c r="BW41" s="1" t="s">
+      <c r="BV42" s="1"/>
+      <c r="BW42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="BX41" s="1"/>
-      <c r="BY41" s="1" t="s">
+      <c r="BX42" s="1"/>
+      <c r="BY42" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7787,7 +7792,9 @@
       <c r="Y44" t="s">
         <v>53</v>
       </c>
-      <c r="AR44" t="s">
+    </row>
+    <row r="45" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AR45" t="s">
         <v>143</v>
       </c>
     </row>
@@ -7795,9 +7802,6 @@
       <c r="X47" t="s">
         <v>142</v>
       </c>
-      <c r="AQ47" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="48" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X48" s="1" t="s">
@@ -7822,27 +7826,8 @@
       <c r="AE48" s="15">
         <v>0</v>
       </c>
-      <c r="AQ48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT48" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU48" s="1"/>
-      <c r="AV48" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW48" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX48" s="1">
-        <v>0</v>
+      <c r="AQ48" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7862,188 +7847,212 @@
       <c r="AE49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AQ49" s="1"/>
-      <c r="AR49" s="17" t="s">
+      <c r="AQ49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW49" s="1">
         <v>6</v>
       </c>
-      <c r="AS49" s="1"/>
-      <c r="AT49" s="1" t="s">
+      <c r="AX49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AU49" s="1"/>
-      <c r="AV49" s="1" t="s">
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AW49" s="1"/>
-      <c r="AX49" s="1" t="s">
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="AR52" t="s">
+      <c r="AW50" s="1"/>
+      <c r="AX50" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AR53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D55" t="s">
+    <row r="56" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D56" t="s">
         <v>63</v>
       </c>
-      <c r="AQ55" t="s">
+      <c r="AQ56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D56" s="1" t="s">
+    <row r="57" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D57" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="J57" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K56" s="1"/>
-      <c r="T56" t="s">
+      <c r="K57" s="1"/>
+      <c r="T57" t="s">
         <v>158</v>
-      </c>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="13"/>
-      <c r="AA56" s="13"/>
-      <c r="AB56" s="13"/>
-      <c r="AC56" s="13"/>
-      <c r="AD56" s="14"/>
-      <c r="AE56" s="13"/>
-      <c r="AF56" s="13"/>
-      <c r="AQ56" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR56" s="18">
-        <v>0</v>
-      </c>
-      <c r="AS56" s="18">
-        <v>3</v>
-      </c>
-      <c r="AT56" s="18">
-        <v>0</v>
-      </c>
-      <c r="AU56" s="1"/>
-      <c r="AV56" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW56" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX56" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H57" s="1"/>
-      <c r="I57" s="18">
-        <v>0</v>
-      </c>
-      <c r="J57" s="18">
-        <v>3</v>
-      </c>
-      <c r="K57" s="18">
-        <v>0</v>
       </c>
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
       <c r="AA57" s="13"/>
       <c r="AB57" s="13"/>
       <c r="AC57" s="13"/>
-      <c r="AD57" s="13"/>
+      <c r="AD57" s="14"/>
       <c r="AE57" s="13"/>
       <c r="AF57" s="13"/>
-      <c r="AQ57" s="1"/>
-      <c r="AR57" s="1" t="s">
+      <c r="AQ57" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR57" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="18">
+        <v>3</v>
+      </c>
+      <c r="AT57" s="18">
+        <v>0</v>
+      </c>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW57" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX57" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="18">
+        <v>0</v>
+      </c>
+      <c r="J58" s="18">
+        <v>3</v>
+      </c>
+      <c r="K58" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="13"/>
+      <c r="Z58" s="13"/>
+      <c r="AA58" s="13"/>
+      <c r="AB58" s="13"/>
+      <c r="AC58" s="13"/>
+      <c r="AD58" s="13"/>
+      <c r="AE58" s="13"/>
+      <c r="AF58" s="13"/>
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AS57" s="1"/>
-      <c r="AT57" s="1" t="s">
+      <c r="AS58" s="1"/>
+      <c r="AT58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AU57" s="1"/>
-      <c r="AV57" s="1" t="s">
+      <c r="AU58" s="1"/>
+      <c r="AV58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AW57" s="1"/>
-      <c r="AX57" s="1" t="s">
+      <c r="AW58" s="1"/>
+      <c r="AX58" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="E60" t="s">
+    <row r="61" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D63" t="s">
+    <row r="64" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D64" s="1" t="s">
+    <row r="65" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D65" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="J65" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1" t="s">
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H65" s="1"/>
-      <c r="I65" s="18">
+      <c r="H66" s="1"/>
+      <c r="I66" s="18">
         <v>0</v>
       </c>
-      <c r="J65" s="18">
+      <c r="J66" s="18">
         <v>3</v>
       </c>
-      <c r="K65" s="18">
+      <c r="K66" s="18">
         <v>0</v>
       </c>
     </row>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002B982C-7EF6-4EC3-BF41-8764227F0E03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD2EE43-C06D-4E80-9FF6-6D0A03C7445E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1520" windowWidth="19200" windowHeight="8800" activeTab="2" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="0" yWindow="1520" windowWidth="19200" windowHeight="8800" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="158">
   <si>
     <t>LCD画面遷移</t>
     <rPh sb="3" eb="5">
@@ -1231,10 +1231,6 @@
     <rPh sb="11" eb="13">
       <t>ヨテイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・タイトル画面に、今までのプレイででたスコアの中のハイスコアを表示する。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1913,54 +1909,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1989,6 +1937,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6311,10 +6307,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A1384-AF86-4BA2-B6E2-C742B67793C6}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W117"/>
+  <dimension ref="A1:W116"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N91" sqref="N91"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W76" sqref="W76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6418,122 +6414,122 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="46">
+      <c r="C24" s="27"/>
+      <c r="D24" s="30">
         <v>0</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="46">
+      <c r="E24" s="27"/>
+      <c r="F24" s="30">
         <v>0</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="46">
+      <c r="G24" s="27"/>
+      <c r="H24" s="30">
         <v>0</v>
       </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="28" t="s">
+      <c r="I24" s="27"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="29"/>
-      <c r="N24" s="28">
+      <c r="M24" s="45"/>
+      <c r="N24" s="44">
         <v>5</v>
       </c>
-      <c r="O24" s="29"/>
-      <c r="P24" s="28">
+      <c r="O24" s="45"/>
+      <c r="P24" s="44">
         <v>8</v>
       </c>
-      <c r="Q24" s="32"/>
+      <c r="Q24" s="48"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="33"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="49"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="12"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="38"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="50"/>
     </row>
     <row r="27" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="12"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="39"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="51"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="12"/>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="H28" s="26" t="s">
+      <c r="E28" s="42"/>
+      <c r="H28" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="L28" s="26" t="s">
+      <c r="I28" s="42"/>
+      <c r="L28" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="M28" s="26"/>
-      <c r="P28" s="26" t="s">
+      <c r="M28" s="42"/>
+      <c r="P28" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="Q28" s="26"/>
+      <c r="Q28" s="42"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="12"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="12"/>
@@ -6671,7 +6667,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6706,7 +6702,7 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6721,22 +6717,22 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D68" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6781,129 +6777,141 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D80" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D82" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D83" t="s">
-        <v>49</v>
+      <c r="E83" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E84" t="s">
-        <v>48</v>
+      <c r="F84" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F86" t="s">
-        <v>46</v>
+      <c r="C86" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C87" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C88" t="s">
-        <v>115</v>
+      <c r="D88" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D89" t="s">
-        <v>155</v>
+      <c r="B89" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B90" s="12" t="s">
-        <v>32</v>
+      <c r="C90" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C91" t="s">
-        <v>73</v>
+      <c r="D91" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D92" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C93" t="s">
+      <c r="C92" t="s">
         <v>74</v>
       </c>
     </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="12" t="s">
-        <v>30</v>
+      <c r="A95" s="12"/>
+      <c r="B95" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="12"/>
-      <c r="B96" t="s">
-        <v>29</v>
+      <c r="C96" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C97" t="s">
-        <v>28</v>
+      <c r="B97" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="B98" t="s">
-        <v>27</v>
+      <c r="C98" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C99" t="s">
-        <v>26</v>
+      <c r="D99" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="D100" t="s">
-        <v>122</v>
+      <c r="C100" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C101" t="s">
-        <v>25</v>
+      <c r="D101" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="D102" t="s">
-        <v>24</v>
+      <c r="B102" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="B103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="C104" t="s">
+      <c r="C103" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="12" t="s">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="12" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="K107" s="7"/>
+      <c r="L107" s="7"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="S107" s="9"/>
+      <c r="T107" s="9"/>
+      <c r="U107" s="8"/>
+      <c r="V107" s="9"/>
+      <c r="W107" s="9"/>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="7"/>
@@ -6912,14 +6920,14 @@
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="K108" s="7"/>
-      <c r="L108" s="7"/>
-      <c r="M108" s="8"/>
-      <c r="N108" s="7"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="8"/>
       <c r="O108" s="7"/>
       <c r="S108" s="9"/>
-      <c r="T108" s="9"/>
-      <c r="U108" s="8"/>
-      <c r="V108" s="9"/>
+      <c r="T108" s="8"/>
+      <c r="U108" s="9"/>
+      <c r="V108" s="8"/>
       <c r="W108" s="9"/>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
@@ -6928,16 +6936,16 @@
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
-      <c r="K109" s="7"/>
-      <c r="L109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="7"/>
       <c r="M109" s="7"/>
-      <c r="N109" s="8"/>
-      <c r="O109" s="7"/>
-      <c r="S109" s="9"/>
-      <c r="T109" s="8"/>
-      <c r="U109" s="9"/>
-      <c r="V109" s="8"/>
-      <c r="W109" s="9"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="8"/>
+      <c r="S109" s="8"/>
+      <c r="T109" s="9"/>
+      <c r="U109" s="8"/>
+      <c r="V109" s="9"/>
+      <c r="W109" s="8"/>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="7"/>
@@ -6946,15 +6954,15 @@
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
       <c r="K110" s="8"/>
-      <c r="L110" s="7"/>
+      <c r="L110" s="8"/>
       <c r="M110" s="7"/>
-      <c r="N110" s="7"/>
+      <c r="N110" s="8"/>
       <c r="O110" s="8"/>
-      <c r="S110" s="8"/>
-      <c r="T110" s="9"/>
-      <c r="U110" s="8"/>
-      <c r="V110" s="9"/>
-      <c r="W110" s="8"/>
+      <c r="S110" s="9"/>
+      <c r="T110" s="8"/>
+      <c r="U110" s="9"/>
+      <c r="V110" s="8"/>
+      <c r="W110" s="9"/>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="7"/>
@@ -6963,112 +6971,85 @@
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
       <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
+      <c r="L111" s="7"/>
       <c r="M111" s="7"/>
-      <c r="N111" s="8"/>
+      <c r="N111" s="7"/>
       <c r="O111" s="8"/>
-      <c r="S111" s="9"/>
-      <c r="T111" s="8"/>
-      <c r="U111" s="9"/>
-      <c r="V111" s="8"/>
-      <c r="W111" s="9"/>
+      <c r="S111" s="8"/>
+      <c r="T111" s="9"/>
+      <c r="U111" s="8"/>
+      <c r="V111" s="9"/>
+      <c r="W111" s="10"/>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="9"/>
       <c r="K112" s="8"/>
-      <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
-      <c r="N112" s="7"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="9"/>
       <c r="O112" s="8"/>
-      <c r="S112" s="8"/>
-      <c r="T112" s="9"/>
-      <c r="U112" s="8"/>
-      <c r="V112" s="9"/>
-      <c r="W112" s="10"/>
+      <c r="S112" s="9"/>
+      <c r="T112" s="8"/>
+      <c r="U112" s="9"/>
+      <c r="V112" s="8"/>
+      <c r="W112" s="9"/>
     </row>
     <row r="113" spans="2:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="B113" s="9"/>
+      <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
-      <c r="F113" s="9"/>
+      <c r="F113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9"/>
-      <c r="M113" s="8"/>
+      <c r="M113" s="9"/>
       <c r="N113" s="9"/>
       <c r="O113" s="8"/>
-      <c r="S113" s="9"/>
-      <c r="T113" s="8"/>
-      <c r="U113" s="9"/>
-      <c r="V113" s="8"/>
-      <c r="W113" s="9"/>
+      <c r="S113" s="8"/>
+      <c r="T113" s="9"/>
+      <c r="U113" s="8"/>
+      <c r="V113" s="9"/>
+      <c r="W113" s="8"/>
     </row>
     <row r="114" spans="2:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="B114" s="8"/>
+      <c r="B114" s="7"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="9"/>
-      <c r="M114" s="9"/>
-      <c r="N114" s="9"/>
-      <c r="O114" s="8"/>
-      <c r="S114" s="8"/>
-      <c r="T114" s="9"/>
-      <c r="U114" s="8"/>
-      <c r="V114" s="9"/>
-      <c r="W114" s="8"/>
+      <c r="F114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="7"/>
+      <c r="S114" s="7"/>
+      <c r="T114" s="8"/>
+      <c r="U114" s="20"/>
+      <c r="V114" s="8"/>
+      <c r="W114" s="7"/>
     </row>
     <row r="115" spans="2:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="B115" s="7"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="7"/>
-      <c r="K115" s="7"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="8"/>
-      <c r="N115" s="8"/>
-      <c r="O115" s="7"/>
-      <c r="S115" s="7"/>
-      <c r="T115" s="8"/>
-      <c r="U115" s="20"/>
-      <c r="V115" s="8"/>
-      <c r="W115" s="7"/>
+      <c r="B115" t="s">
+        <v>125</v>
+      </c>
+      <c r="K115" t="s">
+        <v>126</v>
+      </c>
+      <c r="S115" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="116" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" t="s">
-        <v>125</v>
-      </c>
-      <c r="K116" t="s">
-        <v>126</v>
-      </c>
-      <c r="S116" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="B117" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="J26:K27"/>
     <mergeCell ref="P28:Q29"/>
     <mergeCell ref="L28:M29"/>
     <mergeCell ref="H28:I29"/>
@@ -7079,6 +7060,16 @@
     <mergeCell ref="N26:O27"/>
     <mergeCell ref="P26:Q27"/>
     <mergeCell ref="L24:M25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7092,7 +7083,7 @@
   <dimension ref="A1:BY66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AR45" sqref="AR45"/>
     </sheetView>
   </sheetViews>
@@ -7106,7 +7097,7 @@
     <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="O3" s="13"/>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S3" s="13"/>
       <c r="T3" s="14"/>
@@ -7130,35 +7121,35 @@
         <v>6</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R4" s="13"/>
       <c r="X4" t="s">
         <v>4</v>
       </c>
       <c r="Y4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF4" t="s">
         <v>9</v>
       </c>
       <c r="AG4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AO4" s="13"/>
     </row>
     <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>5</v>
@@ -7167,7 +7158,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J5" s="1"/>
       <c r="P5" s="7"/>
@@ -7333,16 +7324,16 @@
     </row>
     <row r="16" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>5</v>
@@ -7351,11 +7342,11 @@
         <v>5</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K16" s="1"/>
       <c r="N16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -7422,7 +7413,7 @@
     </row>
     <row r="25" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="F25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -7466,7 +7457,7 @@
         <v>66</v>
       </c>
       <c r="BG31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7501,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="AG32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AQ32" s="1" t="s">
         <v>1</v>
@@ -7599,10 +7590,10 @@
     </row>
     <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X39" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ39" t="s">
         <v>145</v>
-      </c>
-      <c r="AQ39" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="40" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7640,7 +7631,7 @@
         <v>60</v>
       </c>
       <c r="BC40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BR40" t="s">
         <v>59</v>
@@ -7795,12 +7786,12 @@
     </row>
     <row r="45" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AR45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7903,16 +7894,16 @@
     </row>
     <row r="57" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D57" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>5</v>
@@ -7921,11 +7912,11 @@
         <v>5</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K57" s="1"/>
       <c r="T57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
@@ -8014,16 +8005,16 @@
     </row>
     <row r="65" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D65" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>5</v>
@@ -8032,7 +8023,7 @@
         <v>5</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K65" s="1"/>
     </row>
@@ -8068,7 +8059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B40E9C8-489C-4E06-A660-B3194CE09B52}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z29" sqref="Z29"/>
     </sheetView>
@@ -8176,7 +8167,7 @@
         <v>10</v>
       </c>
       <c r="Q33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD2EE43-C06D-4E80-9FF6-6D0A03C7445E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F3F655-B04C-4891-8162-4B4A52041D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1520" windowWidth="19200" windowHeight="8800" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="19200" windowHeight="8800" activeTab="1" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="156">
   <si>
     <t>LCD画面遷移</t>
     <rPh sb="3" eb="5">
@@ -576,19 +576,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一定時間の経過または</t>
-    <rPh sb="0" eb="2">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ゲーム開始のカウントダウン(2秒)</t>
     <rPh sb="3" eb="5">
       <t>カイシ</t>
@@ -1441,13 +1428,6 @@
   <si>
     <t>スタートスイッチ押下</t>
     <rPh sb="8" eb="10">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一定時間経過かスタートスイッチ押下</t>
-    <rPh sb="15" eb="17">
       <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1909,6 +1889,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1937,54 +1965,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6309,7 +6289,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A89" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W76" sqref="W76"/>
     </sheetView>
   </sheetViews>
@@ -6325,211 +6305,211 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="12"/>
       <c r="S19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="24"/>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="23"/>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J23" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="30">
+      <c r="C24" s="43"/>
+      <c r="D24" s="46">
         <v>0</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="30">
+      <c r="E24" s="43"/>
+      <c r="F24" s="46">
         <v>0</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="30">
+      <c r="G24" s="43"/>
+      <c r="H24" s="46">
         <v>0</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="44" t="s">
+      <c r="I24" s="43"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="45"/>
-      <c r="N24" s="44">
+      <c r="M24" s="29"/>
+      <c r="N24" s="28">
         <v>5</v>
       </c>
-      <c r="O24" s="45"/>
-      <c r="P24" s="44">
+      <c r="O24" s="29"/>
+      <c r="P24" s="28">
         <v>8</v>
       </c>
-      <c r="Q24" s="48"/>
+      <c r="Q24" s="32"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="49"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="12"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="50"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="38"/>
     </row>
     <row r="27" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="12"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="51"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="39"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="12"/>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="H28" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="H28" s="42" t="s">
+      <c r="I28" s="26"/>
+      <c r="L28" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="I28" s="42"/>
-      <c r="L28" s="42" t="s">
+      <c r="M28" s="26"/>
+      <c r="P28" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="M28" s="42"/>
-      <c r="P28" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q28" s="42"/>
+      <c r="Q28" s="26"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="12"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="12"/>
@@ -6549,7 +6529,7 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="12"/>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6561,19 +6541,19 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="12"/>
       <c r="D38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" t="s">
         <v>86</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
         <v>87</v>
       </c>
-      <c r="H38" t="s">
+      <c r="J38" t="s">
         <v>88</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>89</v>
-      </c>
-      <c r="L38" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -6592,42 +6572,42 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" t="s">
         <v>110</v>
-      </c>
-      <c r="E47" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6667,7 +6647,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -6702,7 +6682,7 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -6712,77 +6692,77 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C67" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D69" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D77" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6812,12 +6792,12 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C87" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6827,7 +6807,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6837,7 +6817,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -6868,7 +6848,7 @@
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
@@ -6883,12 +6863,12 @@
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C103" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.55000000000000004">
@@ -7034,13 +7014,13 @@
     </row>
     <row r="115" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" t="s">
+        <v>124</v>
+      </c>
+      <c r="K115" t="s">
         <v>125</v>
       </c>
-      <c r="K115" t="s">
+      <c r="S115" t="s">
         <v>126</v>
-      </c>
-      <c r="S115" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="116" spans="2:23" x14ac:dyDescent="0.55000000000000004">
@@ -7050,6 +7030,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="J26:K27"/>
     <mergeCell ref="P28:Q29"/>
     <mergeCell ref="L28:M29"/>
     <mergeCell ref="H28:I29"/>
@@ -7060,16 +7050,6 @@
     <mergeCell ref="N26:O27"/>
     <mergeCell ref="P26:Q27"/>
     <mergeCell ref="L24:M25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7082,9 +7062,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928ACB59-DB4E-4084-86B9-85978878B755}">
   <dimension ref="A1:BY66"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR45" sqref="AR45"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -7097,7 +7077,7 @@
     <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="O3" s="13"/>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S3" s="13"/>
       <c r="T3" s="14"/>
@@ -7121,35 +7101,35 @@
         <v>6</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R4" s="13"/>
       <c r="X4" t="s">
         <v>4</v>
       </c>
       <c r="Y4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF4" t="s">
         <v>9</v>
       </c>
       <c r="AG4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AO4" s="13"/>
     </row>
     <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>5</v>
@@ -7158,7 +7138,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J5" s="1"/>
       <c r="P5" s="7"/>
@@ -7319,21 +7299,21 @@
         <v>56</v>
       </c>
       <c r="X15" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>5</v>
@@ -7342,11 +7322,11 @@
         <v>5</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K16" s="1"/>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -7395,13 +7375,10 @@
     <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P23" s="11"/>
       <c r="X23" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
@@ -7412,9 +7389,6 @@
       <c r="AE24" s="1"/>
     </row>
     <row r="25" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F25" t="s">
-        <v>155</v>
-      </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
@@ -7457,7 +7431,7 @@
         <v>66</v>
       </c>
       <c r="BG31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7492,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="AG32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AQ32" s="1" t="s">
         <v>1</v>
@@ -7519,7 +7493,9 @@
     </row>
     <row r="33" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="E33" t="s">
+        <v>154</v>
+      </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -7590,10 +7566,10 @@
     </row>
     <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X39" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ39" t="s">
         <v>144</v>
-      </c>
-      <c r="AQ39" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="40" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7631,7 +7607,7 @@
         <v>60</v>
       </c>
       <c r="BC40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BR40" t="s">
         <v>59</v>
@@ -7786,12 +7762,12 @@
     </row>
     <row r="45" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AR45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -7894,16 +7870,16 @@
     </row>
     <row r="57" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D57" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>5</v>
@@ -7912,11 +7888,11 @@
         <v>5</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K57" s="1"/>
-      <c r="T57" t="s">
-        <v>157</v>
+      <c r="W57" t="s">
+        <v>155</v>
       </c>
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
@@ -8005,16 +7981,16 @@
     </row>
     <row r="65" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D65" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>5</v>
@@ -8023,7 +7999,7 @@
         <v>5</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K65" s="1"/>
     </row>
@@ -8060,7 +8036,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
@@ -8088,7 +8064,7 @@
     </row>
     <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W8" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8106,12 +8082,12 @@
     </row>
     <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W12" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -8167,7 +8143,7 @@
         <v>10</v>
       </c>
       <c r="Q33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD2EE43-C06D-4E80-9FF6-6D0A03C7445E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C107144F-4323-4EB1-8B6E-71D70B7E864E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1520" windowWidth="19200" windowHeight="8800" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -643,29 +643,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・ハイスコアは、電源を切っても保持される。（EPPROMに記録する）</t>
-    <rPh sb="8" eb="10">
-      <t>デンゲン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>キロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>穴に入る前にハンマーで叩き、何匹モグラを撃退したかを競うゲーム」</t>
-    <rPh sb="14" eb="16">
-      <t>ナンヒキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>〇作成するモグラ叩きゲームの概要</t>
     <rPh sb="1" eb="3">
       <t>サクセイ</t>
@@ -1449,6 +1426,32 @@
     <t>一定時間経過かスタートスイッチ押下</t>
     <rPh sb="15" eb="17">
       <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>穴に戻る前にハンマーで叩き、何匹モグラを撃退したかを競うゲーム」</t>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナンヒキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ハイスコアは、電源を切っても保持される。（EEPROMに記録する）</t>
+    <rPh sb="8" eb="10">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1909,6 +1912,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1937,54 +1988,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3658,8 +3661,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1255227" y="1255227"/>
-          <a:ext cx="2509949" cy="3138911"/>
+          <a:off x="1277639" y="1277639"/>
+          <a:ext cx="2554773" cy="3194940"/>
           <a:chOff x="1262231" y="1262231"/>
           <a:chExt cx="2523957" cy="3156420"/>
         </a:xfrm>
@@ -6309,594 +6312,594 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W76" sqref="W76"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S57" sqref="S57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="28" width="3.58203125" customWidth="1"/>
+    <col min="1" max="28" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="L3" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="L4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="L7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="M8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="M9" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A17" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B18" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B19" s="12"/>
       <c r="S19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="T20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="C21" s="24"/>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="C22" s="23"/>
       <c r="D22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J23" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B24" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="30">
+      <c r="C24" s="43"/>
+      <c r="D24" s="46">
         <v>0</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="30">
+      <c r="E24" s="43"/>
+      <c r="F24" s="46">
         <v>0</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="30">
+      <c r="G24" s="43"/>
+      <c r="H24" s="46">
         <v>0</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="44" t="s">
+      <c r="I24" s="43"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="45"/>
-      <c r="N24" s="44">
+      <c r="M24" s="29"/>
+      <c r="N24" s="28">
         <v>5</v>
       </c>
-      <c r="O24" s="45"/>
-      <c r="P24" s="44">
+      <c r="O24" s="29"/>
+      <c r="P24" s="28">
         <v>8</v>
       </c>
-      <c r="Q24" s="48"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="49"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q24" s="32"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="33"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26" s="12"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="50"/>
-    </row>
-    <row r="27" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B26" s="40"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="38"/>
+    </row>
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="51"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="41"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="39"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28" s="12"/>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="H28" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="L28" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="H28" s="42" t="s">
+      <c r="M28" s="26"/>
+      <c r="P28" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="I28" s="42"/>
-      <c r="L28" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="M28" s="42"/>
-      <c r="P28" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q28" s="42"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q28" s="26"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29" s="12"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30" s="12"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31" s="12"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32" s="12"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="12"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="12"/>
       <c r="D35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="12"/>
       <c r="D38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" t="s">
         <v>86</v>
       </c>
-      <c r="F38" t="s">
+      <c r="J38" t="s">
         <v>87</v>
       </c>
-      <c r="H38" t="s">
+      <c r="L38" t="s">
         <v>88</v>
       </c>
-      <c r="J38" t="s">
-        <v>89</v>
-      </c>
-      <c r="L38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="12"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="12"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="12"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
         <v>102</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E45" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B46" t="s">
         <v>103</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E46" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B51" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B55" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B57" s="12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C58" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B59" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C60" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B63" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C64" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C65" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B66" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C67" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D70" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D69" t="s">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D71" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D70" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D71" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D73" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E74" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D73" t="s">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E75" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E75" t="s">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E76" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E76" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D77" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E79" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D80" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E79" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D81" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D80" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D81" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D82" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E83" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F84" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F85" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C86" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D88" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B89" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C90" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D91" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C92" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="12"/>
       <c r="B95" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C96" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B97" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C98" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.4">
       <c r="D99" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C100" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.4">
       <c r="D101" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A105" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -6913,7 +6916,7 @@
       <c r="V107" s="9"/>
       <c r="W107" s="9"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -6930,7 +6933,7 @@
       <c r="V108" s="8"/>
       <c r="W108" s="9"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -6947,7 +6950,7 @@
       <c r="V109" s="9"/>
       <c r="W109" s="8"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -6964,7 +6967,7 @@
       <c r="V110" s="8"/>
       <c r="W110" s="9"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -6981,7 +6984,7 @@
       <c r="V111" s="9"/>
       <c r="W111" s="10"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B112" s="9"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -6998,7 +7001,7 @@
       <c r="V112" s="8"/>
       <c r="W112" s="9"/>
     </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -7015,7 +7018,7 @@
       <c r="V113" s="9"/>
       <c r="W113" s="8"/>
     </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -7032,24 +7035,34 @@
       <c r="V114" s="8"/>
       <c r="W114" s="7"/>
     </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B115" t="s">
+        <v>123</v>
+      </c>
+      <c r="K115" t="s">
+        <v>124</v>
+      </c>
+      <c r="S115" t="s">
         <v>125</v>
       </c>
-      <c r="K115" t="s">
-        <v>126</v>
-      </c>
-      <c r="S115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="116" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B116" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="J26:K27"/>
     <mergeCell ref="P28:Q29"/>
     <mergeCell ref="L28:M29"/>
     <mergeCell ref="H28:I29"/>
@@ -7060,16 +7073,6 @@
     <mergeCell ref="N26:O27"/>
     <mergeCell ref="P26:Q27"/>
     <mergeCell ref="L24:M25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7087,17 +7090,17 @@
       <selection pane="bottomLeft" activeCell="AR45" sqref="AR45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="O3" s="13"/>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="S3" s="13"/>
       <c r="T3" s="14"/>
@@ -7112,7 +7115,7 @@
       <c r="AN3" s="13"/>
       <c r="AO3" s="13"/>
     </row>
-    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -7121,35 +7124,35 @@
         <v>6</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R4" s="13"/>
       <c r="X4" t="s">
         <v>4</v>
       </c>
       <c r="Y4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AF4" t="s">
         <v>9</v>
       </c>
       <c r="AG4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AO4" s="13"/>
     </row>
-    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>5</v>
@@ -7158,7 +7161,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J5" s="1"/>
       <c r="P5" s="7"/>
@@ -7177,7 +7180,7 @@
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
     </row>
-    <row r="6" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -7212,7 +7215,7 @@
       <c r="AI6" s="8"/>
       <c r="AJ6" s="7"/>
     </row>
-    <row r="7" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -7229,7 +7232,7 @@
       <c r="AI7" s="7"/>
       <c r="AJ7" s="8"/>
     </row>
-    <row r="8" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -7246,7 +7249,7 @@
       <c r="AI8" s="8"/>
       <c r="AJ8" s="7"/>
     </row>
-    <row r="9" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -7263,7 +7266,7 @@
       <c r="AI9" s="7"/>
       <c r="AJ9" s="10"/>
     </row>
-    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="P10" s="7"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
@@ -7280,7 +7283,7 @@
       <c r="AI10" s="8"/>
       <c r="AJ10" s="7"/>
     </row>
-    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
@@ -7297,7 +7300,7 @@
       <c r="AI11" s="7"/>
       <c r="AJ11" s="8"/>
     </row>
-    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="P12" s="7"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -7314,7 +7317,7 @@
       <c r="AI12" s="8"/>
       <c r="AJ12" s="7"/>
     </row>
-    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
         <v>56</v>
       </c>
@@ -7322,18 +7325,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D16" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>5</v>
@@ -7342,11 +7345,11 @@
         <v>5</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K16" s="1"/>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -7357,7 +7360,7 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
@@ -7387,18 +7390,18 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Y20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="P23" s="11"/>
       <c r="X23" s="19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F24" t="s">
         <v>67</v>
       </c>
@@ -7411,9 +7414,9 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
     </row>
-    <row r="25" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -7426,7 +7429,7 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -7439,7 +7442,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -7449,7 +7452,7 @@
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
     </row>
-    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X31" t="s">
         <v>7</v>
       </c>
@@ -7457,10 +7460,10 @@
         <v>66</v>
       </c>
       <c r="BG31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -7492,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="AG32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AQ32" s="1" t="s">
         <v>1</v>
@@ -7517,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -7559,7 +7562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -7578,7 +7581,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -7588,15 +7591,15 @@
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
     </row>
-    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AQ39" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -7631,13 +7634,13 @@
         <v>60</v>
       </c>
       <c r="BC40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BR40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -7729,7 +7732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AQ42" s="1"/>
       <c r="AR42" s="17" t="s">
         <v>9</v>
@@ -7779,22 +7782,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Y44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AR45" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X47" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X48" s="1" t="s">
         <v>1</v>
       </c>
@@ -7821,7 +7824,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X49" s="1"/>
       <c r="Y49" s="1" t="s">
         <v>6</v>
@@ -7861,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AQ50" s="1"/>
       <c r="AR50" s="17" t="s">
         <v>6</v>
@@ -7879,12 +7882,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AR53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
         <v>63</v>
       </c>
@@ -7892,18 +7895,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D57" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>5</v>
@@ -7912,11 +7915,11 @@
         <v>5</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K57" s="1"/>
       <c r="T57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
@@ -7949,7 +7952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
@@ -7993,28 +7996,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D65" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>5</v>
@@ -8023,11 +8026,11 @@
         <v>5</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
@@ -8064,65 +8067,65 @@
       <selection pane="bottomLeft" activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W8" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W9" s="12"/>
     </row>
-    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W10" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W12" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -8137,7 +8140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -8145,7 +8148,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -8153,7 +8156,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="33" spans="5:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="5:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E33" t="s">
         <v>13</v>
       </c>
@@ -8167,7 +8170,7 @@
         <v>10</v>
       </c>
       <c r="Q33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC962F6-EEC1-467C-BCD9-EAAD18C04507}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63D48FD-474F-42E1-95FF-F66FF3792D55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="157">
   <si>
     <t>LCD画面遷移</t>
     <rPh sb="3" eb="5">
@@ -1432,6 +1432,19 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ナンヒキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・タイトル画面で、SW1～SW4を同時押しすることで、ハイスコアを0にリセットする。</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1892,6 +1905,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1920,54 +1981,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6290,10 +6303,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A1384-AF86-4BA2-B6E2-C742B67793C6}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W116"/>
+  <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AE93" sqref="AE93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6397,122 +6410,122 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="30">
+      <c r="C24" s="43"/>
+      <c r="D24" s="46">
         <v>0</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="30">
+      <c r="E24" s="43"/>
+      <c r="F24" s="46">
         <v>0</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="30">
+      <c r="G24" s="43"/>
+      <c r="H24" s="46">
         <v>0</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="44" t="s">
+      <c r="I24" s="43"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="45"/>
-      <c r="N24" s="44">
+      <c r="M24" s="29"/>
+      <c r="N24" s="28">
         <v>5</v>
       </c>
-      <c r="O24" s="45"/>
-      <c r="P24" s="44">
+      <c r="O24" s="29"/>
+      <c r="P24" s="28">
         <v>8</v>
       </c>
-      <c r="Q24" s="48"/>
+      <c r="Q24" s="32"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="49"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26" s="12"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="50"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="38"/>
     </row>
     <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="51"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="39"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28" s="12"/>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="H28" s="42" t="s">
+      <c r="E28" s="26"/>
+      <c r="H28" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="42"/>
-      <c r="L28" s="42" t="s">
+      <c r="I28" s="26"/>
+      <c r="L28" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="M28" s="42"/>
-      <c r="P28" s="42" t="s">
+      <c r="M28" s="26"/>
+      <c r="P28" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="Q28" s="42"/>
+      <c r="Q28" s="26"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29" s="12"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30" s="12"/>
@@ -6823,78 +6836,66 @@
         <v>154</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A94" s="12" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C93" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A95" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A95" s="12"/>
-      <c r="B95" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A96" s="12"/>
+      <c r="B96" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C96" t="s">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C97" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B97" t="s">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B98" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C98" t="s">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C99" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="D99" t="s">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="D100" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C100" t="s">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C101" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="D101" t="s">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="D102" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B102" t="s">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B103" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C103" t="s">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C104" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A105" s="12" t="s">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A106" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="8"/>
-      <c r="N107" s="7"/>
-      <c r="O107" s="7"/>
-      <c r="S107" s="9"/>
-      <c r="T107" s="9"/>
-      <c r="U107" s="8"/>
-      <c r="V107" s="9"/>
-      <c r="W107" s="9"/>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B108" s="7"/>
@@ -6903,14 +6904,14 @@
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="K108" s="7"/>
-      <c r="L108" s="8"/>
-      <c r="M108" s="7"/>
-      <c r="N108" s="8"/>
+      <c r="L108" s="7"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="7"/>
       <c r="O108" s="7"/>
       <c r="S108" s="9"/>
-      <c r="T108" s="8"/>
-      <c r="U108" s="9"/>
-      <c r="V108" s="8"/>
+      <c r="T108" s="9"/>
+      <c r="U108" s="8"/>
+      <c r="V108" s="9"/>
       <c r="W108" s="9"/>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.4">
@@ -6919,16 +6920,16 @@
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="8"/>
       <c r="M109" s="7"/>
-      <c r="N109" s="7"/>
-      <c r="O109" s="8"/>
-      <c r="S109" s="8"/>
-      <c r="T109" s="9"/>
-      <c r="U109" s="8"/>
-      <c r="V109" s="9"/>
-      <c r="W109" s="8"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="7"/>
+      <c r="S109" s="9"/>
+      <c r="T109" s="8"/>
+      <c r="U109" s="9"/>
+      <c r="V109" s="8"/>
+      <c r="W109" s="9"/>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B110" s="7"/>
@@ -6937,15 +6938,15 @@
       <c r="E110" s="7"/>
       <c r="F110" s="7"/>
       <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
+      <c r="L110" s="7"/>
       <c r="M110" s="7"/>
-      <c r="N110" s="8"/>
+      <c r="N110" s="7"/>
       <c r="O110" s="8"/>
-      <c r="S110" s="9"/>
-      <c r="T110" s="8"/>
-      <c r="U110" s="9"/>
-      <c r="V110" s="8"/>
-      <c r="W110" s="9"/>
+      <c r="S110" s="8"/>
+      <c r="T110" s="9"/>
+      <c r="U110" s="8"/>
+      <c r="V110" s="9"/>
+      <c r="W110" s="8"/>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B111" s="7"/>
@@ -6954,85 +6955,112 @@
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
       <c r="K111" s="8"/>
-      <c r="L111" s="7"/>
+      <c r="L111" s="8"/>
       <c r="M111" s="7"/>
-      <c r="N111" s="7"/>
+      <c r="N111" s="8"/>
       <c r="O111" s="8"/>
-      <c r="S111" s="8"/>
-      <c r="T111" s="9"/>
-      <c r="U111" s="8"/>
-      <c r="V111" s="9"/>
-      <c r="W111" s="10"/>
+      <c r="S111" s="9"/>
+      <c r="T111" s="8"/>
+      <c r="U111" s="9"/>
+      <c r="V111" s="8"/>
+      <c r="W111" s="9"/>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B112" s="9"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="9"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
       <c r="K112" s="8"/>
-      <c r="L112" s="9"/>
-      <c r="M112" s="8"/>
-      <c r="N112" s="9"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
       <c r="O112" s="8"/>
-      <c r="S112" s="9"/>
-      <c r="T112" s="8"/>
-      <c r="U112" s="9"/>
-      <c r="V112" s="8"/>
-      <c r="W112" s="9"/>
+      <c r="S112" s="8"/>
+      <c r="T112" s="9"/>
+      <c r="U112" s="8"/>
+      <c r="V112" s="9"/>
+      <c r="W112" s="10"/>
     </row>
     <row r="113" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B113" s="8"/>
+      <c r="B113" s="9"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
+      <c r="F113" s="9"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9"/>
-      <c r="M113" s="9"/>
+      <c r="M113" s="8"/>
       <c r="N113" s="9"/>
       <c r="O113" s="8"/>
-      <c r="S113" s="8"/>
-      <c r="T113" s="9"/>
-      <c r="U113" s="8"/>
-      <c r="V113" s="9"/>
-      <c r="W113" s="8"/>
+      <c r="S113" s="9"/>
+      <c r="T113" s="8"/>
+      <c r="U113" s="9"/>
+      <c r="V113" s="8"/>
+      <c r="W113" s="9"/>
     </row>
     <row r="114" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B114" s="7"/>
+      <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
-      <c r="F114" s="7"/>
-      <c r="K114" s="7"/>
-      <c r="L114" s="8"/>
-      <c r="M114" s="8"/>
-      <c r="N114" s="8"/>
-      <c r="O114" s="7"/>
-      <c r="S114" s="7"/>
-      <c r="T114" s="8"/>
-      <c r="U114" s="20"/>
-      <c r="V114" s="8"/>
-      <c r="W114" s="7"/>
+      <c r="F114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="8"/>
+      <c r="S114" s="8"/>
+      <c r="T114" s="9"/>
+      <c r="U114" s="8"/>
+      <c r="V114" s="9"/>
+      <c r="W114" s="8"/>
     </row>
     <row r="115" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B115" t="s">
-        <v>122</v>
-      </c>
-      <c r="K115" t="s">
-        <v>123</v>
-      </c>
-      <c r="S115" t="s">
-        <v>124</v>
-      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="8"/>
+      <c r="O115" s="7"/>
+      <c r="S115" s="7"/>
+      <c r="T115" s="8"/>
+      <c r="U115" s="20"/>
+      <c r="V115" s="8"/>
+      <c r="W115" s="7"/>
     </row>
     <row r="116" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B116" t="s">
+        <v>122</v>
+      </c>
+      <c r="K116" t="s">
+        <v>123</v>
+      </c>
+      <c r="S116" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B117" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="J26:K27"/>
     <mergeCell ref="P28:Q29"/>
     <mergeCell ref="L28:M29"/>
     <mergeCell ref="H28:I29"/>
@@ -7043,16 +7071,6 @@
     <mergeCell ref="N26:O27"/>
     <mergeCell ref="P26:Q27"/>
     <mergeCell ref="L24:M25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7065,9 +7083,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928ACB59-DB4E-4084-86B9-85978878B755}">
   <dimension ref="A1:BY66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63D48FD-474F-42E1-95FF-F66FF3792D55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D3D4E0-6000-4C5F-A77C-96B4ECD22EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="19200" windowHeight="8800" activeTab="1" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="159">
   <si>
     <t>LCD画面遷移</t>
     <rPh sb="3" eb="5">
@@ -1446,6 +1446,20 @@
     <rPh sb="19" eb="20">
       <t>オ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW1~SW4同時押下</t>
+    <rPh sb="7" eb="9">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハイスコアを0にリセット</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1905,54 +1919,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1981,6 +1947,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3623,6 +3637,59 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4619</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>121805</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6469CAC-5E42-4165-8769-6DCE12475D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="834571" y="12216741"/>
+          <a:ext cx="4619" cy="840921"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3654,8 +3721,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1277639" y="1277639"/>
-          <a:ext cx="2554773" cy="3194940"/>
+          <a:off x="1255227" y="1255227"/>
+          <a:ext cx="2509949" cy="3138911"/>
           <a:chOff x="1262231" y="1262231"/>
           <a:chExt cx="2523957" cy="3156420"/>
         </a:xfrm>
@@ -6305,77 +6372,77 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AE93" sqref="AE93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="28" width="3.625" customWidth="1"/>
+    <col min="1" max="28" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="12"/>
       <c r="S19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
         <v>94</v>
       </c>
@@ -6386,7 +6453,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="24"/>
       <c r="D21" t="s">
         <v>90</v>
@@ -6395,13 +6462,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="23"/>
       <c r="D22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J23" s="25" t="s">
         <v>110</v>
       </c>
@@ -6409,152 +6476,152 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B24" s="42" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="46">
+      <c r="C24" s="27"/>
+      <c r="D24" s="30">
         <v>0</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="46">
+      <c r="E24" s="27"/>
+      <c r="F24" s="30">
         <v>0</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="46">
+      <c r="G24" s="27"/>
+      <c r="H24" s="30">
         <v>0</v>
       </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="28" t="s">
+      <c r="I24" s="27"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="29"/>
-      <c r="N24" s="28">
+      <c r="M24" s="45"/>
+      <c r="N24" s="44">
         <v>5</v>
       </c>
-      <c r="O24" s="29"/>
-      <c r="P24" s="28">
+      <c r="O24" s="45"/>
+      <c r="P24" s="44">
         <v>8</v>
       </c>
-      <c r="Q24" s="32"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="33"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="Q24" s="48"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="49"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="12"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="38"/>
-    </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="50"/>
+    </row>
+    <row r="27" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="12"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="39"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="51"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="12"/>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="H28" s="26" t="s">
+      <c r="E28" s="42"/>
+      <c r="H28" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="L28" s="26" t="s">
+      <c r="I28" s="42"/>
+      <c r="L28" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="M28" s="26"/>
-      <c r="P28" s="26" t="s">
+      <c r="M28" s="42"/>
+      <c r="P28" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="Q28" s="26"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="Q28" s="42"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="12"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="12"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="12"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="12"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="12"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="12"/>
       <c r="D35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="12"/>
       <c r="D38" t="s">
         <v>83</v>
@@ -6572,21 +6639,21 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="12"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="12"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="12"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
         <v>99</v>
       </c>
@@ -6594,7 +6661,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
         <v>100</v>
       </c>
@@ -6602,7 +6669,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
         <v>101</v>
       </c>
@@ -6610,7 +6677,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
         <v>102</v>
       </c>
@@ -6618,7 +6685,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" t="s">
         <v>107</v>
       </c>
@@ -6626,278 +6693,278 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C60" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C65" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C67" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D68" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D69" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D70" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D71" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D72" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D73" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E74" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E75" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E76" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D77" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D78" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E79" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D80" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D81" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D82" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E83" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F84" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F85" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C86" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C87" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D88" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C90" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D91" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C92" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C93" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="12"/>
       <c r="B96" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C99" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D100" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C101" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D102" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C104" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -6914,7 +6981,7 @@
       <c r="V108" s="9"/>
       <c r="W108" s="9"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -6931,7 +6998,7 @@
       <c r="V109" s="8"/>
       <c r="W109" s="9"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -6948,7 +7015,7 @@
       <c r="V110" s="9"/>
       <c r="W110" s="8"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -6965,7 +7032,7 @@
       <c r="V111" s="8"/>
       <c r="W111" s="9"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -6982,7 +7049,7 @@
       <c r="V112" s="9"/>
       <c r="W112" s="10"/>
     </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="9"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -6999,7 +7066,7 @@
       <c r="V113" s="8"/>
       <c r="W113" s="9"/>
     </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -7016,7 +7083,7 @@
       <c r="V114" s="9"/>
       <c r="W114" s="8"/>
     </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -7033,7 +7100,7 @@
       <c r="V115" s="8"/>
       <c r="W115" s="7"/>
     </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" t="s">
         <v>122</v>
       </c>
@@ -7044,23 +7111,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="J26:K27"/>
     <mergeCell ref="P28:Q29"/>
     <mergeCell ref="L28:M29"/>
     <mergeCell ref="H28:I29"/>
@@ -7071,6 +7128,16 @@
     <mergeCell ref="N26:O27"/>
     <mergeCell ref="P26:Q27"/>
     <mergeCell ref="L24:M25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7081,21 +7148,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928ACB59-DB4E-4084-86B9-85978878B755}">
-  <dimension ref="A1:BY66"/>
+  <dimension ref="A1:BY74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N69" sqref="N69"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="O3" s="13"/>
       <c r="P3" t="s">
         <v>147</v>
@@ -7113,7 +7180,7 @@
       <c r="AN3" s="13"/>
       <c r="AO3" s="13"/>
     </row>
-    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -7139,7 +7206,7 @@
       </c>
       <c r="AO4" s="13"/>
     </row>
-    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
         <v>137</v>
       </c>
@@ -7178,7 +7245,7 @@
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
     </row>
-    <row r="6" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -7213,7 +7280,7 @@
       <c r="AI6" s="8"/>
       <c r="AJ6" s="7"/>
     </row>
-    <row r="7" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -7230,7 +7297,7 @@
       <c r="AI7" s="7"/>
       <c r="AJ7" s="8"/>
     </row>
-    <row r="8" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
@@ -7247,7 +7314,7 @@
       <c r="AI8" s="8"/>
       <c r="AJ8" s="7"/>
     </row>
-    <row r="9" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
@@ -7264,7 +7331,7 @@
       <c r="AI9" s="7"/>
       <c r="AJ9" s="10"/>
     </row>
-    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P10" s="7"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
@@ -7281,7 +7348,7 @@
       <c r="AI10" s="8"/>
       <c r="AJ10" s="7"/>
     </row>
-    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
@@ -7298,7 +7365,7 @@
       <c r="AI11" s="7"/>
       <c r="AJ11" s="8"/>
     </row>
-    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P12" s="7"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
@@ -7315,7 +7382,7 @@
       <c r="AI12" s="8"/>
       <c r="AJ12" s="7"/>
     </row>
-    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" t="s">
         <v>56</v>
       </c>
@@ -7323,7 +7390,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="1" t="s">
         <v>137</v>
       </c>
@@ -7358,7 +7425,7 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
@@ -7388,18 +7455,18 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Y20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P23" s="11"/>
       <c r="X23" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
@@ -7409,7 +7476,7 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
     </row>
-    <row r="25" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
@@ -7421,7 +7488,7 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -7434,7 +7501,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -7444,7 +7511,7 @@
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
     </row>
-    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X31" t="s">
         <v>7</v>
       </c>
@@ -7455,7 +7522,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -7512,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D33" s="13"/>
       <c r="E33" t="s">
         <v>152</v>
@@ -7556,7 +7623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -7575,7 +7642,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -7585,7 +7652,7 @@
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
     </row>
-    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X39" t="s">
         <v>141</v>
       </c>
@@ -7593,7 +7660,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -7634,7 +7701,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -7726,7 +7793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AQ42" s="1"/>
       <c r="AR42" s="17" t="s">
         <v>9</v>
@@ -7776,22 +7843,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Y44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AR45" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X47" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X48" s="1" t="s">
         <v>1</v>
       </c>
@@ -7818,7 +7885,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X49" s="1"/>
       <c r="Y49" s="1" t="s">
         <v>6</v>
@@ -7858,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AQ50" s="1"/>
       <c r="AR50" s="17" t="s">
         <v>6</v>
@@ -7876,12 +7943,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AR53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D56" t="s">
         <v>63</v>
       </c>
@@ -7889,7 +7956,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D57" s="1" t="s">
         <v>137</v>
       </c>
@@ -7946,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
@@ -7990,17 +8057,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D65" s="1" t="s">
         <v>137</v>
       </c>
@@ -8024,7 +8091,7 @@
       </c>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
@@ -8041,6 +8108,60 @@
         <v>3</v>
       </c>
       <c r="K66" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E69" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="18">
+        <v>0</v>
+      </c>
+      <c r="J74" s="18">
+        <v>0</v>
+      </c>
+      <c r="K74" s="18">
         <v>0</v>
       </c>
     </row>
@@ -8057,69 +8178,69 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W8" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W9" s="12"/>
     </row>
-    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W10" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W12" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -8134,7 +8255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -8142,7 +8263,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -8150,7 +8271,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="33" spans="5:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" t="s">
         <v>13</v>
       </c>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D3D4E0-6000-4C5F-A77C-96B4ECD22EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF05AF6-6F9A-42D1-B1E4-A7C3B14DA44D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1140" windowWidth="19200" windowHeight="8800" activeTab="1" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="-10" yWindow="2480" windowWidth="19370" windowHeight="8800" activeTab="1" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="159">
   <si>
     <t>LCD画面遷移</t>
     <rPh sb="3" eb="5">
@@ -1604,7 +1604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1834,13 +1834,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1919,6 +1946,54 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1949,53 +2024,50 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3688,6 +3760,1590 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>4883</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>4884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>210038</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60C9A71-92D9-42FA-BE04-8664EED129DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5045806" y="6726115"/>
+          <a:ext cx="205155" cy="205154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>6195</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>716</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>207536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59C1C65-FC92-4C41-B7C2-2C6E486639E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5482683" y="6742079"/>
+          <a:ext cx="205155" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>6195</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>4884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>716</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B0F8B54-4CC7-4027-8E1A-E3D2BD19D9D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5903951" y="6745177"/>
+          <a:ext cx="205155" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>3717</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>5504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>208872</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B5C495-3F58-41CE-BA2B-DF705AD97D5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6322741" y="6745797"/>
+          <a:ext cx="205155" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>6074</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>4408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>595</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>210158</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{463D610D-7BA1-4B14-89E2-8FE90C1FB5AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5061294" y="10114847"/>
+          <a:ext cx="205155" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>7386</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1907</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>207060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB673A9-8E47-4FF1-89C7-C43DC8E9E1EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5483874" y="10111749"/>
+          <a:ext cx="205155" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>7386</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>4408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1907</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>210158</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D4D020-9082-42DA-8F7A-690B7354F711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905142" y="10114847"/>
+          <a:ext cx="205155" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>4908</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>5028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>210063</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D1279F-C9C8-4297-BF70-FE5BF28C1ED8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6323932" y="10115467"/>
+          <a:ext cx="205155" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>5107</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>2472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209972</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>208222</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{718702DA-4F72-4298-BF8F-DF2746175CDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5053357" y="8416222"/>
+          <a:ext cx="204865" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>6419</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>209718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>940</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>205124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA22881A-0253-4686-971D-9753B1C1A5B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5475357" y="8413124"/>
+          <a:ext cx="204864" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>6419</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>2472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>940</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>208222</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC94BDA-16CC-4A5B-96DF-8AE2444470C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5896044" y="8416222"/>
+          <a:ext cx="204865" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>3941</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>3092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>209096</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>208552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D50D29-7F58-40FF-B8DD-41E6A8C16D8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6314254" y="8416842"/>
+          <a:ext cx="205155" cy="205460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>204865</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>208848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED687C0-20C9-44FC-A031-A7B0727E584C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9049657" y="10315498"/>
+          <a:ext cx="204865" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>1312</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>206176</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>205750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0531CDB0-762A-40DC-9138-E9357EB9498C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9471883" y="10312400"/>
+          <a:ext cx="204864" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>1312</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>206177</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>208848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0E01BD-26EA-4F2D-8FBD-C8B56C179BBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9892798" y="10315498"/>
+          <a:ext cx="204865" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>209178</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>3718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>203989</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>209178</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97550CDC-EAFC-493A-AFB8-189D608D9FD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10311121" y="10316118"/>
+          <a:ext cx="205268" cy="205460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>204979</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>208848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E69493-D832-4E02-A017-47C526BA79A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14732000" y="8631841"/>
+          <a:ext cx="204979" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>1313</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>206291</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>205750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C4EF39-2F15-429C-8CA5-50D028FB96F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15154227" y="8628743"/>
+          <a:ext cx="204978" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>1312</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>206290</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>208848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13705F3D-2EBD-4DF9-B96D-4C18B2D2354F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15575141" y="8631841"/>
+          <a:ext cx="204978" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>209291</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>3718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>203989</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>209291</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97EF5BA-D1FE-42FF-8274-9837E48B7974}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15993577" y="8632461"/>
+          <a:ext cx="205155" cy="205573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>4942</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>209920</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>205750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB471EE-93E6-49DE-B0FB-F7B457981946}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12000999" y="8628743"/>
+          <a:ext cx="204978" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>4942</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>209920</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>208848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328A0552-46D7-4553-90C9-F364F997A190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12421913" y="8631841"/>
+          <a:ext cx="204978" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>2463</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>3718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>207618</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>209291</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADD005E-B7A2-43A0-B4D3-8B121C3735F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12840349" y="8632461"/>
+          <a:ext cx="205155" cy="205573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>1313</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>206291</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>205750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0658767-B109-44C7-8568-D3AE72FB5149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9471884" y="8628743"/>
+          <a:ext cx="204978" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>1312</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>206290</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>208848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5245C63D-0603-4EB9-A5B7-C35B13D29997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9892798" y="8631841"/>
+          <a:ext cx="204978" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>209291</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>3718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>203989</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>209291</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="図 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C3B0F5-68DA-46AB-923B-ED653863E834}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10311234" y="8632461"/>
+          <a:ext cx="205155" cy="205573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>1313</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>206291</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>205750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F961A8-8F76-4366-9792-EBFF9B2F5982}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9471884" y="6734629"/>
+          <a:ext cx="204978" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>1312</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>206290</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>208848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DC133A-095C-40FE-BA25-CF181F74906B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9892798" y="6737727"/>
+          <a:ext cx="204978" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>209291</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>3718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>203989</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>209291</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="図 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A21BBA0-5B38-4E00-8CC6-2931F12934C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10311234" y="6738347"/>
+          <a:ext cx="205155" cy="205573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>204347</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>208848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6ED535B-0FDD-469D-A44A-4C0755F34F79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9022522" y="11963185"/>
+          <a:ext cx="204347" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>1312</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>205659</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>205750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F812A99E-7D1B-4148-AFAB-AE52AB7788E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9443486" y="11960087"/>
+          <a:ext cx="204347" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>1312</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>205660</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>208848</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="図 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5374C3D-6886-41E5-ACE8-E993CC11B55B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9863138" y="11963185"/>
+          <a:ext cx="204348" cy="205750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>208661</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>3718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>203990</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>208660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="図 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C975AD-4CB0-471A-BCE7-BA15F5B06FF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10280313" y="11963805"/>
+          <a:ext cx="205155" cy="204942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="図 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40291467-DA56-4172-9395-42C21A6FCA46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9049658" y="6734629"/>
+          <a:ext cx="210456" cy="210457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>210456</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0957871B-7267-4726-9296-D89A8E7CCBCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11575143" y="8628743"/>
+          <a:ext cx="210456" cy="210457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="図 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E559EEE-F261-4781-A798-20B08AF6E836}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9049657" y="8628743"/>
+          <a:ext cx="210457" cy="210457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6372,7 +8028,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AE93" sqref="AE93"/>
     </sheetView>
   </sheetViews>
@@ -6477,122 +8133,122 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="30">
+      <c r="C24" s="43"/>
+      <c r="D24" s="46">
         <v>0</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="30">
+      <c r="E24" s="43"/>
+      <c r="F24" s="46">
         <v>0</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="30">
+      <c r="G24" s="43"/>
+      <c r="H24" s="46">
         <v>0</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="44" t="s">
+      <c r="I24" s="43"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="45"/>
-      <c r="N24" s="44">
+      <c r="M24" s="29"/>
+      <c r="N24" s="28">
         <v>5</v>
       </c>
-      <c r="O24" s="45"/>
-      <c r="P24" s="44">
+      <c r="O24" s="29"/>
+      <c r="P24" s="28">
         <v>8</v>
       </c>
-      <c r="Q24" s="48"/>
+      <c r="Q24" s="32"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="49"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="12"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="50"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="38"/>
     </row>
     <row r="27" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="12"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="51"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="39"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="12"/>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="H28" s="42" t="s">
+      <c r="E28" s="26"/>
+      <c r="H28" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="42"/>
-      <c r="L28" s="42" t="s">
+      <c r="I28" s="26"/>
+      <c r="L28" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="M28" s="42"/>
-      <c r="P28" s="42" t="s">
+      <c r="M28" s="26"/>
+      <c r="P28" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="Q28" s="42"/>
+      <c r="Q28" s="26"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="12"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="12"/>
@@ -7118,6 +8774,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="J26:K27"/>
     <mergeCell ref="P28:Q29"/>
     <mergeCell ref="L28:M29"/>
     <mergeCell ref="H28:I29"/>
@@ -7128,16 +8794,6 @@
     <mergeCell ref="N26:O27"/>
     <mergeCell ref="P26:Q27"/>
     <mergeCell ref="L24:M25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7150,9 +8806,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928ACB59-DB4E-4084-86B9-85978878B755}">
   <dimension ref="A1:BY74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -7229,21 +8885,21 @@
         <v>133</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="54"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="54"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="54"/>
     </row>
     <row r="6" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="1"/>
@@ -7264,123 +8920,123 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="7"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="57"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="57"/>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="58"/>
+      <c r="AJ6" s="57"/>
     </row>
     <row r="7" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="8"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="57"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="60"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="58"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="60"/>
     </row>
     <row r="8" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="7"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="57"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="60"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="57"/>
     </row>
     <row r="9" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="8"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="10"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="57"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="60"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="65"/>
     </row>
     <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P10" s="7"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="7"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="8"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="7"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="57"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="60"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="57"/>
     </row>
     <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="8"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="60"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="60"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="58"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="60"/>
     </row>
     <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P12" s="7"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="7"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="63"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="63"/>
+      <c r="AF12" s="61"/>
+      <c r="AG12" s="62"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="62"/>
+      <c r="AJ12" s="63"/>
     </row>
     <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" t="s">
@@ -7591,37 +9247,21 @@
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="X33" s="1"/>
-      <c r="Y33" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
-      <c r="AA33" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
-      <c r="AC33" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
-      <c r="AE33" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AE33" s="1"/>
       <c r="AQ33" s="1"/>
-      <c r="AR33" s="17" t="s">
-        <v>4</v>
-      </c>
+      <c r="AR33" s="17"/>
       <c r="AS33" s="1"/>
-      <c r="AT33" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AT33" s="1"/>
       <c r="AU33" s="1"/>
-      <c r="AV33" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AV33" s="1"/>
       <c r="AW33" s="1"/>
-      <c r="AX33" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AX33" s="1"/>
     </row>
     <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" s="13"/>
@@ -7711,21 +9351,13 @@
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="X41" s="1"/>
-      <c r="Y41" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
-      <c r="AA41" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
-      <c r="AC41" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
-      <c r="AE41" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AE41" s="1"/>
       <c r="AQ41" s="18" t="s">
         <v>1</v>
       </c>
@@ -7795,53 +9427,29 @@
     </row>
     <row r="42" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AQ42" s="1"/>
-      <c r="AR42" s="17" t="s">
-        <v>9</v>
-      </c>
+      <c r="AR42" s="17"/>
       <c r="AS42" s="1"/>
-      <c r="AT42" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AT42" s="1"/>
       <c r="AU42" s="1"/>
-      <c r="AV42" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AV42" s="1"/>
       <c r="AW42" s="1"/>
-      <c r="AX42" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AX42" s="1"/>
       <c r="BC42" s="1"/>
-      <c r="BD42" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="BD42" s="1"/>
       <c r="BE42" s="1"/>
-      <c r="BF42" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="BF42" s="1"/>
       <c r="BG42" s="1"/>
-      <c r="BH42" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="BH42" s="1"/>
       <c r="BI42" s="1"/>
-      <c r="BJ42" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="BJ42" s="1"/>
       <c r="BR42" s="1"/>
-      <c r="BS42" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="BS42" s="17"/>
       <c r="BT42" s="1"/>
-      <c r="BU42" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="BU42" s="1"/>
       <c r="BV42" s="1"/>
-      <c r="BW42" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="BW42" s="1"/>
       <c r="BX42" s="1"/>
-      <c r="BY42" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="BY42" s="1"/>
     </row>
     <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Y44" t="s">
@@ -7887,21 +9495,13 @@
     </row>
     <row r="49" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X49" s="1"/>
-      <c r="Y49" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
-      <c r="AA49" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
-      <c r="AC49" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
-      <c r="AE49" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AE49" s="1"/>
       <c r="AQ49" s="1" t="s">
         <v>1</v>
       </c>
@@ -7927,21 +9527,13 @@
     </row>
     <row r="50" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AQ50" s="1"/>
-      <c r="AR50" s="17" t="s">
-        <v>6</v>
-      </c>
+      <c r="AR50" s="17"/>
       <c r="AS50" s="1"/>
-      <c r="AT50" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AT50" s="1"/>
       <c r="AU50" s="1"/>
-      <c r="AV50" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AV50" s="1"/>
       <c r="AW50" s="1"/>
-      <c r="AX50" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AX50" s="1"/>
     </row>
     <row r="53" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AR53" t="s">
@@ -8041,21 +9633,13 @@
       <c r="AE58" s="13"/>
       <c r="AF58" s="13"/>
       <c r="AQ58" s="1"/>
-      <c r="AR58" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AR58" s="1"/>
       <c r="AS58" s="1"/>
-      <c r="AT58" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AT58" s="1"/>
       <c r="AU58" s="1"/>
-      <c r="AV58" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AV58" s="1"/>
       <c r="AW58" s="1"/>
-      <c r="AX58" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AX58" s="1"/>
     </row>
     <row r="61" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E61" t="s">
@@ -8178,7 +9762,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF05AF6-6F9A-42D1-B1E4-A7C3B14DA44D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A849E6C8-79A8-470E-B245-D9848268CC58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10" yWindow="2480" windowWidth="19370" windowHeight="8800" activeTab="1" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -1946,84 +1946,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2069,6 +1991,84 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5377,8 +5377,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1255227" y="1255227"/>
-          <a:ext cx="2509949" cy="3138911"/>
+          <a:off x="1277639" y="1277639"/>
+          <a:ext cx="2554773" cy="3194940"/>
           <a:chOff x="1262231" y="1262231"/>
           <a:chExt cx="2523957" cy="3156420"/>
         </a:xfrm>
@@ -7543,12 +7543,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>16484</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>160182</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>171824</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="748923" cy="500650"/>
+    <xdr:ext cx="1313180" cy="500650"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="44" name="テキスト ボックス 43">
@@ -7562,8 +7562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5464784" y="4286624"/>
-          <a:ext cx="748923" cy="500650"/>
+          <a:off x="5270064" y="4004236"/>
+          <a:ext cx="1313180" cy="500650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7600,7 +7600,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>スタート</a:t>
+            <a:t>スタートスイッチ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -8032,73 +8032,73 @@
       <selection activeCell="AE93" sqref="AE93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="28" width="3.58203125" customWidth="1"/>
+    <col min="1" max="28" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B18" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B19" s="12"/>
       <c r="S19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>94</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="C21" s="24"/>
       <c r="D21" t="s">
         <v>90</v>
@@ -8118,13 +8118,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="C22" s="23"/>
       <c r="D22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J23" s="25" t="s">
         <v>110</v>
       </c>
@@ -8132,152 +8132,152 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="42" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B24" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="46">
+      <c r="C24" s="42"/>
+      <c r="D24" s="45">
         <v>0</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="46">
+      <c r="E24" s="42"/>
+      <c r="F24" s="45">
         <v>0</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="46">
+      <c r="G24" s="42"/>
+      <c r="H24" s="45">
         <v>0</v>
       </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="28" t="s">
+      <c r="I24" s="42"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="29"/>
-      <c r="N24" s="28">
+      <c r="M24" s="60"/>
+      <c r="N24" s="59">
         <v>5</v>
       </c>
-      <c r="O24" s="29"/>
-      <c r="P24" s="28">
+      <c r="O24" s="60"/>
+      <c r="P24" s="59">
         <v>8</v>
       </c>
-      <c r="Q24" s="32"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="33"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q24" s="63"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="64"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26" s="12"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="38"/>
-    </row>
-    <row r="27" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="65"/>
+    </row>
+    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="39"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="66"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28" s="12"/>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="26"/>
-      <c r="H28" s="26" t="s">
+      <c r="E28" s="57"/>
+      <c r="H28" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="L28" s="26" t="s">
+      <c r="I28" s="57"/>
+      <c r="L28" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="M28" s="26"/>
-      <c r="P28" s="26" t="s">
+      <c r="M28" s="57"/>
+      <c r="P28" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="Q28" s="26"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q28" s="57"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29" s="12"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30" s="12"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31" s="12"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32" s="12"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="12"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="12"/>
       <c r="D35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="12"/>
       <c r="D38" t="s">
         <v>83</v>
@@ -8295,21 +8295,21 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="12"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="12"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="12"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>99</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>100</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>101</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
         <v>102</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
         <v>107</v>
       </c>
@@ -8349,278 +8349,278 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B51" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B55" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B57" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C58" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B59" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C60" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B63" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C64" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C65" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B66" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C67" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D68" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D69" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D70" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D71" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D72" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D73" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E74" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E75" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E76" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D77" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D78" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E79" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D80" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D81" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D82" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="E83" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F84" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F85" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C86" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C87" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D88" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B89" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C90" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D91" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C92" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C93" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="12"/>
       <c r="B96" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C97" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B98" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C99" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.4">
       <c r="D100" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C101" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.4">
       <c r="D102" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B103" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C104" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A106" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -8637,7 +8637,7 @@
       <c r="V108" s="9"/>
       <c r="W108" s="9"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -8654,7 +8654,7 @@
       <c r="V109" s="8"/>
       <c r="W109" s="9"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -8671,7 +8671,7 @@
       <c r="V110" s="9"/>
       <c r="W110" s="8"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -8688,7 +8688,7 @@
       <c r="V111" s="8"/>
       <c r="W111" s="9"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -8705,7 +8705,7 @@
       <c r="V112" s="9"/>
       <c r="W112" s="10"/>
     </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B113" s="9"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -8722,7 +8722,7 @@
       <c r="V113" s="8"/>
       <c r="W113" s="9"/>
     </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -8739,7 +8739,7 @@
       <c r="V114" s="9"/>
       <c r="W114" s="8"/>
     </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -8756,7 +8756,7 @@
       <c r="V115" s="8"/>
       <c r="W115" s="7"/>
     </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B116" t="s">
         <v>122</v>
       </c>
@@ -8767,23 +8767,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B117" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="J26:K27"/>
     <mergeCell ref="P28:Q29"/>
     <mergeCell ref="L28:M29"/>
     <mergeCell ref="H28:I29"/>
@@ -8794,6 +8784,16 @@
     <mergeCell ref="N26:O27"/>
     <mergeCell ref="P26:Q27"/>
     <mergeCell ref="L24:M25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8806,19 +8806,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928ACB59-DB4E-4084-86B9-85978878B755}">
   <dimension ref="A1:BY74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="X1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D17" sqref="D17:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="O3" s="13"/>
       <c r="P3" t="s">
         <v>147</v>
@@ -8836,7 +8836,7 @@
       <c r="AN3" s="13"/>
       <c r="AO3" s="13"/>
     </row>
-    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -8862,7 +8862,7 @@
       </c>
       <c r="AO4" s="13"/>
     </row>
-    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="1" t="s">
         <v>137</v>
       </c>
@@ -8885,23 +8885,23 @@
         <v>133</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="54"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="54"/>
-      <c r="AF5" s="52"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="64"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="54"/>
-    </row>
-    <row r="6" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P5" s="26"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="28"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="28"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="28"/>
+    </row>
+    <row r="6" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -8920,125 +8920,125 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="57"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="58"/>
-      <c r="AH6" s="56"/>
-      <c r="AI6" s="58"/>
-      <c r="AJ6" s="57"/>
-    </row>
-    <row r="7" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P7" s="55"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="56"/>
-      <c r="AB7" s="60"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="56"/>
-      <c r="AH7" s="58"/>
-      <c r="AI7" s="56"/>
-      <c r="AJ7" s="60"/>
-    </row>
-    <row r="8" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P8" s="55"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="60"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="58"/>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="58"/>
-      <c r="AJ8" s="57"/>
-    </row>
-    <row r="9" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P9" s="55"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="60"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="65"/>
-    </row>
-    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P10" s="55"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="57"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="60"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="56"/>
-      <c r="AI10" s="58"/>
-      <c r="AJ10" s="57"/>
-    </row>
-    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P11" s="59"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="60"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="60"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="58"/>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="60"/>
-    </row>
-    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P12" s="61"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="63"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="62"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="63"/>
-      <c r="AF12" s="61"/>
-      <c r="AG12" s="62"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="62"/>
-      <c r="AJ12" s="63"/>
-    </row>
-    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P6" s="29"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="31"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="31"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="31"/>
+    </row>
+    <row r="7" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P7" s="29"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="31"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="34"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="34"/>
+    </row>
+    <row r="8" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P8" s="29"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="31"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="34"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="31"/>
+    </row>
+    <row r="9" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P9" s="29"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="31"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="34"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="39"/>
+    </row>
+    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P10" s="29"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="31"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="34"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="31"/>
+    </row>
+    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P11" s="33"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="34"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="34"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="32"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="34"/>
+    </row>
+    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P12" s="35"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="37"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="37"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="40"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="37"/>
+    </row>
+    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
         <v>56</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D16" s="1" t="s">
         <v>137</v>
       </c>
@@ -9081,7 +9081,7 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
@@ -9111,18 +9111,18 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Y20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="P23" s="11"/>
       <c r="X23" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
@@ -9132,7 +9132,7 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
     </row>
-    <row r="25" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
@@ -9144,7 +9144,7 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -9157,7 +9157,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -9167,7 +9167,7 @@
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
     </row>
-    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X31" t="s">
         <v>7</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -9235,7 +9235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D33" s="13"/>
       <c r="E33" t="s">
         <v>152</v>
@@ -9263,7 +9263,7 @@
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
     </row>
-    <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -9282,7 +9282,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -9292,7 +9292,7 @@
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
     </row>
-    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X39" t="s">
         <v>141</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -9341,7 +9341,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -9425,7 +9425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AQ42" s="1"/>
       <c r="AR42" s="17"/>
       <c r="AS42" s="1"/>
@@ -9451,22 +9451,22 @@
       <c r="BX42" s="1"/>
       <c r="BY42" s="1"/>
     </row>
-    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Y44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AR45" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X47" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X48" s="1" t="s">
         <v>1</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
@@ -9525,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AQ50" s="1"/>
       <c r="AR50" s="17"/>
       <c r="AS50" s="1"/>
@@ -9535,12 +9535,12 @@
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
     </row>
-    <row r="53" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AR53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
         <v>63</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D57" s="1" t="s">
         <v>137</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
@@ -9641,17 +9641,17 @@
       <c r="AW58" s="1"/>
       <c r="AX58" s="1"/>
     </row>
-    <row r="61" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D65" s="1" t="s">
         <v>137</v>
       </c>
@@ -9675,7 +9675,7 @@
       </c>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
@@ -9695,17 +9695,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E69" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D72" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D73" s="1" t="s">
         <v>137</v>
       </c>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
@@ -9761,70 +9761,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B40E9C8-489C-4E06-A660-B3194CE09B52}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z29" sqref="Z29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AV19" sqref="AV19:AW20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W8" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W9" s="12"/>
     </row>
-    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W10" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W12" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -9839,7 +9839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -9847,7 +9847,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -9855,7 +9855,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="33" spans="5:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="5:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E33" t="s">
         <v>13</v>
       </c>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A849E6C8-79A8-470E-B245-D9848268CC58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A830451-469B-41C8-A39C-3567088A5F69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="-15885" yWindow="3780" windowWidth="28800" windowHeight="13800" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="191">
   <si>
     <t>LCD画面遷移</t>
     <rPh sb="3" eb="5">
@@ -260,25 +260,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カウントダウンが行われる時に、カウントダウンに合わせて、ブザー音が鳴る</t>
-    <rPh sb="8" eb="9">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・ゲーム開始前</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -314,38 +295,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2. モグラ叩きゲーム</t>
-    <rPh sb="6" eb="7">
-      <t>タタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・電源投入時、ゲームタイトルと今までプレイした中で出たハイスコアを表示する。</t>
-    <rPh sb="1" eb="3">
-      <t>デンゲン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウニュウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>イマ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1. タイトル画面</t>
     <rPh sb="7" eb="9">
       <t>ガメン</t>
@@ -946,37 +895,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・制限時間が経過すると、画面の点滅、ブザー音の鳴動により、ゲーム終了を知らせる。</t>
-    <rPh sb="1" eb="3">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケイカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テンメツ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>メイドウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・ゲーム終了</t>
     <rPh sb="4" eb="6">
       <t>シュウリョウ</t>
@@ -1380,26 +1298,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・スタートスイッチを押すと、3秒のカウントダウンを表示させ、ゲームが開始される。</t>
-    <rPh sb="10" eb="11">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>スタートスイッチが押されると、タイトル画面へ戻る。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>スタートスイッチ押下</t>
   </si>
   <si>
@@ -1436,19 +1334,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・タイトル画面で、SW1～SW4を同時押しすることで、ハイスコアを0にリセットする。</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SW1~SW4同時押下</t>
     <rPh sb="7" eb="9">
       <t>ドウジ</t>
@@ -1460,6 +1345,679 @@
   </si>
   <si>
     <t>ハイスコアを0にリセット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・電源投入時、ゲームタイトルとハイスコアを記録させるユーザーを表示する。</t>
+    <rPh sb="1" eb="3">
+      <t>デンゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウニュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・スタートスイッチを押すと、難易度設定画面へ移る。</t>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2. 難易度設定画面</t>
+    <rPh sb="3" eb="6">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・スタートスイッチを押すと、3秒のカウントダウンを表示させ、ゲームが開始される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2. 難易度設定</t>
+    <rPh sb="3" eb="6">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・ユーザーはSW1～SW4でそれぞれに対応した1人目～4人目と切り替えることができる。</t>
+    <rPh sb="19" eb="21">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・最大4人分のハイスコアを記録することができる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・制限時間が経過すると、リザルト画面へ移る。</t>
+    <rPh sb="1" eb="3">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・Easy, Nomal, Hardの3種類の難易度から順番にSW1～SW3で選択できる。</t>
+    <rPh sb="20" eb="22">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇画面説明</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・現在表示されている難易度と選択したユーザーによって、ハイスコアを表示する。</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・上段には現在のスコアと残りの制限時間、下段にはモグラが出現する穴4つが表示される。</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウダン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゲダン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・モグラが出現すると、モグラの穴の絵がモグラの絵に変化する。</t>
+    <rPh sb="5" eb="7">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・モグラの絵が表示されている時に、モグラを叩く（対応したSWを押下）すると、</t>
+    <rPh sb="5" eb="6">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モグラを撃退でき、モグラの絵がモグラが叩かれた時の絵に変化する。</t>
+    <rPh sb="4" eb="6">
+      <t>ゲキタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タタ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・モグラが叩かれた時の絵は、一定時間が経過後、モグラの穴へ変化する。</t>
+    <rPh sb="5" eb="6">
+      <t>タタ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・スタートスイッチが押されると、タイトル画面へ戻る。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今回のプレイのスコア結果と、選択されているユーザーと難易度に合わせたハイスコアが表示される。</t>
+  </si>
+  <si>
+    <t>・ゲーム終了後、ブザーが一定時間（パターンによって長さは変動する。パターンは今後検討する予定）鳴動し、</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>メイドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カウントダウンが行われる時に、カウントダウンに合わせて、ブザー音が短く鳴動する。</t>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>メイドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・上段に現在選択されているユーザーと難易度に合わせたハイスコアを削除するかどうか確認する文字列が表示される。</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウダン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、下段には、削除する場合に押下するSWと、削除しない場合に押下するSWの番号を、YとNの文字と共に表示させる。</t>
+    <rPh sb="3" eb="5">
+      <t>ゲダン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除しない場合はSW4を押下することで、何もせず難易度設定画面へ移る。</t>
+    <rPh sb="20" eb="21">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="24" eb="31">
+      <t>ナンイドセッテイガメン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>それ以外のSWは何も起きない。</t>
+  </si>
+  <si>
+    <t>・削除する場合はSW1を押下することで、ハイスコアが0にクリアされ難易度設定画面へ移る。</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・Easy, Nomal, Hardの3種類の難易度がある。</t>
+    <rPh sb="20" eb="22">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・難易度ごとの違い</t>
+    <rPh sb="1" eb="4">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・モグラの総出現数が変化する。</t>
+    <rPh sb="5" eb="6">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・モグラの最大・最小表示時間が変化する。（今後検討予定）</t>
+    <rPh sb="5" eb="7">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3. ハイスコアクリア確認画面</t>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・SW4を押下すると、ハイスコアクリア確認画面へ移る。</t>
+    <rPh sb="5" eb="7">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・選択されているユーザーと難易度別にハイスコアが記録される。</t>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・選択されているユーザーと難易度ごとにハイスコアをリセットできる。（手順は画面説明にて記載）</t>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. モグラ叩きゲーム</t>
+    <rPh sb="6" eb="7">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4. ゲームプレイ画面</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5. リザルト画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・制限時間が経過すると、ゲームが終了し、リザルト画面に移る。</t>
+    <rPh sb="1" eb="3">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・SWを2つ以上同時押しをすると何も起こらない。</t>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・SWが2つ以上同時押しされた場合、それぞれの入力を適用し、並行してモグラの処理を行う。</t>
+    <rPh sb="6" eb="8">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘイコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オコナ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1991,6 +2549,54 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2019,54 +2625,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8026,10 +8584,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A1384-AF86-4BA2-B6E2-C742B67793C6}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W117"/>
+  <dimension ref="A1:W154"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AE93" sqref="AE93"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U100" sqref="U100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8039,216 +8597,216 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="M9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B18" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B19" s="12"/>
       <c r="S19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="C21" s="24"/>
       <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="J21" t="s">
         <v>90</v>
-      </c>
-      <c r="J21" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="C22" s="23"/>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="J23" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="45">
+      <c r="C24" s="58"/>
+      <c r="D24" s="61">
         <v>0</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="45">
+      <c r="E24" s="58"/>
+      <c r="F24" s="61">
         <v>0</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="45">
+      <c r="G24" s="58"/>
+      <c r="H24" s="61">
         <v>0</v>
       </c>
-      <c r="I24" s="42"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="59" t="s">
+      <c r="I24" s="58"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="60"/>
-      <c r="N24" s="59">
+      <c r="M24" s="44"/>
+      <c r="N24" s="43">
         <v>5</v>
       </c>
-      <c r="O24" s="60"/>
-      <c r="P24" s="59">
+      <c r="O24" s="44"/>
+      <c r="P24" s="43">
         <v>8</v>
       </c>
-      <c r="Q24" s="63"/>
+      <c r="Q24" s="47"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="64"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="48"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26" s="12"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="65"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="53"/>
     </row>
     <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="12"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="66"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="54"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28" s="12"/>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="H28" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="41"/>
+      <c r="L28" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="M28" s="41"/>
+      <c r="P28" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="H28" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="I28" s="57"/>
-      <c r="L28" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="M28" s="57"/>
-      <c r="P28" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q28" s="57"/>
+      <c r="Q28" s="41"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29" s="12"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30" s="12"/>
@@ -8268,7 +8826,7 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="12"/>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
@@ -8280,19 +8838,19 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="12"/>
       <c r="D38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" t="s">
+        <v>82</v>
+      </c>
+      <c r="J38" t="s">
         <v>83</v>
       </c>
-      <c r="F38" t="s">
+      <c r="L38" t="s">
         <v>84</v>
-      </c>
-      <c r="H38" t="s">
-        <v>85</v>
-      </c>
-      <c r="J38" t="s">
-        <v>86</v>
-      </c>
-      <c r="L38" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
@@ -8306,474 +8864,655 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B51" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C52" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C53" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C54" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B55" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C56" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B57" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C58" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B59" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C60" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B63" s="12" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C64" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C65" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B66" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C67" s="12" t="s">
+      <c r="C64" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D67" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D68" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D69" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D68" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D69" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D70" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D71" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D78" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="E80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F82" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C84" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B86" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C87" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C88" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D89" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B92" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B93" s="12"/>
+      <c r="C93" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D95" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C96" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C97" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C98" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B101" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C102" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C103" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C105" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B106" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C107" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C108" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C109" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C110" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C111" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B112" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C113" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D114" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C115" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D116" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D117" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C118" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B119" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C121" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C122" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D123" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C124" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C125" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C126" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B127" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C128" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D129" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A132" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A133" s="12"/>
+      <c r="B133" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C134" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B135" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C136" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D137" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D73" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E74" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E75" t="s">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C138" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D139" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B140" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C141" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A143" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="K145" s="7"/>
+      <c r="L145" s="7"/>
+      <c r="M145" s="8"/>
+      <c r="N145" s="7"/>
+      <c r="O145" s="7"/>
+      <c r="S145" s="9"/>
+      <c r="T145" s="9"/>
+      <c r="U145" s="8"/>
+      <c r="V145" s="9"/>
+      <c r="W145" s="9"/>
+    </row>
+    <row r="146" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="K146" s="7"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="7"/>
+      <c r="N146" s="8"/>
+      <c r="O146" s="7"/>
+      <c r="S146" s="9"/>
+      <c r="T146" s="8"/>
+      <c r="U146" s="9"/>
+      <c r="V146" s="8"/>
+      <c r="W146" s="9"/>
+    </row>
+    <row r="147" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="7"/>
+      <c r="N147" s="7"/>
+      <c r="O147" s="8"/>
+      <c r="S147" s="8"/>
+      <c r="T147" s="9"/>
+      <c r="U147" s="8"/>
+      <c r="V147" s="9"/>
+      <c r="W147" s="8"/>
+    </row>
+    <row r="148" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="7"/>
+      <c r="N148" s="8"/>
+      <c r="O148" s="8"/>
+      <c r="S148" s="9"/>
+      <c r="T148" s="8"/>
+      <c r="U148" s="9"/>
+      <c r="V148" s="8"/>
+      <c r="W148" s="9"/>
+    </row>
+    <row r="149" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="7"/>
+      <c r="M149" s="7"/>
+      <c r="N149" s="7"/>
+      <c r="O149" s="8"/>
+      <c r="S149" s="8"/>
+      <c r="T149" s="9"/>
+      <c r="U149" s="8"/>
+      <c r="V149" s="9"/>
+      <c r="W149" s="10"/>
+    </row>
+    <row r="150" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B150" s="9"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="9"/>
+      <c r="K150" s="8"/>
+      <c r="L150" s="9"/>
+      <c r="M150" s="8"/>
+      <c r="N150" s="9"/>
+      <c r="O150" s="8"/>
+      <c r="S150" s="9"/>
+      <c r="T150" s="8"/>
+      <c r="U150" s="9"/>
+      <c r="V150" s="8"/>
+      <c r="W150" s="9"/>
+    </row>
+    <row r="151" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="9"/>
+      <c r="M151" s="9"/>
+      <c r="N151" s="9"/>
+      <c r="O151" s="8"/>
+      <c r="S151" s="8"/>
+      <c r="T151" s="9"/>
+      <c r="U151" s="8"/>
+      <c r="V151" s="9"/>
+      <c r="W151" s="8"/>
+    </row>
+    <row r="152" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B152" s="7"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="7"/>
+      <c r="K152" s="7"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="8"/>
+      <c r="N152" s="8"/>
+      <c r="O152" s="7"/>
+      <c r="S152" s="7"/>
+      <c r="T152" s="8"/>
+      <c r="U152" s="20"/>
+      <c r="V152" s="8"/>
+      <c r="W152" s="7"/>
+    </row>
+    <row r="153" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B153" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E76" t="s">
+      <c r="K153" t="s">
+        <v>119</v>
+      </c>
+      <c r="S153" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D77" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D78" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E79" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D80" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D81" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D82" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E83" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F84" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F85" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C86" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D88" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B89" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C90" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D91" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C92" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C93" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A95" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A96" s="12"/>
-      <c r="B96" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C97" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B98" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C99" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="D100" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C101" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="D102" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B103" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="C104" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A106" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="K108" s="7"/>
-      <c r="L108" s="7"/>
-      <c r="M108" s="8"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
-      <c r="S108" s="9"/>
-      <c r="T108" s="9"/>
-      <c r="U108" s="8"/>
-      <c r="V108" s="9"/>
-      <c r="W108" s="9"/>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="K109" s="7"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="7"/>
-      <c r="N109" s="8"/>
-      <c r="O109" s="7"/>
-      <c r="S109" s="9"/>
-      <c r="T109" s="8"/>
-      <c r="U109" s="9"/>
-      <c r="V109" s="8"/>
-      <c r="W109" s="9"/>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="7"/>
-      <c r="M110" s="7"/>
-      <c r="N110" s="7"/>
-      <c r="O110" s="8"/>
-      <c r="S110" s="8"/>
-      <c r="T110" s="9"/>
-      <c r="U110" s="8"/>
-      <c r="V110" s="9"/>
-      <c r="W110" s="8"/>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="7"/>
-      <c r="N111" s="8"/>
-      <c r="O111" s="8"/>
-      <c r="S111" s="9"/>
-      <c r="T111" s="8"/>
-      <c r="U111" s="9"/>
-      <c r="V111" s="8"/>
-      <c r="W111" s="9"/>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
-      <c r="N112" s="7"/>
-      <c r="O112" s="8"/>
-      <c r="S112" s="8"/>
-      <c r="T112" s="9"/>
-      <c r="U112" s="8"/>
-      <c r="V112" s="9"/>
-      <c r="W112" s="10"/>
-    </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B113" s="9"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="9"/>
-      <c r="K113" s="8"/>
-      <c r="L113" s="9"/>
-      <c r="M113" s="8"/>
-      <c r="N113" s="9"/>
-      <c r="O113" s="8"/>
-      <c r="S113" s="9"/>
-      <c r="T113" s="8"/>
-      <c r="U113" s="9"/>
-      <c r="V113" s="8"/>
-      <c r="W113" s="9"/>
-    </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="9"/>
-      <c r="M114" s="9"/>
-      <c r="N114" s="9"/>
-      <c r="O114" s="8"/>
-      <c r="S114" s="8"/>
-      <c r="T114" s="9"/>
-      <c r="U114" s="8"/>
-      <c r="V114" s="9"/>
-      <c r="W114" s="8"/>
-    </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B115" s="7"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="7"/>
-      <c r="K115" s="7"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="8"/>
-      <c r="N115" s="8"/>
-      <c r="O115" s="7"/>
-      <c r="S115" s="7"/>
-      <c r="T115" s="8"/>
-      <c r="U115" s="20"/>
-      <c r="V115" s="8"/>
-      <c r="W115" s="7"/>
-    </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B116" t="s">
-        <v>122</v>
-      </c>
-      <c r="K116" t="s">
-        <v>123</v>
-      </c>
-      <c r="S116" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B117" t="s">
-        <v>61</v>
+    <row r="154" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B154" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="J26:K27"/>
     <mergeCell ref="P28:Q29"/>
     <mergeCell ref="L28:M29"/>
     <mergeCell ref="H28:I29"/>
@@ -8784,16 +9523,6 @@
     <mergeCell ref="N26:O27"/>
     <mergeCell ref="P26:Q27"/>
     <mergeCell ref="L24:M25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8821,7 +9550,7 @@
     <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="O3" s="13"/>
       <c r="P3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="S3" s="13"/>
       <c r="T3" s="14"/>
@@ -8845,35 +9574,35 @@
         <v>6</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="R4" s="13"/>
       <c r="X4" t="s">
         <v>4</v>
       </c>
       <c r="Y4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AF4" t="s">
         <v>9</v>
       </c>
       <c r="AG4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AO4" s="13"/>
     </row>
     <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>5</v>
@@ -8882,7 +9611,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J5" s="1"/>
       <c r="P5" s="26"/>
@@ -9040,24 +9769,24 @@
     </row>
     <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X15" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D16" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>5</v>
@@ -9066,11 +9795,11 @@
         <v>5</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K16" s="1"/>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -9119,7 +9848,7 @@
     <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="P23" s="11"/>
       <c r="X23" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -9154,7 +9883,7 @@
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="Y28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -9172,10 +9901,10 @@
         <v>7</v>
       </c>
       <c r="AQ31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="BG31" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -9210,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="AG32" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AQ32" s="1" t="s">
         <v>1</v>
@@ -9238,7 +9967,7 @@
     <row r="33" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D33" s="13"/>
       <c r="E33" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
@@ -9276,10 +10005,10 @@
         <v>22</v>
       </c>
       <c r="AR36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="BD36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -9294,10 +10023,10 @@
     </row>
     <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X39" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AQ39" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -9332,13 +10061,13 @@
         <v>9</v>
       </c>
       <c r="AQ40" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="BC40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="BR40" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -9453,17 +10182,17 @@
     </row>
     <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="Y44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AR45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="X47" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -9490,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="AQ48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -9537,29 +10266,29 @@
     </row>
     <row r="53" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AR53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AQ56" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D57" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>5</v>
@@ -9568,11 +10297,11 @@
         <v>5</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K57" s="1"/>
       <c r="W57" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Y57" s="13"/>
       <c r="Z57" s="13"/>
@@ -9643,26 +10372,26 @@
     </row>
     <row r="61" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E61" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D64" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D65" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>5</v>
@@ -9671,7 +10400,7 @@
         <v>5</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K65" s="1"/>
     </row>
@@ -9697,26 +10426,26 @@
     </row>
     <row r="69" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="E69" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D72" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D73" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>5</v>
@@ -9725,7 +10454,7 @@
         <v>5</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K73" s="1"/>
     </row>
@@ -9761,7 +10490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B40E9C8-489C-4E06-A660-B3194CE09B52}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AV19" sqref="AV19:AW20"/>
     </sheetView>
@@ -9790,7 +10519,7 @@
     </row>
     <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W8" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -9808,12 +10537,12 @@
     </row>
     <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W12" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="W17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -9869,7 +10598,7 @@
         <v>10</v>
       </c>
       <c r="Q33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A849E6C8-79A8-470E-B245-D9848268CC58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E570CF-A4FE-4517-856D-508A56DAA820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="8800" activeTab="1" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="171">
   <si>
     <t>LCD画面遷移</t>
     <rPh sb="3" eb="5">
@@ -59,15 +59,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>○</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>タ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>●</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -94,10 +86,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>☆</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>RA3</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -478,30 +466,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タイトル画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>電源再投入</t>
-    <rPh sb="0" eb="2">
-      <t>デンゲン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>サイトウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ゲーム終了(スコア30)</t>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>穴のイラストに戻る</t>
     <rPh sb="0" eb="1">
       <t>アナ</t>
@@ -526,26 +490,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タイトル画面(ハイスコア維持)</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイトル画面(ハイスコア更新)</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SW2を押下(穴を叩いたとき)</t>
     <rPh sb="4" eb="6">
       <t>オウカ</t>
@@ -1248,19 +1192,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ゲーム終了(画面点滅)</t>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>テンメツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>一定時間経過</t>
     <rPh sb="0" eb="2">
       <t>イッテイ</t>
@@ -1313,62 +1244,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>例)1番左の穴にもぐら出現</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アナ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>叩かれたモグラ</t>
-    <rPh sb="0" eb="1">
-      <t>タタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>出現したモグラ</t>
-    <rPh sb="0" eb="2">
-      <t>シュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モグラの穴</t>
-    <rPh sb="4" eb="5">
-      <t>アナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ドット絵は以下の記号で示す</t>
-    <rPh sb="3" eb="4">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>RA6</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1401,9 +1276,6 @@
   </si>
   <si>
     <t>スタートスイッチ押下</t>
-  </si>
-  <si>
-    <t>スタートスイッチ押下</t>
     <rPh sb="8" eb="10">
       <t>オウカ</t>
     </rPh>
@@ -1449,17 +1321,212 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SW1~SW4同時押下</t>
-    <rPh sb="7" eb="9">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
+    <t>U</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW1押下</t>
+    <rPh sb="3" eb="5">
       <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ハイスコアを0にリセット</t>
+    <t xml:space="preserve">タイトル画面(USER1) </t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USER変更(USER2)</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USER変更(USER3)</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>難易度選択&amp;ハイスコア表示画面</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>難易度変更(NORMAL)</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>難易度変更(HARD)</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム終了(今回のスコアと前回までのハイスコアを表示)</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW2押下</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW3押下</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW4押下</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USER変更(USER4)</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハイスコアクリア確認画面</t>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハイスコアクリア(難易度EASY)</t>
+    <rPh sb="9" eb="12">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハイスコア保持(難易度EASY)</t>
+    <rPh sb="5" eb="7">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例)1番左の穴にモグラ出現</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンヒダリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム終了(スコア30、ハイスコア更新)</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウシン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1604,7 +1671,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1834,40 +1901,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1946,50 +1986,56 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2021,53 +2067,32 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2957,23 +2982,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>7257</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05B1810-8D96-4A7D-BB53-5B7F86D685B1}"/>
+        <xdr:cNvPr id="76" name="直線矢印コネクタ 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12CDBABF-11F4-4BC8-8E3A-FE2917E70969}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2981,8 +3006,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2521857" y="3657600"/>
-          <a:ext cx="2088243" cy="0"/>
+          <a:off x="1045882" y="6275294"/>
+          <a:ext cx="1673412" cy="2091765"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3010,15 +3035,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>202293</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3063,15 +3088,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3116,15 +3141,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3140,8 +3165,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9004300" y="9499600"/>
-          <a:ext cx="6350" cy="920750"/>
+          <a:off x="5981700" y="18700750"/>
+          <a:ext cx="3175" cy="831850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3169,15 +3194,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>2387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>11545</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>196275</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3224,15 +3249,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3277,16 +3302,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3301,8 +3326,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029201" y="9461500"/>
-          <a:ext cx="0" cy="977900"/>
+          <a:off x="2063751" y="18456275"/>
+          <a:ext cx="0" cy="2800350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3331,37 +3356,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="コネクタ: カギ線 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6B326C-C90B-4F1D-B8C3-7A7FE1CEDC91}"/>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93155B88-51B5-44F3-9951-73E24B5CD7EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="-704849" y="5657850"/>
-          <a:ext cx="6858000" cy="3771899"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 0"/>
-          </a:avLst>
+        <a:xfrm>
+          <a:off x="5029200" y="3949700"/>
+          <a:ext cx="0" cy="977900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="12700">
           <a:tailEnd type="triangle"/>
@@ -3386,23 +3409,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>4618</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>121803</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93155B88-51B5-44F3-9951-73E24B5CD7EB}"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D51996-C4A0-490B-99E4-24D55C23A7C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3410,13 +3433,14 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="3949700"/>
-          <a:ext cx="0" cy="977900"/>
+          <a:off x="9010650" y="11316854"/>
+          <a:ext cx="4618" cy="920749"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="12700">
+          <a:prstDash val="dash"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3439,23 +3463,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>115454</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>13930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>4618</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>121803</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D51996-C4A0-490B-99E4-24D55C23A7C5}"/>
+        <xdr:cNvPr id="14" name="コネクタ: カギ線 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FBF7EE-4F12-4D1C-B805-5A2974BFFF4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3463,14 +3487,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9010650" y="11316854"/>
-          <a:ext cx="4618" cy="920749"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+          <a:off x="10687050" y="7100530"/>
+          <a:ext cx="3981450" cy="1586270"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="12700">
-          <a:prstDash val="dash"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3493,176 +3518,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>107372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>2309</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85CDA9A4-6493-4215-9EB9-AAED7C1CC114}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2514601" y="12801600"/>
-          <a:ext cx="6076949" cy="2309"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4619</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>121805</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E0CF3F-62C6-4EE1-B4F6-9BDAC4F74C4F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="838200" y="13145655"/>
-          <a:ext cx="4619" cy="920750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>13930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="コネクタ: カギ線 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FBF7EE-4F12-4D1C-B805-5A2974BFFF4E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10687050" y="7100530"/>
-          <a:ext cx="3981450" cy="1586270"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 100000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>107372</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>170873</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3709,71 +3573,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4883</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>4884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4619</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>121805</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6469CAC-5E42-4165-8769-6DCE12475D5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="834571" y="12216741"/>
-          <a:ext cx="4619" cy="840921"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>4883</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>4884</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>210038</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1397</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3808,16 +3619,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>6195</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>1786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>716</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>207536</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>1162</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3852,16 +3663,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>6195</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>4884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>716</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3896,16 +3707,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>3717</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>5504</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>208872</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>620</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>621</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3940,23 +3751,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>6074</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>4408</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5107</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>2472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>595</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>210158</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1331</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>1847</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{463D610D-7BA1-4B14-89E2-8FE90C1FB5AF}"/>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{718702DA-4F72-4298-BF8F-DF2746175CDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3972,8 +3783,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5061294" y="10114847"/>
-          <a:ext cx="205155" cy="205750"/>
+          <a:off x="5053357" y="8416222"/>
+          <a:ext cx="204865" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3984,23 +3795,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>7386</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>1310</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6419</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>209718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>1907</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>207060</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>940</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>14623</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB673A9-8E47-4FF1-89C7-C43DC8E9E1EA}"/>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA22881A-0253-4686-971D-9753B1C1A5B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4016,8 +3827,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5483874" y="10111749"/>
-          <a:ext cx="205155" cy="205750"/>
+          <a:off x="5475357" y="8413124"/>
+          <a:ext cx="204864" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4028,23 +3839,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>7386</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>4408</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6419</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>2472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>1907</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>210158</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>940</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>1847</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D4D020-9082-42DA-8F7A-690B7354F711}"/>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC94BDA-16CC-4A5B-96DF-8AE2444470C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4060,8 +3871,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5905142" y="10114847"/>
-          <a:ext cx="205155" cy="205750"/>
+          <a:off x="5896044" y="8416222"/>
+          <a:ext cx="204865" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4072,23 +3883,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>4908</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>5028</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>3941</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>3092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>210063</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>144</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>452</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>2177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="図 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D1279F-C9C8-4297-BF70-FE5BF28C1ED8}"/>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D50D29-7F58-40FF-B8DD-41E6A8C16D8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4104,8 +3915,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6323932" y="10115467"/>
-          <a:ext cx="205155" cy="205750"/>
+          <a:off x="6314254" y="8416842"/>
+          <a:ext cx="205155" cy="205460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4116,23 +3927,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>5107</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>2472</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>209972</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>208222</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>14365</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>205</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{718702DA-4F72-4298-BF8F-DF2746175CDF}"/>
+        <xdr:cNvPr id="33" name="図 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED687C0-20C9-44FC-A031-A7B0727E584C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4148,7 +3959,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5053357" y="8416222"/>
+          <a:off x="9049657" y="10315498"/>
           <a:ext cx="204865" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4160,23 +3971,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>6419</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>209718</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1312</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>940</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>205124</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>15676</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>15250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA22881A-0253-4686-971D-9753B1C1A5B3}"/>
+        <xdr:cNvPr id="34" name="図 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0531CDB0-762A-40DC-9138-E9357EB9498C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4192,7 +4003,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5475357" y="8413124"/>
+          <a:off x="9471883" y="10312400"/>
           <a:ext cx="204864" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4204,23 +4015,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>6419</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>2472</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1312</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>940</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>208222</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>15677</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>205</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC94BDA-16CC-4A5B-96DF-8AE2444470C9}"/>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0E01BD-26EA-4F2D-8FBD-C8B56C179BBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4236,7 +4047,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5896044" y="8416222"/>
+          <a:off x="9892798" y="10315498"/>
           <a:ext cx="204865" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4248,23 +4059,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>3941</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>3092</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>209178</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>3718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>209096</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>208552</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>13489</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D50D29-7F58-40FF-B8DD-41E6A8C16D8F}"/>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97550CDC-EAFC-493A-AFB8-189D608D9FD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4280,8 +4091,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6314254" y="8416842"/>
-          <a:ext cx="205155" cy="205460"/>
+          <a:off x="10311121" y="10316118"/>
+          <a:ext cx="205268" cy="205460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4292,23 +4103,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>3098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>204865</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>208848</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>14479</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>205</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED687C0-20C9-44FC-A031-A7B0727E584C}"/>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E69493-D832-4E02-A017-47C526BA79A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4324,8 +4135,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9049657" y="10315498"/>
-          <a:ext cx="204865" cy="205750"/>
+          <a:off x="14732000" y="8631841"/>
+          <a:ext cx="204979" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4336,23 +4147,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>1312</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>1313</xdr:colOff>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>206176</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>205750</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>15791</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>15250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0531CDB0-762A-40DC-9138-E9357EB9498C}"/>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C4EF39-2F15-429C-8CA5-50D028FB96F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4368,8 +4179,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9471883" y="10312400"/>
-          <a:ext cx="204864" cy="205750"/>
+          <a:off x="15154227" y="8628743"/>
+          <a:ext cx="204978" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4380,23 +4191,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>47</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>1312</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>3098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>206177</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>208848</xdr:rowOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>15790</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>205</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="図 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0E01BD-26EA-4F2D-8FBD-C8B56C179BBF}"/>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13705F3D-2EBD-4DF9-B96D-4C18B2D2354F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4412,8 +4223,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9892798" y="10315498"/>
-          <a:ext cx="204865" cy="205750"/>
+          <a:off x="15575141" y="8631841"/>
+          <a:ext cx="204978" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4424,23 +4235,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>209178</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>209291</xdr:colOff>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>3718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>203989</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>209178</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>13489</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="図 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97550CDC-EAFC-493A-AFB8-189D608D9FD4}"/>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97EF5BA-D1FE-42FF-8274-9837E48B7974}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4456,8 +4267,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10311121" y="10316118"/>
-          <a:ext cx="205268" cy="205460"/>
+          <a:off x="15993577" y="8632461"/>
+          <a:ext cx="205155" cy="205573"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4468,23 +4279,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>3098</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>4942</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>204979</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>208848</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>1277</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>15250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="図 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E69493-D832-4E02-A017-47C526BA79A9}"/>
+        <xdr:cNvPr id="42" name="図 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB471EE-93E6-49DE-B0FB-F7B457981946}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4500,8 +4311,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14732000" y="8631841"/>
-          <a:ext cx="204979" cy="205750"/>
+          <a:off x="12000999" y="8628743"/>
+          <a:ext cx="204978" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4512,23 +4323,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>1313</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>4942</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>206291</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>205750</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>1278</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>205</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="図 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C4EF39-2F15-429C-8CA5-50D028FB96F2}"/>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328A0552-46D7-4553-90C9-F364F997A190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4544,7 +4355,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15154227" y="8628743"/>
+          <a:off x="12421913" y="8631841"/>
           <a:ext cx="204978" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4556,23 +4367,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>1312</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>3098</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>2463</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>3718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>206290</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>208848</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>1243</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="図 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13705F3D-2EBD-4DF9-B96D-4C18B2D2354F}"/>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADD005E-B7A2-43A0-B4D3-8B121C3735F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4588,8 +4399,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15575141" y="8631841"/>
-          <a:ext cx="204978" cy="205750"/>
+          <a:off x="12840349" y="8632461"/>
+          <a:ext cx="205155" cy="205573"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4600,23 +4411,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>209291</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>3718</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1313</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>203989</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>209291</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>15791</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>15250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="図 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97EF5BA-D1FE-42FF-8274-9837E48B7974}"/>
+        <xdr:cNvPr id="46" name="図 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0658767-B109-44C7-8568-D3AE72FB5149}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4632,8 +4443,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15993577" y="8632461"/>
-          <a:ext cx="205155" cy="205573"/>
+          <a:off x="9471884" y="8628743"/>
+          <a:ext cx="204978" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4644,23 +4455,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>4942</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1312</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>209920</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>205750</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>15790</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>205</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="図 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB471EE-93E6-49DE-B0FB-F7B457981946}"/>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5245C63D-0603-4EB9-A5B7-C35B13D29997}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4676,7 +4487,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12000999" y="8628743"/>
+          <a:off x="9892798" y="8631841"/>
           <a:ext cx="204978" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4688,23 +4499,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>4942</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>3098</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>209291</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>3718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>209920</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>208848</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>13489</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="図 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328A0552-46D7-4553-90C9-F364F997A190}"/>
+        <xdr:cNvPr id="48" name="図 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C3B0F5-68DA-46AB-923B-ED653863E834}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4720,8 +4531,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12421913" y="8631841"/>
-          <a:ext cx="204978" cy="205750"/>
+          <a:off x="10311234" y="8632461"/>
+          <a:ext cx="205155" cy="205573"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4732,23 +4543,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>2463</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>3718</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1313</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>207618</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>209291</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>15791</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>15250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="図 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADD005E-B7A2-43A0-B4D3-8B121C3735F0}"/>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F961A8-8F76-4366-9792-EBFF9B2F5982}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4764,8 +4575,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12840349" y="8632461"/>
-          <a:ext cx="205155" cy="205573"/>
+          <a:off x="9471884" y="6734629"/>
+          <a:ext cx="204978" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4776,23 +4587,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>1313</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1312</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>206291</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>205750</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>15790</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>205</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="図 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0658767-B109-44C7-8568-D3AE72FB5149}"/>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DC133A-095C-40FE-BA25-CF181F74906B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4808,7 +4619,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9471884" y="8628743"/>
+          <a:off x="9892798" y="6737727"/>
           <a:ext cx="204978" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4820,23 +4631,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>1312</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>3098</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>209291</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>3718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>206290</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>208848</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>13489</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="図 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5245C63D-0603-4EB9-A5B7-C35B13D29997}"/>
+        <xdr:cNvPr id="52" name="図 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A21BBA0-5B38-4E00-8CC6-2931F12934C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4852,8 +4663,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9892798" y="8631841"/>
-          <a:ext cx="204978" cy="205750"/>
+          <a:off x="10311234" y="6738347"/>
+          <a:ext cx="205155" cy="205573"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4864,367 +4675,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>209291</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>3718</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>203989</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>209291</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="図 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C3B0F5-68DA-46AB-923B-ED653863E834}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10311234" y="8632461"/>
-          <a:ext cx="205155" cy="205573"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>1313</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>206291</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>205750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="図 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F961A8-8F76-4366-9792-EBFF9B2F5982}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9471884" y="6734629"/>
-          <a:ext cx="204978" cy="205750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>1312</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>3098</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>206290</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>208848</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="図 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DC133A-095C-40FE-BA25-CF181F74906B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9892798" y="6737727"/>
-          <a:ext cx="204978" cy="205750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>209291</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>3718</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>203989</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>209291</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="図 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A21BBA0-5B38-4E00-8CC6-2931F12934C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10311234" y="6738347"/>
-          <a:ext cx="205155" cy="205573"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>3098</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>204347</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>208848</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="図 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6ED535B-0FDD-469D-A44A-4C0755F34F79}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9022522" y="11963185"/>
-          <a:ext cx="204347" cy="205750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>1312</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>205659</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>205750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="図 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F812A99E-7D1B-4148-AFAB-AE52AB7788E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9443486" y="11960087"/>
-          <a:ext cx="204347" cy="205750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>1312</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>3098</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>205660</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>208848</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="図 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5374C3D-6886-41E5-ACE8-E993CC11B55B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9863138" y="11963185"/>
-          <a:ext cx="204348" cy="205750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>208661</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>3718</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>203990</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>208660</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="図 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C975AD-4CB0-471A-BCE7-BA15F5B06FF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10280313" y="11963805"/>
-          <a:ext cx="205155" cy="204942"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5260,15 +4719,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>55</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>210456</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>1813</xdr:colOff>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5304,15 +4763,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5346,6 +4805,1529 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C43DEB22-4D8A-4C17-888E-34F75D084BDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3740727" y="3117273"/>
+          <a:ext cx="2909455" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7DBD529-D32A-4B10-80E5-101039356700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7511143" y="3755571"/>
+          <a:ext cx="1" cy="834572"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>205104</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>182013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99EB4E79-AA84-4611-BFD2-C079C07FC104}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3322377" y="3714922"/>
+          <a:ext cx="2714" cy="857078"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直線矢印コネクタ 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C7A0FD0-E501-4BBF-ABA2-72315364B261}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2078182" y="3740727"/>
+          <a:ext cx="0" cy="3325091"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>199118</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A87D6C4-6EEE-4798-8F60-6DF045E6A724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2503714" y="5842000"/>
+          <a:ext cx="2076904" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>8004</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>8005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>37886</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>37888</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="直線矢印コネクタ 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61AD766-E583-442F-9D13-5A0E4E908140}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5850004" y="8145076"/>
+          <a:ext cx="655811" cy="655812"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E59751F-21F0-4089-B573-5FD10D93952E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3546929" y="8137071"/>
+          <a:ext cx="417285" cy="417287"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="直線矢印コネクタ 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F53BC8-AE3E-4852-86E3-BA0A92E4F7E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2063750" y="8048625"/>
+          <a:ext cx="0" cy="4746625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直線矢印コネクタ 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D244A25-1A37-4002-8BA2-B744901C2BC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4172857" y="7347857"/>
+          <a:ext cx="0" cy="997857"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F10EA36-A6A9-4CE5-B43E-91B9AE7E5E16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5633357" y="8137071"/>
+          <a:ext cx="1669145" cy="2086429"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76307</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2584823" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="テキスト ボックス 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7E1342-CC3B-4A43-B20D-E8B65FDAB3D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3517580" y="9465236"/>
+          <a:ext cx="2584823" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SW4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="直線矢印コネクタ 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A1C4B92-2DA0-4695-8D85-6A6910162619}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3740727" y="3325091"/>
+          <a:ext cx="2909455" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="直線矢印コネクタ 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90075783-E17D-46E4-A0E3-37374E6918E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2493818" y="3740727"/>
+          <a:ext cx="0" cy="831273"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="直線矢印コネクタ 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7380E340-8125-4FCC-9A40-7E93D93F159D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4172857" y="4798786"/>
+          <a:ext cx="2921000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直線矢印コネクタ 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72A93F2-9707-4F0A-B888-748EF60ED552}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4172857" y="5007429"/>
+          <a:ext cx="2921000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="直線矢印コネクタ 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAED60BD-84F9-48C1-9B18-24ECCE7DE01E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8345714" y="3755571"/>
+          <a:ext cx="1" cy="834572"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>99786</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="直線矢印コネクタ 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37737D32-84C8-4C86-A360-387CE923114D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3592286" y="3519714"/>
+          <a:ext cx="3601357" cy="1124857"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>36285</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>72572</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>145143</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="直線矢印コネクタ 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{753A840F-8D28-4E35-B7EA-382DE059D7EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3583214" y="3628571"/>
+          <a:ext cx="3583215" cy="1106715"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="直線矢印コネクタ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98FC2E55-DFC3-437F-A222-ABBB14FD10BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4009571" y="3601357"/>
+          <a:ext cx="2730500" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>90717</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>145143</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99787</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直線矢印コネクタ 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234A32CC-128D-44EC-8091-5D2D2D900616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4054931" y="3673929"/>
+          <a:ext cx="2766783" cy="1016001"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="直線矢印コネクタ 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D948109-ED2F-4A1B-818F-9F0C34BCA0EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3755571" y="7719786"/>
+          <a:ext cx="2086430" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>113805</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="155" name="直線矢印コネクタ 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88B1D13-CD80-4E49-8F55-D4F38413F9C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5747162" y="8164286"/>
+          <a:ext cx="512124" cy="489857"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="直線矢印コネクタ 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA8780B-7330-47C5-BBE3-7B208E2ED962}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3338286" y="8137071"/>
+          <a:ext cx="417286" cy="417286"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="直線矢印コネクタ 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22716777-129E-4F81-AE63-B94306C16C49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4172857" y="10849429"/>
+          <a:ext cx="0" cy="997857"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="169" name="直線矢印コネクタ 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5996A3-BAAF-479F-B2B0-C54352C5A82B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5529037" y="10953751"/>
+          <a:ext cx="1251856" cy="625927"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 725"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="199" name="グループ化 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD329BC3-2884-4D87-AF6D-3FDDC45B78AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="415636" y="3325091"/>
+          <a:ext cx="5611092" cy="19950545"/>
+          <a:chOff x="418353" y="3346824"/>
+          <a:chExt cx="5647766" cy="20080941"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="95" name="コネクタ: カギ線 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78F70F65-8017-4189-AAE0-B770B89F7F83}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipV="1">
+            <a:off x="418354" y="22381883"/>
+            <a:ext cx="5647765" cy="1045882"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 0"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="186" name="直線コネクタ 185">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46344FB7-2190-4D2A-876A-418F46B4C93B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="418353" y="3346824"/>
+            <a:ext cx="0" cy="20080941"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="187" name="直線矢印コネクタ 186">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA3EC29-4021-4D7D-A2CB-76DA7A304A94}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="418353" y="3346824"/>
+            <a:ext cx="1464235" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="190" name="直線矢印コネクタ 189">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08250AD-40F5-40E2-930A-8A45FE770A03}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="418353" y="21963529"/>
+            <a:ext cx="1464236" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5377,8 +6359,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1277639" y="1277639"/>
-          <a:ext cx="2554773" cy="3194940"/>
+          <a:off x="1255227" y="1255227"/>
+          <a:ext cx="2509949" cy="3138911"/>
           <a:chOff x="1262231" y="1262231"/>
           <a:chExt cx="2523957" cy="3156420"/>
         </a:xfrm>
@@ -8032,595 +9014,595 @@
       <selection activeCell="AE93" sqref="AE93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="28" width="3.625" customWidth="1"/>
+    <col min="1" max="28" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="L4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="L6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="L4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="L7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="M9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A17" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B18" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="12"/>
       <c r="S19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="T20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="24"/>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="23"/>
       <c r="D22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J23" s="25" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B24" s="41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="45">
+      <c r="C24" s="44"/>
+      <c r="D24" s="47">
         <v>0</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="45">
+      <c r="E24" s="44"/>
+      <c r="F24" s="47">
         <v>0</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="45">
+      <c r="G24" s="44"/>
+      <c r="H24" s="47">
         <v>0</v>
       </c>
-      <c r="I24" s="42"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="59" t="s">
+      <c r="I24" s="44"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="60"/>
-      <c r="N24" s="59">
+      <c r="M24" s="30"/>
+      <c r="N24" s="29">
         <v>5</v>
       </c>
-      <c r="O24" s="60"/>
-      <c r="P24" s="59">
+      <c r="O24" s="30"/>
+      <c r="P24" s="29">
         <v>8</v>
       </c>
-      <c r="Q24" s="63"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="64"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="Q24" s="33"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="34"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="12"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="65"/>
-    </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="41"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="39"/>
+    </row>
+    <row r="27" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="12"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="66"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B27" s="42"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="40"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="12"/>
-      <c r="D28" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="57"/>
-      <c r="H28" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="I28" s="57"/>
-      <c r="L28" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="M28" s="57"/>
-      <c r="P28" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q28" s="57"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="D28" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="H28" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="27"/>
+      <c r="L28" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="M28" s="27"/>
+      <c r="P28" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q28" s="27"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="12"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="12"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="12"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="12"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="12"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="12"/>
       <c r="D35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="12"/>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="L38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="12"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="12"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="12"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" t="s">
         <v>99</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C67" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B44" t="s">
-        <v>100</v>
-      </c>
-      <c r="E44" t="s">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D69" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D71" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E83" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C87" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B45" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B47" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B51" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C53" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C54" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B55" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B57" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C58" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B59" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A62" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B63" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C64" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C65" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B66" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C67" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D68" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D69" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D70" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D71" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D72" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D73" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E74" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E75" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E76" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D77" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D78" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E79" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D80" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D81" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="D82" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E83" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F84" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F85" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C86" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="C87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D88" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C90" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D91" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C92" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C93" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="12"/>
       <c r="B96" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C99" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D100" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C101" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D102" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C104" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -8637,7 +9619,7 @@
       <c r="V108" s="9"/>
       <c r="W108" s="9"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -8654,7 +9636,7 @@
       <c r="V109" s="8"/>
       <c r="W109" s="9"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -8671,7 +9653,7 @@
       <c r="V110" s="9"/>
       <c r="W110" s="8"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -8688,7 +9670,7 @@
       <c r="V111" s="8"/>
       <c r="W111" s="9"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -8705,7 +9687,7 @@
       <c r="V112" s="9"/>
       <c r="W112" s="10"/>
     </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="9"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -8722,7 +9704,7 @@
       <c r="V113" s="8"/>
       <c r="W113" s="9"/>
     </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -8739,7 +9721,7 @@
       <c r="V114" s="9"/>
       <c r="W114" s="8"/>
     </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -8756,24 +9738,34 @@
       <c r="V115" s="8"/>
       <c r="W115" s="7"/>
     </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K116" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="S116" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="J26:K27"/>
     <mergeCell ref="P28:Q29"/>
     <mergeCell ref="L28:M29"/>
     <mergeCell ref="H28:I29"/>
@@ -8784,16 +9776,6 @@
     <mergeCell ref="N26:O27"/>
     <mergeCell ref="P26:Q27"/>
     <mergeCell ref="L24:M25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8804,948 +9786,1676 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928ACB59-DB4E-4084-86B9-85978878B755}">
-  <dimension ref="A1:BY74"/>
+  <dimension ref="A1:CH106"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="X1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17:E17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T96" sqref="T96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="O3" s="13"/>
-      <c r="P3" t="s">
-        <v>147</v>
-      </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
       <c r="AL3" s="13"/>
       <c r="AM3" s="14"/>
       <c r="AN3" s="13"/>
       <c r="AO3" s="13"/>
     </row>
-    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O4" s="13"/>
-      <c r="P4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="R4" s="13"/>
-      <c r="X4" t="s">
+      <c r="P4" s="55"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AO4" s="13"/>
+    </row>
+    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="H5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="54"/>
+    </row>
+    <row r="6" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="AO4" s="13"/>
-    </row>
-    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="28"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="28"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="28"/>
-    </row>
-    <row r="6" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="54"/>
+    </row>
+    <row r="7" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="54"/>
+    </row>
+    <row r="8" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+    </row>
+    <row r="9" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="54"/>
+    </row>
+    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="54"/>
+      <c r="AH10" s="54"/>
+      <c r="AI10" s="54"/>
+      <c r="AJ10" s="54"/>
+      <c r="AK10" s="54"/>
+    </row>
+    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="54"/>
+      <c r="AH11" s="54"/>
+      <c r="AI11" s="54"/>
+      <c r="AJ11" s="54"/>
+      <c r="AK11" s="54"/>
+    </row>
+    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="54"/>
+      <c r="AF12" s="54"/>
+      <c r="AG12" s="54"/>
+      <c r="AH12" s="54"/>
+      <c r="AI12" s="54"/>
+      <c r="AJ12" s="54"/>
+      <c r="AK12" s="54"/>
+    </row>
+    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="T15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="AH16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO16" s="1"/>
+    </row>
+    <row r="17" spans="10:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="T17" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+    </row>
+    <row r="20" spans="10:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="M20" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>145</v>
+      </c>
+      <c r="V20" s="61"/>
+      <c r="AK20" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="10:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L23" t="s">
+        <v>148</v>
+      </c>
+      <c r="V23" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI23" s="11"/>
+    </row>
+    <row r="24" spans="10:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="S24" s="1"/>
+      <c r="AJ24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ24" s="1"/>
+    </row>
+    <row r="25" spans="10:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1">
+        <v>3</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="V25" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+    </row>
+    <row r="31" spans="10:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J36" t="s">
+        <v>149</v>
+      </c>
+      <c r="U36" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="1"/>
+      <c r="AD37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH37" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="1"/>
+    </row>
+    <row r="38" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
+      <c r="P38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
+      <c r="U38" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="31"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="31"/>
-      <c r="AF6" s="29"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="31"/>
-    </row>
-    <row r="7" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="P7" s="29"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="31"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="34"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="34"/>
-    </row>
-    <row r="8" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="P8" s="29"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="31"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="34"/>
-      <c r="AF8" s="29"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="32"/>
-      <c r="AJ8" s="31"/>
-    </row>
-    <row r="9" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="P9" s="29"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="31"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="34"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="39"/>
-    </row>
-    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="P10" s="29"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="31"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="34"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="32"/>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="31"/>
-    </row>
-    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="P11" s="33"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="34"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="34"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="34"/>
-    </row>
-    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="P12" s="35"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="37"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="37"/>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="40"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="37"/>
-    </row>
-    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-      <c r="X15" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="AJ38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="1">
         <v>5</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="N16" t="s">
-        <v>153</v>
-      </c>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-    </row>
-    <row r="17" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="15">
-        <v>3</v>
-      </c>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-    </row>
-    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Y20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="P23" s="11"/>
-      <c r="X23" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-    </row>
-    <row r="25" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="15">
-        <v>2</v>
-      </c>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-    </row>
-    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="Y28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-    </row>
-    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X31" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>66</v>
-      </c>
-      <c r="BG31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="X32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD32" s="15">
-        <v>6</v>
-      </c>
-      <c r="AE32" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU32" s="1"/>
-      <c r="AV32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW32" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D33" s="13"/>
-      <c r="E33" t="s">
-        <v>152</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AQ33" s="1"/>
-      <c r="AR33" s="17"/>
-      <c r="AS33" s="1"/>
-      <c r="AT33" s="1"/>
-      <c r="AU33" s="1"/>
-      <c r="AV33" s="1"/>
-      <c r="AW33" s="1"/>
-      <c r="AX33" s="1"/>
-    </row>
-    <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="Y36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>65</v>
-      </c>
-      <c r="BD36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-    </row>
-    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X39" t="s">
-        <v>141</v>
-      </c>
-      <c r="AQ39" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="X40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y40" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD40" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE40" s="15">
-        <v>9</v>
-      </c>
-      <c r="AQ40" t="s">
-        <v>60</v>
-      </c>
-      <c r="BC40" t="s">
-        <v>140</v>
-      </c>
-      <c r="BR40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
+    </row>
+    <row r="40" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P40" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="S40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AQ41" s="18" t="s">
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="14"/>
+      <c r="AB41" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="T42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="1"/>
+    </row>
+    <row r="44" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AR41" s="18">
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1">
         <v>0</v>
       </c>
-      <c r="AS41" s="18">
+      <c r="Z44" s="1">
         <v>0</v>
       </c>
-      <c r="AT41" s="18">
+      <c r="AA44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="49" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J50" s="13"/>
+      <c r="K50" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="T50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W51" s="1"/>
+      <c r="X51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AU41" s="1"/>
-      <c r="AV41" s="2" t="s">
+      <c r="Z51" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA51" s="1"/>
+    </row>
+    <row r="52" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W52" s="1">
+        <v>1</v>
+      </c>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z52" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="U55" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BR57" s="13"/>
+      <c r="BS57" s="13"/>
+      <c r="BT57" s="13"/>
+      <c r="BU57" s="13"/>
+      <c r="BV57" s="13"/>
+      <c r="BW57" s="14"/>
+      <c r="BX57" s="13"/>
+      <c r="BY57" s="13"/>
+    </row>
+    <row r="58" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T58" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>168</v>
+      </c>
+      <c r="BR58" s="13"/>
+      <c r="BS58" s="13"/>
+      <c r="BT58" s="13"/>
+      <c r="BU58" s="13"/>
+      <c r="BV58" s="13"/>
+      <c r="BW58" s="13"/>
+      <c r="BX58" s="13"/>
+      <c r="BY58" s="13"/>
+    </row>
+    <row r="59" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AE59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF59" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH59" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+    </row>
+    <row r="60" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X60" s="1"/>
+      <c r="Y60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV62" s="54"/>
+      <c r="BW62" s="54"/>
+      <c r="BX62" s="54"/>
+      <c r="BY62" s="54"/>
+      <c r="BZ62" s="54"/>
+      <c r="CA62" s="54"/>
+      <c r="CB62" s="54"/>
+      <c r="CC62" s="54"/>
+      <c r="CD62" s="54"/>
+      <c r="CE62" s="54"/>
+      <c r="CF62" s="54"/>
+      <c r="CG62" s="54"/>
+      <c r="CH62" s="54"/>
+    </row>
+    <row r="63" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J63" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="BV63" s="54"/>
+      <c r="BW63" s="54"/>
+      <c r="BX63" s="54"/>
+      <c r="BY63" s="54"/>
+      <c r="BZ63" s="54"/>
+      <c r="CA63" s="54"/>
+      <c r="CB63" s="54"/>
+      <c r="CC63" s="54"/>
+      <c r="CD63" s="54"/>
+      <c r="CE63" s="54"/>
+      <c r="CF63" s="54"/>
+      <c r="CG63" s="54"/>
+      <c r="CH63" s="54"/>
+    </row>
+    <row r="64" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="BV64" s="54"/>
+      <c r="BW64" s="54"/>
+      <c r="BX64" s="54"/>
+      <c r="BY64" s="54"/>
+      <c r="BZ64" s="54"/>
+      <c r="CA64" s="54"/>
+      <c r="CB64" s="54"/>
+      <c r="CC64" s="54"/>
+      <c r="CD64" s="54"/>
+      <c r="CE64" s="54"/>
+      <c r="CF64" s="54"/>
+      <c r="CG64" s="54"/>
+      <c r="CH64" s="54"/>
+    </row>
+    <row r="65" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="15">
+        <v>3</v>
+      </c>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="BV65" s="54"/>
+      <c r="BW65" s="54"/>
+      <c r="BX65" s="55"/>
+      <c r="BY65" s="55"/>
+      <c r="BZ65" s="55"/>
+      <c r="CA65" s="55"/>
+      <c r="CB65" s="56"/>
+      <c r="CC65" s="55"/>
+      <c r="CD65" s="54"/>
+      <c r="CE65" s="55"/>
+      <c r="CF65" s="54"/>
+      <c r="CG65" s="54"/>
+      <c r="CH65" s="54"/>
+    </row>
+    <row r="66" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV66" s="54"/>
+      <c r="BW66" s="54"/>
+      <c r="BX66" s="55"/>
+      <c r="BY66" s="55"/>
+      <c r="BZ66" s="55"/>
+      <c r="CA66" s="55"/>
+      <c r="CB66" s="55"/>
+      <c r="CC66" s="55"/>
+      <c r="CD66" s="55"/>
+      <c r="CE66" s="55"/>
+      <c r="CF66" s="54"/>
+      <c r="CG66" s="54"/>
+      <c r="CH66" s="54"/>
+    </row>
+    <row r="67" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV67" s="54"/>
+      <c r="BW67" s="54"/>
+      <c r="BX67" s="54"/>
+      <c r="BY67" s="54"/>
+      <c r="BZ67" s="54"/>
+      <c r="CA67" s="54"/>
+      <c r="CB67" s="54"/>
+      <c r="CC67" s="54"/>
+      <c r="CD67" s="54"/>
+      <c r="CE67" s="54"/>
+      <c r="CF67" s="54"/>
+      <c r="CG67" s="54"/>
+      <c r="CH67" s="54"/>
+    </row>
+    <row r="68" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K68" t="s">
+        <v>19</v>
+      </c>
+      <c r="BV68" s="54"/>
+      <c r="BW68" s="54"/>
+      <c r="BX68" s="54"/>
+      <c r="BY68" s="54"/>
+      <c r="BZ68" s="54"/>
+      <c r="CA68" s="54"/>
+      <c r="CB68" s="54"/>
+      <c r="CC68" s="54"/>
+      <c r="CD68" s="54"/>
+      <c r="CE68" s="54"/>
+      <c r="CF68" s="54"/>
+      <c r="CG68" s="54"/>
+      <c r="CH68" s="54"/>
+    </row>
+    <row r="69" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV69" s="54"/>
+      <c r="BW69" s="54"/>
+      <c r="BX69" s="54"/>
+      <c r="BY69" s="54"/>
+      <c r="BZ69" s="54"/>
+      <c r="CA69" s="54"/>
+      <c r="CB69" s="54"/>
+      <c r="CC69" s="54"/>
+      <c r="CD69" s="54"/>
+      <c r="CE69" s="54"/>
+      <c r="CF69" s="54"/>
+      <c r="CG69" s="54"/>
+      <c r="CH69" s="54"/>
+    </row>
+    <row r="70" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV70" s="54"/>
+      <c r="BW70" s="54"/>
+      <c r="BX70" s="54"/>
+      <c r="BY70" s="54"/>
+      <c r="BZ70" s="54"/>
+      <c r="CA70" s="54"/>
+      <c r="CB70" s="54"/>
+      <c r="CC70" s="54"/>
+      <c r="CD70" s="54"/>
+      <c r="CE70" s="54"/>
+      <c r="CF70" s="54"/>
+      <c r="CG70" s="54"/>
+      <c r="CH70" s="54"/>
+    </row>
+    <row r="71" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J71" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="BV71" s="54"/>
+      <c r="BW71" s="54"/>
+      <c r="BX71" s="54"/>
+      <c r="BY71" s="54"/>
+      <c r="BZ71" s="54"/>
+      <c r="CA71" s="54"/>
+      <c r="CB71" s="54"/>
+      <c r="CC71" s="54"/>
+      <c r="CD71" s="54"/>
+      <c r="CE71" s="54"/>
+      <c r="CF71" s="54"/>
+      <c r="CG71" s="54"/>
+      <c r="CH71" s="54"/>
+    </row>
+    <row r="72" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="BV72" s="54"/>
+      <c r="BW72" s="54"/>
+      <c r="BX72" s="54"/>
+      <c r="BY72" s="54"/>
+      <c r="BZ72" s="54"/>
+      <c r="CA72" s="54"/>
+      <c r="CB72" s="54"/>
+      <c r="CC72" s="54"/>
+      <c r="CD72" s="54"/>
+      <c r="CE72" s="54"/>
+      <c r="CF72" s="54"/>
+      <c r="CG72" s="54"/>
+      <c r="CH72" s="54"/>
+    </row>
+    <row r="73" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="15">
         <v>2</v>
       </c>
-      <c r="AW41" s="1">
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="BV73" s="54"/>
+      <c r="BW73" s="54"/>
+      <c r="BX73" s="55"/>
+      <c r="BY73" s="55"/>
+      <c r="BZ73" s="55"/>
+      <c r="CA73" s="55"/>
+      <c r="CB73" s="56"/>
+      <c r="CC73" s="55"/>
+      <c r="CD73" s="54"/>
+      <c r="CE73" s="55"/>
+      <c r="CF73" s="54"/>
+      <c r="CG73" s="54"/>
+      <c r="CH73" s="54"/>
+    </row>
+    <row r="74" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV74" s="54"/>
+      <c r="BW74" s="54"/>
+      <c r="BX74" s="55"/>
+      <c r="BY74" s="55"/>
+      <c r="BZ74" s="55"/>
+      <c r="CA74" s="55"/>
+      <c r="CB74" s="55"/>
+      <c r="CC74" s="55"/>
+      <c r="CD74" s="55"/>
+      <c r="CE74" s="55"/>
+      <c r="CF74" s="54"/>
+      <c r="CG74" s="54"/>
+      <c r="CH74" s="54"/>
+    </row>
+    <row r="75" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV75" s="54"/>
+      <c r="BW75" s="54"/>
+      <c r="BX75" s="54"/>
+      <c r="BY75" s="54"/>
+      <c r="BZ75" s="54"/>
+      <c r="CA75" s="54"/>
+      <c r="CB75" s="54"/>
+      <c r="CC75" s="54"/>
+      <c r="CD75" s="54"/>
+      <c r="CE75" s="54"/>
+      <c r="CF75" s="54"/>
+      <c r="CG75" s="54"/>
+      <c r="CH75" s="54"/>
+    </row>
+    <row r="76" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K76" t="s">
+        <v>49</v>
+      </c>
+      <c r="BV76" s="54"/>
+      <c r="BW76" s="54"/>
+      <c r="BX76" s="54"/>
+      <c r="BY76" s="54"/>
+      <c r="BZ76" s="54"/>
+      <c r="CA76" s="54"/>
+      <c r="CB76" s="54"/>
+      <c r="CC76" s="54"/>
+      <c r="CD76" s="54"/>
+      <c r="CE76" s="54"/>
+      <c r="CF76" s="54"/>
+      <c r="CG76" s="54"/>
+      <c r="CH76" s="54"/>
+    </row>
+    <row r="77" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV77" s="54"/>
+      <c r="BW77" s="54"/>
+      <c r="BX77" s="54"/>
+      <c r="BY77" s="54"/>
+      <c r="BZ77" s="54"/>
+      <c r="CA77" s="54"/>
+      <c r="CB77" s="54"/>
+      <c r="CC77" s="54"/>
+      <c r="CD77" s="54"/>
+      <c r="CE77" s="54"/>
+      <c r="CF77" s="54"/>
+      <c r="CG77" s="54"/>
+      <c r="CH77" s="54"/>
+    </row>
+    <row r="78" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV78" s="54"/>
+      <c r="BW78" s="54"/>
+      <c r="BX78" s="54"/>
+      <c r="BY78" s="54"/>
+      <c r="BZ78" s="54"/>
+      <c r="CA78" s="54"/>
+      <c r="CB78" s="54"/>
+      <c r="CC78" s="54"/>
+      <c r="CD78" s="54"/>
+      <c r="CE78" s="54"/>
+      <c r="CF78" s="54"/>
+      <c r="CG78" s="54"/>
+      <c r="CH78" s="54"/>
+    </row>
+    <row r="79" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J79" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS79" t="s">
+        <v>130</v>
+      </c>
+      <c r="BV79" s="54"/>
+      <c r="BW79" s="54"/>
+      <c r="BX79" s="54"/>
+      <c r="BY79" s="54"/>
+      <c r="BZ79" s="54"/>
+      <c r="CA79" s="54"/>
+      <c r="CB79" s="54"/>
+      <c r="CC79" s="54"/>
+      <c r="CD79" s="54"/>
+      <c r="CE79" s="54"/>
+      <c r="CF79" s="54"/>
+      <c r="CG79" s="54"/>
+      <c r="CH79" s="54"/>
+    </row>
+    <row r="80" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0</v>
+      </c>
+      <c r="N80" s="1"/>
+      <c r="O80" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P80" s="15">
         <v>6</v>
       </c>
-      <c r="AX41" s="1">
+      <c r="Q80" s="15">
         <v>0</v>
       </c>
-      <c r="BC41" s="1" t="s">
+      <c r="S80" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC80" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BD41" s="1">
+      <c r="AD80" s="1">
         <v>0</v>
       </c>
-      <c r="BE41" s="1">
+      <c r="AE80" s="1">
         <v>0</v>
       </c>
-      <c r="BF41" s="1">
+      <c r="AF80" s="1">
         <v>0</v>
       </c>
-      <c r="BG41" s="1"/>
-      <c r="BH41" s="16" t="s">
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BI41" s="15">
+      <c r="AI80" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ80" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV80" s="54"/>
+      <c r="BW80" s="54"/>
+      <c r="BX80" s="54"/>
+      <c r="BY80" s="54"/>
+      <c r="BZ80" s="54"/>
+      <c r="CA80" s="54"/>
+      <c r="CB80" s="54"/>
+      <c r="CC80" s="54"/>
+      <c r="CD80" s="54"/>
+      <c r="CE80" s="54"/>
+      <c r="CF80" s="54"/>
+      <c r="CG80" s="54"/>
+      <c r="CH80" s="54"/>
+    </row>
+    <row r="81" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="17"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="BV81" s="54"/>
+      <c r="BW81" s="54"/>
+      <c r="BX81" s="55"/>
+      <c r="BY81" s="55"/>
+      <c r="BZ81" s="55"/>
+      <c r="CA81" s="55"/>
+      <c r="CB81" s="56"/>
+      <c r="CC81" s="55"/>
+      <c r="CD81" s="54"/>
+      <c r="CE81" s="55"/>
+      <c r="CF81" s="54"/>
+      <c r="CG81" s="54"/>
+      <c r="CH81" s="54"/>
+    </row>
+    <row r="82" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV82" s="54"/>
+      <c r="BW82" s="54"/>
+      <c r="BX82" s="55"/>
+      <c r="BY82" s="55"/>
+      <c r="BZ82" s="55"/>
+      <c r="CA82" s="55"/>
+      <c r="CB82" s="55"/>
+      <c r="CC82" s="55"/>
+      <c r="CD82" s="55"/>
+      <c r="CE82" s="55"/>
+      <c r="CF82" s="54"/>
+      <c r="CG82" s="54"/>
+      <c r="CH82" s="54"/>
+    </row>
+    <row r="83" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV83" s="54"/>
+      <c r="BW83" s="54"/>
+      <c r="BX83" s="54"/>
+      <c r="BY83" s="54"/>
+      <c r="BZ83" s="54"/>
+      <c r="CA83" s="54"/>
+      <c r="CB83" s="54"/>
+      <c r="CC83" s="54"/>
+      <c r="CD83" s="54"/>
+      <c r="CE83" s="54"/>
+      <c r="CF83" s="54"/>
+      <c r="CG83" s="54"/>
+      <c r="CH83" s="54"/>
+    </row>
+    <row r="84" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K84" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP84" t="s">
+        <v>56</v>
+      </c>
+      <c r="BV84" s="54"/>
+      <c r="BW84" s="54"/>
+      <c r="BX84" s="54"/>
+      <c r="BY84" s="54"/>
+      <c r="BZ84" s="54"/>
+      <c r="CA84" s="54"/>
+      <c r="CB84" s="54"/>
+      <c r="CC84" s="54"/>
+      <c r="CD84" s="54"/>
+      <c r="CE84" s="54"/>
+      <c r="CF84" s="54"/>
+      <c r="CG84" s="54"/>
+      <c r="CH84" s="54"/>
+    </row>
+    <row r="87" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J87" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="L88" s="1">
+        <v>0</v>
+      </c>
+      <c r="M88" s="1">
+        <v>0</v>
+      </c>
+      <c r="N88" s="1"/>
+      <c r="O88" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P88" s="15">
         <v>5</v>
       </c>
-      <c r="BJ41" s="15">
+      <c r="Q88" s="15">
+        <v>9</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO88" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD88" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="AC89" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD89" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG89" s="1"/>
+      <c r="AH89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI89" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS89" s="1"/>
+      <c r="AT89" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU89" s="15">
+        <v>5</v>
+      </c>
+      <c r="AV89" s="15">
         <v>7</v>
       </c>
-      <c r="BR41" s="1" t="s">
+      <c r="BD89" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="BS41" s="1">
+      <c r="BE89" s="1">
         <v>0</v>
       </c>
-      <c r="BT41" s="1">
+      <c r="BF89" s="1">
         <v>0</v>
       </c>
-      <c r="BU41" s="1">
+      <c r="BG89" s="1">
         <v>0</v>
       </c>
-      <c r="BV41" s="1"/>
-      <c r="BW41" s="16" t="s">
+      <c r="BH89" s="1"/>
+      <c r="BI89" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="BX41" s="15">
+      <c r="BJ89" s="15">
         <v>5</v>
       </c>
-      <c r="BY41" s="15">
+      <c r="BK89" s="15">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AQ42" s="1"/>
-      <c r="AR42" s="17"/>
-      <c r="AS42" s="1"/>
-      <c r="AT42" s="1"/>
-      <c r="AU42" s="1"/>
-      <c r="AV42" s="1"/>
-      <c r="AW42" s="1"/>
-      <c r="AX42" s="1"/>
-      <c r="BC42" s="1"/>
-      <c r="BD42" s="1"/>
-      <c r="BE42" s="1"/>
-      <c r="BF42" s="1"/>
-      <c r="BG42" s="1"/>
-      <c r="BH42" s="1"/>
-      <c r="BI42" s="1"/>
-      <c r="BJ42" s="1"/>
-      <c r="BR42" s="1"/>
-      <c r="BS42" s="17"/>
-      <c r="BT42" s="1"/>
-      <c r="BU42" s="1"/>
-      <c r="BV42" s="1"/>
-      <c r="BW42" s="1"/>
-      <c r="BX42" s="1"/>
-      <c r="BY42" s="1"/>
-    </row>
-    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Y44" t="s">
+    <row r="90" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC90" s="1"/>
+      <c r="AD90" s="17"/>
+      <c r="AE90" s="1"/>
+      <c r="AF90" s="1"/>
+      <c r="AG90" s="1"/>
+      <c r="AH90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AJ90" s="1"/>
+      <c r="AO90" s="1"/>
+      <c r="AP90" s="1"/>
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="1"/>
+      <c r="AU90" s="1"/>
+      <c r="AV90" s="1"/>
+      <c r="BD90" s="1"/>
+      <c r="BE90" s="17"/>
+      <c r="BF90" s="1"/>
+      <c r="BG90" s="1"/>
+      <c r="BH90" s="1"/>
+      <c r="BI90" s="1"/>
+      <c r="BJ90" s="1"/>
+      <c r="BK90" s="1"/>
+    </row>
+    <row r="93" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AD93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="95" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J95" s="26"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="26"/>
+      <c r="N95" s="26"/>
+      <c r="O95" s="26"/>
+      <c r="P95" s="26"/>
+      <c r="Q95" s="26"/>
+    </row>
+    <row r="96" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J96" s="53"/>
+      <c r="K96" t="s">
+        <v>50</v>
+      </c>
+      <c r="L96" s="53"/>
+      <c r="M96" s="53"/>
+      <c r="N96" s="53"/>
+      <c r="O96" s="56"/>
+      <c r="P96" s="55"/>
+      <c r="Q96" s="55"/>
+      <c r="AC96" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AR45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X47" t="s">
+    <row r="97" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J97" s="53"/>
+      <c r="K97" s="53"/>
+      <c r="L97" s="53"/>
+      <c r="M97" s="53"/>
+      <c r="N97" s="53"/>
+      <c r="O97" s="53"/>
+      <c r="P97" s="53"/>
+      <c r="Q97" s="53"/>
+      <c r="AC97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD97" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG97" s="1"/>
+      <c r="AH97" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI97" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC98" s="1"/>
+      <c r="AD98" s="17"/>
+      <c r="AE98" s="1"/>
+      <c r="AF98" s="1"/>
+      <c r="AG98" s="1"/>
+      <c r="AH98" s="1"/>
+      <c r="AI98" s="1"/>
+      <c r="AJ98" s="1"/>
+    </row>
+    <row r="100" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C100" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X48" s="1" t="s">
+    <row r="101" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AD101" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J104" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J105" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Y48" s="1">
+      <c r="K105" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="O105" s="59">
         <v>0</v>
       </c>
-      <c r="Z48" s="1">
+      <c r="P105" s="60">
         <v>0</v>
       </c>
-      <c r="AA48" s="1">
+      <c r="Q105" s="60">
         <v>0</v>
       </c>
-      <c r="AB48" s="1"/>
-      <c r="AC48" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD48" s="15">
+      <c r="AC105" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD105" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE105" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF105" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG105" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH105" s="59">
         <v>0</v>
       </c>
-      <c r="AE48" s="15">
+      <c r="AI105" s="60">
+        <v>3</v>
+      </c>
+      <c r="AJ105" s="60">
         <v>0</v>
       </c>
-      <c r="AQ48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
-      <c r="AD49" s="1"/>
-      <c r="AE49" s="1"/>
-      <c r="AQ49" s="1" t="s">
+    </row>
+    <row r="106" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N106" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AR49" s="1">
+      <c r="O106" s="1">
         <v>0</v>
       </c>
-      <c r="AS49" s="1">
+      <c r="P106" s="1">
         <v>0</v>
       </c>
-      <c r="AT49" s="1">
+      <c r="Q106" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC106" s="1"/>
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="1"/>
+      <c r="AF106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG106" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AU49" s="1"/>
-      <c r="AV49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW49" s="1">
-        <v>6</v>
-      </c>
-      <c r="AX49" s="1">
+      <c r="AH106" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AQ50" s="1"/>
-      <c r="AR50" s="17"/>
-      <c r="AS50" s="1"/>
-      <c r="AT50" s="1"/>
-      <c r="AU50" s="1"/>
-      <c r="AV50" s="1"/>
-      <c r="AW50" s="1"/>
-      <c r="AX50" s="1"/>
-    </row>
-    <row r="53" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AR53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D56" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D57" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K57" s="1"/>
-      <c r="W57" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y57" s="13"/>
-      <c r="Z57" s="13"/>
-      <c r="AA57" s="13"/>
-      <c r="AB57" s="13"/>
-      <c r="AC57" s="13"/>
-      <c r="AD57" s="14"/>
-      <c r="AE57" s="13"/>
-      <c r="AF57" s="13"/>
-      <c r="AQ57" s="18" t="s">
+      <c r="AI106" s="1">
         <v>1</v>
       </c>
-      <c r="AR57" s="18">
-        <v>0</v>
-      </c>
-      <c r="AS57" s="18">
-        <v>3</v>
-      </c>
-      <c r="AT57" s="18">
-        <v>0</v>
-      </c>
-      <c r="AU57" s="1"/>
-      <c r="AV57" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW57" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX57" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="1"/>
-      <c r="I58" s="18">
-        <v>0</v>
-      </c>
-      <c r="J58" s="18">
-        <v>3</v>
-      </c>
-      <c r="K58" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="13"/>
-      <c r="Z58" s="13"/>
-      <c r="AA58" s="13"/>
-      <c r="AB58" s="13"/>
-      <c r="AC58" s="13"/>
-      <c r="AD58" s="13"/>
-      <c r="AE58" s="13"/>
-      <c r="AF58" s="13"/>
-      <c r="AQ58" s="1"/>
-      <c r="AR58" s="1"/>
-      <c r="AS58" s="1"/>
-      <c r="AT58" s="1"/>
-      <c r="AU58" s="1"/>
-      <c r="AV58" s="1"/>
-      <c r="AW58" s="1"/>
-      <c r="AX58" s="1"/>
-    </row>
-    <row r="61" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H66" s="1"/>
-      <c r="I66" s="18">
-        <v>0</v>
-      </c>
-      <c r="J66" s="18">
-        <v>3</v>
-      </c>
-      <c r="K66" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E69" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="72" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D72" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D73" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H74" s="1"/>
-      <c r="I74" s="18">
-        <v>0</v>
-      </c>
-      <c r="J74" s="18">
-        <v>0</v>
-      </c>
-      <c r="K74" s="18">
+      <c r="AJ106" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9761,85 +11471,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B40E9C8-489C-4E06-A660-B3194CE09B52}">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AV19" sqref="AV19:AW20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W8" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W9" s="12"/>
     </row>
-    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W10" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W11" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W12" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W11" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W12" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H29" s="3"/>
       <c r="J29" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -9847,7 +11557,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -9855,21 +11565,21 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="33" spans="5:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N33" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q33" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E570CF-A4FE-4517-856D-508A56DAA820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC711E2-6903-4435-952C-B12B39DE108B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19200" windowHeight="8800" activeTab="1" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="13800" activeTab="1" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -34,8 +34,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={80DF67D2-CDF4-4627-BBA9-6AF58A12B278}</author>
+    <author>tc={EBFF4CF0-2CF3-4C40-BF87-4DFEA996BF5F}</author>
+    <author>tc={4FD9EB9F-E40D-41E7-BDFA-CB832766CC32}</author>
+  </authors>
+  <commentList>
+    <comment ref="U54" authorId="0" shapeId="0" xr:uid="{80DF67D2-CDF4-4627-BBA9-6AF58A12B278}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    操作の意図が分かりやすいように追加</t>
+      </text>
+    </comment>
+    <comment ref="AF54" authorId="1" shapeId="0" xr:uid="{EBFF4CF0-2CF3-4C40-BF87-4DFEA996BF5F}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    操作の意図が分かりやすいように追加</t>
+      </text>
+    </comment>
+    <comment ref="R57" authorId="2" shapeId="0" xr:uid="{4FD9EB9F-E40D-41E7-BDFA-CB832766CC32}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    例である明示が欲しい
+EASYだけなの？と思いそう</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="175">
   <si>
     <t>LCD画面遷移</t>
     <rPh sb="3" eb="5">
@@ -1528,13 +1565,33 @@
       <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリアする場合</t>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(SW1押下)</t>
+  </si>
+  <si>
+    <t>クリアしない場合</t>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(SW4押下)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1631,6 +1688,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1989,53 +2053,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2067,32 +2110,53 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6061,8 +6125,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4172857" y="10849429"/>
-          <a:ext cx="0" cy="997857"/>
+          <a:off x="4191000" y="10896600"/>
+          <a:ext cx="0" cy="1001486"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6169,8 +6233,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="415636" y="3325091"/>
-          <a:ext cx="5611092" cy="19950545"/>
+          <a:off x="419100" y="3352800"/>
+          <a:ext cx="5657851" cy="20116800"/>
           <a:chOff x="418353" y="3346824"/>
           <a:chExt cx="5647766" cy="20080941"/>
         </a:xfrm>
@@ -6359,8 +6423,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1255227" y="1255227"/>
-          <a:ext cx="2509949" cy="3138911"/>
+          <a:off x="1277639" y="1277639"/>
+          <a:ext cx="2554773" cy="3194940"/>
           <a:chOff x="1262231" y="1262231"/>
           <a:chExt cx="2523957" cy="3156420"/>
         </a:xfrm>
@@ -8710,6 +8774,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="箱石 文紀" id="{A0D49BE1-B146-40C4-B1C0-70BDE182EB37}" userId="S::fuminori.hakoishi@erii.onmicrosoft.com::80806857-8b75-401c-95be-7b9e9f657cb5" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -9005,6 +9075,21 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="U54" dT="2020-08-20T06:39:21.87" personId="{A0D49BE1-B146-40C4-B1C0-70BDE182EB37}" id="{80DF67D2-CDF4-4627-BBA9-6AF58A12B278}">
+    <text>操作の意図が分かりやすいように追加</text>
+  </threadedComment>
+  <threadedComment ref="AF54" dT="2020-08-20T06:39:42.90" personId="{A0D49BE1-B146-40C4-B1C0-70BDE182EB37}" id="{EBFF4CF0-2CF3-4C40-BF87-4DFEA996BF5F}">
+    <text>操作の意図が分かりやすいように追加</text>
+  </threadedComment>
+  <threadedComment ref="R57" dT="2020-08-20T06:45:17.79" personId="{A0D49BE1-B146-40C4-B1C0-70BDE182EB37}" id="{4FD9EB9F-E40D-41E7-BDFA-CB832766CC32}">
+    <text>例である明示が欲しい
+EASYだけなの？と思いそう</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936A1384-AF86-4BA2-B6E2-C742B67793C6}">
   <sheetPr codeName="Sheet1"/>
@@ -9014,73 +9099,73 @@
       <selection activeCell="AE93" sqref="AE93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="28" width="3.58203125" customWidth="1"/>
+    <col min="1" max="28" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" ht="30">
       <c r="A1" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13">
       <c r="A2" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13">
       <c r="L3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13">
       <c r="L4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13">
       <c r="L6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13">
       <c r="L7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13">
       <c r="M8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13">
       <c r="M9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13">
       <c r="C15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:20">
       <c r="A17" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:20">
       <c r="B18" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:20">
       <c r="B19" s="12"/>
       <c r="S19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:20">
       <c r="C20" t="s">
         <v>86</v>
       </c>
@@ -9091,7 +9176,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:20">
       <c r="C21" s="24"/>
       <c r="D21" t="s">
         <v>82</v>
@@ -9100,13 +9185,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:20">
       <c r="C22" s="23"/>
       <c r="D22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:20" ht="20.25" thickBot="1">
       <c r="J23" s="25" t="s">
         <v>102</v>
       </c>
@@ -9114,152 +9199,152 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="43" t="s">
+    <row r="24" spans="1:20">
+      <c r="B24" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="47">
+      <c r="C24" s="37"/>
+      <c r="D24" s="40">
         <v>0</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="47">
+      <c r="E24" s="37"/>
+      <c r="F24" s="40">
         <v>0</v>
       </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="47">
+      <c r="G24" s="37"/>
+      <c r="H24" s="40">
         <v>0</v>
       </c>
-      <c r="I24" s="44"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="29" t="s">
+      <c r="I24" s="37"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="30"/>
-      <c r="N24" s="29">
+      <c r="M24" s="55"/>
+      <c r="N24" s="54">
         <v>5</v>
       </c>
-      <c r="O24" s="30"/>
-      <c r="P24" s="29">
+      <c r="O24" s="55"/>
+      <c r="P24" s="54">
         <v>8</v>
       </c>
-      <c r="Q24" s="33"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="34"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q24" s="58"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="59"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="12"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="39"/>
-    </row>
-    <row r="27" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="60"/>
+    </row>
+    <row r="27" spans="1:20" ht="19.5" thickBot="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="40"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="61"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="12"/>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="H28" s="27" t="s">
+      <c r="E28" s="52"/>
+      <c r="H28" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="27"/>
-      <c r="L28" s="27" t="s">
+      <c r="I28" s="52"/>
+      <c r="L28" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="M28" s="27"/>
-      <c r="P28" s="27" t="s">
+      <c r="M28" s="52"/>
+      <c r="P28" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="Q28" s="27"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q28" s="52"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="12"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="12"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:20">
       <c r="A31" s="12"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:20">
       <c r="A32" s="12"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:12">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:12">
       <c r="A34" s="12"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:12">
       <c r="A35" s="12"/>
       <c r="D35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:12">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:12">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:12">
       <c r="A38" s="12"/>
       <c r="D38" t="s">
         <v>75</v>
@@ -9277,21 +9362,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:12">
       <c r="A39" s="12"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:12">
       <c r="A40" s="12"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:12">
       <c r="A41" s="12"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:12">
       <c r="A42" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:12">
       <c r="B43" t="s">
         <v>91</v>
       </c>
@@ -9299,7 +9384,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12">
       <c r="B44" t="s">
         <v>92</v>
       </c>
@@ -9307,7 +9392,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:12">
       <c r="B45" t="s">
         <v>93</v>
       </c>
@@ -9315,7 +9400,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:12">
       <c r="B46" t="s">
         <v>94</v>
       </c>
@@ -9323,7 +9408,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:12">
       <c r="B47" t="s">
         <v>99</v>
       </c>
@@ -9331,278 +9416,278 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3">
       <c r="A50" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3">
       <c r="B51" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3">
       <c r="C52" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3">
       <c r="C53" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3">
       <c r="C54" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3">
       <c r="B55" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3">
       <c r="C56" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3">
       <c r="B57" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3">
       <c r="C58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3">
       <c r="B59" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3">
       <c r="C60" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3">
       <c r="A62" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3">
       <c r="B63" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3">
       <c r="C64" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:5">
       <c r="C65" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:5">
       <c r="B66" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:5">
       <c r="C67" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:5">
       <c r="D68" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:5">
       <c r="D69" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:5">
       <c r="D70" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:5">
       <c r="D71" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:5">
       <c r="D72" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:5">
       <c r="D73" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:5">
       <c r="E74" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:5">
       <c r="E75" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:5">
       <c r="E76" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:5">
       <c r="D77" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:5">
       <c r="D78" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:5">
       <c r="E79" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:5">
       <c r="D80" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6">
       <c r="D81" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6">
       <c r="D82" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6">
       <c r="E83" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6">
       <c r="F84" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6">
       <c r="F85" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6">
       <c r="C86" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6">
       <c r="C87" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6">
       <c r="D88" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6">
       <c r="B89" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6">
       <c r="C90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6">
       <c r="D91" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6">
       <c r="C92" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6">
       <c r="C93" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6">
       <c r="A95" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6">
       <c r="A96" s="12"/>
       <c r="B96" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:23">
       <c r="C97" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:23">
       <c r="B98" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:23">
       <c r="C99" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:23">
       <c r="D100" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:23">
       <c r="C101" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:23">
       <c r="D102" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:23">
       <c r="B103" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:23">
       <c r="C104" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:23">
       <c r="A106" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:23">
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -9619,7 +9704,7 @@
       <c r="V108" s="9"/>
       <c r="W108" s="9"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:23">
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -9636,7 +9721,7 @@
       <c r="V109" s="8"/>
       <c r="W109" s="9"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:23">
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -9653,7 +9738,7 @@
       <c r="V110" s="9"/>
       <c r="W110" s="8"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:23">
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -9670,7 +9755,7 @@
       <c r="V111" s="8"/>
       <c r="W111" s="9"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:23">
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -9687,7 +9772,7 @@
       <c r="V112" s="9"/>
       <c r="W112" s="10"/>
     </row>
-    <row r="113" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="2:23">
       <c r="B113" s="9"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -9704,7 +9789,7 @@
       <c r="V113" s="8"/>
       <c r="W113" s="9"/>
     </row>
-    <row r="114" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:23">
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -9721,7 +9806,7 @@
       <c r="V114" s="9"/>
       <c r="W114" s="8"/>
     </row>
-    <row r="115" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:23">
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -9738,7 +9823,7 @@
       <c r="V115" s="8"/>
       <c r="W115" s="7"/>
     </row>
-    <row r="116" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="2:23">
       <c r="B116" t="s">
         <v>114</v>
       </c>
@@ -9749,23 +9834,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="2:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="2:23">
       <c r="B117" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="J26:K27"/>
     <mergeCell ref="P28:Q29"/>
     <mergeCell ref="L28:M29"/>
     <mergeCell ref="H28:I29"/>
@@ -9776,6 +9851,16 @@
     <mergeCell ref="N26:O27"/>
     <mergeCell ref="P26:Q27"/>
     <mergeCell ref="L24:M25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9785,80 +9870,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928ACB59-DB4E-4084-86B9-85978878B755}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928ACB59-DB4E-4084-86B9-85978878B755}">
   <dimension ref="A1:CH106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T96" sqref="T96"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN99" sqref="AN99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:41" ht="16.5" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:41" ht="16.5" customHeight="1">
       <c r="O3" s="13"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="55"/>
-      <c r="AJ3" s="55"/>
-      <c r="AK3" s="55"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
       <c r="AL3" s="13"/>
       <c r="AM3" s="14"/>
       <c r="AN3" s="13"/>
       <c r="AO3" s="13"/>
     </row>
-    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:41" ht="16.5" customHeight="1">
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="O4" s="13"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
       <c r="AO4" s="13"/>
     </row>
-    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:41" ht="16.5" customHeight="1">
       <c r="C5" s="1" t="s">
         <v>129</v>
       </c>
@@ -9881,30 +9966,30 @@
         <v>125</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="54"/>
-      <c r="AJ5" s="54"/>
-      <c r="AK5" s="54"/>
-    </row>
-    <row r="6" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
+    </row>
+    <row r="6" spans="1:41" ht="16.5" customHeight="1">
       <c r="C6" s="1" t="s">
         <v>142</v>
       </c>
@@ -9923,174 +10008,174 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="54"/>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="54"/>
-      <c r="AI6" s="54"/>
-      <c r="AJ6" s="54"/>
-      <c r="AK6" s="54"/>
-    </row>
-    <row r="7" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="54"/>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="54"/>
-      <c r="AI7" s="54"/>
-      <c r="AJ7" s="54"/>
-      <c r="AK7" s="54"/>
-    </row>
-    <row r="8" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
-    </row>
-    <row r="9" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="54"/>
-      <c r="AG9" s="54"/>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="58"/>
-      <c r="AK9" s="54"/>
-    </row>
-    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="54"/>
-      <c r="AI10" s="54"/>
-      <c r="AJ10" s="54"/>
-      <c r="AK10" s="54"/>
-    </row>
-    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="54"/>
-      <c r="AH11" s="54"/>
-      <c r="AI11" s="54"/>
-      <c r="AJ11" s="54"/>
-      <c r="AK11" s="54"/>
-    </row>
-    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="54"/>
-      <c r="AF12" s="54"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="54"/>
-      <c r="AI12" s="54"/>
-      <c r="AJ12" s="54"/>
-      <c r="AK12" s="54"/>
-    </row>
-    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+    </row>
+    <row r="7" spans="1:41" ht="16.5" customHeight="1">
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+    </row>
+    <row r="8" spans="1:41" ht="16.5" customHeight="1">
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+    </row>
+    <row r="9" spans="1:41" ht="16.5" customHeight="1">
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="28"/>
+    </row>
+    <row r="10" spans="1:41" ht="16.5" customHeight="1">
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="28"/>
+    </row>
+    <row r="11" spans="1:41" ht="16.5" customHeight="1">
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="28"/>
+    </row>
+    <row r="12" spans="1:41" ht="16.5" customHeight="1">
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="28"/>
+    </row>
+    <row r="15" spans="1:41" ht="16.5" customHeight="1">
       <c r="J15" t="s">
         <v>146</v>
       </c>
@@ -10101,7 +10186,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:41" ht="16.5" customHeight="1">
       <c r="J16" s="1" t="s">
         <v>129</v>
       </c>
@@ -10147,7 +10232,7 @@
       </c>
       <c r="AO16" s="1"/>
     </row>
-    <row r="17" spans="10:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="10:61" ht="16.5" customHeight="1">
       <c r="J17" s="1" t="s">
         <v>142</v>
       </c>
@@ -10188,14 +10273,14 @@
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
     </row>
-    <row r="20" spans="10:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="10:61" ht="16.5" customHeight="1">
       <c r="M20" t="s">
         <v>162</v>
       </c>
       <c r="Q20" t="s">
         <v>145</v>
       </c>
-      <c r="V20" s="61"/>
+      <c r="V20" s="35"/>
       <c r="AK20" t="s">
         <v>163</v>
       </c>
@@ -10203,7 +10288,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="10:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="10:61" ht="16.5" customHeight="1">
       <c r="L23" t="s">
         <v>148</v>
       </c>
@@ -10215,7 +10300,7 @@
       </c>
       <c r="BI23" s="11"/>
     </row>
-    <row r="24" spans="10:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="10:61" ht="16.5" customHeight="1">
       <c r="L24" s="1" t="s">
         <v>129</v>
       </c>
@@ -10261,7 +10346,7 @@
       </c>
       <c r="AQ24" s="1"/>
     </row>
-    <row r="25" spans="10:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="10:61" ht="16.5" customHeight="1">
       <c r="L25" s="1" t="s">
         <v>142</v>
       </c>
@@ -10302,12 +10387,12 @@
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
     </row>
-    <row r="31" spans="10:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="10:61" ht="16.5" customHeight="1">
       <c r="K31" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="10:37" ht="16.5" customHeight="1">
       <c r="J36" t="s">
         <v>149</v>
       </c>
@@ -10318,7 +10403,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="10:37" ht="16.5" customHeight="1">
       <c r="J37" s="1" t="s">
         <v>143</v>
       </c>
@@ -10356,7 +10441,7 @@
       <c r="AJ37" s="7"/>
       <c r="AK37" s="1"/>
     </row>
-    <row r="38" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="10:37" ht="16.5" customHeight="1">
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
@@ -10397,29 +10482,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="P40" s="61" t="s">
+    <row r="40" spans="10:37" ht="16.5" customHeight="1">
+      <c r="P40" s="35" t="s">
         <v>162</v>
       </c>
       <c r="S40" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="10:37" ht="16.5" customHeight="1">
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
       <c r="O41" s="14"/>
-      <c r="AB41" s="61" t="s">
+      <c r="AB41" s="35" t="s">
         <v>161</v>
       </c>
       <c r="AE41" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="10:37" ht="16.5" customHeight="1">
       <c r="J42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
@@ -10429,7 +10514,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="10:37" ht="16.5" customHeight="1">
       <c r="T43" s="1" t="s">
         <v>3</v>
       </c>
@@ -10447,7 +10532,7 @@
       <c r="Z43" s="7"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="10:37" ht="16.5" customHeight="1">
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1" t="s">
@@ -10467,7 +10552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="10:37" ht="16.5" customHeight="1">
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
@@ -10477,7 +10562,7 @@
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
     </row>
-    <row r="46" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="10:37" ht="16.5" customHeight="1">
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
@@ -10487,7 +10572,7 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
     </row>
-    <row r="49" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="10:86" ht="16.5" customHeight="1">
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
@@ -10497,7 +10582,7 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
     </row>
-    <row r="50" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="10:86" ht="16.5" customHeight="1">
       <c r="J50" s="13"/>
       <c r="K50" s="22" t="s">
         <v>138</v>
@@ -10512,7 +10597,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="10:86" ht="16.5" customHeight="1">
       <c r="T51" s="1" t="s">
         <v>160</v>
       </c>
@@ -10534,7 +10619,7 @@
       </c>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="10:86" ht="16.5" customHeight="1">
       <c r="T52" s="1" t="s">
         <v>151</v>
       </c>
@@ -10558,15 +10643,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="10:86" ht="16.5" customHeight="1">
+      <c r="U54" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="10:86" ht="16.5" customHeight="1">
       <c r="U55" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="AF55" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="10:86" ht="16.5" customHeight="1">
       <c r="BR57" s="13"/>
       <c r="BS57" s="13"/>
       <c r="BT57" s="13"/>
@@ -10576,7 +10669,7 @@
       <c r="BX57" s="13"/>
       <c r="BY57" s="13"/>
     </row>
-    <row r="58" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="10:86" ht="16.5" customHeight="1">
       <c r="T58" t="s">
         <v>167</v>
       </c>
@@ -10592,7 +10685,7 @@
       <c r="BX58" s="13"/>
       <c r="BY58" s="13"/>
     </row>
-    <row r="59" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="10:86" ht="16.5" customHeight="1">
       <c r="T59" s="1" t="s">
         <v>143</v>
       </c>
@@ -10626,7 +10719,7 @@
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
     </row>
-    <row r="60" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="10:86" ht="16.5" customHeight="1">
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1" t="s">
@@ -10664,40 +10757,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="BV62" s="54"/>
-      <c r="BW62" s="54"/>
-      <c r="BX62" s="54"/>
-      <c r="BY62" s="54"/>
-      <c r="BZ62" s="54"/>
-      <c r="CA62" s="54"/>
-      <c r="CB62" s="54"/>
-      <c r="CC62" s="54"/>
-      <c r="CD62" s="54"/>
-      <c r="CE62" s="54"/>
-      <c r="CF62" s="54"/>
-      <c r="CG62" s="54"/>
-      <c r="CH62" s="54"/>
-    </row>
-    <row r="63" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="10:86" ht="16.5" customHeight="1">
+      <c r="BV62" s="28"/>
+      <c r="BW62" s="28"/>
+      <c r="BX62" s="28"/>
+      <c r="BY62" s="28"/>
+      <c r="BZ62" s="28"/>
+      <c r="CA62" s="28"/>
+      <c r="CB62" s="28"/>
+      <c r="CC62" s="28"/>
+      <c r="CD62" s="28"/>
+      <c r="CE62" s="28"/>
+      <c r="CF62" s="28"/>
+      <c r="CG62" s="28"/>
+      <c r="CH62" s="28"/>
+    </row>
+    <row r="63" spans="10:86" ht="16.5" customHeight="1">
       <c r="J63" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="BV63" s="54"/>
-      <c r="BW63" s="54"/>
-      <c r="BX63" s="54"/>
-      <c r="BY63" s="54"/>
-      <c r="BZ63" s="54"/>
-      <c r="CA63" s="54"/>
-      <c r="CB63" s="54"/>
-      <c r="CC63" s="54"/>
-      <c r="CD63" s="54"/>
-      <c r="CE63" s="54"/>
-      <c r="CF63" s="54"/>
-      <c r="CG63" s="54"/>
-      <c r="CH63" s="54"/>
-    </row>
-    <row r="64" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV63" s="28"/>
+      <c r="BW63" s="28"/>
+      <c r="BX63" s="28"/>
+      <c r="BY63" s="28"/>
+      <c r="BZ63" s="28"/>
+      <c r="CA63" s="28"/>
+      <c r="CB63" s="28"/>
+      <c r="CC63" s="28"/>
+      <c r="CD63" s="28"/>
+      <c r="CE63" s="28"/>
+      <c r="CF63" s="28"/>
+      <c r="CG63" s="28"/>
+      <c r="CH63" s="28"/>
+    </row>
+    <row r="64" spans="10:86" ht="16.5" customHeight="1">
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -10706,21 +10799,21 @@
       <c r="O64" s="2"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
-      <c r="BV64" s="54"/>
-      <c r="BW64" s="54"/>
-      <c r="BX64" s="54"/>
-      <c r="BY64" s="54"/>
-      <c r="BZ64" s="54"/>
-      <c r="CA64" s="54"/>
-      <c r="CB64" s="54"/>
-      <c r="CC64" s="54"/>
-      <c r="CD64" s="54"/>
-      <c r="CE64" s="54"/>
-      <c r="CF64" s="54"/>
-      <c r="CG64" s="54"/>
-      <c r="CH64" s="54"/>
-    </row>
-    <row r="65" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV64" s="28"/>
+      <c r="BW64" s="28"/>
+      <c r="BX64" s="28"/>
+      <c r="BY64" s="28"/>
+      <c r="BZ64" s="28"/>
+      <c r="CA64" s="28"/>
+      <c r="CB64" s="28"/>
+      <c r="CC64" s="28"/>
+      <c r="CD64" s="28"/>
+      <c r="CE64" s="28"/>
+      <c r="CF64" s="28"/>
+      <c r="CG64" s="28"/>
+      <c r="CH64" s="28"/>
+    </row>
+    <row r="65" spans="10:86" ht="16.5" customHeight="1">
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -10731,117 +10824,117 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
-      <c r="BV65" s="54"/>
-      <c r="BW65" s="54"/>
-      <c r="BX65" s="55"/>
-      <c r="BY65" s="55"/>
-      <c r="BZ65" s="55"/>
-      <c r="CA65" s="55"/>
-      <c r="CB65" s="56"/>
-      <c r="CC65" s="55"/>
-      <c r="CD65" s="54"/>
-      <c r="CE65" s="55"/>
-      <c r="CF65" s="54"/>
-      <c r="CG65" s="54"/>
-      <c r="CH65" s="54"/>
-    </row>
-    <row r="66" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="BV66" s="54"/>
-      <c r="BW66" s="54"/>
-      <c r="BX66" s="55"/>
-      <c r="BY66" s="55"/>
-      <c r="BZ66" s="55"/>
-      <c r="CA66" s="55"/>
-      <c r="CB66" s="55"/>
-      <c r="CC66" s="55"/>
-      <c r="CD66" s="55"/>
-      <c r="CE66" s="55"/>
-      <c r="CF66" s="54"/>
-      <c r="CG66" s="54"/>
-      <c r="CH66" s="54"/>
-    </row>
-    <row r="67" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="BV67" s="54"/>
-      <c r="BW67" s="54"/>
-      <c r="BX67" s="54"/>
-      <c r="BY67" s="54"/>
-      <c r="BZ67" s="54"/>
-      <c r="CA67" s="54"/>
-      <c r="CB67" s="54"/>
-      <c r="CC67" s="54"/>
-      <c r="CD67" s="54"/>
-      <c r="CE67" s="54"/>
-      <c r="CF67" s="54"/>
-      <c r="CG67" s="54"/>
-      <c r="CH67" s="54"/>
-    </row>
-    <row r="68" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV65" s="28"/>
+      <c r="BW65" s="28"/>
+      <c r="BX65" s="29"/>
+      <c r="BY65" s="29"/>
+      <c r="BZ65" s="29"/>
+      <c r="CA65" s="29"/>
+      <c r="CB65" s="30"/>
+      <c r="CC65" s="29"/>
+      <c r="CD65" s="28"/>
+      <c r="CE65" s="29"/>
+      <c r="CF65" s="28"/>
+      <c r="CG65" s="28"/>
+      <c r="CH65" s="28"/>
+    </row>
+    <row r="66" spans="10:86" ht="16.5" customHeight="1">
+      <c r="BV66" s="28"/>
+      <c r="BW66" s="28"/>
+      <c r="BX66" s="29"/>
+      <c r="BY66" s="29"/>
+      <c r="BZ66" s="29"/>
+      <c r="CA66" s="29"/>
+      <c r="CB66" s="29"/>
+      <c r="CC66" s="29"/>
+      <c r="CD66" s="29"/>
+      <c r="CE66" s="29"/>
+      <c r="CF66" s="28"/>
+      <c r="CG66" s="28"/>
+      <c r="CH66" s="28"/>
+    </row>
+    <row r="67" spans="10:86" ht="16.5" customHeight="1">
+      <c r="BV67" s="28"/>
+      <c r="BW67" s="28"/>
+      <c r="BX67" s="28"/>
+      <c r="BY67" s="28"/>
+      <c r="BZ67" s="28"/>
+      <c r="CA67" s="28"/>
+      <c r="CB67" s="28"/>
+      <c r="CC67" s="28"/>
+      <c r="CD67" s="28"/>
+      <c r="CE67" s="28"/>
+      <c r="CF67" s="28"/>
+      <c r="CG67" s="28"/>
+      <c r="CH67" s="28"/>
+    </row>
+    <row r="68" spans="10:86" ht="16.5" customHeight="1">
       <c r="K68" t="s">
         <v>19</v>
       </c>
-      <c r="BV68" s="54"/>
-      <c r="BW68" s="54"/>
-      <c r="BX68" s="54"/>
-      <c r="BY68" s="54"/>
-      <c r="BZ68" s="54"/>
-      <c r="CA68" s="54"/>
-      <c r="CB68" s="54"/>
-      <c r="CC68" s="54"/>
-      <c r="CD68" s="54"/>
-      <c r="CE68" s="54"/>
-      <c r="CF68" s="54"/>
-      <c r="CG68" s="54"/>
-      <c r="CH68" s="54"/>
-    </row>
-    <row r="69" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="BV69" s="54"/>
-      <c r="BW69" s="54"/>
-      <c r="BX69" s="54"/>
-      <c r="BY69" s="54"/>
-      <c r="BZ69" s="54"/>
-      <c r="CA69" s="54"/>
-      <c r="CB69" s="54"/>
-      <c r="CC69" s="54"/>
-      <c r="CD69" s="54"/>
-      <c r="CE69" s="54"/>
-      <c r="CF69" s="54"/>
-      <c r="CG69" s="54"/>
-      <c r="CH69" s="54"/>
-    </row>
-    <row r="70" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="BV70" s="54"/>
-      <c r="BW70" s="54"/>
-      <c r="BX70" s="54"/>
-      <c r="BY70" s="54"/>
-      <c r="BZ70" s="54"/>
-      <c r="CA70" s="54"/>
-      <c r="CB70" s="54"/>
-      <c r="CC70" s="54"/>
-      <c r="CD70" s="54"/>
-      <c r="CE70" s="54"/>
-      <c r="CF70" s="54"/>
-      <c r="CG70" s="54"/>
-      <c r="CH70" s="54"/>
-    </row>
-    <row r="71" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV68" s="28"/>
+      <c r="BW68" s="28"/>
+      <c r="BX68" s="28"/>
+      <c r="BY68" s="28"/>
+      <c r="BZ68" s="28"/>
+      <c r="CA68" s="28"/>
+      <c r="CB68" s="28"/>
+      <c r="CC68" s="28"/>
+      <c r="CD68" s="28"/>
+      <c r="CE68" s="28"/>
+      <c r="CF68" s="28"/>
+      <c r="CG68" s="28"/>
+      <c r="CH68" s="28"/>
+    </row>
+    <row r="69" spans="10:86" ht="16.5" customHeight="1">
+      <c r="BV69" s="28"/>
+      <c r="BW69" s="28"/>
+      <c r="BX69" s="28"/>
+      <c r="BY69" s="28"/>
+      <c r="BZ69" s="28"/>
+      <c r="CA69" s="28"/>
+      <c r="CB69" s="28"/>
+      <c r="CC69" s="28"/>
+      <c r="CD69" s="28"/>
+      <c r="CE69" s="28"/>
+      <c r="CF69" s="28"/>
+      <c r="CG69" s="28"/>
+      <c r="CH69" s="28"/>
+    </row>
+    <row r="70" spans="10:86" ht="16.5" customHeight="1">
+      <c r="BV70" s="28"/>
+      <c r="BW70" s="28"/>
+      <c r="BX70" s="28"/>
+      <c r="BY70" s="28"/>
+      <c r="BZ70" s="28"/>
+      <c r="CA70" s="28"/>
+      <c r="CB70" s="28"/>
+      <c r="CC70" s="28"/>
+      <c r="CD70" s="28"/>
+      <c r="CE70" s="28"/>
+      <c r="CF70" s="28"/>
+      <c r="CG70" s="28"/>
+      <c r="CH70" s="28"/>
+    </row>
+    <row r="71" spans="10:86" ht="16.5" customHeight="1">
       <c r="J71" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="BV71" s="54"/>
-      <c r="BW71" s="54"/>
-      <c r="BX71" s="54"/>
-      <c r="BY71" s="54"/>
-      <c r="BZ71" s="54"/>
-      <c r="CA71" s="54"/>
-      <c r="CB71" s="54"/>
-      <c r="CC71" s="54"/>
-      <c r="CD71" s="54"/>
-      <c r="CE71" s="54"/>
-      <c r="CF71" s="54"/>
-      <c r="CG71" s="54"/>
-      <c r="CH71" s="54"/>
-    </row>
-    <row r="72" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV71" s="28"/>
+      <c r="BW71" s="28"/>
+      <c r="BX71" s="28"/>
+      <c r="BY71" s="28"/>
+      <c r="BZ71" s="28"/>
+      <c r="CA71" s="28"/>
+      <c r="CB71" s="28"/>
+      <c r="CC71" s="28"/>
+      <c r="CD71" s="28"/>
+      <c r="CE71" s="28"/>
+      <c r="CF71" s="28"/>
+      <c r="CG71" s="28"/>
+      <c r="CH71" s="28"/>
+    </row>
+    <row r="72" spans="10:86" ht="16.5" customHeight="1">
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -10850,21 +10943,21 @@
       <c r="O72" s="2"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
-      <c r="BV72" s="54"/>
-      <c r="BW72" s="54"/>
-      <c r="BX72" s="54"/>
-      <c r="BY72" s="54"/>
-      <c r="BZ72" s="54"/>
-      <c r="CA72" s="54"/>
-      <c r="CB72" s="54"/>
-      <c r="CC72" s="54"/>
-      <c r="CD72" s="54"/>
-      <c r="CE72" s="54"/>
-      <c r="CF72" s="54"/>
-      <c r="CG72" s="54"/>
-      <c r="CH72" s="54"/>
-    </row>
-    <row r="73" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV72" s="28"/>
+      <c r="BW72" s="28"/>
+      <c r="BX72" s="28"/>
+      <c r="BY72" s="28"/>
+      <c r="BZ72" s="28"/>
+      <c r="CA72" s="28"/>
+      <c r="CB72" s="28"/>
+      <c r="CC72" s="28"/>
+      <c r="CD72" s="28"/>
+      <c r="CE72" s="28"/>
+      <c r="CF72" s="28"/>
+      <c r="CG72" s="28"/>
+      <c r="CH72" s="28"/>
+    </row>
+    <row r="73" spans="10:86" ht="16.5" customHeight="1">
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -10875,99 +10968,99 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
-      <c r="BV73" s="54"/>
-      <c r="BW73" s="54"/>
-      <c r="BX73" s="55"/>
-      <c r="BY73" s="55"/>
-      <c r="BZ73" s="55"/>
-      <c r="CA73" s="55"/>
-      <c r="CB73" s="56"/>
-      <c r="CC73" s="55"/>
-      <c r="CD73" s="54"/>
-      <c r="CE73" s="55"/>
-      <c r="CF73" s="54"/>
-      <c r="CG73" s="54"/>
-      <c r="CH73" s="54"/>
-    </row>
-    <row r="74" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="BV74" s="54"/>
-      <c r="BW74" s="54"/>
-      <c r="BX74" s="55"/>
-      <c r="BY74" s="55"/>
-      <c r="BZ74" s="55"/>
-      <c r="CA74" s="55"/>
-      <c r="CB74" s="55"/>
-      <c r="CC74" s="55"/>
-      <c r="CD74" s="55"/>
-      <c r="CE74" s="55"/>
-      <c r="CF74" s="54"/>
-      <c r="CG74" s="54"/>
-      <c r="CH74" s="54"/>
-    </row>
-    <row r="75" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="BV75" s="54"/>
-      <c r="BW75" s="54"/>
-      <c r="BX75" s="54"/>
-      <c r="BY75" s="54"/>
-      <c r="BZ75" s="54"/>
-      <c r="CA75" s="54"/>
-      <c r="CB75" s="54"/>
-      <c r="CC75" s="54"/>
-      <c r="CD75" s="54"/>
-      <c r="CE75" s="54"/>
-      <c r="CF75" s="54"/>
-      <c r="CG75" s="54"/>
-      <c r="CH75" s="54"/>
-    </row>
-    <row r="76" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV73" s="28"/>
+      <c r="BW73" s="28"/>
+      <c r="BX73" s="29"/>
+      <c r="BY73" s="29"/>
+      <c r="BZ73" s="29"/>
+      <c r="CA73" s="29"/>
+      <c r="CB73" s="30"/>
+      <c r="CC73" s="29"/>
+      <c r="CD73" s="28"/>
+      <c r="CE73" s="29"/>
+      <c r="CF73" s="28"/>
+      <c r="CG73" s="28"/>
+      <c r="CH73" s="28"/>
+    </row>
+    <row r="74" spans="10:86" ht="16.5" customHeight="1">
+      <c r="BV74" s="28"/>
+      <c r="BW74" s="28"/>
+      <c r="BX74" s="29"/>
+      <c r="BY74" s="29"/>
+      <c r="BZ74" s="29"/>
+      <c r="CA74" s="29"/>
+      <c r="CB74" s="29"/>
+      <c r="CC74" s="29"/>
+      <c r="CD74" s="29"/>
+      <c r="CE74" s="29"/>
+      <c r="CF74" s="28"/>
+      <c r="CG74" s="28"/>
+      <c r="CH74" s="28"/>
+    </row>
+    <row r="75" spans="10:86" ht="16.5" customHeight="1">
+      <c r="BV75" s="28"/>
+      <c r="BW75" s="28"/>
+      <c r="BX75" s="28"/>
+      <c r="BY75" s="28"/>
+      <c r="BZ75" s="28"/>
+      <c r="CA75" s="28"/>
+      <c r="CB75" s="28"/>
+      <c r="CC75" s="28"/>
+      <c r="CD75" s="28"/>
+      <c r="CE75" s="28"/>
+      <c r="CF75" s="28"/>
+      <c r="CG75" s="28"/>
+      <c r="CH75" s="28"/>
+    </row>
+    <row r="76" spans="10:86" ht="16.5" customHeight="1">
       <c r="K76" t="s">
         <v>49</v>
       </c>
-      <c r="BV76" s="54"/>
-      <c r="BW76" s="54"/>
-      <c r="BX76" s="54"/>
-      <c r="BY76" s="54"/>
-      <c r="BZ76" s="54"/>
-      <c r="CA76" s="54"/>
-      <c r="CB76" s="54"/>
-      <c r="CC76" s="54"/>
-      <c r="CD76" s="54"/>
-      <c r="CE76" s="54"/>
-      <c r="CF76" s="54"/>
-      <c r="CG76" s="54"/>
-      <c r="CH76" s="54"/>
-    </row>
-    <row r="77" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="BV77" s="54"/>
-      <c r="BW77" s="54"/>
-      <c r="BX77" s="54"/>
-      <c r="BY77" s="54"/>
-      <c r="BZ77" s="54"/>
-      <c r="CA77" s="54"/>
-      <c r="CB77" s="54"/>
-      <c r="CC77" s="54"/>
-      <c r="CD77" s="54"/>
-      <c r="CE77" s="54"/>
-      <c r="CF77" s="54"/>
-      <c r="CG77" s="54"/>
-      <c r="CH77" s="54"/>
-    </row>
-    <row r="78" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="BV78" s="54"/>
-      <c r="BW78" s="54"/>
-      <c r="BX78" s="54"/>
-      <c r="BY78" s="54"/>
-      <c r="BZ78" s="54"/>
-      <c r="CA78" s="54"/>
-      <c r="CB78" s="54"/>
-      <c r="CC78" s="54"/>
-      <c r="CD78" s="54"/>
-      <c r="CE78" s="54"/>
-      <c r="CF78" s="54"/>
-      <c r="CG78" s="54"/>
-      <c r="CH78" s="54"/>
-    </row>
-    <row r="79" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV76" s="28"/>
+      <c r="BW76" s="28"/>
+      <c r="BX76" s="28"/>
+      <c r="BY76" s="28"/>
+      <c r="BZ76" s="28"/>
+      <c r="CA76" s="28"/>
+      <c r="CB76" s="28"/>
+      <c r="CC76" s="28"/>
+      <c r="CD76" s="28"/>
+      <c r="CE76" s="28"/>
+      <c r="CF76" s="28"/>
+      <c r="CG76" s="28"/>
+      <c r="CH76" s="28"/>
+    </row>
+    <row r="77" spans="10:86" ht="16.5" customHeight="1">
+      <c r="BV77" s="28"/>
+      <c r="BW77" s="28"/>
+      <c r="BX77" s="28"/>
+      <c r="BY77" s="28"/>
+      <c r="BZ77" s="28"/>
+      <c r="CA77" s="28"/>
+      <c r="CB77" s="28"/>
+      <c r="CC77" s="28"/>
+      <c r="CD77" s="28"/>
+      <c r="CE77" s="28"/>
+      <c r="CF77" s="28"/>
+      <c r="CG77" s="28"/>
+      <c r="CH77" s="28"/>
+    </row>
+    <row r="78" spans="10:86" ht="16.5" customHeight="1">
+      <c r="BV78" s="28"/>
+      <c r="BW78" s="28"/>
+      <c r="BX78" s="28"/>
+      <c r="BY78" s="28"/>
+      <c r="BZ78" s="28"/>
+      <c r="CA78" s="28"/>
+      <c r="CB78" s="28"/>
+      <c r="CC78" s="28"/>
+      <c r="CD78" s="28"/>
+      <c r="CE78" s="28"/>
+      <c r="CF78" s="28"/>
+      <c r="CG78" s="28"/>
+      <c r="CH78" s="28"/>
+    </row>
+    <row r="79" spans="10:86" ht="16.5" customHeight="1">
       <c r="J79" t="s">
         <v>5</v>
       </c>
@@ -10977,21 +11070,21 @@
       <c r="AS79" t="s">
         <v>130</v>
       </c>
-      <c r="BV79" s="54"/>
-      <c r="BW79" s="54"/>
-      <c r="BX79" s="54"/>
-      <c r="BY79" s="54"/>
-      <c r="BZ79" s="54"/>
-      <c r="CA79" s="54"/>
-      <c r="CB79" s="54"/>
-      <c r="CC79" s="54"/>
-      <c r="CD79" s="54"/>
-      <c r="CE79" s="54"/>
-      <c r="CF79" s="54"/>
-      <c r="CG79" s="54"/>
-      <c r="CH79" s="54"/>
-    </row>
-    <row r="80" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV79" s="28"/>
+      <c r="BW79" s="28"/>
+      <c r="BX79" s="28"/>
+      <c r="BY79" s="28"/>
+      <c r="BZ79" s="28"/>
+      <c r="CA79" s="28"/>
+      <c r="CB79" s="28"/>
+      <c r="CC79" s="28"/>
+      <c r="CD79" s="28"/>
+      <c r="CE79" s="28"/>
+      <c r="CF79" s="28"/>
+      <c r="CG79" s="28"/>
+      <c r="CH79" s="28"/>
+    </row>
+    <row r="80" spans="10:86" ht="16.5" customHeight="1">
       <c r="J80" s="1" t="s">
         <v>1</v>
       </c>
@@ -11039,21 +11132,21 @@
       <c r="AJ80" s="1">
         <v>0</v>
       </c>
-      <c r="BV80" s="54"/>
-      <c r="BW80" s="54"/>
-      <c r="BX80" s="54"/>
-      <c r="BY80" s="54"/>
-      <c r="BZ80" s="54"/>
-      <c r="CA80" s="54"/>
-      <c r="CB80" s="54"/>
-      <c r="CC80" s="54"/>
-      <c r="CD80" s="54"/>
-      <c r="CE80" s="54"/>
-      <c r="CF80" s="54"/>
-      <c r="CG80" s="54"/>
-      <c r="CH80" s="54"/>
-    </row>
-    <row r="81" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV80" s="28"/>
+      <c r="BW80" s="28"/>
+      <c r="BX80" s="28"/>
+      <c r="BY80" s="28"/>
+      <c r="BZ80" s="28"/>
+      <c r="CA80" s="28"/>
+      <c r="CB80" s="28"/>
+      <c r="CC80" s="28"/>
+      <c r="CD80" s="28"/>
+      <c r="CE80" s="28"/>
+      <c r="CF80" s="28"/>
+      <c r="CG80" s="28"/>
+      <c r="CH80" s="28"/>
+    </row>
+    <row r="81" spans="10:86" ht="16.5" customHeight="1">
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -11070,51 +11163,51 @@
       <c r="AH81" s="1"/>
       <c r="AI81" s="1"/>
       <c r="AJ81" s="1"/>
-      <c r="BV81" s="54"/>
-      <c r="BW81" s="54"/>
-      <c r="BX81" s="55"/>
-      <c r="BY81" s="55"/>
-      <c r="BZ81" s="55"/>
-      <c r="CA81" s="55"/>
-      <c r="CB81" s="56"/>
-      <c r="CC81" s="55"/>
-      <c r="CD81" s="54"/>
-      <c r="CE81" s="55"/>
-      <c r="CF81" s="54"/>
-      <c r="CG81" s="54"/>
-      <c r="CH81" s="54"/>
-    </row>
-    <row r="82" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="BV82" s="54"/>
-      <c r="BW82" s="54"/>
-      <c r="BX82" s="55"/>
-      <c r="BY82" s="55"/>
-      <c r="BZ82" s="55"/>
-      <c r="CA82" s="55"/>
-      <c r="CB82" s="55"/>
-      <c r="CC82" s="55"/>
-      <c r="CD82" s="55"/>
-      <c r="CE82" s="55"/>
-      <c r="CF82" s="54"/>
-      <c r="CG82" s="54"/>
-      <c r="CH82" s="54"/>
-    </row>
-    <row r="83" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="BV83" s="54"/>
-      <c r="BW83" s="54"/>
-      <c r="BX83" s="54"/>
-      <c r="BY83" s="54"/>
-      <c r="BZ83" s="54"/>
-      <c r="CA83" s="54"/>
-      <c r="CB83" s="54"/>
-      <c r="CC83" s="54"/>
-      <c r="CD83" s="54"/>
-      <c r="CE83" s="54"/>
-      <c r="CF83" s="54"/>
-      <c r="CG83" s="54"/>
-      <c r="CH83" s="54"/>
-    </row>
-    <row r="84" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV81" s="28"/>
+      <c r="BW81" s="28"/>
+      <c r="BX81" s="29"/>
+      <c r="BY81" s="29"/>
+      <c r="BZ81" s="29"/>
+      <c r="CA81" s="29"/>
+      <c r="CB81" s="30"/>
+      <c r="CC81" s="29"/>
+      <c r="CD81" s="28"/>
+      <c r="CE81" s="29"/>
+      <c r="CF81" s="28"/>
+      <c r="CG81" s="28"/>
+      <c r="CH81" s="28"/>
+    </row>
+    <row r="82" spans="10:86" ht="16.5" customHeight="1">
+      <c r="BV82" s="28"/>
+      <c r="BW82" s="28"/>
+      <c r="BX82" s="29"/>
+      <c r="BY82" s="29"/>
+      <c r="BZ82" s="29"/>
+      <c r="CA82" s="29"/>
+      <c r="CB82" s="29"/>
+      <c r="CC82" s="29"/>
+      <c r="CD82" s="29"/>
+      <c r="CE82" s="29"/>
+      <c r="CF82" s="28"/>
+      <c r="CG82" s="28"/>
+      <c r="CH82" s="28"/>
+    </row>
+    <row r="83" spans="10:86" ht="16.5" customHeight="1">
+      <c r="BV83" s="28"/>
+      <c r="BW83" s="28"/>
+      <c r="BX83" s="28"/>
+      <c r="BY83" s="28"/>
+      <c r="BZ83" s="28"/>
+      <c r="CA83" s="28"/>
+      <c r="CB83" s="28"/>
+      <c r="CC83" s="28"/>
+      <c r="CD83" s="28"/>
+      <c r="CE83" s="28"/>
+      <c r="CF83" s="28"/>
+      <c r="CG83" s="28"/>
+      <c r="CH83" s="28"/>
+    </row>
+    <row r="84" spans="10:86" ht="16.5" customHeight="1">
       <c r="K84" t="s">
         <v>19</v>
       </c>
@@ -11124,21 +11217,21 @@
       <c r="AP84" t="s">
         <v>56</v>
       </c>
-      <c r="BV84" s="54"/>
-      <c r="BW84" s="54"/>
-      <c r="BX84" s="54"/>
-      <c r="BY84" s="54"/>
-      <c r="BZ84" s="54"/>
-      <c r="CA84" s="54"/>
-      <c r="CB84" s="54"/>
-      <c r="CC84" s="54"/>
-      <c r="CD84" s="54"/>
-      <c r="CE84" s="54"/>
-      <c r="CF84" s="54"/>
-      <c r="CG84" s="54"/>
-      <c r="CH84" s="54"/>
-    </row>
-    <row r="87" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="BV84" s="28"/>
+      <c r="BW84" s="28"/>
+      <c r="BX84" s="28"/>
+      <c r="BY84" s="28"/>
+      <c r="BZ84" s="28"/>
+      <c r="CA84" s="28"/>
+      <c r="CB84" s="28"/>
+      <c r="CC84" s="28"/>
+      <c r="CD84" s="28"/>
+      <c r="CE84" s="28"/>
+      <c r="CF84" s="28"/>
+      <c r="CG84" s="28"/>
+      <c r="CH84" s="28"/>
+    </row>
+    <row r="87" spans="10:86" ht="16.5" customHeight="1">
       <c r="J87" t="s">
         <v>132</v>
       </c>
@@ -11146,7 +11239,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="88" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="10:86" ht="16.5" customHeight="1">
       <c r="J88" s="1" t="s">
         <v>1</v>
       </c>
@@ -11179,7 +11272,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="10:86" ht="16.5" customHeight="1">
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -11255,7 +11348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="10:86" ht="16.5" customHeight="1">
       <c r="AC90" s="1"/>
       <c r="AD90" s="17"/>
       <c r="AE90" s="1"/>
@@ -11281,12 +11374,12 @@
       <c r="BJ90" s="1"/>
       <c r="BK90" s="1"/>
     </row>
-    <row r="93" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="10:86" ht="16.5" customHeight="1">
       <c r="AD93" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="10:86" ht="16.5" customHeight="1">
       <c r="J95" s="26"/>
       <c r="K95" s="26"/>
       <c r="L95" s="26"/>
@@ -11296,30 +11389,30 @@
       <c r="P95" s="26"/>
       <c r="Q95" s="26"/>
     </row>
-    <row r="96" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="J96" s="53"/>
+    <row r="96" spans="10:86" ht="16.5" customHeight="1">
+      <c r="J96" s="27"/>
       <c r="K96" t="s">
         <v>50</v>
       </c>
-      <c r="L96" s="53"/>
-      <c r="M96" s="53"/>
-      <c r="N96" s="53"/>
-      <c r="O96" s="56"/>
-      <c r="P96" s="55"/>
-      <c r="Q96" s="55"/>
+      <c r="L96" s="27"/>
+      <c r="M96" s="27"/>
+      <c r="N96" s="27"/>
+      <c r="O96" s="30"/>
+      <c r="P96" s="29"/>
+      <c r="Q96" s="29"/>
       <c r="AC96" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="J97" s="53"/>
-      <c r="K97" s="53"/>
-      <c r="L97" s="53"/>
-      <c r="M97" s="53"/>
-      <c r="N97" s="53"/>
-      <c r="O97" s="53"/>
-      <c r="P97" s="53"/>
-      <c r="Q97" s="53"/>
+    <row r="97" spans="3:36" ht="16.5" customHeight="1">
+      <c r="J97" s="27"/>
+      <c r="K97" s="27"/>
+      <c r="L97" s="27"/>
+      <c r="M97" s="27"/>
+      <c r="N97" s="27"/>
+      <c r="O97" s="27"/>
+      <c r="P97" s="27"/>
+      <c r="Q97" s="27"/>
       <c r="AC97" s="1" t="s">
         <v>1</v>
       </c>
@@ -11343,7 +11436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="3:36" ht="16.5" customHeight="1">
       <c r="AC98" s="1"/>
       <c r="AD98" s="17"/>
       <c r="AE98" s="1"/>
@@ -11353,17 +11446,17 @@
       <c r="AI98" s="1"/>
       <c r="AJ98" s="1"/>
     </row>
-    <row r="100" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="3:36" ht="16.5" customHeight="1">
       <c r="C100" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="101" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="3:36" ht="16.5" customHeight="1">
       <c r="AD101" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="3:36" ht="16.5" customHeight="1">
       <c r="J104" t="s">
         <v>159</v>
       </c>
@@ -11371,7 +11464,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="105" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="3:36" ht="16.5" customHeight="1">
       <c r="J105" s="1" t="s">
         <v>1</v>
       </c>
@@ -11387,41 +11480,41 @@
       <c r="N105" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="O105" s="59">
+      <c r="O105" s="33">
         <v>0</v>
       </c>
-      <c r="P105" s="60">
+      <c r="P105" s="34">
         <v>0</v>
       </c>
-      <c r="Q105" s="60">
+      <c r="Q105" s="34">
         <v>0</v>
       </c>
-      <c r="AC105" s="60" t="s">
+      <c r="AC105" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="AD105" s="60" t="s">
+      <c r="AD105" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="AE105" s="60" t="s">
+      <c r="AE105" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="AF105" s="60" t="s">
+      <c r="AF105" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="AG105" s="60" t="s">
+      <c r="AG105" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="AH105" s="59">
+      <c r="AH105" s="33">
         <v>0</v>
       </c>
-      <c r="AI105" s="60">
+      <c r="AI105" s="34">
         <v>3</v>
       </c>
-      <c r="AJ105" s="60">
+      <c r="AJ105" s="34">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="3:36" ht="16.5" customHeight="1">
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -11462,8 +11555,9 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -11476,65 +11570,65 @@
       <selection pane="bottomLeft" activeCell="AV19" sqref="AV19:AW20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" ht="16.5" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:23" ht="16.5" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23" ht="16.5" customHeight="1">
       <c r="C4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" ht="16.5" customHeight="1">
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:23" ht="16.5" customHeight="1">
       <c r="W8" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23" ht="16.5" customHeight="1">
       <c r="W9" s="12"/>
     </row>
-    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23" ht="16.5" customHeight="1">
       <c r="W10" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23" ht="16.5" customHeight="1">
       <c r="W11" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:23" ht="16.5" customHeight="1">
       <c r="W12" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:23" ht="16.5" customHeight="1">
       <c r="W17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:23" ht="16.5" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:23" ht="16.5" customHeight="1">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:23" ht="16.5" customHeight="1">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -11549,7 +11643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:23" ht="16.5" customHeight="1">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -11557,7 +11651,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:23" ht="16.5" customHeight="1">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -11565,7 +11659,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="33" spans="5:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="5:17" ht="16.5" customHeight="1">
       <c r="E33" t="s">
         <v>10</v>
       </c>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A830451-469B-41C8-A39C-3567088A5F69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4D0051-B88B-46E1-A004-322A40E83A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15885" yWindow="3780" windowWidth="28800" windowHeight="13800" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="0" yWindow="380" windowWidth="19200" windowHeight="8800" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -1722,43 +1722,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>また、下段には、削除する場合に押下するSWと、削除しない場合に押下するSWの番号を、YとNの文字と共に表示させる。</t>
-    <rPh sb="3" eb="5">
-      <t>ゲダン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>トモ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>削除しない場合はSW4を押下することで、何もせず難易度設定画面へ移る。</t>
     <rPh sb="20" eb="21">
       <t>ナニ</t>
@@ -2017,6 +1980,43 @@
     </rPh>
     <rPh sb="41" eb="42">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、下段には、削除する場合に押下するSW1と、削除しない場合に押下するSW4の番号を、YESとNOの文字と共に表示させる。</t>
+    <rPh sb="3" eb="5">
+      <t>ゲダン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2549,54 +2549,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2625,6 +2577,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5935,8 +5935,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1277639" y="1277639"/>
-          <a:ext cx="2554773" cy="3194940"/>
+          <a:off x="1255227" y="1255227"/>
+          <a:ext cx="2509949" cy="3138911"/>
           <a:chOff x="1262231" y="1262231"/>
           <a:chExt cx="2523957" cy="3156420"/>
         </a:xfrm>
@@ -8586,77 +8586,77 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U100" sqref="U100"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S79" sqref="S79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="28" width="3.625" customWidth="1"/>
+    <col min="1" max="28" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="12"/>
       <c r="S19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
         <v>91</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="24"/>
       <c r="D21" t="s">
         <v>87</v>
@@ -8676,13 +8676,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="23"/>
       <c r="D22" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J23" s="25" t="s">
         <v>107</v>
       </c>
@@ -8690,152 +8690,152 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B24" s="57" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="61">
+      <c r="C24" s="42"/>
+      <c r="D24" s="45">
         <v>0</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="61">
+      <c r="E24" s="42"/>
+      <c r="F24" s="45">
         <v>0</v>
       </c>
-      <c r="G24" s="58"/>
-      <c r="H24" s="61">
+      <c r="G24" s="42"/>
+      <c r="H24" s="45">
         <v>0</v>
       </c>
-      <c r="I24" s="58"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="43" t="s">
+      <c r="I24" s="42"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="44"/>
-      <c r="N24" s="43">
+      <c r="M24" s="60"/>
+      <c r="N24" s="59">
         <v>5</v>
       </c>
-      <c r="O24" s="44"/>
-      <c r="P24" s="43">
+      <c r="O24" s="60"/>
+      <c r="P24" s="59">
         <v>8</v>
       </c>
-      <c r="Q24" s="47"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="48"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="Q24" s="63"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="43"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="64"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="12"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="53"/>
-    </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="51"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="65"/>
+    </row>
+    <row r="27" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="12"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="54"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="66"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="12"/>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="H28" s="41" t="s">
+      <c r="E28" s="57"/>
+      <c r="H28" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="I28" s="41"/>
-      <c r="L28" s="41" t="s">
+      <c r="I28" s="57"/>
+      <c r="L28" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="M28" s="41"/>
-      <c r="P28" s="41" t="s">
+      <c r="M28" s="57"/>
+      <c r="P28" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="Q28" s="41"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="Q28" s="57"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="12"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="12"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="12"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="12"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="12"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="12"/>
       <c r="D35" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="12"/>
       <c r="D38" t="s">
         <v>80</v>
@@ -8853,21 +8853,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="12"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="12"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="12"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
         <v>96</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
         <v>97</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
         <v>98</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
         <v>99</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" t="s">
         <v>104</v>
       </c>
@@ -8907,449 +8907,449 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C60" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D65" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D66" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D67" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D68" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D69" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D70" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E71" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E72" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E73" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D74" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D75" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E76" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D77" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D78" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D79" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D79" t="s">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D80" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="E80" t="s">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="F81" t="s">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F82" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="F82" t="s">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F83" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C83" t="s">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C84" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C84" t="s">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C85" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B86" s="12" t="s">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C87" t="s">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C88" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C89" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C88" t="s">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D90" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D89" t="s">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D91" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D90" t="s">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="12"/>
+      <c r="C94" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C95" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D96" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C97" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C98" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C99" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C103" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C104" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C105" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C106" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B107" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C108" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C110" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C111" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C112" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B92" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B93" s="12"/>
-      <c r="C93" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C94" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D95" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C96" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C97" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C98" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B101" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C102" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C103" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C104" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C105" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B106" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C107" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C108" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C109" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C110" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C111" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B112" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C113" t="s">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C114" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D114" t="s">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D115" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C116" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D117" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C115" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D116" t="s">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D118" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D117" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C118" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B119" s="12" t="s">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C119" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B120" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C121" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C122" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C123" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D124" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C125" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C126" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B127" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C120" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C121" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C122" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D123" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C124" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C125" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C126" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B127" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C128" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D129" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C130" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="12"/>
       <c r="B133" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C134" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C136" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D137" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C138" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D139" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C141" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
@@ -9366,7 +9366,7 @@
       <c r="V145" s="9"/>
       <c r="W145" s="9"/>
     </row>
-    <row r="146" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
@@ -9383,7 +9383,7 @@
       <c r="V146" s="8"/>
       <c r="W146" s="9"/>
     </row>
-    <row r="147" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
@@ -9400,7 +9400,7 @@
       <c r="V147" s="9"/>
       <c r="W147" s="8"/>
     </row>
-    <row r="148" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
@@ -9417,7 +9417,7 @@
       <c r="V148" s="8"/>
       <c r="W148" s="9"/>
     </row>
-    <row r="149" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7"/>
@@ -9434,7 +9434,7 @@
       <c r="V149" s="9"/>
       <c r="W149" s="10"/>
     </row>
-    <row r="150" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" s="9"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
@@ -9451,7 +9451,7 @@
       <c r="V150" s="8"/>
       <c r="W150" s="9"/>
     </row>
-    <row r="151" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
@@ -9468,7 +9468,7 @@
       <c r="V151" s="9"/>
       <c r="W151" s="8"/>
     </row>
-    <row r="152" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" s="7"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
@@ -9485,7 +9485,7 @@
       <c r="V152" s="8"/>
       <c r="W152" s="7"/>
     </row>
-    <row r="153" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" t="s">
         <v>118</v>
       </c>
@@ -9496,23 +9496,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="154" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B154" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="J26:K27"/>
     <mergeCell ref="P28:Q29"/>
     <mergeCell ref="L28:M29"/>
     <mergeCell ref="H28:I29"/>
@@ -9523,6 +9513,16 @@
     <mergeCell ref="N26:O27"/>
     <mergeCell ref="P26:Q27"/>
     <mergeCell ref="L24:M25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="J26:K27"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9540,14 +9540,14 @@
       <selection pane="bottomLeft" activeCell="D17" sqref="D17:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="O3" s="13"/>
       <c r="P3" t="s">
         <v>143</v>
@@ -9565,7 +9565,7 @@
       <c r="AN3" s="13"/>
       <c r="AO3" s="13"/>
     </row>
-    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="AO4" s="13"/>
     </row>
-    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
         <v>133</v>
       </c>
@@ -9630,7 +9630,7 @@
       <c r="AI5" s="27"/>
       <c r="AJ5" s="28"/>
     </row>
-    <row r="6" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -9665,7 +9665,7 @@
       <c r="AI6" s="32"/>
       <c r="AJ6" s="31"/>
     </row>
-    <row r="7" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P7" s="29"/>
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
@@ -9682,7 +9682,7 @@
       <c r="AI7" s="30"/>
       <c r="AJ7" s="34"/>
     </row>
-    <row r="8" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P8" s="29"/>
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
@@ -9699,7 +9699,7 @@
       <c r="AI8" s="32"/>
       <c r="AJ8" s="31"/>
     </row>
-    <row r="9" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P9" s="29"/>
       <c r="Q9" s="30"/>
       <c r="R9" s="30"/>
@@ -9716,7 +9716,7 @@
       <c r="AI9" s="30"/>
       <c r="AJ9" s="39"/>
     </row>
-    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P10" s="29"/>
       <c r="Q10" s="32"/>
       <c r="R10" s="32"/>
@@ -9733,7 +9733,7 @@
       <c r="AI10" s="32"/>
       <c r="AJ10" s="31"/>
     </row>
-    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P11" s="33"/>
       <c r="Q11" s="32"/>
       <c r="R11" s="32"/>
@@ -9750,7 +9750,7 @@
       <c r="AI11" s="30"/>
       <c r="AJ11" s="34"/>
     </row>
-    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P12" s="35"/>
       <c r="Q12" s="36"/>
       <c r="R12" s="36"/>
@@ -9767,7 +9767,7 @@
       <c r="AI12" s="36"/>
       <c r="AJ12" s="37"/>
     </row>
-    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" t="s">
         <v>53</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="1" t="s">
         <v>133</v>
       </c>
@@ -9810,7 +9810,7 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
@@ -9840,18 +9840,18 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
     </row>
-    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Y20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P23" s="11"/>
       <c r="X23" s="19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
@@ -9861,7 +9861,7 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
     </row>
-    <row r="25" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
@@ -9873,7 +9873,7 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
     </row>
-    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -9886,7 +9886,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -9896,7 +9896,7 @@
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
     </row>
-    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X31" t="s">
         <v>7</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:59" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -9964,7 +9964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D33" s="13"/>
       <c r="E33" t="s">
         <v>146</v>
@@ -9992,7 +9992,7 @@
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
     </row>
-    <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -10011,7 +10011,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -10021,7 +10021,7 @@
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
     </row>
-    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X39" t="s">
         <v>137</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -10070,7 +10070,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -10154,7 +10154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AQ42" s="1"/>
       <c r="AR42" s="17"/>
       <c r="AS42" s="1"/>
@@ -10180,22 +10180,22 @@
       <c r="BX42" s="1"/>
       <c r="BY42" s="1"/>
     </row>
-    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="Y44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AR45" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X47" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:77" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X48" s="1" t="s">
         <v>1</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
@@ -10254,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AQ50" s="1"/>
       <c r="AR50" s="17"/>
       <c r="AS50" s="1"/>
@@ -10264,12 +10264,12 @@
       <c r="AW50" s="1"/>
       <c r="AX50" s="1"/>
     </row>
-    <row r="53" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AR53" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D56" t="s">
         <v>60</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D57" s="1" t="s">
         <v>133</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
@@ -10370,17 +10370,17 @@
       <c r="AW58" s="1"/>
       <c r="AX58" s="1"/>
     </row>
-    <row r="61" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E61" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="4:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D65" s="1" t="s">
         <v>133</v>
       </c>
@@ -10404,7 +10404,7 @@
       </c>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
@@ -10424,17 +10424,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E69" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D72" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D73" s="1" t="s">
         <v>133</v>
       </c>
@@ -10458,7 +10458,7 @@
       </c>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="4:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
@@ -10495,65 +10495,65 @@
       <selection pane="bottomLeft" activeCell="AV19" sqref="AV19:AW20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W8" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W9" s="12"/>
     </row>
-    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W10" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W12" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -10568,7 +10568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -10576,7 +10576,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -10584,7 +10584,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="33" spans="5:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" t="s">
         <v>13</v>
       </c>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\hakoishi\Technical_training\PIC_Micro_Training\C\comp.train.whack-a-mole\資料\仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC711E2-6903-4435-952C-B12B39DE108B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0581C025-EE67-4033-9469-4EAEA2E71D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="13800" activeTab="1" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="19200" windowHeight="8800" activeTab="1" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -1591,7 +1591,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1688,13 +1688,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2080,6 +2073,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2108,54 +2149,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6233,8 +6226,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="419100" y="3352800"/>
-          <a:ext cx="5657851" cy="20116800"/>
+          <a:off x="412750" y="3302000"/>
+          <a:ext cx="5572126" cy="19812000"/>
           <a:chOff x="418353" y="3346824"/>
           <a:chExt cx="5647766" cy="20080941"/>
         </a:xfrm>
@@ -6423,8 +6416,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1277639" y="1277639"/>
-          <a:ext cx="2554773" cy="3194940"/>
+          <a:off x="1255227" y="1255227"/>
+          <a:ext cx="2509949" cy="3138911"/>
           <a:chOff x="1262231" y="1262231"/>
           <a:chExt cx="2523957" cy="3156420"/>
         </a:xfrm>
@@ -9099,73 +9092,73 @@
       <selection activeCell="AE93" sqref="AE93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="28" width="3.625" customWidth="1"/>
+    <col min="1" max="28" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="12"/>
       <c r="S19" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
         <v>86</v>
       </c>
@@ -9176,7 +9169,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="24"/>
       <c r="D21" t="s">
         <v>82</v>
@@ -9185,13 +9178,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="23"/>
       <c r="D22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="20.25" thickBot="1">
+    <row r="23" spans="1:20" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J23" s="25" t="s">
         <v>102</v>
       </c>
@@ -9199,152 +9192,152 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
-      <c r="B24" s="36" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="40">
+      <c r="C24" s="53"/>
+      <c r="D24" s="56">
         <v>0</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="40">
+      <c r="E24" s="53"/>
+      <c r="F24" s="56">
         <v>0</v>
       </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="40">
+      <c r="G24" s="53"/>
+      <c r="H24" s="56">
         <v>0</v>
       </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="54" t="s">
+      <c r="I24" s="53"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="55"/>
-      <c r="N24" s="54">
+      <c r="M24" s="39"/>
+      <c r="N24" s="38">
         <v>5</v>
       </c>
-      <c r="O24" s="55"/>
-      <c r="P24" s="54">
+      <c r="O24" s="39"/>
+      <c r="P24" s="38">
         <v>8</v>
       </c>
-      <c r="Q24" s="58"/>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="59"/>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="Q24" s="42"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="43"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="12"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="60"/>
-    </row>
-    <row r="27" spans="1:20" ht="19.5" thickBot="1">
+      <c r="B26" s="50"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="48"/>
+    </row>
+    <row r="27" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="12"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="61"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="B27" s="51"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="49"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="12"/>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="H28" s="52" t="s">
+      <c r="E28" s="36"/>
+      <c r="H28" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="52"/>
-      <c r="L28" s="52" t="s">
+      <c r="I28" s="36"/>
+      <c r="L28" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="M28" s="52"/>
-      <c r="P28" s="52" t="s">
+      <c r="M28" s="36"/>
+      <c r="P28" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="Q28" s="52"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="Q28" s="36"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="12"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="53"/>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="12"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="12"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="12"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="12"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="12"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="12"/>
       <c r="D35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="12"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="12"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="12"/>
       <c r="D38" t="s">
         <v>75</v>
@@ -9362,21 +9355,21 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="12"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="12"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="12"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
         <v>91</v>
       </c>
@@ -9384,7 +9377,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
         <v>92</v>
       </c>
@@ -9392,7 +9385,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
         <v>93</v>
       </c>
@@ -9400,7 +9393,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
         <v>94</v>
       </c>
@@ -9408,7 +9401,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" t="s">
         <v>99</v>
       </c>
@@ -9416,278 +9409,278 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C60" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C65" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="2:5">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:5">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C67" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="2:5">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D68" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="2:5">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D69" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="2:5">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D70" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="2:5">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D71" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="2:5">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D72" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="2:5">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D73" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E74" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="2:5">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E75" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="2:5">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E76" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="2:5">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D77" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="2:5">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D78" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="2:5">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E79" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="80" spans="2:5">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D80" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D81" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D82" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E83" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F84" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F85" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C86" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C87" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D88" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C90" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D91" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C92" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C93" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="12"/>
       <c r="B96" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C99" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D100" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C101" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="D102" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="C104" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -9704,7 +9697,7 @@
       <c r="V108" s="9"/>
       <c r="W108" s="9"/>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -9721,7 +9714,7 @@
       <c r="V109" s="8"/>
       <c r="W109" s="9"/>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -9738,7 +9731,7 @@
       <c r="V110" s="9"/>
       <c r="W110" s="8"/>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -9755,7 +9748,7 @@
       <c r="V111" s="8"/>
       <c r="W111" s="9"/>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -9772,7 +9765,7 @@
       <c r="V112" s="9"/>
       <c r="W112" s="10"/>
     </row>
-    <row r="113" spans="2:23">
+    <row r="113" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="9"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -9789,7 +9782,7 @@
       <c r="V113" s="8"/>
       <c r="W113" s="9"/>
     </row>
-    <row r="114" spans="2:23">
+    <row r="114" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -9806,7 +9799,7 @@
       <c r="V114" s="9"/>
       <c r="W114" s="8"/>
     </row>
-    <row r="115" spans="2:23">
+    <row r="115" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -9823,7 +9816,7 @@
       <c r="V115" s="8"/>
       <c r="W115" s="7"/>
     </row>
-    <row r="116" spans="2:23">
+    <row r="116" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" t="s">
         <v>114</v>
       </c>
@@ -9834,13 +9827,23 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="2:23">
+    <row r="117" spans="2:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:I25"/>
+    <mergeCell ref="J24:K25"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="J26:K27"/>
     <mergeCell ref="P28:Q29"/>
     <mergeCell ref="L28:M29"/>
     <mergeCell ref="H28:I29"/>
@@ -9851,16 +9854,6 @@
     <mergeCell ref="N26:O27"/>
     <mergeCell ref="P26:Q27"/>
     <mergeCell ref="L24:M25"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="F26:G27"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="J26:K27"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="J24:K25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9873,19 +9866,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928ACB59-DB4E-4084-86B9-85978878B755}">
   <dimension ref="A1:CH106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN99" sqref="AN99"/>
+      <selection pane="bottomLeft" activeCell="BE46" sqref="BE46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:41" ht="16.5" customHeight="1">
+    <row r="1" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="16.5" customHeight="1">
+    <row r="3" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="O3" s="13"/>
       <c r="P3" s="28"/>
       <c r="Q3" s="28"/>
@@ -9914,7 +9907,7 @@
       <c r="AN3" s="13"/>
       <c r="AO3" s="13"/>
     </row>
-    <row r="4" spans="1:41" ht="16.5" customHeight="1">
+    <row r="4" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -9943,7 +9936,7 @@
       <c r="AK4" s="28"/>
       <c r="AO4" s="13"/>
     </row>
-    <row r="5" spans="1:41" ht="16.5" customHeight="1">
+    <row r="5" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="1" t="s">
         <v>129</v>
       </c>
@@ -9989,7 +9982,7 @@
       <c r="AJ5" s="28"/>
       <c r="AK5" s="28"/>
     </row>
-    <row r="6" spans="1:41" ht="16.5" customHeight="1">
+    <row r="6" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="1" t="s">
         <v>142</v>
       </c>
@@ -10031,7 +10024,7 @@
       <c r="AJ6" s="28"/>
       <c r="AK6" s="28"/>
     </row>
-    <row r="7" spans="1:41" ht="16.5" customHeight="1">
+    <row r="7" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P7" s="28"/>
       <c r="Q7" s="28"/>
       <c r="R7" s="28"/>
@@ -10055,7 +10048,7 @@
       <c r="AJ7" s="28"/>
       <c r="AK7" s="28"/>
     </row>
-    <row r="8" spans="1:41" ht="16.5" customHeight="1">
+    <row r="8" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P8" s="28"/>
       <c r="Q8" s="28"/>
       <c r="R8" s="28"/>
@@ -10079,7 +10072,7 @@
       <c r="AJ8" s="28"/>
       <c r="AK8" s="28"/>
     </row>
-    <row r="9" spans="1:41" ht="16.5" customHeight="1">
+    <row r="9" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P9" s="28"/>
       <c r="Q9" s="28"/>
       <c r="R9" s="28"/>
@@ -10103,7 +10096,7 @@
       <c r="AJ9" s="32"/>
       <c r="AK9" s="28"/>
     </row>
-    <row r="10" spans="1:41" ht="16.5" customHeight="1">
+    <row r="10" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P10" s="28"/>
       <c r="Q10" s="28"/>
       <c r="R10" s="28"/>
@@ -10127,7 +10120,7 @@
       <c r="AJ10" s="28"/>
       <c r="AK10" s="28"/>
     </row>
-    <row r="11" spans="1:41" ht="16.5" customHeight="1">
+    <row r="11" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P11" s="28"/>
       <c r="Q11" s="28"/>
       <c r="R11" s="28"/>
@@ -10151,7 +10144,7 @@
       <c r="AJ11" s="28"/>
       <c r="AK11" s="28"/>
     </row>
-    <row r="12" spans="1:41" ht="16.5" customHeight="1">
+    <row r="12" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P12" s="28"/>
       <c r="Q12" s="28"/>
       <c r="R12" s="28"/>
@@ -10175,7 +10168,7 @@
       <c r="AJ12" s="28"/>
       <c r="AK12" s="28"/>
     </row>
-    <row r="15" spans="1:41" ht="16.5" customHeight="1">
+    <row r="15" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J15" t="s">
         <v>146</v>
       </c>
@@ -10186,7 +10179,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="16.5" customHeight="1">
+    <row r="16" spans="1:41" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J16" s="1" t="s">
         <v>129</v>
       </c>
@@ -10232,7 +10225,7 @@
       </c>
       <c r="AO16" s="1"/>
     </row>
-    <row r="17" spans="10:61" ht="16.5" customHeight="1">
+    <row r="17" spans="10:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J17" s="1" t="s">
         <v>142</v>
       </c>
@@ -10273,7 +10266,7 @@
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
     </row>
-    <row r="20" spans="10:61" ht="16.5" customHeight="1">
+    <row r="20" spans="10:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="M20" t="s">
         <v>162</v>
       </c>
@@ -10288,7 +10281,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="10:61" ht="16.5" customHeight="1">
+    <row r="23" spans="10:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L23" t="s">
         <v>148</v>
       </c>
@@ -10300,7 +10293,7 @@
       </c>
       <c r="BI23" s="11"/>
     </row>
-    <row r="24" spans="10:61" ht="16.5" customHeight="1">
+    <row r="24" spans="10:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L24" s="1" t="s">
         <v>129</v>
       </c>
@@ -10346,7 +10339,7 @@
       </c>
       <c r="AQ24" s="1"/>
     </row>
-    <row r="25" spans="10:61" ht="16.5" customHeight="1">
+    <row r="25" spans="10:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="L25" s="1" t="s">
         <v>142</v>
       </c>
@@ -10387,12 +10380,12 @@
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
     </row>
-    <row r="31" spans="10:61" ht="16.5" customHeight="1">
+    <row r="31" spans="10:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K31" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="10:37" ht="16.5" customHeight="1">
+    <row r="36" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J36" t="s">
         <v>149</v>
       </c>
@@ -10403,7 +10396,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="10:37" ht="16.5" customHeight="1">
+    <row r="37" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J37" s="1" t="s">
         <v>143</v>
       </c>
@@ -10441,7 +10434,7 @@
       <c r="AJ37" s="7"/>
       <c r="AK37" s="1"/>
     </row>
-    <row r="38" spans="10:37" ht="16.5" customHeight="1">
+    <row r="38" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
@@ -10482,7 +10475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="10:37" ht="16.5" customHeight="1">
+    <row r="40" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="P40" s="35" t="s">
         <v>162</v>
       </c>
@@ -10490,7 +10483,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="10:37" ht="16.5" customHeight="1">
+    <row r="41" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
@@ -10504,7 +10497,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="10:37" ht="16.5" customHeight="1">
+    <row r="42" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
@@ -10514,7 +10507,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="10:37" ht="16.5" customHeight="1">
+    <row r="43" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="T43" s="1" t="s">
         <v>3</v>
       </c>
@@ -10532,7 +10525,7 @@
       <c r="Z43" s="7"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="10:37" ht="16.5" customHeight="1">
+    <row r="44" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1" t="s">
@@ -10552,7 +10545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="10:37" ht="16.5" customHeight="1">
+    <row r="45" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
@@ -10562,7 +10555,7 @@
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
     </row>
-    <row r="46" spans="10:37" ht="16.5" customHeight="1">
+    <row r="46" spans="10:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
@@ -10572,7 +10565,7 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
     </row>
-    <row r="49" spans="10:86" ht="16.5" customHeight="1">
+    <row r="49" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
@@ -10582,7 +10575,7 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
     </row>
-    <row r="50" spans="10:86" ht="16.5" customHeight="1">
+    <row r="50" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J50" s="13"/>
       <c r="K50" s="22" t="s">
         <v>138</v>
@@ -10597,7 +10590,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="10:86" ht="16.5" customHeight="1">
+    <row r="51" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="T51" s="1" t="s">
         <v>160</v>
       </c>
@@ -10619,7 +10612,7 @@
       </c>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="10:86" ht="16.5" customHeight="1">
+    <row r="52" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="T52" s="1" t="s">
         <v>151</v>
       </c>
@@ -10643,7 +10636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="10:86" ht="16.5" customHeight="1">
+    <row r="54" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="U54" t="s">
         <v>171</v>
       </c>
@@ -10651,7 +10644,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="10:86" ht="16.5" customHeight="1">
+    <row r="55" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="U55" t="s">
         <v>172</v>
       </c>
@@ -10659,7 +10652,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="10:86" ht="16.5" customHeight="1">
+    <row r="57" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="BR57" s="13"/>
       <c r="BS57" s="13"/>
       <c r="BT57" s="13"/>
@@ -10669,7 +10662,7 @@
       <c r="BX57" s="13"/>
       <c r="BY57" s="13"/>
     </row>
-    <row r="58" spans="10:86" ht="16.5" customHeight="1">
+    <row r="58" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="T58" t="s">
         <v>167</v>
       </c>
@@ -10685,7 +10678,7 @@
       <c r="BX58" s="13"/>
       <c r="BY58" s="13"/>
     </row>
-    <row r="59" spans="10:86" ht="16.5" customHeight="1">
+    <row r="59" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="T59" s="1" t="s">
         <v>143</v>
       </c>
@@ -10719,7 +10712,7 @@
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
     </row>
-    <row r="60" spans="10:86" ht="16.5" customHeight="1">
+    <row r="60" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1" t="s">
@@ -10757,7 +10750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="10:86" ht="16.5" customHeight="1">
+    <row r="62" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="BV62" s="28"/>
       <c r="BW62" s="28"/>
       <c r="BX62" s="28"/>
@@ -10772,7 +10765,7 @@
       <c r="CG62" s="28"/>
       <c r="CH62" s="28"/>
     </row>
-    <row r="63" spans="10:86" ht="16.5" customHeight="1">
+    <row r="63" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J63" s="19" t="s">
         <v>60</v>
       </c>
@@ -10790,7 +10783,7 @@
       <c r="CG63" s="28"/>
       <c r="CH63" s="28"/>
     </row>
-    <row r="64" spans="10:86" ht="16.5" customHeight="1">
+    <row r="64" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -10813,7 +10806,7 @@
       <c r="CG64" s="28"/>
       <c r="CH64" s="28"/>
     </row>
-    <row r="65" spans="10:86" ht="16.5" customHeight="1">
+    <row r="65" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -10838,7 +10831,7 @@
       <c r="CG65" s="28"/>
       <c r="CH65" s="28"/>
     </row>
-    <row r="66" spans="10:86" ht="16.5" customHeight="1">
+    <row r="66" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="BV66" s="28"/>
       <c r="BW66" s="28"/>
       <c r="BX66" s="29"/>
@@ -10853,7 +10846,7 @@
       <c r="CG66" s="28"/>
       <c r="CH66" s="28"/>
     </row>
-    <row r="67" spans="10:86" ht="16.5" customHeight="1">
+    <row r="67" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="BV67" s="28"/>
       <c r="BW67" s="28"/>
       <c r="BX67" s="28"/>
@@ -10868,7 +10861,7 @@
       <c r="CG67" s="28"/>
       <c r="CH67" s="28"/>
     </row>
-    <row r="68" spans="10:86" ht="16.5" customHeight="1">
+    <row r="68" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K68" t="s">
         <v>19</v>
       </c>
@@ -10886,7 +10879,7 @@
       <c r="CG68" s="28"/>
       <c r="CH68" s="28"/>
     </row>
-    <row r="69" spans="10:86" ht="16.5" customHeight="1">
+    <row r="69" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="BV69" s="28"/>
       <c r="BW69" s="28"/>
       <c r="BX69" s="28"/>
@@ -10901,7 +10894,7 @@
       <c r="CG69" s="28"/>
       <c r="CH69" s="28"/>
     </row>
-    <row r="70" spans="10:86" ht="16.5" customHeight="1">
+    <row r="70" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="BV70" s="28"/>
       <c r="BW70" s="28"/>
       <c r="BX70" s="28"/>
@@ -10916,7 +10909,7 @@
       <c r="CG70" s="28"/>
       <c r="CH70" s="28"/>
     </row>
-    <row r="71" spans="10:86" ht="16.5" customHeight="1">
+    <row r="71" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J71" s="19" t="s">
         <v>59</v>
       </c>
@@ -10934,7 +10927,7 @@
       <c r="CG71" s="28"/>
       <c r="CH71" s="28"/>
     </row>
-    <row r="72" spans="10:86" ht="16.5" customHeight="1">
+    <row r="72" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -10957,7 +10950,7 @@
       <c r="CG72" s="28"/>
       <c r="CH72" s="28"/>
     </row>
-    <row r="73" spans="10:86" ht="16.5" customHeight="1">
+    <row r="73" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -10982,7 +10975,7 @@
       <c r="CG73" s="28"/>
       <c r="CH73" s="28"/>
     </row>
-    <row r="74" spans="10:86" ht="16.5" customHeight="1">
+    <row r="74" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="BV74" s="28"/>
       <c r="BW74" s="28"/>
       <c r="BX74" s="29"/>
@@ -10997,7 +10990,7 @@
       <c r="CG74" s="28"/>
       <c r="CH74" s="28"/>
     </row>
-    <row r="75" spans="10:86" ht="16.5" customHeight="1">
+    <row r="75" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="BV75" s="28"/>
       <c r="BW75" s="28"/>
       <c r="BX75" s="28"/>
@@ -11012,7 +11005,7 @@
       <c r="CG75" s="28"/>
       <c r="CH75" s="28"/>
     </row>
-    <row r="76" spans="10:86" ht="16.5" customHeight="1">
+    <row r="76" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K76" t="s">
         <v>49</v>
       </c>
@@ -11030,7 +11023,7 @@
       <c r="CG76" s="28"/>
       <c r="CH76" s="28"/>
     </row>
-    <row r="77" spans="10:86" ht="16.5" customHeight="1">
+    <row r="77" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="BV77" s="28"/>
       <c r="BW77" s="28"/>
       <c r="BX77" s="28"/>
@@ -11045,7 +11038,7 @@
       <c r="CG77" s="28"/>
       <c r="CH77" s="28"/>
     </row>
-    <row r="78" spans="10:86" ht="16.5" customHeight="1">
+    <row r="78" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="BV78" s="28"/>
       <c r="BW78" s="28"/>
       <c r="BX78" s="28"/>
@@ -11060,7 +11053,7 @@
       <c r="CG78" s="28"/>
       <c r="CH78" s="28"/>
     </row>
-    <row r="79" spans="10:86" ht="16.5" customHeight="1">
+    <row r="79" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J79" t="s">
         <v>5</v>
       </c>
@@ -11084,7 +11077,7 @@
       <c r="CG79" s="28"/>
       <c r="CH79" s="28"/>
     </row>
-    <row r="80" spans="10:86" ht="16.5" customHeight="1">
+    <row r="80" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J80" s="1" t="s">
         <v>1</v>
       </c>
@@ -11146,7 +11139,7 @@
       <c r="CG80" s="28"/>
       <c r="CH80" s="28"/>
     </row>
-    <row r="81" spans="10:86" ht="16.5" customHeight="1">
+    <row r="81" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -11177,7 +11170,7 @@
       <c r="CG81" s="28"/>
       <c r="CH81" s="28"/>
     </row>
-    <row r="82" spans="10:86" ht="16.5" customHeight="1">
+    <row r="82" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="BV82" s="28"/>
       <c r="BW82" s="28"/>
       <c r="BX82" s="29"/>
@@ -11192,7 +11185,7 @@
       <c r="CG82" s="28"/>
       <c r="CH82" s="28"/>
     </row>
-    <row r="83" spans="10:86" ht="16.5" customHeight="1">
+    <row r="83" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="BV83" s="28"/>
       <c r="BW83" s="28"/>
       <c r="BX83" s="28"/>
@@ -11207,7 +11200,7 @@
       <c r="CG83" s="28"/>
       <c r="CH83" s="28"/>
     </row>
-    <row r="84" spans="10:86" ht="16.5" customHeight="1">
+    <row r="84" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K84" t="s">
         <v>19</v>
       </c>
@@ -11231,7 +11224,7 @@
       <c r="CG84" s="28"/>
       <c r="CH84" s="28"/>
     </row>
-    <row r="87" spans="10:86" ht="16.5" customHeight="1">
+    <row r="87" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J87" t="s">
         <v>132</v>
       </c>
@@ -11239,7 +11232,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="88" spans="10:86" ht="16.5" customHeight="1">
+    <row r="88" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J88" s="1" t="s">
         <v>1</v>
       </c>
@@ -11272,7 +11265,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="10:86" ht="16.5" customHeight="1">
+    <row r="89" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -11348,7 +11341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="10:86" ht="16.5" customHeight="1">
+    <row r="90" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC90" s="1"/>
       <c r="AD90" s="17"/>
       <c r="AE90" s="1"/>
@@ -11374,12 +11367,12 @@
       <c r="BJ90" s="1"/>
       <c r="BK90" s="1"/>
     </row>
-    <row r="93" spans="10:86" ht="16.5" customHeight="1">
+    <row r="93" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AD93" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="10:86" ht="16.5" customHeight="1">
+    <row r="95" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J95" s="26"/>
       <c r="K95" s="26"/>
       <c r="L95" s="26"/>
@@ -11389,7 +11382,7 @@
       <c r="P95" s="26"/>
       <c r="Q95" s="26"/>
     </row>
-    <row r="96" spans="10:86" ht="16.5" customHeight="1">
+    <row r="96" spans="10:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J96" s="27"/>
       <c r="K96" t="s">
         <v>50</v>
@@ -11404,7 +11397,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="3:36" ht="16.5" customHeight="1">
+    <row r="97" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J97" s="27"/>
       <c r="K97" s="27"/>
       <c r="L97" s="27"/>
@@ -11436,7 +11429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:36" ht="16.5" customHeight="1">
+    <row r="98" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC98" s="1"/>
       <c r="AD98" s="17"/>
       <c r="AE98" s="1"/>
@@ -11446,17 +11439,17 @@
       <c r="AI98" s="1"/>
       <c r="AJ98" s="1"/>
     </row>
-    <row r="100" spans="3:36" ht="16.5" customHeight="1">
+    <row r="100" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C100" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="101" spans="3:36" ht="16.5" customHeight="1">
+    <row r="101" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AD101" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="3:36" ht="16.5" customHeight="1">
+    <row r="104" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J104" t="s">
         <v>159</v>
       </c>
@@ -11464,7 +11457,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="105" spans="3:36" ht="16.5" customHeight="1">
+    <row r="105" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J105" s="1" t="s">
         <v>1</v>
       </c>
@@ -11514,7 +11507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:36" ht="16.5" customHeight="1">
+    <row r="106" spans="3:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -11570,65 +11563,65 @@
       <selection pane="bottomLeft" activeCell="AV19" sqref="AV19:AW20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.5" customHeight="1">
+    <row r="1" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="16.5" customHeight="1">
+    <row r="3" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1">
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16.5" customHeight="1">
+    <row r="5" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="16.5" customHeight="1">
+    <row r="8" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W8" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16.5" customHeight="1">
+    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W9" s="12"/>
     </row>
-    <row r="10" spans="1:23" ht="16.5" customHeight="1">
+    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W10" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1">
+    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W11" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="16.5" customHeight="1">
+    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W12" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="16.5" customHeight="1">
+    <row r="17" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="W17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="2:23" ht="16.5" customHeight="1">
+    <row r="23" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="16.5" customHeight="1">
+    <row r="28" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="16.5" customHeight="1">
+    <row r="29" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -11643,7 +11636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="16.5" customHeight="1">
+    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -11651,7 +11644,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:23" ht="16.5" customHeight="1">
+    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -11659,7 +11652,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="33" spans="5:17" ht="16.5" customHeight="1">
+    <row r="33" spans="5:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E33" t="s">
         <v>10</v>
       </c>

--- a/資料/仕様書/仕様書.xlsx
+++ b/資料/仕様書/仕様書.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomohiro.sasaki\Desktop\PIC\comp.train.whack-a-mole\資料\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4D0051-B88B-46E1-A004-322A40E83A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71600451-D94F-4CC4-9813-05C8859250C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="380" windowWidth="19200" windowHeight="8800" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
+    <workbookView xWindow="0" yWindow="380" windowWidth="19200" windowHeight="8800" activeTab="1" xr2:uid="{11EF7DEA-8669-4A25-B546-B9F1BD407523}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
-    <sheet name="画面遷移図" sheetId="8" r:id="rId2"/>
+    <sheet name="画面遷移図" sheetId="10" r:id="rId2"/>
     <sheet name="基板・ブロック図" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="220">
   <si>
     <t>LCD画面遷移</t>
     <rPh sb="3" eb="5">
@@ -59,15 +59,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>○</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>タ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>●</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -78,26 +70,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タイトル画面(電源投入時)</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>デンゲン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウニュウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>☆</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>RA3</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -427,30 +399,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タイトル画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>電源再投入</t>
-    <rPh sb="0" eb="2">
-      <t>デンゲン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>サイトウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ゲーム終了(スコア30)</t>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>穴のイラストに戻る</t>
     <rPh sb="0" eb="1">
       <t>アナ</t>
@@ -475,26 +423,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タイトル画面(ハイスコア維持)</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイトル画面(ハイスコア更新)</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>SW2を押下(穴を叩いたとき)</t>
     <rPh sb="4" eb="6">
       <t>オウカ</t>
@@ -1166,19 +1094,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ゲーム終了(画面点滅)</t>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>テンメツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>一定時間経過</t>
     <rPh sb="0" eb="2">
       <t>イッテイ</t>
@@ -1231,62 +1146,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>例)1番左の穴にもぐら出現</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アナ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>叩かれたモグラ</t>
-    <rPh sb="0" eb="1">
-      <t>タタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>出現したモグラ</t>
-    <rPh sb="0" eb="2">
-      <t>シュツゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モグラの穴</t>
-    <rPh sb="4" eb="5">
-      <t>アナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ドット絵は以下の記号で示す</t>
-    <rPh sb="3" eb="4">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>RA6</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1299,9 +1158,6 @@
   </si>
   <si>
     <t>スタートスイッチ押下</t>
-  </si>
-  <si>
-    <t>スタートスイッチ押下</t>
     <rPh sb="8" eb="10">
       <t>オウカ</t>
     </rPh>
@@ -1334,20 +1190,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SW1~SW4同時押下</t>
-    <rPh sb="7" eb="9">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ハイスコアを0にリセット</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・電源投入時、ゲームタイトルとハイスコアを記録させるユーザーを表示する。</t>
     <rPh sb="1" eb="3">
       <t>デンゲン</t>
@@ -2017,6 +1859,366 @@
     </rPh>
     <rPh sb="56" eb="58">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HSが更新される</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>次回以降の難易度選択&amp;ハイスコア表示画面で</t>
+    <rPh sb="0" eb="2">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SCOREがHSを上回った場合、</t>
+    <rPh sb="9" eb="11">
+      <t>ウワマワ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム終了(スコア30、ハイスコア更新)</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム終了(今回のスコアと前回までのハイスコアを表示)</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(タイトル画面に戻る)</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例)1番左の穴にモグラ出現</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンヒダリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>保持(例：難易度EASY)</t>
+    <rPh sb="0" eb="2">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリア(例：難易度EASY)</t>
+    <rPh sb="4" eb="5">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ナンイド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(SW4押下)</t>
+  </si>
+  <si>
+    <t>(SW1押下)</t>
+  </si>
+  <si>
+    <t>クリアしない場合</t>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリアする場合</t>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハイスコアクリア確認画面</t>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW4押下</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>難易度変更(HARD)</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW3押下</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW1押下</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>難易度変更(NORMAL)</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW2押下</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>難易度選択&amp;ハイスコア表示画面</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW4押下：ハイスコアクリア確認</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW3押下：HARD</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW2押下：NORMAL</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW1押下：EASY</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>難易度選択&amp;ハイスコアクリア</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USER変更(USER4)</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USER変更(USER3)</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USER変更(USER2)</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">タイトル画面(USER1) </t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW4押下：USER4</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW3押下：USER3</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW2押下：USER2</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW1押下：USER1</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USERの変更</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2025,7 +2227,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2123,8 +2325,32 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2158,6 +2384,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2395,26 +2627,26 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="medium">
         <color indexed="64"/>
-      </right>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2425,7 +2657,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2504,50 +2736,53 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2579,53 +2814,68 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3515,15 +3765,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>7257</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3531,7 +3781,7 @@
         <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05B1810-8D96-4A7D-BB53-5B7F86D685B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9C5A5E-D7E9-4898-9F3C-654B9F2B7991}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3539,13 +3789,16 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2521857" y="3657600"/>
-          <a:ext cx="2088243" cy="0"/>
+          <a:off x="2305050" y="7772400"/>
+          <a:ext cx="1676400" cy="2286000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3568,15 +3821,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>202293</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3584,7 +3837,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39D415D-8BB9-41B3-A2E7-3744710C9281}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57F8AB7F-5922-4990-B612-4B68F2968A14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3592,7 +3845,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6705600" y="7315200"/>
+          <a:off x="3771900" y="17145000"/>
           <a:ext cx="1878693" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3621,15 +3874,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3637,7 +3890,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32FA2D2E-9D6A-4907-BEEA-E1D864654C13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D46341-E2C8-420D-90D9-4CAF803CE4D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3645,7 +3898,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9010651" y="7632700"/>
+          <a:off x="6076951" y="17462500"/>
           <a:ext cx="0" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3674,15 +3927,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3690,7 +3943,7 @@
         <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3916C4-7F64-4C87-AE17-C0FF2F36237A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46461EE7-95D4-47FC-B9C9-82596603D1B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +3951,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9004300" y="9499600"/>
+          <a:off x="6070600" y="19558000"/>
           <a:ext cx="6350" cy="920750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3727,15 +3980,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>2387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>11545</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>196275</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3743,7 +3996,7 @@
         <xdr:cNvPr id="6" name="コネクタ: カギ線 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF2858F2-4FCA-4A9C-A573-338BAC1B81FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AA1346E-CB85-47A3-9778-C182A46C3008}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3751,7 +4004,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10443479" y="7561159"/>
+          <a:off x="7509779" y="17390959"/>
           <a:ext cx="1336888" cy="849744"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -3782,15 +4035,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3798,7 +4051,7 @@
         <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D648DD28-A061-44F4-974E-1F904C981F16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5504C7B7-7459-46BB-AB59-84E51EA061DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3806,7 +4059,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029201" y="7632700"/>
+          <a:off x="2095501" y="17462500"/>
           <a:ext cx="0" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3835,23 +4088,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A454F0BA-D187-4184-8746-2A65AFE03D3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D144012B-983A-43AA-B079-18774085CFBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3859,8 +4112,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029201" y="9461500"/>
-          <a:ext cx="0" cy="977900"/>
+          <a:off x="2095501" y="19291300"/>
+          <a:ext cx="0" cy="3111500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3889,78 +4142,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="コネクタ: カギ線 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6B326C-C90B-4F1D-B8C3-7A7FE1CEDC91}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="-704849" y="5657850"/>
-          <a:ext cx="6858000" cy="3771899"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 0"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93155B88-51B5-44F3-9951-73E24B5CD7EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7278684F-43D0-4AA9-8603-0F9A313339BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3968,7 +4166,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="3949700"/>
+          <a:off x="2095500" y="13779500"/>
           <a:ext cx="0" cy="977900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3997,23 +4195,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>4618</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>121803</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D51996-C4A0-490B-99E4-24D55C23A7C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADA9D5A7-416F-42C9-A737-1C79C1CE2CB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4021,7 +4219,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9010650" y="11316854"/>
+          <a:off x="6076950" y="21375254"/>
           <a:ext cx="4618" cy="920749"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4051,76 +4249,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>13930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>2309</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+        <xdr:cNvPr id="11" name="コネクタ: カギ線 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85CDA9A4-6493-4215-9EB9-AAED7C1CC114}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2514601" y="12801600"/>
-          <a:ext cx="6076949" cy="2309"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4619</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>121805</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E0CF3F-62C6-4EE1-B4F6-9BDAC4F74C4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DD117F1-7878-4703-ABB8-E4366E971FCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4128,60 +4273,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="13145655"/>
-          <a:ext cx="4619" cy="920750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>13930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="コネクタ: カギ線 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FBF7EE-4F12-4D1C-B805-5A2974BFFF4E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10687050" y="7100530"/>
+          <a:off x="7753350" y="16930330"/>
           <a:ext cx="3981450" cy="1586270"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -4212,23 +4304,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>107372</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>170873</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A6E198F-8084-4154-BA96-249F3E41A294}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F61137E-1C10-4CFB-91C7-A74270794026}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4236,7 +4328,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="5822372"/>
+          <a:off x="2095500" y="15652172"/>
           <a:ext cx="0" cy="977901"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4267,78 +4359,20 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4619</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>121805</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6469CAC-5E42-4165-8769-6DCE12475D5C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="834571" y="12216741"/>
-          <a:ext cx="4619" cy="840921"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>4883</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>4884</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>210038</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="205156" cy="203759"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
+        <xdr:cNvPr id="13" name="図 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60C9A71-92D9-42FA-BE04-8664EED129DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{182A893D-120B-4610-BAD2-3983298DE958}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4354,8 +4388,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5045806" y="6726115"/>
-          <a:ext cx="205155" cy="205154"/>
+          <a:off x="2100383" y="17149884"/>
+          <a:ext cx="205156" cy="203759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4363,26 +4397,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>6195</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>1786</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>716</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>207536</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="203164" cy="208018"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17">
+        <xdr:cNvPr id="14" name="図 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59C1C65-FC92-4C41-B7C2-2C6E486639E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52738DDF-EC78-4445-9E77-BF99A2632BD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4398,8 +4427,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5482683" y="6742079"/>
-          <a:ext cx="205155" cy="205750"/>
+          <a:off x="2520795" y="17146786"/>
+          <a:ext cx="203164" cy="208018"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4407,26 +4436,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>6195</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>4884</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>716</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="203164" cy="203759"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18">
+        <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B0F8B54-4CC7-4027-8E1A-E3D2BD19D9D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3724C84A-9ADC-4054-9E12-3FACE6549C28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4442,8 +4466,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5903951" y="6745177"/>
-          <a:ext cx="205155" cy="205750"/>
+          <a:off x="2939895" y="17149884"/>
+          <a:ext cx="203164" cy="203759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4451,26 +4475,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>3717</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>5504</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>208872</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>620</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="205154" cy="203759"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19">
+        <xdr:cNvPr id="16" name="図 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34B5C495-3F58-41CE-BA2B-DF705AD97D5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6BF84A3-4137-42AC-BD20-D970D66FE69B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4486,8 +4505,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6322741" y="6745797"/>
-          <a:ext cx="205155" cy="205750"/>
+          <a:off x="3356517" y="17150504"/>
+          <a:ext cx="205154" cy="203759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4495,26 +4514,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>6074</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>4408</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5107</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>2472</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>595</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>210158</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="204866" cy="208018"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20">
+        <xdr:cNvPr id="17" name="図 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{463D610D-7BA1-4B14-89E2-8FE90C1FB5AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D571C8C-58D8-46EA-9849-45B766CC1896}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4530,8 +4544,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5061294" y="10114847"/>
-          <a:ext cx="205155" cy="205750"/>
+          <a:off x="2100607" y="18976272"/>
+          <a:ext cx="204866" cy="208018"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4539,26 +4553,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>7386</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>1310</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6419</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>209718</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>1907</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>207060</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="203164" cy="222190"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21">
+        <xdr:cNvPr id="18" name="図 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB673A9-8E47-4FF1-89C7-C43DC8E9E1EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE33877-96B3-4B22-A112-600E5CFBE51B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4574,8 +4583,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5483874" y="10111749"/>
-          <a:ext cx="205155" cy="205750"/>
+          <a:off x="2521019" y="18954918"/>
+          <a:ext cx="203164" cy="222190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4583,26 +4592,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>7386</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>4408</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6419</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>2472</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>1907</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>210158</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="203164" cy="208018"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
+        <xdr:cNvPr id="19" name="図 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D4D020-9082-42DA-8F7A-690B7354F711}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8AA254-5906-4DBB-A6AF-1EA61E2C3AD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4618,8 +4622,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5905142" y="10114847"/>
-          <a:ext cx="205155" cy="205750"/>
+          <a:off x="2940119" y="18976272"/>
+          <a:ext cx="203164" cy="208018"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4627,26 +4631,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>4908</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>5028</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>3941</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>3092</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>210063</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>144</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="205154" cy="207728"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="図 23">
+        <xdr:cNvPr id="20" name="図 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D1279F-C9C8-4297-BF70-FE5BF28C1ED8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B3D3386-899F-4D21-AC22-FD19903D30D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4662,8 +4661,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6323932" y="10115467"/>
-          <a:ext cx="205155" cy="205750"/>
+          <a:off x="3356741" y="18976892"/>
+          <a:ext cx="205154" cy="207728"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4671,26 +4670,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>5107</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>2472</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>209972</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>208222</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="223008" cy="205750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24">
+        <xdr:cNvPr id="21" name="図 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{718702DA-4F72-4298-BF8F-DF2746175CDF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22589926-B764-4B6E-9A7B-6D1D45B09E60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4706,8 +4700,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5053357" y="8416222"/>
-          <a:ext cx="204865" cy="205750"/>
+          <a:off x="6076950" y="21034298"/>
+          <a:ext cx="223008" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4715,26 +4709,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>6419</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>209718</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1312</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>940</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>205124</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="223006" cy="223893"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25">
+        <xdr:cNvPr id="22" name="図 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA22881A-0253-4686-971D-9753B1C1A5B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB28696C-47EB-47BD-A99E-919CAC29177C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4750,8 +4739,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5475357" y="8413124"/>
-          <a:ext cx="204864" cy="205750"/>
+          <a:off x="6497362" y="21031200"/>
+          <a:ext cx="223006" cy="223893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4759,26 +4748,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>6419</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>2472</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1312</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>940</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>208222</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="223008" cy="205750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26">
+        <xdr:cNvPr id="23" name="図 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC94BDA-16CC-4A5B-96DF-8AE2444470C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AA1F818-A4B9-4E1E-93AF-DF5BD665509A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4794,8 +4778,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5896044" y="8416222"/>
-          <a:ext cx="204865" cy="205750"/>
+          <a:off x="6916462" y="21034298"/>
+          <a:ext cx="223008" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4803,26 +4787,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>3941</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>3092</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>209178</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>3718</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>209096</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>208552</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="221597" cy="205460"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27">
+        <xdr:cNvPr id="24" name="図 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D50D29-7F58-40FF-B8DD-41E6A8C16D8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E27034-5008-4063-8CCA-3D812F386EB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4838,8 +4817,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6314254" y="8416842"/>
-          <a:ext cx="205155" cy="205460"/>
+          <a:off x="7333878" y="21034918"/>
+          <a:ext cx="221597" cy="205460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4847,26 +4826,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>3098</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>204865</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>208848</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="223122" cy="205750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32">
+        <xdr:cNvPr id="25" name="図 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DED687C0-20C9-44FC-A031-A7B0727E584C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE2B6AA-EE82-44E2-B9FF-A2F9A803B331}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4882,8 +4856,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9049657" y="10315498"/>
-          <a:ext cx="204865" cy="205750"/>
+          <a:off x="11734800" y="19205498"/>
+          <a:ext cx="223122" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4891,26 +4865,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>1312</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>1313</xdr:colOff>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>206176</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>205750</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="223121" cy="223893"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 33">
+        <xdr:cNvPr id="26" name="図 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0531CDB0-762A-40DC-9138-E9357EB9498C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D0987D-19C4-4AC2-A067-EE6B759BCB9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4926,8 +4895,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9471883" y="10312400"/>
-          <a:ext cx="204864" cy="205750"/>
+          <a:off x="12155213" y="19202400"/>
+          <a:ext cx="223121" cy="223893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4935,26 +4904,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>1312</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>3098</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>206177</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>208848</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="223121" cy="205750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="図 34">
+        <xdr:cNvPr id="27" name="図 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0E01BD-26EA-4F2D-8FBD-C8B56C179BBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CF85CF-C626-4335-84C2-946ADAB50201}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4970,8 +4934,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9892798" y="10315498"/>
-          <a:ext cx="204865" cy="205750"/>
+          <a:off x="12574312" y="19205498"/>
+          <a:ext cx="223121" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4979,26 +4943,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>209178</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>209291</xdr:colOff>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>3718</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>203989</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>209178</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="221484" cy="205573"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="図 35">
+        <xdr:cNvPr id="28" name="図 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97550CDC-EAFC-493A-AFB8-189D608D9FD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67B0A37-3AD1-4218-A510-066C2334A25A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5014,8 +4973,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10311121" y="10316118"/>
-          <a:ext cx="205268" cy="205460"/>
+          <a:off x="12991841" y="19206118"/>
+          <a:ext cx="221484" cy="205573"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5023,26 +4982,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>3098</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>4942</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>204979</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>208848</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="204978" cy="223893"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="図 36">
+        <xdr:cNvPr id="29" name="図 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E69493-D832-4E02-A017-47C526BA79A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC352506-77C3-485F-BFC9-EA52022E2BBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5058,8 +5012,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14732000" y="8631841"/>
-          <a:ext cx="204979" cy="205750"/>
+          <a:off x="9015592" y="19202400"/>
+          <a:ext cx="204978" cy="223893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5067,26 +5021,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>1313</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>4942</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>206291</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>205750</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="204978" cy="205750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="図 37">
+        <xdr:cNvPr id="30" name="図 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C4EF39-2F15-429C-8CA5-50D028FB96F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D455270C-A4C3-4CF9-A6CE-F0A227FF9D20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5102,7 +5051,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15154227" y="8628743"/>
+          <a:off x="9434692" y="19205498"/>
           <a:ext cx="204978" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5111,26 +5060,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>1312</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>3098</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>2463</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>3718</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>206290</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>208848</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="207423" cy="205573"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="図 38">
+        <xdr:cNvPr id="31" name="図 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13705F3D-2EBD-4DF9-B96D-4C18B2D2354F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4A7CB48-4C5C-4151-9499-C8C0E482FB97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5146,8 +5090,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15575141" y="8631841"/>
-          <a:ext cx="204978" cy="205750"/>
+          <a:off x="9851313" y="19206118"/>
+          <a:ext cx="207423" cy="205573"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5155,26 +5099,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>209291</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>3718</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1313</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>203989</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>209291</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="223120" cy="223893"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="図 39">
+        <xdr:cNvPr id="32" name="図 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97EF5BA-D1FE-42FF-8274-9837E48B7974}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CCC18A-453B-4F0E-A397-E1B38D2D9341}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5190,8 +5129,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15993577" y="8632461"/>
-          <a:ext cx="205155" cy="205573"/>
+          <a:off x="6497363" y="19202400"/>
+          <a:ext cx="223120" cy="223893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5199,26 +5138,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>4942</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1312</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>209920</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>205750</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="223121" cy="205750"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="図 41">
+        <xdr:cNvPr id="33" name="図 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB471EE-93E6-49DE-B0FB-F7B457981946}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94546DD6-C63C-481D-9838-C77B3150E83E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5234,8 +5168,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12000999" y="8628743"/>
-          <a:ext cx="204978" cy="205750"/>
+          <a:off x="6916462" y="19205498"/>
+          <a:ext cx="223121" cy="205750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5243,26 +5177,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>4942</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>3098</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>209291</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>3718</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>209920</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>208848</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="221484" cy="205573"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="図 42">
+        <xdr:cNvPr id="34" name="図 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328A0552-46D7-4553-90C9-F364F997A190}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7224A6BD-F547-49B0-B376-DDA331429DD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5278,8 +5207,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12421913" y="8631841"/>
-          <a:ext cx="204978" cy="205750"/>
+          <a:off x="7333991" y="19206118"/>
+          <a:ext cx="221484" cy="205573"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5287,26 +5216,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>2463</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>3718</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1313</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>207618</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>209291</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="223120" cy="223892"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="図 43">
+        <xdr:cNvPr id="35" name="図 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADD005E-B7A2-43A0-B4D3-8B121C3735F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC75438-16FC-4A69-A6C8-3E774C85522C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5322,8 +5246,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12840349" y="8632461"/>
-          <a:ext cx="205155" cy="205573"/>
+          <a:off x="6497363" y="17145000"/>
+          <a:ext cx="223120" cy="223892"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5331,26 +5255,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>1313</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>1312</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>3098</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>206291</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>205750</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="223121" cy="205749"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="図 45">
+        <xdr:cNvPr id="36" name="図 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0658767-B109-44C7-8568-D3AE72FB5149}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB4EB4A4-A4AE-49B1-A093-C9707F5D64C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5366,8 +5285,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9471884" y="8628743"/>
-          <a:ext cx="204978" cy="205750"/>
+          <a:off x="6916462" y="17148098"/>
+          <a:ext cx="223121" cy="205749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5375,26 +5294,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>1312</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>3098</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>209291</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>3718</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>206290</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>208848</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="221484" cy="205572"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="図 46">
+        <xdr:cNvPr id="37" name="図 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5245C63D-0603-4EB9-A5B7-C35B13D29997}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401E4340-FEEE-4436-BDDC-1C2901EF6ED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5410,8 +5324,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9892798" y="8631841"/>
-          <a:ext cx="204978" cy="205750"/>
+          <a:off x="7333991" y="17148718"/>
+          <a:ext cx="221484" cy="205572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5419,378 +5333,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>209291</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>3718</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>203989</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>209291</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="208642" cy="208642"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="図 47">
+        <xdr:cNvPr id="38" name="図 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C3B0F5-68DA-46AB-923B-ED653863E834}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10311234" y="8632461"/>
-          <a:ext cx="205155" cy="205573"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>1313</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>206291</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>205750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="図 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F961A8-8F76-4366-9792-EBFF9B2F5982}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9471884" y="6734629"/>
-          <a:ext cx="204978" cy="205750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>1312</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>3098</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>206290</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>208848</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="図 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DC133A-095C-40FE-BA25-CF181F74906B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9892798" y="6737727"/>
-          <a:ext cx="204978" cy="205750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>209291</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>3718</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>203989</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>209291</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="図 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A21BBA0-5B38-4E00-8CC6-2931F12934C5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10311234" y="6738347"/>
-          <a:ext cx="205155" cy="205573"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>3098</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>204347</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>208848</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="図 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6ED535B-0FDD-469D-A44A-4C0755F34F79}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9022522" y="11963185"/>
-          <a:ext cx="204347" cy="205750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>1312</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>205659</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>205750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="図 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F812A99E-7D1B-4148-AFAB-AE52AB7788E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9443486" y="11960087"/>
-          <a:ext cx="204347" cy="205750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>1312</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>3098</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>205660</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>208848</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="図 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5374C3D-6886-41E5-ACE8-E993CC11B55B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9863138" y="11963185"/>
-          <a:ext cx="204348" cy="205750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>208661</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>3718</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>203990</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>208660</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="図 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C975AD-4CB0-471A-BCE7-BA15F5B06FF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10280313" y="11963805"/>
-          <a:ext cx="205155" cy="204942"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="図 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40291467-DA56-4172-9395-42C21A6FCA46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22A14A5-575E-4C0B-B574-C3B04802C548}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5806,8 +5363,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9049658" y="6734629"/>
-          <a:ext cx="210456" cy="210457"/>
+          <a:off x="6076951" y="17145000"/>
+          <a:ext cx="208642" cy="208642"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5815,26 +5372,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>210456</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="210456" cy="208643"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="図 58">
+        <xdr:cNvPr id="39" name="図 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0957871B-7267-4726-9296-D89A8E7CCBCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47446F93-AA5F-4074-8594-773B448292D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5850,8 +5402,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11575143" y="8628743"/>
-          <a:ext cx="210456" cy="210457"/>
+          <a:off x="8591550" y="19202400"/>
+          <a:ext cx="210456" cy="208643"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5859,26 +5411,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="208643" cy="208643"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="図 59">
+        <xdr:cNvPr id="40" name="図 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E559EEE-F261-4781-A798-20B08AF6E836}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E900643F-8B58-4F5B-9C85-A7A38E457245}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5894,14 +5441,1533 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9049657" y="8628743"/>
-          <a:ext cx="210457" cy="210457"/>
+          <a:off x="6076950" y="19202400"/>
+          <a:ext cx="208643" cy="208643"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C4DAE6-AE14-4206-9E18-C9319F672FCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="2286000"/>
+          <a:ext cx="2933700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1CBA4C1-1D27-4727-9444-BD57A64E9843}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7543800" y="2971800"/>
+          <a:ext cx="1" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>205104</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>182013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F59C017-0D91-49C9-B964-7F6C9A964EDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3348354" y="2925213"/>
+          <a:ext cx="4446" cy="960987"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6075CEBF-9B3D-4CC6-9579-0E147B755A7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="2971800"/>
+          <a:ext cx="0" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>199118</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEF09F42-1679-4C12-AF9E-9111B90CDEC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="7086600"/>
+          <a:ext cx="2085068" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>8004</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>8005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>37886</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>37888</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{787922E9-FEA5-458C-B997-E79E1F80B60A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5875404" y="7780405"/>
+          <a:ext cx="658532" cy="715683"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5429BE88-67E1-4F22-9727-07A293775602}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3562350" y="7772400"/>
+          <a:ext cx="419100" cy="457201"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2E0D77-1181-47C9-BDF7-74A5F97CAFBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="7772400"/>
+          <a:ext cx="0" cy="5257800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56860FEB-6ECF-4228-9783-4AB7BAD5A735}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="8960757"/>
+          <a:ext cx="0" cy="1097643"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D15F28E-0F4C-4571-BBD4-6BFC7C18548A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5657850" y="7772400"/>
+          <a:ext cx="1676402" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE55D55-ABF7-4CCB-9F19-021807FA4612}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3771900" y="2514600"/>
+          <a:ext cx="2933700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AE5B456-4A67-4216-B240-779D7FD42A32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="2971800"/>
+          <a:ext cx="0" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8CE9031-3FEA-4A3C-BC05-4A8780BEE163}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="4114800"/>
+          <a:ext cx="2933700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34970D94-19B7-4574-B388-FF04ED7FFE71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4191000" y="4343400"/>
+          <a:ext cx="2933700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{760CF2A4-CEEB-4FE8-B780-660BAF674C8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8382000" y="2971800"/>
+          <a:ext cx="1" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>99786</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD859D43-5CB6-4B22-98DE-2A4DFC2D4331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3607707" y="2696028"/>
+          <a:ext cx="3616779" cy="1244600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>36285</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>72572</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>145143</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AAAF832-CA2E-49CC-B732-B641E7D920E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3598635" y="2824842"/>
+          <a:ext cx="3598637" cy="1206501"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED996B35-23BB-4CEC-8979-A5EEEF4860CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4026807" y="2797628"/>
+          <a:ext cx="2742293" cy="1115786"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>90717</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>145143</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99787</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A48BC2-5A83-4117-9A21-62B044A285AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4072167" y="2870200"/>
+          <a:ext cx="2778576" cy="1115787"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8AEF31F-B1B7-48D6-9A21-9FFB59568BE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3771900" y="7315200"/>
+          <a:ext cx="2095501" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>113805</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>99786</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC0D080-2190-42D7-9444-9711EAEBB0FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5771655" y="7799615"/>
+          <a:ext cx="514845" cy="529771"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A258EB4C-E2D3-48C8-AA4A-12A1CA542BAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="7772400"/>
+          <a:ext cx="419101" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA449B5F-D035-4F48-9F72-3336F9852902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="10744200"/>
+          <a:ext cx="0" cy="1077686"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA2511C-4C1C-4282-9869-05791DB5B7E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5495925" y="10887077"/>
+          <a:ext cx="1371599" cy="628648"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 725"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="65" name="グループ化 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18400D1B-FF0E-4E03-8A0D-805931447AA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="417286" y="2295071"/>
+          <a:ext cx="5633358" cy="20029715"/>
+          <a:chOff x="418353" y="3346824"/>
+          <a:chExt cx="5647766" cy="20080941"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="66" name="コネクタ: カギ線 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{567107D5-7DCC-40D7-BD13-1B0B17CEA4F8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000" flipV="1">
+            <a:off x="418354" y="22381883"/>
+            <a:ext cx="5647765" cy="1045882"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 0"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="67" name="直線コネクタ 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D5A262B-1EBE-45B3-8C09-86635CB4AFCD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="418353" y="3346824"/>
+            <a:ext cx="0" cy="20080941"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700"/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="68" name="直線矢印コネクタ 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D1D7A76-24D5-4E85-A15E-8A25FB73D16D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="418353" y="3346824"/>
+            <a:ext cx="1464235" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="69" name="直線矢印コネクタ 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA69E2C0-D5D1-429F-BE53-ECB51028E875}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="418353" y="21963529"/>
+            <a:ext cx="1464236" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="12700">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8586,7 +9652,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A104" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="S79" sqref="S79"/>
     </sheetView>
   </sheetViews>
@@ -8597,216 +9663,216 @@
   <sheetData>
     <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L4" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="L7" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="M9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="12" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="12"/>
       <c r="S19" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="24"/>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="23"/>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="20.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J23" s="25" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="45">
+      <c r="C24" s="43"/>
+      <c r="D24" s="46">
         <v>0</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="45">
+      <c r="E24" s="43"/>
+      <c r="F24" s="46">
         <v>0</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="45">
+      <c r="G24" s="43"/>
+      <c r="H24" s="46">
         <v>0</v>
       </c>
-      <c r="I24" s="42"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="59" t="s">
+      <c r="I24" s="43"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="60"/>
-      <c r="N24" s="59">
+      <c r="M24" s="29"/>
+      <c r="N24" s="28">
         <v>5</v>
       </c>
-      <c r="O24" s="60"/>
-      <c r="P24" s="59">
+      <c r="O24" s="29"/>
+      <c r="P24" s="28">
         <v>8</v>
       </c>
-      <c r="Q24" s="63"/>
+      <c r="Q24" s="32"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="64"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="12"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="65"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="38"/>
     </row>
     <row r="27" spans="1:20" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="12"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="66"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="39"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="12"/>
-      <c r="D28" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="57"/>
-      <c r="H28" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="I28" s="57"/>
-      <c r="L28" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="M28" s="57"/>
-      <c r="P28" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q28" s="57"/>
+      <c r="D28" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="H28" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="L28" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M28" s="26"/>
+      <c r="P28" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q28" s="26"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="12"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="12"/>
@@ -8826,7 +9892,7 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="12"/>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8838,19 +9904,19 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="12"/>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H38" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J38" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L38" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -8864,489 +9930,489 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="12" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C60" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="12" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="12" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D65" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D66" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D67" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D68" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D69" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D70" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E71" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E72" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans